--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdispensebase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdispensebase.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4502" uniqueCount="752">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4646" uniqueCount="761">
   <si>
     <t>Property</t>
   </si>
@@ -620,6 +620,10 @@
   </si>
   <si>
     <t>MedicationDispense.medication[x]</t>
+  </si>
+  <si>
+    <t>CodeableConcept
+Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Medication)</t>
   </si>
   <si>
     <t>What medication was supplied　医薬品</t>
@@ -647,6 +651,13 @@
     <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
   </si>
   <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
     <t>Event.code</t>
   </si>
   <si>
@@ -693,6 +704,24 @@
     <t>Element.extension</t>
   </si>
   <si>
+    <t>medicationCodeableConcept</t>
+  </si>
+  <si>
+    <t>What medication was supplied</t>
+  </si>
+  <si>
+    <t>Identifies the medication being administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.</t>
+  </si>
+  <si>
+    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
     <t>MedicationDispense.medication[x].coding</t>
   </si>
   <si>
@@ -726,12 +755,6 @@
     <t>MedicationDispense.medication[x].coding.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
     <t>MedicationDispense.medication[x].coding.extension</t>
   </si>
   <si>
@@ -872,6 +895,13 @@
   </si>
   <si>
     <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>medicationReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Medication)
+</t>
   </si>
   <si>
     <t>MedicationDispense.subject</t>
@@ -2730,7 +2760,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN124"/>
+  <dimension ref="A1:AN128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2740,7 +2770,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="67.20703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="14.71875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="27.47265625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -4628,16 +4658,16 @@
         <v>87</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -4666,25 +4696,23 @@
         <v>180</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="AB17" s="2"/>
       <c r="AC17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>77</v>
+        <v>201</v>
       </c>
       <c r="AE17" t="s" s="2">
         <v>193</v>
@@ -4702,24 +4730,24 @@
         <v>98</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -4745,10 +4773,10 @@
         <v>88</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -4799,7 +4827,7 @@
         <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>78</v>
@@ -4817,7 +4845,7 @@
         <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>77</v>
@@ -4831,7 +4859,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4857,10 +4885,10 @@
         <v>131</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="M19" t="s" s="2">
         <v>147</v>
@@ -4904,7 +4932,7 @@
         <v>134</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="AC19" t="s" s="2">
         <v>77</v>
@@ -4913,7 +4941,7 @@
         <v>135</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>78</v>
@@ -4931,7 +4959,7 @@
         <v>77</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>77</v>
@@ -4945,18 +4973,20 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="B20" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="C20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>77</v>
@@ -4968,20 +4998,18 @@
         <v>87</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>215</v>
+        <v>186</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>219</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>77</v>
       </c>
@@ -5005,13 +5033,13 @@
         <v>77</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>77</v>
+        <v>198</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>77</v>
+        <v>199</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>77</v>
@@ -5029,13 +5057,13 @@
         <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>77</v>
@@ -5044,24 +5072,24 @@
         <v>98</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>77</v>
+        <v>204</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>77</v>
+        <v>205</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>222</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -5087,10 +5115,10 @@
         <v>88</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -5141,7 +5169,7 @@
         <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>78</v>
@@ -5159,7 +5187,7 @@
         <v>77</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>77</v>
@@ -5173,7 +5201,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -5199,10 +5227,10 @@
         <v>131</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="M22" t="s" s="2">
         <v>147</v>
@@ -5246,7 +5274,7 @@
         <v>134</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="AC22" t="s" s="2">
         <v>77</v>
@@ -5255,7 +5283,7 @@
         <v>135</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>78</v>
@@ -5273,7 +5301,7 @@
         <v>77</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>77</v>
@@ -5287,7 +5315,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -5298,7 +5326,7 @@
         <v>86</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>77</v>
@@ -5310,19 +5338,19 @@
         <v>87</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>100</v>
+        <v>224</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="N23" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>77</v>
@@ -5371,13 +5399,13 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>77</v>
@@ -5389,7 +5417,7 @@
         <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>77</v>
@@ -5398,12 +5426,12 @@
         <v>77</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -5423,20 +5451,18 @@
         <v>77</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>238</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>77</v>
@@ -5485,7 +5511,7 @@
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>239</v>
+        <v>210</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
@@ -5497,13 +5523,13 @@
         <v>77</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>240</v>
+        <v>211</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>77</v>
@@ -5512,23 +5538,23 @@
         <v>77</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>241</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>77</v>
@@ -5537,21 +5563,21 @@
         <v>77</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>243</v>
+        <v>213</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="M25" s="2"/>
-      <c r="N25" t="s" s="2">
-        <v>245</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>77</v>
       </c>
@@ -5587,37 +5613,37 @@
         <v>77</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>77</v>
+        <v>215</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>246</v>
+        <v>216</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>247</v>
+        <v>211</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>77</v>
@@ -5626,12 +5652,12 @@
         <v>77</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>248</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5654,17 +5680,19 @@
         <v>87</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="M26" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>237</v>
+      </c>
       <c r="N26" t="s" s="2">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>77</v>
@@ -5713,7 +5741,7 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -5731,7 +5759,7 @@
         <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>77</v>
@@ -5740,12 +5768,12 @@
         <v>77</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>255</v>
+        <v>241</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5768,20 +5796,18 @@
         <v>87</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>257</v>
+        <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>261</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>77</v>
       </c>
@@ -5829,7 +5855,7 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -5847,7 +5873,7 @@
         <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>77</v>
@@ -5856,12 +5882,12 @@
         <v>77</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>264</v>
+        <v>248</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5869,7 +5895,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>86</v>
@@ -5884,19 +5910,17 @@
         <v>87</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>268</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>77</v>
@@ -5945,7 +5969,7 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -5963,7 +5987,7 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
@@ -5972,12 +5996,12 @@
         <v>77</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>272</v>
+        <v>255</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5985,7 +6009,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>86</v>
@@ -6000,18 +6024,18 @@
         <v>87</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>274</v>
+        <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" t="s" s="2">
+        <v>259</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>77</v>
       </c>
@@ -6059,7 +6083,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -6074,24 +6098,24 @@
         <v>98</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>278</v>
+        <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>280</v>
+        <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>281</v>
+        <v>262</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -6111,21 +6135,23 @@
         <v>77</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>77</v>
       </c>
@@ -6173,7 +6199,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -6188,10 +6214,10 @@
         <v>98</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>286</v>
+        <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>77</v>
@@ -6200,12 +6226,12 @@
         <v>77</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>77</v>
+        <v>271</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -6216,7 +6242,7 @@
         <v>78</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>77</v>
@@ -6225,21 +6251,23 @@
         <v>77</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>289</v>
+        <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>77</v>
       </c>
@@ -6287,13 +6315,13 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>77</v>
@@ -6305,23 +6333,25 @@
         <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>293</v>
+        <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>77</v>
+        <v>279</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="B32" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="C32" t="s" s="2">
         <v>77</v>
       </c>
@@ -6330,7 +6360,7 @@
         <v>78</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>77</v>
@@ -6339,18 +6369,20 @@
         <v>77</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>296</v>
+        <v>218</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="M32" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>77</v>
@@ -6399,13 +6431,13 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>294</v>
+        <v>193</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>77</v>
@@ -6414,24 +6446,24 @@
         <v>98</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>298</v>
+        <v>202</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>299</v>
+        <v>203</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>77</v>
+        <v>204</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>77</v>
+        <v>205</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>77</v>
+        <v>206</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6451,18 +6483,20 @@
         <v>77</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>88</v>
+        <v>283</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>224</v>
+        <v>284</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>77</v>
@@ -6511,7 +6545,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>207</v>
+        <v>282</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -6523,38 +6557,38 @@
         <v>77</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>77</v>
+        <v>287</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>208</v>
+        <v>288</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>77</v>
+        <v>289</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>77</v>
+        <v>290</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>77</v>
@@ -6566,16 +6600,16 @@
         <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>131</v>
+        <v>292</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>210</v>
+        <v>293</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>211</v>
+        <v>294</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>147</v>
+        <v>286</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -6625,25 +6659,25 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>213</v>
+        <v>291</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>77</v>
+        <v>295</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>208</v>
+        <v>296</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>77</v>
@@ -6657,11 +6691,11 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>303</v>
+        <v>77</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -6674,26 +6708,24 @@
         <v>77</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>131</v>
+        <v>298</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>77</v>
       </c>
@@ -6741,7 +6773,7 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -6753,16 +6785,16 @@
         <v>77</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>129</v>
+        <v>301</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>77</v>
+        <v>302</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>77</v>
@@ -6773,7 +6805,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6784,7 +6816,7 @@
         <v>78</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>77</v>
@@ -6796,18 +6828,16 @@
         <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>186</v>
+        <v>304</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="M36" s="2"/>
-      <c r="N36" t="s" s="2">
-        <v>310</v>
-      </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>77</v>
       </c>
@@ -6831,13 +6861,13 @@
         <v>77</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>311</v>
+        <v>77</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>312</v>
+        <v>77</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>77</v>
@@ -6855,13 +6885,13 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>77</v>
@@ -6870,10 +6900,10 @@
         <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>77</v>
+        <v>307</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>77</v>
@@ -6887,7 +6917,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6895,7 +6925,7 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>86</v>
@@ -6910,13 +6940,13 @@
         <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>315</v>
+        <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>316</v>
+        <v>221</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>317</v>
+        <v>222</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6967,10 +6997,10 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>314</v>
+        <v>210</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>86</v>
@@ -6979,13 +7009,13 @@
         <v>77</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>318</v>
+        <v>77</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>319</v>
+        <v>211</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>77</v>
@@ -6999,18 +7029,18 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>77</v>
@@ -7022,16 +7052,16 @@
         <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>321</v>
+        <v>131</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>322</v>
+        <v>213</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>323</v>
+        <v>214</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>277</v>
+        <v>147</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -7081,25 +7111,25 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>320</v>
+        <v>216</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>324</v>
+        <v>211</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>77</v>
@@ -7113,11 +7143,11 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>77</v>
+        <v>312</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -7130,24 +7160,26 @@
         <v>77</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>326</v>
+        <v>131</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="O39" t="s" s="2">
         <v>77</v>
       </c>
@@ -7195,7 +7227,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -7207,27 +7239,27 @@
         <v>77</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>330</v>
+        <v>77</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>331</v>
+        <v>129</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>332</v>
+        <v>77</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>333</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>334</v>
+        <v>316</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -7253,15 +7285,15 @@
         <v>186</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" t="s" s="2">
+        <v>319</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>77</v>
       </c>
@@ -7288,10 +7320,10 @@
         <v>180</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>339</v>
+        <v>321</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>77</v>
@@ -7309,7 +7341,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>334</v>
+        <v>316</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -7327,21 +7359,21 @@
         <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>341</v>
+        <v>77</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>342</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>343</v>
+        <v>323</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -7364,17 +7396,15 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>344</v>
+        <v>324</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>345</v>
+        <v>325</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>347</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>77</v>
@@ -7423,10 +7453,10 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>343</v>
+        <v>323</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>86</v>
@@ -7438,24 +7468,24 @@
         <v>98</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>77</v>
+        <v>327</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>348</v>
+        <v>328</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>349</v>
+        <v>77</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>350</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>351</v>
+        <v>329</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7478,15 +7508,17 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>88</v>
+        <v>330</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>224</v>
+        <v>331</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="M42" s="2"/>
+        <v>332</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>77</v>
@@ -7535,7 +7567,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>207</v>
+        <v>329</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -7547,13 +7579,13 @@
         <v>77</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>208</v>
+        <v>333</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
@@ -7567,11 +7599,11 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -7590,16 +7622,16 @@
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>131</v>
+        <v>335</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>210</v>
+        <v>336</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>211</v>
+        <v>337</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>147</v>
+        <v>338</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -7637,19 +7669,19 @@
         <v>77</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>212</v>
+        <v>77</v>
       </c>
       <c r="AC43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>213</v>
+        <v>334</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -7661,27 +7693,27 @@
         <v>77</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>77</v>
+        <v>339</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>208</v>
+        <v>340</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>77</v>
+        <v>341</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>77</v>
+        <v>342</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7689,7 +7721,7 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>86</v>
@@ -7701,23 +7733,21 @@
         <v>77</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>354</v>
+        <v>186</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>358</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>77</v>
       </c>
@@ -7741,13 +7771,13 @@
         <v>77</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>77</v>
+        <v>347</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>77</v>
+        <v>348</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>77</v>
@@ -7765,7 +7795,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -7783,21 +7813,21 @@
         <v>77</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>77</v>
+        <v>350</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>361</v>
+        <v>351</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7805,39 +7835,37 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>106</v>
+        <v>353</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" t="s" s="2">
-        <v>365</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P45" t="s" s="2">
-        <v>366</v>
-      </c>
+      <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
         <v>77</v>
       </c>
@@ -7857,13 +7885,13 @@
         <v>77</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>169</v>
+        <v>77</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>367</v>
+        <v>77</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>368</v>
+        <v>77</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>77</v>
@@ -7881,7 +7909,7 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -7899,21 +7927,21 @@
         <v>77</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>77</v>
+        <v>358</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>371</v>
+        <v>359</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7921,7 +7949,7 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>86</v>
@@ -7933,21 +7961,19 @@
         <v>77</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>373</v>
+        <v>221</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>374</v>
+        <v>222</v>
       </c>
       <c r="M46" s="2"/>
-      <c r="N46" t="s" s="2">
-        <v>375</v>
-      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>77</v>
       </c>
@@ -7995,7 +8021,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>376</v>
+        <v>210</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -8007,13 +8033,13 @@
         <v>77</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>377</v>
+        <v>211</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
@@ -8022,23 +8048,23 @@
         <v>77</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>378</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>77</v>
@@ -8047,21 +8073,21 @@
         <v>77</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>380</v>
+        <v>213</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="M47" s="2"/>
-      <c r="N47" t="s" s="2">
-        <v>382</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>77</v>
       </c>
@@ -8097,37 +8123,37 @@
         <v>77</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>77</v>
+        <v>215</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>383</v>
+        <v>216</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>384</v>
+        <v>77</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>385</v>
+        <v>211</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
@@ -8136,12 +8162,12 @@
         <v>77</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>378</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>386</v>
+        <v>362</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -8164,19 +8190,19 @@
         <v>87</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>106</v>
+        <v>363</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>387</v>
+        <v>364</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>388</v>
+        <v>365</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>389</v>
+        <v>366</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>390</v>
+        <v>367</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>77</v>
@@ -8225,7 +8251,7 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>391</v>
+        <v>368</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -8243,7 +8269,7 @@
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>392</v>
+        <v>369</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
@@ -8252,12 +8278,12 @@
         <v>77</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>378</v>
+        <v>370</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>393</v>
+        <v>371</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -8268,34 +8294,36 @@
         <v>78</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>344</v>
+        <v>106</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>394</v>
+        <v>372</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>373</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" t="s" s="2">
+        <v>374</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P49" s="2"/>
+      <c r="P49" t="s" s="2">
+        <v>375</v>
+      </c>
       <c r="Q49" t="s" s="2">
         <v>77</v>
       </c>
@@ -8315,13 +8343,13 @@
         <v>77</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>77</v>
+        <v>169</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>77</v>
+        <v>376</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>77</v>
+        <v>377</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>77</v>
@@ -8339,7 +8367,7 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -8357,7 +8385,7 @@
         <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>396</v>
+        <v>379</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
@@ -8366,12 +8394,12 @@
         <v>77</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>397</v>
+        <v>380</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>398</v>
+        <v>381</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -8379,7 +8407,7 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>86</v>
@@ -8394,16 +8422,18 @@
         <v>87</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>399</v>
+        <v>88</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
+      <c r="N50" t="s" s="2">
+        <v>384</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>77</v>
       </c>
@@ -8451,7 +8481,7 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -8469,21 +8499,21 @@
         <v>77</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>403</v>
+        <v>77</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>404</v>
+        <v>387</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>405</v>
+        <v>388</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8503,19 +8533,21 @@
         <v>77</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>399</v>
+        <v>100</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>406</v>
+        <v>389</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>407</v>
+        <v>390</v>
       </c>
       <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
+      <c r="N51" t="s" s="2">
+        <v>391</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>77</v>
       </c>
@@ -8563,7 +8595,7 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -8572,30 +8604,30 @@
         <v>86</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>77</v>
+        <v>393</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>408</v>
+        <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>403</v>
+        <v>77</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>404</v>
+        <v>387</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8603,7 +8635,7 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>86</v>
@@ -8615,21 +8647,23 @@
         <v>77</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>321</v>
+        <v>106</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>398</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>399</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>77</v>
       </c>
@@ -8677,7 +8711,7 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -8695,21 +8729,21 @@
         <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>414</v>
+        <v>77</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>415</v>
+        <v>387</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8720,7 +8754,7 @@
         <v>78</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>77</v>
@@ -8732,16 +8766,16 @@
         <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>417</v>
+        <v>353</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>277</v>
+        <v>356</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8791,13 +8825,13 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>77</v>
@@ -8809,21 +8843,21 @@
         <v>77</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>421</v>
+        <v>77</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>77</v>
+        <v>406</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8834,7 +8868,7 @@
         <v>78</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>77</v>
@@ -8843,20 +8877,18 @@
         <v>77</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>426</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>77</v>
@@ -8905,13 +8937,13 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>77</v>
@@ -8920,24 +8952,24 @@
         <v>98</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>427</v>
+        <v>77</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>77</v>
+        <v>412</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>429</v>
+        <v>413</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8945,10 +8977,10 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>77</v>
@@ -8960,17 +8992,15 @@
         <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>431</v>
+        <v>408</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>432</v>
+        <v>415</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>434</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>77</v>
@@ -9019,13 +9049,13 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>77</v>
@@ -9034,24 +9064,24 @@
         <v>98</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>77</v>
+        <v>417</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>77</v>
+        <v>412</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>77</v>
+        <v>413</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -9074,15 +9104,17 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>88</v>
+        <v>330</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="M56" s="2"/>
+        <v>421</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>77</v>
@@ -9131,7 +9163,7 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>207</v>
+        <v>419</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -9143,31 +9175,31 @@
         <v>77</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>208</v>
+        <v>422</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>77</v>
+        <v>423</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>77</v>
+        <v>424</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -9186,16 +9218,16 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>131</v>
+        <v>426</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>210</v>
+        <v>427</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>211</v>
+        <v>428</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>147</v>
+        <v>286</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -9233,19 +9265,19 @@
         <v>77</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>212</v>
+        <v>77</v>
       </c>
       <c r="AC57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>213</v>
+        <v>425</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -9257,19 +9289,19 @@
         <v>77</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>208</v>
+        <v>429</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>77</v>
+        <v>430</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>77</v>
@@ -9277,11 +9309,9 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>439</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
         <v>77</v>
       </c>
@@ -9290,7 +9320,7 @@
         <v>78</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>77</v>
@@ -9302,15 +9332,17 @@
         <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="M58" s="2"/>
+        <v>434</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>435</v>
+      </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>77</v>
@@ -9359,7 +9391,7 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>213</v>
+        <v>431</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -9371,13 +9403,13 @@
         <v>77</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>77</v>
+        <v>436</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>77</v>
+        <v>437</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -9386,16 +9418,14 @@
         <v>77</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>77</v>
+        <v>438</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>443</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
         <v>77</v>
       </c>
@@ -9404,7 +9434,7 @@
         <v>78</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>77</v>
@@ -9416,15 +9446,17 @@
         <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="M59" s="2"/>
+        <v>442</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>443</v>
+      </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>77</v>
@@ -9473,7 +9505,7 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>213</v>
+        <v>439</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -9485,13 +9517,13 @@
         <v>77</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>77</v>
+        <v>444</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
@@ -9505,11 +9537,9 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>447</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
         <v>77</v>
       </c>
@@ -9518,7 +9548,7 @@
         <v>78</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>77</v>
@@ -9530,13 +9560,13 @@
         <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>448</v>
+        <v>88</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>450</v>
+        <v>209</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -9587,25 +9617,25 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>77</v>
+        <v>211</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>
@@ -9619,13 +9649,11 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>451</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -9644,15 +9672,17 @@
         <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>452</v>
+        <v>131</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>453</v>
+        <v>213</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="M61" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>77</v>
@@ -9689,19 +9719,19 @@
         <v>77</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>77</v>
+        <v>215</v>
       </c>
       <c r="AC61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -9719,7 +9749,7 @@
         <v>77</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>77</v>
+        <v>211</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>77</v>
@@ -9733,43 +9763,41 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="B62" s="2"/>
+        <v>447</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>448</v>
+      </c>
       <c r="C62" t="s" s="2">
-        <v>303</v>
+        <v>77</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>131</v>
+        <v>449</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>304</v>
+        <v>450</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>77</v>
       </c>
@@ -9817,7 +9845,7 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>306</v>
+        <v>216</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -9835,7 +9863,7 @@
         <v>77</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>77</v>
@@ -9849,9 +9877,11 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="B63" s="2"/>
+        <v>447</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>452</v>
+      </c>
       <c r="C63" t="s" s="2">
         <v>77</v>
       </c>
@@ -9869,21 +9899,19 @@
         <v>77</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="M63" s="2"/>
-      <c r="N63" t="s" s="2">
-        <v>460</v>
-      </c>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>77</v>
       </c>
@@ -9931,25 +9959,25 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>461</v>
+        <v>216</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>462</v>
+        <v>77</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>77</v>
@@ -9958,23 +9986,25 @@
         <v>77</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>463</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="B64" s="2"/>
+        <v>447</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>456</v>
+      </c>
       <c r="C64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>77</v>
@@ -9983,21 +10013,19 @@
         <v>77</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>88</v>
+        <v>457</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="M64" s="2"/>
-      <c r="N64" t="s" s="2">
-        <v>467</v>
-      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>77</v>
       </c>
@@ -10045,25 +10073,25 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>468</v>
+        <v>216</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>462</v>
+        <v>77</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>77</v>
@@ -10072,14 +10100,16 @@
         <v>77</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>469</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="B65" s="2"/>
+        <v>447</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>460</v>
+      </c>
       <c r="C65" t="s" s="2">
         <v>77</v>
       </c>
@@ -10097,23 +10127,19 @@
         <v>77</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>186</v>
+        <v>461</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>474</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>77</v>
       </c>
@@ -10137,13 +10163,13 @@
         <v>77</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>475</v>
+        <v>77</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>476</v>
+        <v>77</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>77</v>
@@ -10161,7 +10187,7 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>477</v>
+        <v>216</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -10173,13 +10199,13 @@
         <v>77</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>462</v>
+        <v>77</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>77</v>
@@ -10188,44 +10214,48 @@
         <v>77</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>478</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>77</v>
+        <v>312</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>480</v>
+        <v>313</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
+        <v>314</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="O66" t="s" s="2">
         <v>77</v>
       </c>
@@ -10273,25 +10303,25 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>482</v>
+        <v>315</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>462</v>
+        <v>129</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>77</v>
@@ -10300,12 +10330,12 @@
         <v>77</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>478</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>483</v>
+        <v>465</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10313,7 +10343,7 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F67" t="s" s="2">
         <v>86</v>
@@ -10328,19 +10358,17 @@
         <v>87</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>484</v>
+        <v>466</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>485</v>
+        <v>467</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>487</v>
-      </c>
+        <v>468</v>
+      </c>
+      <c r="M67" s="2"/>
       <c r="N67" t="s" s="2">
-        <v>488</v>
+        <v>469</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>77</v>
@@ -10389,7 +10417,7 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>489</v>
+        <v>470</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
@@ -10407,7 +10435,7 @@
         <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
@@ -10416,12 +10444,12 @@
         <v>77</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>77</v>
+        <v>472</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10429,7 +10457,7 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F68" t="s" s="2">
         <v>86</v>
@@ -10441,19 +10469,21 @@
         <v>77</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J68" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>224</v>
+        <v>474</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>225</v>
+        <v>475</v>
       </c>
       <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
+      <c r="N68" t="s" s="2">
+        <v>476</v>
+      </c>
       <c r="O68" t="s" s="2">
         <v>77</v>
       </c>
@@ -10501,7 +10531,7 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>207</v>
+        <v>477</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
@@ -10513,13 +10543,13 @@
         <v>77</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>208</v>
+        <v>471</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>77</v>
@@ -10528,16 +10558,16 @@
         <v>77</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>77</v>
+        <v>478</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -10553,21 +10583,23 @@
         <v>77</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>131</v>
+        <v>186</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>210</v>
+        <v>480</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>211</v>
+        <v>481</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>482</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>483</v>
+      </c>
       <c r="O69" t="s" s="2">
         <v>77</v>
       </c>
@@ -10591,31 +10623,31 @@
         <v>77</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>77</v>
+        <v>484</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>77</v>
+        <v>485</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA69" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>212</v>
+        <v>77</v>
       </c>
       <c r="AC69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD69" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>213</v>
+        <v>486</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
@@ -10627,13 +10659,13 @@
         <v>77</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>208</v>
+        <v>471</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>77</v>
@@ -10642,48 +10674,44 @@
         <v>77</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>77</v>
+        <v>487</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>303</v>
+        <v>77</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>304</v>
+        <v>489</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>490</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>77</v>
       </c>
@@ -10731,25 +10759,25 @@
         <v>77</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>306</v>
+        <v>491</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>129</v>
+        <v>471</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>77</v>
@@ -10758,12 +10786,12 @@
         <v>77</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>77</v>
+        <v>487</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10771,10 +10799,10 @@
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>77</v>
@@ -10786,15 +10814,17 @@
         <v>87</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>399</v>
+        <v>493</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="M71" s="2"/>
       <c r="N71" t="s" s="2">
         <v>497</v>
       </c>
@@ -10851,7 +10881,7 @@
         <v>78</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>77</v>
@@ -10897,21 +10927,19 @@
         <v>77</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>501</v>
+        <v>88</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>502</v>
+        <v>221</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>503</v>
+        <v>222</v>
       </c>
       <c r="M72" s="2"/>
-      <c r="N72" t="s" s="2">
-        <v>504</v>
-      </c>
+      <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>77</v>
       </c>
@@ -10959,7 +10987,7 @@
         <v>77</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>505</v>
+        <v>210</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>78</v>
@@ -10971,13 +10999,13 @@
         <v>77</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>506</v>
+        <v>77</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>507</v>
+        <v>211</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>77</v>
@@ -10991,18 +11019,18 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>77</v>
@@ -11014,15 +11042,17 @@
         <v>77</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="M73" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>77</v>
@@ -11059,37 +11089,37 @@
         <v>77</v>
       </c>
       <c r="AA73" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>77</v>
+        <v>215</v>
       </c>
       <c r="AC73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD73" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>77</v>
@@ -11103,11 +11133,11 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>144</v>
+        <v>312</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -11120,24 +11150,26 @@
         <v>77</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J74" t="s" s="2">
         <v>131</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>210</v>
+        <v>313</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>211</v>
+        <v>314</v>
       </c>
       <c r="M74" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="N74" s="2"/>
+      <c r="N74" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="O74" t="s" s="2">
         <v>77</v>
       </c>
@@ -11173,19 +11205,19 @@
         <v>77</v>
       </c>
       <c r="AA74" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>212</v>
+        <v>77</v>
       </c>
       <c r="AC74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD74" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>213</v>
+        <v>315</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>78</v>
@@ -11203,7 +11235,7 @@
         <v>77</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>208</v>
+        <v>129</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>77</v>
@@ -11217,7 +11249,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -11228,7 +11260,7 @@
         <v>78</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>77</v>
@@ -11240,16 +11272,18 @@
         <v>87</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>511</v>
+        <v>408</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
+      <c r="N75" t="s" s="2">
+        <v>506</v>
+      </c>
       <c r="O75" t="s" s="2">
         <v>77</v>
       </c>
@@ -11297,13 +11331,13 @@
         <v>77</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>77</v>
@@ -11315,7 +11349,7 @@
         <v>77</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>77</v>
@@ -11329,7 +11363,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11352,19 +11386,17 @@
         <v>87</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>520</v>
-      </c>
+        <v>512</v>
+      </c>
+      <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>77</v>
@@ -11413,7 +11445,7 @@
         <v>77</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>78</v>
@@ -11425,13 +11457,13 @@
         <v>77</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>98</v>
+        <v>515</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>77</v>
@@ -11445,7 +11477,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11465,16 +11497,16 @@
         <v>77</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>517</v>
+        <v>88</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>525</v>
+        <v>221</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>526</v>
+        <v>222</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -11525,7 +11557,7 @@
         <v>77</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>527</v>
+        <v>210</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>78</v>
@@ -11537,13 +11569,13 @@
         <v>77</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>523</v>
+        <v>211</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>77</v>
@@ -11557,18 +11589,18 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>77</v>
@@ -11577,23 +11609,21 @@
         <v>77</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>354</v>
+        <v>131</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>529</v>
+        <v>213</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>530</v>
+        <v>214</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>532</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>77</v>
       </c>
@@ -11629,37 +11659,37 @@
         <v>77</v>
       </c>
       <c r="AA78" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>77</v>
+        <v>215</v>
       </c>
       <c r="AC78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD78" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>533</v>
+        <v>216</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>534</v>
+        <v>211</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>77</v>
@@ -11673,7 +11703,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>535</v>
+        <v>519</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11696,20 +11726,16 @@
         <v>87</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>354</v>
+        <v>520</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>532</v>
-      </c>
+        <v>522</v>
+      </c>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>77</v>
       </c>
@@ -11757,7 +11783,7 @@
         <v>77</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>538</v>
+        <v>523</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>78</v>
@@ -11775,7 +11801,7 @@
         <v>77</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>77</v>
@@ -11789,7 +11815,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>539</v>
+        <v>525</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11812,16 +11838,20 @@
         <v>87</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>106</v>
+        <v>526</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
+        <v>528</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>530</v>
+      </c>
       <c r="O80" t="s" s="2">
         <v>77</v>
       </c>
@@ -11845,13 +11875,13 @@
         <v>77</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>169</v>
+        <v>77</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>542</v>
+        <v>77</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>543</v>
+        <v>77</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>77</v>
@@ -11869,7 +11899,7 @@
         <v>77</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>544</v>
+        <v>531</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>78</v>
@@ -11887,7 +11917,7 @@
         <v>77</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>545</v>
+        <v>532</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>77</v>
@@ -11901,7 +11931,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>546</v>
+        <v>533</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11924,22 +11954,20 @@
         <v>87</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>547</v>
+        <v>534</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>548</v>
+        <v>535</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P81" t="s" s="2">
-        <v>549</v>
-      </c>
+      <c r="P81" s="2"/>
       <c r="Q81" t="s" s="2">
         <v>77</v>
       </c>
@@ -11983,7 +12011,7 @@
         <v>77</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>550</v>
+        <v>536</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>78</v>
@@ -12001,7 +12029,7 @@
         <v>77</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>77</v>
@@ -12015,7 +12043,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -12038,16 +12066,20 @@
         <v>87</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>517</v>
+        <v>363</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>552</v>
+        <v>538</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="M82" s="2"/>
-      <c r="N82" s="2"/>
+        <v>539</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>541</v>
+      </c>
       <c r="O82" t="s" s="2">
         <v>77</v>
       </c>
@@ -12095,7 +12127,7 @@
         <v>77</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>78</v>
@@ -12113,7 +12145,7 @@
         <v>77</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>77</v>
@@ -12127,7 +12159,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -12150,16 +12182,20 @@
         <v>87</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="M83" s="2"/>
-      <c r="N83" s="2"/>
+        <v>546</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>541</v>
+      </c>
       <c r="O83" t="s" s="2">
         <v>77</v>
       </c>
@@ -12207,7 +12243,7 @@
         <v>77</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>78</v>
@@ -12225,7 +12261,7 @@
         <v>77</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>77</v>
@@ -12239,7 +12275,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -12262,13 +12298,13 @@
         <v>87</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>354</v>
+        <v>106</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -12295,13 +12331,13 @@
         <v>77</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>77</v>
+        <v>169</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>77</v>
+        <v>551</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>77</v>
+        <v>552</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>77</v>
@@ -12319,7 +12355,7 @@
         <v>77</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>78</v>
@@ -12337,7 +12373,7 @@
         <v>77</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>534</v>
+        <v>554</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>77</v>
@@ -12351,7 +12387,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12374,20 +12410,22 @@
         <v>87</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>106</v>
+        <v>526</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>540</v>
+        <v>556</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P85" s="2"/>
+      <c r="P85" t="s" s="2">
+        <v>558</v>
+      </c>
       <c r="Q85" t="s" s="2">
         <v>77</v>
       </c>
@@ -12407,13 +12445,13 @@
         <v>77</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>169</v>
+        <v>77</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>542</v>
+        <v>77</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>543</v>
+        <v>77</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>77</v>
@@ -12431,7 +12469,7 @@
         <v>77</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>78</v>
@@ -12449,7 +12487,7 @@
         <v>77</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>77</v>
@@ -12463,7 +12501,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12474,7 +12512,7 @@
         <v>78</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>77</v>
@@ -12486,17 +12524,15 @@
         <v>87</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>106</v>
+        <v>526</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>568</v>
-      </c>
+        <v>562</v>
+      </c>
+      <c r="M86" s="2"/>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>77</v>
@@ -12521,11 +12557,13 @@
         <v>77</v>
       </c>
       <c r="W86" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="X86" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Y86" t="s" s="2">
-        <v>569</v>
+        <v>77</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>77</v>
@@ -12543,13 +12581,13 @@
         <v>77</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>77</v>
@@ -12561,7 +12599,7 @@
         <v>77</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>208</v>
+        <v>543</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>77</v>
@@ -12575,7 +12613,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12586,7 +12624,7 @@
         <v>78</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>77</v>
@@ -12598,17 +12636,15 @@
         <v>87</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>572</v>
+        <v>363</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>573</v>
+        <v>556</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>575</v>
-      </c>
+        <v>565</v>
+      </c>
+      <c r="M87" s="2"/>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>77</v>
@@ -12657,13 +12693,13 @@
         <v>77</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>77</v>
@@ -12675,7 +12711,7 @@
         <v>77</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>208</v>
+        <v>543</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>77</v>
@@ -12689,7 +12725,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12700,7 +12736,7 @@
         <v>78</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>77</v>
@@ -12712,20 +12748,16 @@
         <v>87</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>106</v>
+        <v>363</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>581</v>
-      </c>
+        <v>569</v>
+      </c>
+      <c r="M88" s="2"/>
+      <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>77</v>
       </c>
@@ -12749,13 +12781,13 @@
         <v>77</v>
       </c>
       <c r="W88" t="s" s="2">
-        <v>169</v>
+        <v>77</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>582</v>
+        <v>77</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>583</v>
+        <v>77</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>77</v>
@@ -12773,13 +12805,13 @@
         <v>77</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>584</v>
+        <v>570</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>77</v>
@@ -12791,7 +12823,7 @@
         <v>77</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>585</v>
+        <v>543</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>77</v>
@@ -12805,7 +12837,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>586</v>
+        <v>571</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12828,13 +12860,13 @@
         <v>87</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>587</v>
+        <v>106</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>588</v>
+        <v>549</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>589</v>
+        <v>572</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -12861,13 +12893,13 @@
         <v>77</v>
       </c>
       <c r="W89" t="s" s="2">
-        <v>77</v>
+        <v>169</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>77</v>
+        <v>551</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>77</v>
+        <v>552</v>
       </c>
       <c r="Z89" t="s" s="2">
         <v>77</v>
@@ -12885,7 +12917,7 @@
         <v>77</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>590</v>
+        <v>573</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>78</v>
@@ -12903,7 +12935,7 @@
         <v>77</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>591</v>
+        <v>554</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>77</v>
@@ -12917,7 +12949,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>592</v>
+        <v>574</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12928,7 +12960,7 @@
         <v>78</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>77</v>
@@ -12940,16 +12972,16 @@
         <v>87</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>186</v>
+        <v>106</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>593</v>
+        <v>575</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
@@ -12975,13 +13007,11 @@
         <v>77</v>
       </c>
       <c r="W90" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>596</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="X90" s="2"/>
       <c r="Y90" t="s" s="2">
-        <v>597</v>
+        <v>578</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>77</v>
@@ -12999,13 +13029,13 @@
         <v>77</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>598</v>
+        <v>579</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>77</v>
@@ -13017,7 +13047,7 @@
         <v>77</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>599</v>
+        <v>211</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>77</v>
@@ -13031,7 +13061,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>600</v>
+        <v>580</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -13042,7 +13072,7 @@
         <v>78</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>77</v>
@@ -13051,18 +13081,20 @@
         <v>77</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>88</v>
+        <v>581</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>224</v>
+        <v>582</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="M91" s="2"/>
+        <v>583</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>584</v>
+      </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
         <v>77</v>
@@ -13111,25 +13143,25 @@
         <v>77</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>207</v>
+        <v>585</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>77</v>
@@ -13143,11 +13175,11 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>601</v>
+        <v>586</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -13163,21 +13195,23 @@
         <v>77</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>210</v>
+        <v>587</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>211</v>
+        <v>588</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N92" s="2"/>
+        <v>589</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>590</v>
+      </c>
       <c r="O92" t="s" s="2">
         <v>77</v>
       </c>
@@ -13201,31 +13235,31 @@
         <v>77</v>
       </c>
       <c r="W92" t="s" s="2">
-        <v>77</v>
+        <v>169</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>77</v>
+        <v>591</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>77</v>
+        <v>592</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA92" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB92" t="s" s="2">
-        <v>212</v>
+        <v>77</v>
       </c>
       <c r="AC92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD92" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>213</v>
+        <v>593</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>78</v>
@@ -13237,13 +13271,13 @@
         <v>77</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>208</v>
+        <v>594</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>77</v>
@@ -13257,7 +13291,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -13268,7 +13302,7 @@
         <v>78</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>77</v>
@@ -13280,20 +13314,16 @@
         <v>87</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>215</v>
+        <v>596</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>219</v>
-      </c>
+        <v>598</v>
+      </c>
+      <c r="M93" s="2"/>
+      <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
         <v>77</v>
       </c>
@@ -13341,13 +13371,13 @@
         <v>77</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>220</v>
+        <v>599</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>77</v>
@@ -13359,7 +13389,7 @@
         <v>77</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>221</v>
+        <v>600</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>77</v>
@@ -13368,12 +13398,12 @@
         <v>77</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>222</v>
+        <v>77</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13393,18 +13423,20 @@
         <v>77</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>88</v>
+        <v>186</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>224</v>
+        <v>602</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="M94" s="2"/>
+        <v>603</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>604</v>
+      </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
         <v>77</v>
@@ -13429,13 +13461,13 @@
         <v>77</v>
       </c>
       <c r="W94" t="s" s="2">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>77</v>
+        <v>605</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>77</v>
+        <v>606</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>77</v>
@@ -13453,7 +13485,7 @@
         <v>77</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>207</v>
+        <v>607</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>78</v>
@@ -13465,13 +13497,13 @@
         <v>77</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>208</v>
+        <v>608</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>77</v>
@@ -13485,18 +13517,18 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>77</v>
@@ -13508,17 +13540,15 @@
         <v>77</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="M95" s="2"/>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
         <v>77</v>
@@ -13555,37 +13585,37 @@
         <v>77</v>
       </c>
       <c r="AA95" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB95" t="s" s="2">
-        <v>212</v>
+        <v>77</v>
       </c>
       <c r="AC95" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD95" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>77</v>
@@ -13599,18 +13629,18 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F96" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G96" t="s" s="2">
         <v>77</v>
@@ -13619,23 +13649,21 @@
         <v>77</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>231</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
         <v>77</v>
       </c>
@@ -13671,37 +13699,37 @@
         <v>77</v>
       </c>
       <c r="AA96" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB96" t="s" s="2">
-        <v>77</v>
+        <v>215</v>
       </c>
       <c r="AC96" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD96" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>77</v>
@@ -13710,12 +13738,12 @@
         <v>77</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>234</v>
+        <v>77</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13726,7 +13754,7 @@
         <v>78</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>77</v>
@@ -13738,18 +13766,20 @@
         <v>87</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>88</v>
+        <v>224</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>236</v>
+        <v>612</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>237</v>
+        <v>613</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N97" s="2"/>
+        <v>614</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>228</v>
+      </c>
       <c r="O97" t="s" s="2">
         <v>77</v>
       </c>
@@ -13797,13 +13827,13 @@
         <v>77</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>77</v>
@@ -13815,7 +13845,7 @@
         <v>77</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>77</v>
@@ -13824,12 +13854,12 @@
         <v>77</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>241</v>
+        <v>231</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13837,7 +13867,7 @@
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F98" t="s" s="2">
         <v>86</v>
@@ -13849,21 +13879,19 @@
         <v>77</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="M98" s="2"/>
-      <c r="N98" t="s" s="2">
-        <v>245</v>
-      </c>
+      <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
         <v>77</v>
       </c>
@@ -13911,7 +13939,7 @@
         <v>77</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>246</v>
+        <v>210</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>78</v>
@@ -13923,13 +13951,13 @@
         <v>77</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>247</v>
+        <v>211</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>77</v>
@@ -13938,23 +13966,23 @@
         <v>77</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>248</v>
+        <v>77</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>77</v>
@@ -13963,21 +13991,21 @@
         <v>77</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>250</v>
+        <v>213</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="M99" s="2"/>
-      <c r="N99" t="s" s="2">
-        <v>252</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
         <v>77</v>
       </c>
@@ -14013,37 +14041,37 @@
         <v>77</v>
       </c>
       <c r="AA99" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB99" t="s" s="2">
-        <v>77</v>
+        <v>215</v>
       </c>
       <c r="AC99" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD99" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>253</v>
+        <v>216</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>254</v>
+        <v>211</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>77</v>
@@ -14052,12 +14080,12 @@
         <v>77</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>255</v>
+        <v>77</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -14065,7 +14093,7 @@
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F100" t="s" s="2">
         <v>86</v>
@@ -14080,19 +14108,19 @@
         <v>87</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>257</v>
+        <v>100</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>260</v>
+        <v>237</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>261</v>
+        <v>238</v>
       </c>
       <c r="O100" t="s" s="2">
         <v>77</v>
@@ -14141,7 +14169,7 @@
         <v>77</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>262</v>
+        <v>239</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>78</v>
@@ -14159,7 +14187,7 @@
         <v>77</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>77</v>
@@ -14168,12 +14196,12 @@
         <v>77</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>264</v>
+        <v>241</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -14199,17 +14227,15 @@
         <v>88</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
         <v>77</v>
       </c>
@@ -14257,7 +14283,7 @@
         <v>77</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>78</v>
@@ -14275,7 +14301,7 @@
         <v>77</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>77</v>
@@ -14284,12 +14310,12 @@
         <v>77</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>272</v>
+        <v>248</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -14297,7 +14323,7 @@
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F102" t="s" s="2">
         <v>86</v>
@@ -14312,18 +14338,18 @@
         <v>87</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>615</v>
+        <v>106</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>616</v>
+        <v>250</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="N102" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="M102" s="2"/>
+      <c r="N102" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="O102" t="s" s="2">
         <v>77</v>
       </c>
@@ -14347,13 +14373,13 @@
         <v>77</v>
       </c>
       <c r="W102" t="s" s="2">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>619</v>
+        <v>77</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>620</v>
+        <v>77</v>
       </c>
       <c r="Z102" t="s" s="2">
         <v>77</v>
@@ -14371,7 +14397,7 @@
         <v>77</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>621</v>
+        <v>253</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>78</v>
@@ -14389,7 +14415,7 @@
         <v>77</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>622</v>
+        <v>254</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>77</v>
@@ -14398,12 +14424,12 @@
         <v>77</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>623</v>
+        <v>255</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -14426,19 +14452,17 @@
         <v>87</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>186</v>
+        <v>88</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>625</v>
+        <v>257</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>627</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="M103" s="2"/>
       <c r="N103" t="s" s="2">
-        <v>628</v>
+        <v>259</v>
       </c>
       <c r="O103" t="s" s="2">
         <v>77</v>
@@ -14463,13 +14487,13 @@
         <v>77</v>
       </c>
       <c r="W103" t="s" s="2">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>629</v>
+        <v>77</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>630</v>
+        <v>77</v>
       </c>
       <c r="Z103" t="s" s="2">
         <v>77</v>
@@ -14487,7 +14511,7 @@
         <v>77</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>631</v>
+        <v>260</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>78</v>
@@ -14505,7 +14529,7 @@
         <v>77</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>632</v>
+        <v>261</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>77</v>
@@ -14514,12 +14538,12 @@
         <v>77</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>633</v>
+        <v>262</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>634</v>
+        <v>621</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14542,19 +14566,19 @@
         <v>87</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>186</v>
+        <v>264</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>635</v>
+        <v>265</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>636</v>
+        <v>266</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>337</v>
+        <v>267</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>637</v>
+        <v>268</v>
       </c>
       <c r="O104" t="s" s="2">
         <v>77</v>
@@ -14579,13 +14603,13 @@
         <v>77</v>
       </c>
       <c r="W104" t="s" s="2">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>638</v>
+        <v>77</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>639</v>
+        <v>77</v>
       </c>
       <c r="Z104" t="s" s="2">
         <v>77</v>
@@ -14603,7 +14627,7 @@
         <v>77</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>640</v>
+        <v>269</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>78</v>
@@ -14621,7 +14645,7 @@
         <v>77</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>641</v>
+        <v>270</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>77</v>
@@ -14630,12 +14654,12 @@
         <v>77</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>642</v>
+        <v>271</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>643</v>
+        <v>622</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -14658,19 +14682,19 @@
         <v>87</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>186</v>
+        <v>88</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>644</v>
+        <v>273</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>645</v>
+        <v>274</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>646</v>
+        <v>275</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>647</v>
+        <v>276</v>
       </c>
       <c r="O105" t="s" s="2">
         <v>77</v>
@@ -14695,13 +14719,13 @@
         <v>77</v>
       </c>
       <c r="W105" t="s" s="2">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>648</v>
+        <v>77</v>
       </c>
       <c r="Y105" t="s" s="2">
-        <v>649</v>
+        <v>77</v>
       </c>
       <c r="Z105" t="s" s="2">
         <v>77</v>
@@ -14719,7 +14743,7 @@
         <v>77</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>650</v>
+        <v>277</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>78</v>
@@ -14737,7 +14761,7 @@
         <v>77</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>651</v>
+        <v>278</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>77</v>
@@ -14746,12 +14770,12 @@
         <v>77</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>652</v>
+        <v>279</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>653</v>
+        <v>623</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14762,7 +14786,7 @@
         <v>78</v>
       </c>
       <c r="F106" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G106" t="s" s="2">
         <v>77</v>
@@ -14774,15 +14798,17 @@
         <v>87</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>501</v>
+        <v>624</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>654</v>
+        <v>625</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>655</v>
-      </c>
-      <c r="M106" s="2"/>
+        <v>626</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>627</v>
+      </c>
       <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
         <v>77</v>
@@ -14807,13 +14833,13 @@
         <v>77</v>
       </c>
       <c r="W106" t="s" s="2">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>77</v>
+        <v>628</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>77</v>
+        <v>629</v>
       </c>
       <c r="Z106" t="s" s="2">
         <v>77</v>
@@ -14831,13 +14857,13 @@
         <v>77</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>656</v>
+        <v>630</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>77</v>
@@ -14849,7 +14875,7 @@
         <v>77</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>77</v>
+        <v>631</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>77</v>
@@ -14858,12 +14884,12 @@
         <v>77</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>657</v>
+        <v>632</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>658</v>
+        <v>633</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14883,19 +14909,23 @@
         <v>77</v>
       </c>
       <c r="I107" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>88</v>
+        <v>186</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>224</v>
+        <v>634</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="M107" s="2"/>
-      <c r="N107" s="2"/>
+        <v>635</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="N107" t="s" s="2">
+        <v>637</v>
+      </c>
       <c r="O107" t="s" s="2">
         <v>77</v>
       </c>
@@ -14919,13 +14949,13 @@
         <v>77</v>
       </c>
       <c r="W107" t="s" s="2">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>77</v>
+        <v>638</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>77</v>
+        <v>639</v>
       </c>
       <c r="Z107" t="s" s="2">
         <v>77</v>
@@ -14943,7 +14973,7 @@
         <v>77</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>207</v>
+        <v>640</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>78</v>
@@ -14955,13 +14985,13 @@
         <v>77</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>208</v>
+        <v>641</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>77</v>
@@ -14970,23 +15000,23 @@
         <v>77</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>77</v>
+        <v>642</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>659</v>
+        <v>643</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F108" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G108" t="s" s="2">
         <v>77</v>
@@ -14995,21 +15025,23 @@
         <v>77</v>
       </c>
       <c r="I108" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>131</v>
+        <v>186</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>210</v>
+        <v>644</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>211</v>
+        <v>645</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N108" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>646</v>
+      </c>
       <c r="O108" t="s" s="2">
         <v>77</v>
       </c>
@@ -15033,49 +15065,49 @@
         <v>77</v>
       </c>
       <c r="W108" t="s" s="2">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="X108" t="s" s="2">
-        <v>77</v>
+        <v>647</v>
       </c>
       <c r="Y108" t="s" s="2">
-        <v>77</v>
+        <v>648</v>
       </c>
       <c r="Z108" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA108" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB108" t="s" s="2">
-        <v>212</v>
+        <v>77</v>
       </c>
       <c r="AC108" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD108" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>213</v>
+        <v>649</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>208</v>
+        <v>650</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>77</v>
@@ -15084,12 +15116,12 @@
         <v>77</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>77</v>
+        <v>651</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -15115,14 +15147,16 @@
         <v>186</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>662</v>
-      </c>
-      <c r="M109" s="2"/>
+        <v>654</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>655</v>
+      </c>
       <c r="N109" t="s" s="2">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="O109" t="s" s="2">
         <v>77</v>
@@ -15150,10 +15184,10 @@
         <v>180</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="Z109" t="s" s="2">
         <v>77</v>
@@ -15171,7 +15205,7 @@
         <v>77</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>78</v>
@@ -15189,7 +15223,7 @@
         <v>77</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>77</v>
+        <v>660</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>77</v>
@@ -15198,12 +15232,12 @@
         <v>77</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>667</v>
+        <v>661</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -15214,7 +15248,7 @@
         <v>78</v>
       </c>
       <c r="F110" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G110" t="s" s="2">
         <v>77</v>
@@ -15226,20 +15260,16 @@
         <v>87</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>669</v>
+        <v>510</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>671</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>672</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>673</v>
-      </c>
+        <v>664</v>
+      </c>
+      <c r="M110" s="2"/>
+      <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
         <v>77</v>
       </c>
@@ -15287,13 +15317,13 @@
         <v>77</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>77</v>
@@ -15305,7 +15335,7 @@
         <v>77</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>651</v>
+        <v>77</v>
       </c>
       <c r="AL110" t="s" s="2">
         <v>77</v>
@@ -15314,12 +15344,12 @@
         <v>77</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>675</v>
+        <v>666</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -15339,23 +15369,19 @@
         <v>77</v>
       </c>
       <c r="I111" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>677</v>
+        <v>88</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>678</v>
+        <v>221</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>679</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>680</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>681</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="M111" s="2"/>
+      <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
         <v>77</v>
       </c>
@@ -15403,7 +15429,7 @@
         <v>77</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>682</v>
+        <v>210</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>78</v>
@@ -15415,13 +15441,13 @@
         <v>77</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ111" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>683</v>
+        <v>211</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>77</v>
@@ -15430,23 +15456,23 @@
         <v>77</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>684</v>
+        <v>77</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F112" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G112" t="s" s="2">
         <v>77</v>
@@ -15455,23 +15481,21 @@
         <v>77</v>
       </c>
       <c r="I112" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>686</v>
+        <v>131</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>687</v>
+        <v>213</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>688</v>
+        <v>214</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>689</v>
-      </c>
-      <c r="N112" t="s" s="2">
-        <v>690</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="N112" s="2"/>
       <c r="O112" t="s" s="2">
         <v>77</v>
       </c>
@@ -15507,37 +15531,37 @@
         <v>77</v>
       </c>
       <c r="AA112" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB112" t="s" s="2">
-        <v>77</v>
+        <v>215</v>
       </c>
       <c r="AC112" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD112" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>691</v>
+        <v>216</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH112" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ112" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>692</v>
+        <v>211</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>77</v>
@@ -15546,12 +15570,12 @@
         <v>77</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>693</v>
+        <v>77</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>694</v>
+        <v>669</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -15574,19 +15598,17 @@
         <v>87</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>344</v>
+        <v>186</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>695</v>
+        <v>670</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>696</v>
-      </c>
-      <c r="M113" t="s" s="2">
-        <v>697</v>
-      </c>
+        <v>671</v>
+      </c>
+      <c r="M113" s="2"/>
       <c r="N113" t="s" s="2">
-        <v>698</v>
+        <v>672</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>77</v>
@@ -15611,13 +15633,13 @@
         <v>77</v>
       </c>
       <c r="W113" t="s" s="2">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>77</v>
+        <v>673</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>77</v>
+        <v>674</v>
       </c>
       <c r="Z113" t="s" s="2">
         <v>77</v>
@@ -15635,7 +15657,7 @@
         <v>77</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>699</v>
+        <v>675</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>78</v>
@@ -15653,7 +15675,7 @@
         <v>77</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>700</v>
+        <v>77</v>
       </c>
       <c r="AL113" t="s" s="2">
         <v>77</v>
@@ -15662,12 +15684,12 @@
         <v>77</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>77</v>
+        <v>676</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>701</v>
+        <v>677</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15690,17 +15712,19 @@
         <v>87</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>344</v>
+        <v>678</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>702</v>
+        <v>679</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>703</v>
-      </c>
-      <c r="M114" s="2"/>
+        <v>680</v>
+      </c>
+      <c r="M114" t="s" s="2">
+        <v>681</v>
+      </c>
       <c r="N114" t="s" s="2">
-        <v>704</v>
+        <v>682</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>77</v>
@@ -15749,7 +15773,7 @@
         <v>77</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>705</v>
+        <v>683</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>78</v>
@@ -15767,7 +15791,7 @@
         <v>77</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>700</v>
+        <v>660</v>
       </c>
       <c r="AL114" t="s" s="2">
         <v>77</v>
@@ -15776,12 +15800,12 @@
         <v>77</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>77</v>
+        <v>684</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>706</v>
+        <v>685</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -15801,19 +15825,23 @@
         <v>77</v>
       </c>
       <c r="I115" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>295</v>
+        <v>686</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>707</v>
+        <v>687</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>708</v>
-      </c>
-      <c r="M115" s="2"/>
-      <c r="N115" s="2"/>
+        <v>688</v>
+      </c>
+      <c r="M115" t="s" s="2">
+        <v>689</v>
+      </c>
+      <c r="N115" t="s" s="2">
+        <v>690</v>
+      </c>
       <c r="O115" t="s" s="2">
         <v>77</v>
       </c>
@@ -15861,7 +15889,7 @@
         <v>77</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>706</v>
+        <v>691</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>78</v>
@@ -15879,21 +15907,21 @@
         <v>77</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>709</v>
+        <v>692</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>710</v>
+        <v>77</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>77</v>
+        <v>693</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15913,19 +15941,23 @@
         <v>77</v>
       </c>
       <c r="I116" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>88</v>
+        <v>695</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>224</v>
+        <v>696</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="M116" s="2"/>
-      <c r="N116" s="2"/>
+        <v>697</v>
+      </c>
+      <c r="M116" t="s" s="2">
+        <v>698</v>
+      </c>
+      <c r="N116" t="s" s="2">
+        <v>699</v>
+      </c>
       <c r="O116" t="s" s="2">
         <v>77</v>
       </c>
@@ -15973,7 +16005,7 @@
         <v>77</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>207</v>
+        <v>700</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>78</v>
@@ -15985,13 +16017,13 @@
         <v>77</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ116" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>208</v>
+        <v>701</v>
       </c>
       <c r="AL116" t="s" s="2">
         <v>77</v>
@@ -16000,23 +16032,23 @@
         <v>77</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>77</v>
+        <v>702</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F117" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G117" t="s" s="2">
         <v>77</v>
@@ -16025,21 +16057,23 @@
         <v>77</v>
       </c>
       <c r="I117" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>131</v>
+        <v>353</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>210</v>
+        <v>704</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>211</v>
+        <v>705</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N117" s="2"/>
+        <v>706</v>
+      </c>
+      <c r="N117" t="s" s="2">
+        <v>707</v>
+      </c>
       <c r="O117" t="s" s="2">
         <v>77</v>
       </c>
@@ -16087,25 +16121,25 @@
         <v>77</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>213</v>
+        <v>708</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH117" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ117" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>208</v>
+        <v>709</v>
       </c>
       <c r="AL117" t="s" s="2">
         <v>77</v>
@@ -16119,42 +16153,40 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
-        <v>303</v>
+        <v>77</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F118" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G118" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H118" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I118" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>131</v>
+        <v>353</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>304</v>
+        <v>711</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="M118" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>712</v>
+      </c>
+      <c r="M118" s="2"/>
       <c r="N118" t="s" s="2">
-        <v>148</v>
+        <v>713</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>77</v>
@@ -16203,25 +16235,25 @@
         <v>77</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>306</v>
+        <v>714</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG118" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH118" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ118" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>129</v>
+        <v>709</v>
       </c>
       <c r="AL118" t="s" s="2">
         <v>77</v>
@@ -16235,7 +16267,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -16243,7 +16275,7 @@
       </c>
       <c r="D119" s="2"/>
       <c r="E119" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F119" t="s" s="2">
         <v>86</v>
@@ -16258,13 +16290,13 @@
         <v>77</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>257</v>
+        <v>304</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
@@ -16315,10 +16347,10 @@
         <v>77</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>86</v>
@@ -16333,13 +16365,13 @@
         <v>77</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="AL119" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>77</v>
+        <v>719</v>
       </c>
       <c r="AN119" t="s" s="2">
         <v>77</v>
@@ -16347,7 +16379,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -16370,17 +16402,15 @@
         <v>77</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>186</v>
+        <v>88</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>719</v>
+        <v>221</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>720</v>
-      </c>
-      <c r="M120" t="s" s="2">
-        <v>721</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="M120" s="2"/>
       <c r="N120" s="2"/>
       <c r="O120" t="s" s="2">
         <v>77</v>
@@ -16405,13 +16435,13 @@
         <v>77</v>
       </c>
       <c r="W120" t="s" s="2">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="X120" t="s" s="2">
-        <v>722</v>
+        <v>77</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>723</v>
+        <v>77</v>
       </c>
       <c r="Z120" t="s" s="2">
         <v>77</v>
@@ -16429,7 +16459,7 @@
         <v>77</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>718</v>
+        <v>210</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>78</v>
@@ -16441,31 +16471,31 @@
         <v>77</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ120" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>340</v>
+        <v>211</v>
       </c>
       <c r="AL120" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>724</v>
+        <v>77</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>725</v>
+        <v>77</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" t="s" s="2">
@@ -16484,16 +16514,16 @@
         <v>77</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>186</v>
+        <v>131</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>727</v>
+        <v>213</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>728</v>
+        <v>214</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>337</v>
+        <v>147</v>
       </c>
       <c r="N121" s="2"/>
       <c r="O121" t="s" s="2">
@@ -16519,13 +16549,13 @@
         <v>77</v>
       </c>
       <c r="W121" t="s" s="2">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="X121" t="s" s="2">
-        <v>729</v>
+        <v>77</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>730</v>
+        <v>77</v>
       </c>
       <c r="Z121" t="s" s="2">
         <v>77</v>
@@ -16543,7 +16573,7 @@
         <v>77</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>726</v>
+        <v>216</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>78</v>
@@ -16555,19 +16585,19 @@
         <v>77</v>
       </c>
       <c r="AI121" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ121" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>731</v>
+        <v>211</v>
       </c>
       <c r="AL121" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>732</v>
+        <v>77</v>
       </c>
       <c r="AN121" t="s" s="2">
         <v>77</v>
@@ -16575,11 +16605,11 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>733</v>
+        <v>722</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
-        <v>77</v>
+        <v>312</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s" s="2">
@@ -16592,24 +16622,26 @@
         <v>77</v>
       </c>
       <c r="H122" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I122" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>734</v>
+        <v>131</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>735</v>
+        <v>313</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>736</v>
+        <v>314</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N122" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="N122" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="O122" t="s" s="2">
         <v>77</v>
       </c>
@@ -16657,7 +16689,7 @@
         <v>77</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>733</v>
+        <v>315</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>78</v>
@@ -16669,19 +16701,19 @@
         <v>77</v>
       </c>
       <c r="AI122" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ122" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>737</v>
+        <v>129</v>
       </c>
       <c r="AL122" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>738</v>
+        <v>77</v>
       </c>
       <c r="AN122" t="s" s="2">
         <v>77</v>
@@ -16689,18 +16721,18 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>739</v>
+        <v>723</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
-        <v>740</v>
+        <v>77</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F123" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G123" t="s" s="2">
         <v>77</v>
@@ -16712,17 +16744,15 @@
         <v>77</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>741</v>
+        <v>264</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>742</v>
+        <v>724</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>743</v>
-      </c>
-      <c r="M123" t="s" s="2">
-        <v>744</v>
-      </c>
+        <v>725</v>
+      </c>
+      <c r="M123" s="2"/>
       <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
         <v>77</v>
@@ -16771,13 +16801,13 @@
         <v>77</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>739</v>
+        <v>723</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG123" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH123" t="s" s="2">
         <v>77</v>
@@ -16789,7 +16819,7 @@
         <v>77</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>745</v>
+        <v>726</v>
       </c>
       <c r="AL123" t="s" s="2">
         <v>77</v>
@@ -16803,7 +16833,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>746</v>
+        <v>727</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -16814,7 +16844,7 @@
         <v>78</v>
       </c>
       <c r="F124" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G124" t="s" s="2">
         <v>77</v>
@@ -16826,16 +16856,16 @@
         <v>77</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>747</v>
+        <v>186</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>748</v>
+        <v>728</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>749</v>
+        <v>729</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>750</v>
+        <v>730</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
@@ -16861,13 +16891,13 @@
         <v>77</v>
       </c>
       <c r="W124" t="s" s="2">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>77</v>
+        <v>731</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>77</v>
+        <v>732</v>
       </c>
       <c r="Z124" t="s" s="2">
         <v>77</v>
@@ -16885,13 +16915,13 @@
         <v>77</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>746</v>
+        <v>727</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH124" t="s" s="2">
         <v>77</v>
@@ -16903,15 +16933,471 @@
         <v>77</v>
       </c>
       <c r="AK124" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AL124" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM124" t="s" s="2">
+        <v>733</v>
+      </c>
+      <c r="AN124" t="s" s="2">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s" s="2">
+        <v>735</v>
+      </c>
+      <c r="B125" s="2"/>
+      <c r="C125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D125" s="2"/>
+      <c r="E125" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F125" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J125" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="K125" t="s" s="2">
+        <v>736</v>
+      </c>
+      <c r="L125" t="s" s="2">
+        <v>737</v>
+      </c>
+      <c r="M125" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="N125" s="2"/>
+      <c r="O125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P125" s="2"/>
+      <c r="Q125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W125" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="X125" t="s" s="2">
+        <v>738</v>
+      </c>
+      <c r="Y125" t="s" s="2">
+        <v>739</v>
+      </c>
+      <c r="Z125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE125" t="s" s="2">
+        <v>735</v>
+      </c>
+      <c r="AF125" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG125" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI125" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK125" t="s" s="2">
+        <v>740</v>
+      </c>
+      <c r="AL125" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM125" t="s" s="2">
+        <v>741</v>
+      </c>
+      <c r="AN125" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s" s="2">
+        <v>742</v>
+      </c>
+      <c r="B126" s="2"/>
+      <c r="C126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D126" s="2"/>
+      <c r="E126" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F126" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J126" t="s" s="2">
+        <v>743</v>
+      </c>
+      <c r="K126" t="s" s="2">
+        <v>744</v>
+      </c>
+      <c r="L126" t="s" s="2">
+        <v>745</v>
+      </c>
+      <c r="M126" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="N126" s="2"/>
+      <c r="O126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P126" s="2"/>
+      <c r="Q126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE126" t="s" s="2">
+        <v>742</v>
+      </c>
+      <c r="AF126" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG126" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI126" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK126" t="s" s="2">
+        <v>746</v>
+      </c>
+      <c r="AL126" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM126" t="s" s="2">
+        <v>747</v>
+      </c>
+      <c r="AN126" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s" s="2">
+        <v>748</v>
+      </c>
+      <c r="B127" s="2"/>
+      <c r="C127" t="s" s="2">
+        <v>749</v>
+      </c>
+      <c r="D127" s="2"/>
+      <c r="E127" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F127" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J127" t="s" s="2">
+        <v>750</v>
+      </c>
+      <c r="K127" t="s" s="2">
         <v>751</v>
       </c>
-      <c r="AL124" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM124" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN124" t="s" s="2">
+      <c r="L127" t="s" s="2">
+        <v>752</v>
+      </c>
+      <c r="M127" t="s" s="2">
+        <v>753</v>
+      </c>
+      <c r="N127" s="2"/>
+      <c r="O127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P127" s="2"/>
+      <c r="Q127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE127" t="s" s="2">
+        <v>748</v>
+      </c>
+      <c r="AF127" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG127" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI127" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK127" t="s" s="2">
+        <v>754</v>
+      </c>
+      <c r="AL127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM127" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN127" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s" s="2">
+        <v>755</v>
+      </c>
+      <c r="B128" s="2"/>
+      <c r="C128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D128" s="2"/>
+      <c r="E128" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F128" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J128" t="s" s="2">
+        <v>756</v>
+      </c>
+      <c r="K128" t="s" s="2">
+        <v>757</v>
+      </c>
+      <c r="L128" t="s" s="2">
+        <v>758</v>
+      </c>
+      <c r="M128" t="s" s="2">
+        <v>759</v>
+      </c>
+      <c r="N128" s="2"/>
+      <c r="O128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P128" s="2"/>
+      <c r="Q128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE128" t="s" s="2">
+        <v>755</v>
+      </c>
+      <c r="AF128" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG128" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI128" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK128" t="s" s="2">
+        <v>760</v>
+      </c>
+      <c r="AL128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM128" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN128" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdispensebase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdispensebase.xlsx
@@ -2769,45 +2769,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="67.20703125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="67.2109375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="27.47265625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="141.21875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="141.22265625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="198.02734375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="71.296875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="46.83984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="46.84375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="255.0" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="73.29296875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="73.296875" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="255.0" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdispensebase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdispensebase.xlsx
@@ -1337,7 +1337,6 @@
   </si>
   <si>
     <t>The time the dispensed product was provided to the patient or their representative.
-【JP Core】
 必須。
 患者あるいはその代理人に払い出される薬剤が提供された日時。</t>
   </si>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdispensebase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdispensebase.xlsx
@@ -442,7 +442,7 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>Preparation</t>
+    <t>preparation</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationDispense_Preparation}
@@ -634,7 +634,6 @@
   </si>
   <si>
     <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.
-【JP-CORE】
 ひとつのtext要素と、複数のcoding 要素を記述できる。処方オーダ時に選択または入力し、実際に処方箋に印字される文字列を必ずtext要素に格納した上で、それをコード化した情報を1個以上のcoding 要素に記述する。
 厚生労働省標準であるHOT9コード（販社指定が不要な場合にはHOT7コード）または広く流通しているYJコードを用いるか、一般名処方の場合には厚生労働省保険局一般名処方マスタのコードを使用して、Coding要素（コードsystemを識別するURI、医薬品のコード、そのコード表における医薬品の名称の3つからなる）で記述する。
 @@ -736,8 +735,8 @@
 コード集で定義された医薬品コードへの情報</t>
   </si>
   <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.
-【JP-CORE】</t>
+    <t xml:space="preserve">Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.
+</t>
   </si>
   <si>
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
@@ -1446,7 +1445,7 @@
     <t>MedicationDispense.dosageInstruction.extension</t>
   </si>
   <si>
-    <t>UsageDuration</t>
+    <t>usageDuration</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationRequest_DosageInstruction_UsageDuration}
@@ -1461,7 +1460,7 @@
 全期間が７日で、用法が隔日投与の場合には、１日目、３日目、５日目、７日目の４日間に服用することになるので、実服用日数は４日となる。</t>
   </si>
   <si>
-    <t>PeriodOfUse</t>
+    <t>periodOfUse</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationRequest_DosageInstruction_PeriodOfUse}
@@ -1475,7 +1474,7 @@
 この拡張を使用する場合には、開始日は必須。</t>
   </si>
   <si>
-    <t>Line</t>
+    <t>line</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationRequest_DosageInstruction_Line}
@@ -1488,7 +1487,7 @@
     <t>投与ラインの情報を記述する拡張。</t>
   </si>
   <si>
-    <t>Device</t>
+    <t>device</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationRequest_DosageInstruction_Device}
@@ -1538,7 +1537,6 @@
   </si>
   <si>
     <t>Free text dosage instructions e.g. SIG.　フリーテキストの投与方法の説明　SIG:用法
-【JP-CORE】
 フリーテキストの用法指示であり、JP Coreでは必須である。</t>
   </si>
   <si>
@@ -1605,8 +1603,7 @@
   <si>
     <t>When medication should be administered.　
 投与日時、服用タイミング。
-【JP-CORE】
-必須。dosageInstruction.timing.code.coding.code, dosageInstruction.timing.code.coding.system が必ず存在しなければならない。</t>
+JP Coreでは必須する。dosageInstruction.timing.code.coding.code, dosageInstruction.timing.code.coding.system が必ず存在しなければならない。</t>
   </si>
   <si>
     <t>This attribute might not always be populated while the Dosage.text is expected to be populated.  If both are populated, then the Dosage.text should reflect the content of the Dosage.timing.</t>
@@ -2070,8 +2067,7 @@
   <si>
     <t>How drug should enter body.
 薬が身体に入る経路
-【JP-CORE】
- HL7 V2(HL7表0162)</t>
+HL7 V2(HL7表0162)</t>
   </si>
   <si>
     <t>A code specifying the route or physiological path of administration of a therapeutic agent into or onto a patient's body.
@@ -2101,7 +2097,6 @@
   <si>
     <t>Technique for administering medication.
 投与手技
-【JP-CORE】
 JAMI処方・注射オーダ標準用法規格(用法詳細区分)。</t>
   </si>
   <si>
@@ -2336,7 +2331,6 @@
   <si>
     <t>A code signifying whether a different drug was dispensed from what was prescribed.
 処方されたものとは異なる薬が調剤されたかどうかを示すコード。
-【JP-CORE】
 HL7 v3 Value Set ActSubstanceAdminSubstitutionCode　から以下のコードが使用できる。 
 E: 別の生物学的同等および治療的に同等の製品で置換が行われたか、許可された。
 EC: 代替品が発生したか、次のような別の製品で許可されています：同じ有効成分を含むが異なる塩で処方された代替医薬品、同じ有効成分を持つエステル医薬品同等物、強度、剤形、投与経路.

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdispensebase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdispensebase.xlsx
@@ -575,7 +575,7 @@
   </si>
   <si>
     <t>Indicates the reason why a dispense was not performed.
-調剤が実行されなかった理由を示します。</t>
+調剤が実行されなかった理由を示す。</t>
   </si>
   <si>
     <t>example</t>
@@ -604,7 +604,7 @@
   </si>
   <si>
     <t>Indicates the type of medication dispense (for example, where the medication is expected to be consumed or administered (i.e. inpatient or outpatient)).
-投薬のタイプを示します（たとえば、薬剤が消費または投与されると予想される場所（つまり、入院患者または外来患者））。　入院、外来、退院、自宅など。</t>
+投薬のタイプを示す（たとえば、薬剤が消費または投与されると予想される場所（つまり、入院患者または外来患者））。　入院、外来、退院、自宅など。</t>
   </si>
   <si>
     <t>The category can be used to include where the medication is expected to be consumed or other types of dispenses.  Invariants can be used to bind to different value sets when profiling to bind.</t>
@@ -1109,7 +1109,7 @@
   </si>
   <si>
     <t>Indicates the type of dispensing event that is performed. For example, Trial Fill, Completion of Trial, Partial Fill, Emergency Fill, Samples, etc.
-実行される調剤イベントのタイプを示します。たとえば、トライアルフィル、トライアルの完了、部分フィル、緊急フィル、サンプルなどです。</t>
+実行される調剤イベントのタイプを示す。たとえば、トライアルフィル、トライアルの完了、部分フィル、緊急フィル、サンプルなどである。</t>
   </si>
   <si>
     <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.
@@ -1147,7 +1147,7 @@
   </si>
   <si>
     <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.
-使用状況によって、これがどのような量であるか、したがってどのような単位を使用できるかが定義される場合がかなりあります。使用状況によっては、比較演算子の値も制限される場合がある。</t>
+使用状況によって、これがどのような量であるか、したがってどのような単位を使用できるかが定義される場合がかなりある。使用状況によっては、比較演算子の値も制限される場合がある。</t>
   </si>
   <si>
     <t>.quantity</t>
@@ -1400,8 +1400,8 @@
   </si>
   <si>
     <t>For systems that do not have structured annotations, they can simply communicate a single annotation with no author or time.  This element may need to be included in narrative because of the potential for modifying information.  *Annotations SHOULD NOT* be used to communicate "modifying" information that could be computable. (This is a SHOULD because enforcing user behavior is nearly impossible).
-構造化された注釈（アノテーション）を持たないシステムの場合、作成者や時間なしで単一の注釈を簡単に伝達できる。情報を変更する可能性があるため、この要素をナラティブに含める必要がある場合があります。 
-*注釈は、計算機処理れきる「変更」情報を伝達するために使用されるべきではない*。 （ユーザーの行動を強制することはほとんど不可能であるため、これはSHOULDです）。</t>
+構造化された注釈（アノテーション）を持たないシステムの場合、作成者や時間なしで単一の注釈を簡単に伝達できる。情報を変更する可能性があるため、この要素をナラティブに含める必要がある場合がある。 
+*注釈は、計算機処理れきる「変更」情報を伝達するために使用されるべきではない*。 （ユーザーの行動を強制することはほとんど不可能であるため、これはSHOULDとする）。</t>
   </si>
   <si>
     <t>Event.note</t>
@@ -1429,8 +1429,8 @@
   <si>
     <t>When the dose or rate is intended to change over the entire administration period (e.g. Tapering dose prescriptions), multiple instances of dosage instructions will need to be supplied to convey the different doses/rates. The pharmacist reviews the medication order prior to dispense and updates the dosageInstruction based on the actual product being dispensed.
-投与量または投与量が投与期間全体にわたって変更されることを意図している場合（例えば、漸減投与量処方）、異なる投与量/投与量を伝えるために投与指示の複数のインスタンスを提供する必要があります。
-薬剤師は、調剤する前に投薬順序を確認し、調剤される実際の製品に基づいて投薬指示を更新します。</t>
+投与量または投与量が投与期間全体にわたって変更されることを意図している場合（例えば、漸減投与量処方）、異なる投与量/投与量を伝えるために投与指示の複数のインスタンスを提供する必要がある。
+薬剤師は、調剤する前に投薬順序を確認し、調剤される実際の製品に基づいて投薬指示を更新する。</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP].target[classCode=SBADM, moodCode=INT]</t>
@@ -1518,7 +1518,7 @@
   </si>
   <si>
     <t>If the sequence number of multiple Dosages is the same, then it is implied that the instructions are to be treated as concurrent.  If the sequence number is different, then the Dosages are intended to be sequential.
-複数の投与量のシーケンス番号が同じである場合、命令は同時として扱われることを意味する。シーケンス番号が異なる場合、投与量は連続するように意図されています。</t>
+複数の投与量のシーケンス番号が同じである場合、命令は同時として扱われることを意味する。シーケンス番号が異なる場合、投与量は連続するように意図される。</t>
   </si>
   <si>
     <t>Dosage.sequence</t>
@@ -1541,7 +1541,7 @@
   </si>
   <si>
     <t>Free text dosage instructions can be used for cases where the instructions are too complex to code.  The content of this attribute does not include the name or description of the medication. When coded instructions are present, the free text instructions may still be present for display to humans taking or administering the medication. It is expected that the text instructions will always be populated.  If the dosage.timing attribute is also populated, then the dosage.text should reflect the same information as the timing.  Additional information about administration or preparation of the medication should be included as text.
-指示が複雑すぎてコーディングできない場合は、フリーテキストの投与指示を使用できる。この属性の内容には、薬の名前や説明は含まれない。コード化された指示が存在する場合、フリーテキストの指示は、薬を服用または投与している人間に表示するために存在している場合がある。テキストの指示は常に入力されることが期待されます。 dose.timing属性も同時に入力されている場合、dudgement.textはタイミングと同じ情報を反映している必要があり、薬の投与または準備に関する追加情報をテキストとして含める必要がある。</t>
+指示が複雑すぎてコーディングできない場合は、フリーテキストの投与指示を使用できる。この属性の内容には、薬の名前や説明は含まれない。コード化された指示が存在する場合、フリーテキストの指示は、薬を服用または投与している人間に表示するために存在している場合がある。テキストの指示は常に入力されることが期待される。 dose.timing属性も同時に入力されている場合、dudgement.textはタイミングと同じ情報を反映している必要があり、薬の投与または準備に関する追加情報をテキストとして含める必要がある。</t>
   </si>
   <si>
     <t>Dosage.text</t>
@@ -1553,7 +1553,7 @@
     <t>MedicationDispense.dosageInstruction.additionalInstruction</t>
   </si>
   <si>
-    <t>Supplemental instruction or warnings to the patient - e.g. "with meals", "may cause drowsiness"　患者への補足的な指示または警告-例： 「食事と一緒に」、「眠気を引き起こす可能性があります」</t>
+    <t>Supplemental instruction or warnings to the patient - e.g. "with meals", "may cause drowsiness"　患者への補足的な指示または警告-例： 「食事と一緒に」、「眠気を引き起こす可能性がある」</t>
   </si>
   <si>
     <t>Supplemental instructions to the patient on how to take the medication  (e.g. "with meals" or"take half to one hour before food") or warnings for the patient about the medication (e.g. "may cause drowsiness" or "avoid exposure of skin to direct sunlight or sunlamps").
@@ -2008,8 +2008,8 @@
   </si>
   <si>
     <t>Can express "as needed" without a reason by setting the Boolean = True.  In this case the CodeableConcept is not populated.  Or you can express "as needed" with a reason by including the CodeableConcept.  In this case the Boolean is assumed to be True.  If you set the Boolean to False, then the dose is given according to the schedule and is not "prn" or "as needed".
-ブール値= Trueを設定することにより、理由なしに「必要に応じて」表現できる。この場合、CodeableConceptは設定されないか、またはCodeableConceptを含めることで、理由を付けて「必要に応じて」表現することもできる。この場合、ブール値はTrueであると見なされます。
-ブール値をFalseに設定すると、投与量はスケジュールに従って与えられ、「prn」（ ＝as needed/as requiredの略記号）または「必要に応じて」ではありません。</t>
+ブール値= Trueを設定することにより、理由なしに「必要に応じて」表現できる。この場合、CodeableConceptは設定されないか、またはCodeableConceptを含めることで、理由を付けて「必要に応じて」表現することもできる。この場合、ブール値はTrueであると見なされる。
+ブール値をFalseに設定すると、投与量はスケジュールに従って与えられ、「prn」（ ＝as needed/as requiredの略記号）または「必要に応じて」ではない。</t>
   </si>
   <si>
     <t>A coded concept identifying the precondition that should be met or evaluated prior to consuming or administering a medication dose.  For example "pain", "30 minutes prior to sexual intercourse", "on flare-up" etc.</t>
@@ -2333,12 +2333,12 @@
 処方されたものとは異なる薬が調剤されたかどうかを示すコード。
 HL7 v3 Value Set ActSubstanceAdminSubstitutionCode　から以下のコードが使用できる。 
 E: 別の生物学的同等および治療的に同等の製品で置換が行われたか、許可された。
-EC: 代替品が発生したか、次のような別の製品で許可されています：同じ有効成分を含むが異なる塩で処方された代替医薬品、同じ有効成分を持つエステル医薬品同等物、強度、剤形、投与経路.
-BC: 代替が発生したか、同等のブランド間で許可されていますが、ジェネリックでは許可されない。
-G: 代替が発生したか、同等のジェネリック間で許可されていますが、ブランド間では許可されていません。
+EC: 代替品が発生したか、次のような別の製品で許可されている：同じ有効成分を含むが異なる塩で処方された代替医薬品、同じ有効成分を持つエステル医薬品同等物、強度、剤形、投与経路.
+BC: 代替が発生したか、同等のブランド間で許可されてるが、ジェネリックでは許可されない。
+G: 代替が発生したか、同等のジェネリック間で許可されているが、ブランド間では許可されない。
 TE:同じ治療目的と安全性プロファイルを持つ別の製品で代替が発生したか、許可された。
-TB:ジェネリック医薬品ではなく、治療的に同等のブランド間で代替品が発生したか、許可されています
-TG:治療的に同等のジェネリック間で置換が発生したか、許可されていますが、ブランドは許可されない。
+TB:ジェネリック医薬品ではなく、治療的に同等のブランド間で代替品が発生したか、許可されている
+TG:治療的に同等のジェネリック間で置換が発生したか、許可されているが、ブランドは許可されない。
 F:処方ガイドラインに準拠。
 N:置換は発生しなかったか、許可されていない。</t>
   </si>
@@ -2365,7 +2365,7 @@
   </si>
   <si>
     <t>Indicates the reason for the substitution (or lack of substitution) from what was prescribed.
-処方されたものからの置換（または置換の欠如）の理由を示します。
+処方されたものからの置換（または置換の欠如）の理由を示す。
 HL7 v3 Value Set SubstanceAdminSubstitutionReason　では以下のコードが定義されている。
 CT:治療継続性確保のため、FP:処方方針、 OS: 在庫欠品、  RR:代替えを義務付けまたは禁止する規制要件に従った</t>
   </si>
@@ -2772,7 +2772,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="141.22265625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="139.01953125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdispensebase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdispensebase.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4646" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4645" uniqueCount="761">
   <si>
     <t>Property</t>
   </si>
@@ -2686,9 +2686,7 @@
       <c r="A13" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>22</v>
-      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdispensebase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdispensebase.xlsx
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>Japan</t>
+    <t>JP</t>
   </si>
   <si>
     <t>Description</t>
@@ -261,8 +261,8 @@
     <t>指定された患者・個人へ薬剤が払い出されたか払い出される予定のものを示す。これには（供給される）提供される製品についての説明や薬剤の服用に関する指示も含まれる。薬剤払い出しは薬剤オーダーに対して薬局システムが対応した結果となる。</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}mdd-1:whenHandedOver cannot be before whenPrepared {whenHandedOver.empty() or whenPrepared.empty() or whenHandedOver &gt;= whenPrepared}</t>
+    <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}mdd-1:いつ準備されたときにハンドドーバーができないとき / whenHandedOver cannot be before whenPrepared {whenHandedOver.empty() or whenPrepared.empty() or whenHandedOver &gt;= whenPrepared}</t>
   </si>
   <si>
     <t>Event</t>
@@ -284,13 +284,13 @@
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+    <t>このアーティファクトの論理ID / Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>リソースのURLで使用されるリソースの論理ID。割り当てられたら、この値は変更されません。 / The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>リソースにIDがないのは、IDが作成操作を使用してサーバーに送信されている場合です。 / The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -303,16 +303,16 @@
 </t>
   </si>
   <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+    <t>リソースに関するメタデータ / Metadata about the resource</t>
+  </si>
+  <si>
+    <t>リソースに関するメタデータ。これは、インフラストラクチャによって維持されるコンテンツです。コンテンツの変更は、常にリソースのバージョンの変更に関連付けられているとは限りません。 / The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
   </si>
   <si>
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
@@ -323,13 +323,13 @@
 </t>
   </si>
   <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+    <t>このコンテンツが作成されたルールのセット / A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>リソースが構築されたときに従った一連のルールへの参照。コンテンツの処理時に理解する必要があります。多くの場合、これは他のプロファイルなどとともに特別なルールを定義する実装ガイドへの参照です。 / A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>このルールセットを主張することは、コンテンツが限られた取引パートナーのセットによってのみ理解されることを制限します。これにより、本質的に長期的にデータの有用性が制限されます。ただし、既存の健康エコシステムは非常に破壊されており、一般的に計算可能な意味でデータを定義、収集、交換する準備ができていません。可能な限り、実装者や仕様ライターはこの要素の使用を避ける必要があります。多くの場合、使用する場合、URLは、これらの特別なルールを他のプロファイル、バリューセットなどとともに叙述(Narative)の一部として定義する実装ガイドへの参照です。 / Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
   </si>
   <si>
     <t>Resource.implicitRules</t>
@@ -342,19 +342,19 @@
 </t>
   </si>
   <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+    <t>リソースコンテンツの言語 / Language of the resource content</t>
+  </si>
+  <si>
+    <t>リソースが書かれている基本言語。 / The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>言語は、インデックス作成とアクセシビリティをサポートするために提供されます（通常、テキストから音声までのサービスなどのサービスが言語タグを使用します）。叙述(Narative)のHTML言語タグは、叙述(Narative)に適用されます。リソース上の言語タグを使用して、リソース内のデータから生成された他のプレゼンテーションの言語を指定できます。すべてのコンテンツが基本言語である必要はありません。リソース。言語は、叙述(Narative)に自動的に適用されると想定されるべきではありません。言語が指定されている場合、HTMLのDIV要素にも指定されている場合（XML：LangとHTML Lang属性の関係については、HTML5のルールを参照してください）。 / Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
     <t>preferred</t>
   </si>
   <si>
-    <t>A human language.</t>
+    <t>人間の言語。 / A human language.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -374,13 +374,13 @@
 </t>
   </si>
   <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>人間の解釈のためのリソースのテキスト概要 / Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>リソースの概要を含み、人間へのリソースの内容を表すために使用できる人間の読み取り可能な叙述(Narative)。叙述(Narative)はすべての構造化されたデータをエンコードする必要はありませんが、人間が叙述(Narative)を読むだけで「臨床的に安全」にするために十分な詳細を含める必要があります。リソースの定義は、臨床的安全を確保するために、叙述(Narative)で表現するコンテンツを定義する場合があります。 / A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>含まれるリソースには叙述(Narative)がありません。含まれていないリソースには叙述(Narative)が必要です。場合によっては、リソースには、追加の個別のデータがほとんどまたはまったくないテキストのみがあります（すべてのMinoccur = 1要素が満たされている限り）。これは、情報がtext blob (バイナリー ラージ オブジェクト)としてキャプチャされるレガシーシステムからのデータ、またはテキストが生またはナレーションされ、エンコードされた情報が後で追加される場合に必要になる場合があります。 / Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -400,13 +400,13 @@
 </t>
   </si>
   <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+    <t>インラインリソースが含まれています / Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>これらのリソースには、それらを含むリソースを除いて独立した存在はありません - 独立して特定することはできず、独自の独立したトランザクションスコープを持つこともできません。 / These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>識別が失われると、コンテンツを適切に識別できる場合は、これを行うべきではありません。含まれるリソースには、メタ要素にプロファイルとタグがある場合がありますが、セキュリティラベルはありません。 / This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
@@ -438,8 +438,8 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>preparation</t>
@@ -466,17 +466,18 @@
 user content</t>
   </si>
   <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>無視できない拡張機能 / Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>リソースの基本的な定義の一部ではなく、それを含む要素の理解および/または含有要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義することが許可されていますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
+モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+    <t>拡張機能を使用または定義する機関や管轄権に関係なく、アプリケーション、プロジェクト、または標準による拡張機能の使用に関連するスティグマはありません。拡張機能の使用は、FHIR仕様がすべての人にコアレベルのシンプルさを保持できるようにするものです。 / There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>修飾子拡張機能により、安全に無視できる大部分の拡張機能と明確に区別できるように、安全に無視できない拡張機能が可能になります。これにより、実装者が拡張の存在を禁止する必要性を排除することにより、相互運用性が促進されます。詳細については、[修飾子拡張の定義]（拡張性.html＃modifierextension）を参照してください。 / Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -489,13 +490,13 @@
 </t>
   </si>
   <si>
-    <t>External identifier</t>
-  </si>
-  <si>
-    <t>Identifiers associated with this Medication Dispense that are defined by business processes and/or used to refer to it when a direct URL reference to the resource itself is not appropriate. They are business identifiers assigned to this resource by the performer or other systems and remain constant as the resource is updated and propagates from server to server.</t>
-  </si>
-  <si>
-    <t>This is a business identifier, not a resource identifier.</t>
+    <t>外部識別子 / External identifier</t>
+  </si>
+  <si>
+    <t>この薬物剤の分配に関連する識別子は、ビジネスプロセスによって定義され、および/またはリソース自体への直接のURL参照が適切ではない場合にそれを参照するために使用されます。これらは、パフォーマーまたは他のシステムによってこのリソースに割り当てられたビジネス識別子であり、リソースが更新され、サーバーからサーバーに伝播するため、一定のままです。 / Identifiers associated with this Medication Dispense that are defined by business processes and/or used to refer to it when a direct URL reference to the resource itself is not appropriate. They are business identifiers assigned to this resource by the performer or other systems and remain constant as the resource is updated and propagates from server to server.</t>
+  </si>
+  <si>
+    <t>これはビジネス識別子であり、リソース識別子ではありません。 / This is a business identifier, not a resource identifier.</t>
   </si>
   <si>
     <t>Event.identifier</t>
@@ -540,13 +541,13 @@
 一連の調剤イベントの状態を指定するコード。</t>
   </si>
   <si>
-    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
+    <t>この要素は、リソースを現在有効ではないとマークするコードが含まれているため、修飾子としてラベル付けされています。 / This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
   </si>
   <si>
     <t>required</t>
   </si>
   <si>
-    <t>A coded concept specifying the state of the dispense event.</t>
+    <t>ディスペンスイベントの状態を指定するコード化された概念。 / A coded concept specifying the state of the dispense event.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medicationdispense-status|4.0.1</t>
@@ -581,7 +582,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>A code describing why a dispense was not performed.</t>
+    <t>ディスペンスが実行されなかった理由を説明するコード。 / A code describing why a dispense was not performed.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medicationdispense-status-reason</t>
@@ -607,10 +608,10 @@
 投薬のタイプを示す（たとえば、薬剤が消費または投与されると予想される場所（つまり、入院患者または外来患者））。　入院、外来、退院、自宅など。</t>
   </si>
   <si>
-    <t>The category can be used to include where the medication is expected to be consumed or other types of dispenses.  Invariants can be used to bind to different value sets when profiling to bind.</t>
-  </si>
-  <si>
-    <t>A code describing where the dispensed medication is expected to be consumed or administered.</t>
+    <t>このカテゴリを使用して、薬が消費される場所または他の種類のディスペンスが予想される場所を含めることができます。不変剤を使用して、プロファイリングするときに異なる値セットにバインドできます。 / The category can be used to include where the medication is expected to be consumed or other types of dispenses.  Invariants can be used to bind to different value sets when profiling to bind.</t>
+  </si>
+  <si>
+    <t>分配された薬がどこで消費または投与されると予想されるコード。 / A code describing where the dispensed medication is expected to be consumed or administered.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medicationdispense-category</t>
@@ -644,7 +645,7 @@
 また、処方を発行した医療機関内でのデータ利用のために、医療機関固有コード体系によるコード（ハウスコード、ローカルコード）の記述を含めてもよいが、その場合でも上述したいずれかの標準コードを同時に記述することが必要である。</t>
   </si>
   <si>
-    <t>A coded concept identifying which substance or product can be dispensed.</t>
+    <t>どの物質または製品を分配できるかを特定するコード化された概念。 / A coded concept identifying which substance or product can be dispensed.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
@@ -691,10 +692,10 @@
     <t>MedicationDispense.medication[x].extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>実装で定義された追加のコンテンツ / Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>要素の基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Extensions are always sliced by (at least) url</t>
@@ -706,19 +707,19 @@
     <t>medicationCodeableConcept</t>
   </si>
   <si>
-    <t>What medication was supplied</t>
-  </si>
-  <si>
-    <t>Identifies the medication being administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.</t>
-  </si>
-  <si>
-    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>どの薬が供給されましたか / What medication was supplied</t>
+  </si>
+  <si>
+    <t>投与されている薬を特定します。これは、薬物の詳細を表すリソースへのリンクか、既知の薬物のリストから薬を識別するコードを運ぶ単純な属性です。 / Identifies the medication being administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.</t>
+  </si>
+  <si>
+    <t>コードのみが指定されている場合、特定の製品のコードである必要があります。より多くの情報が必要な場合は、投薬リソースの使用をお勧めします。たとえば、フォームまたはロット番号が必要な場合は、投薬リソースを参照する必要があります。 / If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.</t>
+  </si>
+  <si>
+    <t>要素間参照のための一意のID / Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>リソース内の要素の一意のID（内部参照用）。これは、スペースを含まない文字列値である場合があります。 / Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>MedicationDispense.medication[x].coding</t>
@@ -739,7 +740,7 @@
 </t>
   </si>
   <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+    <t>コードシステム内の代替エンコーディング、および他のコードシステムへの翻訳が可能になります。 / Allows for alternative encodings within a code system, and translations to other code systems.</t>
   </si>
   <si>
     <t>CodeableConcept.coding</t>
@@ -760,16 +761,16 @@
     <t>MedicationDispense.medication[x].coding.system</t>
   </si>
   <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+    <t>用語システムのアイデンティティ / Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>コード内のシンボルの意味を定義するコードシステムの識別。 / The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>uriは、oid（urn：oid：...）またはuuid（urn：uuid：...）である場合があります。OIDとUUIDは、HL7 OIDレジストリへの参照となります。それ以外の場合、URIは、FHIRの特別なURIを定義したHL7のリストから来るか、システムを明確かつ明確に確立する定義を参照する必要があります。 / The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>シンボルの定義のソースについて明確である必要があります。 / Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -784,13 +785,13 @@
     <t>MedicationDispense.medication[x].coding.version</t>
   </si>
   <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+    <t>システムのバージョン - 関連する場合 / Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>このコードを選択するときに使用されたコードシステムのバージョン。コードの意味がバージョン全体で一貫しているため、適切にメンテナンスしたコードシステムでは報告されたバージョンを必要としないことに注意してください。ただし、これは一貫して保証することはできず、意味が一貫していることが保証されていない場合、バージョンを交換する必要があります。 / The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>用語がコードシステムバージョンを識別するために使用する文字列を明確に定義していない場合、推奨は、そのバージョンがバージョンの日付として公式に公開された日付（FHIR日付形式で表現）を使用することです。 / Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
   </si>
   <si>
     <t>Coding.version</t>
@@ -805,13 +806,13 @@
     <t>MedicationDispense.medication[x].coding.code</t>
   </si>
   <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
+    <t>システムによって定義された構文のシンボル / Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>システムによって定義された構文のシンボル。シンボルは、定義されたコードまたはコーディングシステムによって定義された構文の式（例：調整後）である場合があります。 / A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>システム内の特定のコードを参照する必要があります。 / Need to refer to a particular code in the system.</t>
   </si>
   <si>
     <t>Coding.code</t>
@@ -826,13 +827,13 @@
     <t>MedicationDispense.medication[x].coding.display</t>
   </si>
   <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+    <t>システムによって定義された表現 / Representation defined by the system</t>
+  </si>
+  <si>
+    <t>システムのルールに従って、システム内のコードの意味の表現。 / A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>システムを知らない読者のために、コードの人間の読み取り可能な意味を持ち込むことができる必要があります。 / Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
   </si>
   <si>
     <t>Coding.display</t>
@@ -851,16 +852,16 @@
 </t>
   </si>
   <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+    <t>このコーディングがユーザーによって直接選択された場合 / If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>このコーディングがユーザーによって直接選択されたことを示します。利用可能なアイテムのピックリスト（コードまたはディスプレイ）。 / Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>一連の代替案の中で、直接選択されたコードが新しい翻訳の最も適切な出発点です。この要素の使用とその結果をより完全に明確にするためには、「直接選択された」ことについては曖昧さがあり、取引パートナー契約が必要になる場合があります。 / Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>これは、臨床安全基準として特定されています - この正確なシステム/コードペアは、いくつかのルールまたは言語処理に基づいてシステムによって推測されるのではなく、明示的に選択されたことです。 / This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
   </si>
   <si>
     <t>Coding.userSelected</t>
@@ -875,16 +876,16 @@
     <t>MedicationDispense.medication[x].text</t>
   </si>
   <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+    <t>コンセプトの単純なテキスト表現 / Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>データを入力したユーザー、および/またはユーザーの意図された意味を表すユーザーによって見られる/選択/発言された概念の人間の言語表現。 / A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>多くの場合、テキストはコーディングの1つの表示名と同じです。 / Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>用語からのコードは、それらを使用する人間のすべてのニュアンスを使用して、常に正しい意味をキャプチャするとは限りません。または、適切なコードがまったくない場合があります。これらの場合、テキストはソースの完全な意味をキャプチャするために使用されます。 / The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
   </si>
   <si>
     <t>CodeableConcept.text</t>
@@ -1006,10 +1007,11 @@
 user contentmodifiers</t>
   </si>
   <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>認識されていなくても無視できない拡張機能 / Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>要素の基本的な定義の一部ではなく、それが含まれている要素の理解、および/または含まれる要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
+モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
@@ -1019,16 +1021,16 @@
     <t>MedicationDispense.performer.function</t>
   </si>
   <si>
-    <t>Who performed the dispense and what they did</t>
-  </si>
-  <si>
-    <t>Distinguishes the type of performer in the dispense.  For example, date enterer, packager, final checker.</t>
-  </si>
-  <si>
-    <t>Allows disambiguation of the types of involvement of different performers.</t>
-  </si>
-  <si>
-    <t>A code describing the role an individual played in dispensing a medication.</t>
+    <t>誰がディスペンスを実行し、彼らがしたことを実行しました / Who performed the dispense and what they did</t>
+  </si>
+  <si>
+    <t>ディスペンスのパフォーマーのタイプを区別します。たとえば、Date Enterer、Packager、Final Checker。 / Distinguishes the type of performer in the dispense.  For example, date enterer, packager, final checker.</t>
+  </si>
+  <si>
+    <t>さまざまなパフォーマーの関与の種類の曖昧性を乱すことができます。 / Allows disambiguation of the types of involvement of different performers.</t>
+  </si>
+  <si>
+    <t>個人が薬物療法を調剤する上で果たした役割を説明するコード。 / A code describing the role an individual played in dispensing a medication.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medicationdispense-performer-function</t>
@@ -1044,10 +1046,10 @@
 </t>
   </si>
   <si>
-    <t>Individual who was performing</t>
-  </si>
-  <si>
-    <t>The device, practitioner, etc. who performed the action.  It should be assumed that the actor is the dispenser of the medication.</t>
+    <t>演奏していた個人 / Individual who was performing</t>
+  </si>
+  <si>
+    <t>アクションを実行したデバイス、開業医など。俳優は薬のディスペンサーであると想定されるべきです。 / The device, practitioner, etc. who performed the action.  It should be assumed that the actor is the dispenser of the medication.</t>
   </si>
   <si>
     <t>Event.performer.actor</t>
@@ -1087,7 +1089,7 @@
 調剤の元になった処方オーダを表すMedicationRequestリソースへの参照。</t>
   </si>
   <si>
-    <t>Maps to basedOn in Event logical model.</t>
+    <t>イベント論理モデルのベースンへのマップ。 / Maps to basedOn in Event logical model.</t>
   </si>
   <si>
     <t>Event.basedOn</t>
@@ -1105,7 +1107,7 @@
     <t>MedicationDispense.type</t>
   </si>
   <si>
-    <t>Trial fill, partial fill, emergency fill, etc.</t>
+    <t>トライアルフィル、部分充填、緊急充填など。 / Trial fill, partial fill, emergency fill, etc.</t>
   </si>
   <si>
     <t>Indicates the type of dispensing event that is performed. For example, Trial Fill, Completion of Trial, Partial Fill, Emergency Fill, Samples, etc.
@@ -1116,7 +1118,7 @@
 すべてのターミノロジーの使用がこの一般的なパターンに適合するわけではない。場合によっては、モデルはCodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素間の関係とpre-coordinationとpost-coordinationの用語関係を管理するための独自の構造を提供する必要がある。</t>
   </si>
   <si>
-    <t>Indicates the type of dispensing event that is performed. For example, Trial Fill, Completion of Trial, Partial Fill, Emergency Fill, Samples, etc.</t>
+    <t>実行される分配イベントのタイプを示します。たとえば、試行充填、試行の完了、部分充填、緊急充填、サンプルなど。 / Indicates the type of dispensing event that is performed. For example, Trial Fill, Completion of Trial, Partial Fill, Emergency Fill, Samples, etc.</t>
   </si>
   <si>
     <t>http://terminology.hl7.org/ValueSet/v3-ActPharmacySupplyType</t>
@@ -1172,16 +1174,16 @@
 </t>
   </si>
   <si>
-    <t>Numerical value (with implicit precision)</t>
-  </si>
-  <si>
-    <t>The value of the measured amount. The value includes an implicit precision in the presentation of the value.</t>
-  </si>
-  <si>
-    <t>The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
-  </si>
-  <si>
-    <t>Precision is handled implicitly in almost all cases of measurement.</t>
+    <t>数値（暗黙の精度を持つ） / Numerical value (with implicit precision)</t>
+  </si>
+  <si>
+    <t>測定量の値。値には、値の表示に暗黙の精度が含まれます。 / The value of the measured amount. The value includes an implicit precision in the presentation of the value.</t>
+  </si>
+  <si>
+    <t>値の暗黙の精度は常に尊重されるべきです。金銭的価値には、精度を処理するための独自のルールがあります（標準的な会計の教科書を参照）。 / The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
+  </si>
+  <si>
+    <t>精度は、測定のほとんどすべての場合に暗黙的に処理されます。 / Precision is handled implicitly in almost all cases of measurement.</t>
   </si>
   <si>
     <t>Quantity.value</t>
@@ -1196,19 +1198,19 @@
     <t>MedicationDispense.quantity.comparator</t>
   </si>
   <si>
-    <t>&lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
-  </si>
-  <si>
-    <t>Not allowed to be used in this context</t>
-  </si>
-  <si>
-    <t>Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
-  </si>
-  <si>
-    <t>If there is no comparator, then there is no modification of the value</t>
-  </si>
-  <si>
-    <t>How the Quantity should be understood and represented.</t>
+    <t>&lt;|&lt;= |&gt; = |&gt;  - 価値を理解する方法 / &lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
+  </si>
+  <si>
+    <t>この文脈で使用することは許可されていません / Not allowed to be used in this context</t>
+  </si>
+  <si>
+    <t>測定方法の制限があるため、値が&lt;5ug/Lまたは&gt; 400mg/Lの測定値を処理するためのフレームワークが必要です。 / Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
+  </si>
+  <si>
+    <t>コンパレータがない場合、値の変更はありません / If there is no comparator, then there is no modification of the value</t>
+  </si>
+  <si>
+    <t>量を理解し、表現する方法。 / How the Quantity should be understood and represented.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
@@ -1226,13 +1228,13 @@
     <t>MedicationDispense.quantity.unit</t>
   </si>
   <si>
-    <t>Unit representation</t>
-  </si>
-  <si>
-    <t>A human-readable form of the unit.</t>
-  </si>
-  <si>
-    <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
+    <t>ユニット表現 / Unit representation</t>
+  </si>
+  <si>
+    <t>ユニットの人間の読み取り可能な形式。 / A human-readable form of the unit.</t>
+  </si>
+  <si>
+    <t>測定単位には多くの表現があり、多くのコンテキストでは、特定の表現が固定され、必要です。すなわちマイクログラム用MCG。 / There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
   </si>
   <si>
     <t>Quantity.unit</t>
@@ -1247,13 +1249,13 @@
     <t>MedicationDispense.quantity.system</t>
   </si>
   <si>
-    <t>System that defines coded unit form</t>
-  </si>
-  <si>
-    <t>The identification of the system that provides the coded form of the unit.</t>
-  </si>
-  <si>
-    <t>Need to know the system that defines the coded form of the unit.</t>
+    <t>コード化されたユニットフォームを定義するシステム / System that defines coded unit form</t>
+  </si>
+  <si>
+    <t>ユニットのコード化された形式を提供するシステムの識別。 / The identification of the system that provides the coded form of the unit.</t>
+  </si>
+  <si>
+    <t>ユニットのコード化された形式を定義するシステムを知る必要があります。 / Need to know the system that defines the coded form of the unit.</t>
   </si>
   <si>
     <t>Quantity.system</t>
@@ -1272,13 +1274,13 @@
     <t>単位についてのコード形式</t>
   </si>
   <si>
-    <t>A computer processable form of the unit in some unit representation system.</t>
-  </si>
-  <si>
-    <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
-  </si>
-  <si>
-    <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
+    <t>一部のユニット表現システムのユニットのコンピューター処理可能な形式。 / A computer processable form of the unit in some unit representation system.</t>
+  </si>
+  <si>
+    <t>優先システムはUCUMですが、スノムCTは（慣習ユニットに）または通貨にISO 4217を使用することもできます。使用のコンテキストには、特定のシステムからのコードがさらに必要になる場合があります。 / The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
+  </si>
+  <si>
+    <t>すべてのフォームに固定されたユニットの計算可能な形式が必要です。UCUMはこれを数量で提供しますが、Snomed CTは多くの関心のある単位を提供します。 / Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
   </si>
   <si>
     <t>Quantity.code</t>
@@ -1560,13 +1562,13 @@
 薬の服用方法に関する補足的な指示（例：「食事と一緒に」または「食事の30分から1時間前に服用」）または薬に関する患者への警告（例：「眠気を引き起こす可能性がある」または「皮膚の露出を避ける」直射日光またはサンランプ」）。</t>
   </si>
   <si>
-    <t>Information about administration or preparation of the medication (e.g. "infuse as rapidly as possibly via intraperitoneal port" or "immediately following drug x") should be populated in dosage.text.</t>
-  </si>
-  <si>
-    <t>Additional instruction is intended to be coded, but where no code exists, the element could include text.  For example, "Swallow with plenty of water" which might or might not be coded.</t>
-  </si>
-  <si>
-    <t>A coded concept identifying additional instructions such as "take with water" or "avoid operating heavy machinery".</t>
+    <t>投与または薬物の調製に関する情報（例：「腹腔内ポートを介しておそらく迅速に注入する」または「薬物Xの直後」）は、用量で入力する必要があります。 / Information about administration or preparation of the medication (e.g. "infuse as rapidly as possibly via intraperitoneal port" or "immediately following drug x") should be populated in dosage.text.</t>
+  </si>
+  <si>
+    <t>追加の命令はコーディングすることを目的としていますが、コードが存在しない場合、要素にはテキストを含めることができます。たとえば、「十分な水で飲み込む」とコード化されているかもしれないし、そうでないかもしれません。 / Additional instruction is intended to be coded, but where no code exists, the element could include text.  For example, "Swallow with plenty of water" which might or might not be coded.</t>
+  </si>
+  <si>
+    <t>「水で取る」や「重機の操作を避ける」などの追加の指示を識別するコード化された概念。 / A coded concept identifying additional instructions such as "take with water" or "avoid operating heavy machinery".</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/additional-instruction-codes</t>
@@ -1606,10 +1608,10 @@
 JP Coreでは必須する。dosageInstruction.timing.code.coding.code, dosageInstruction.timing.code.coding.system が必ず存在しなければならない。</t>
   </si>
   <si>
-    <t>This attribute might not always be populated while the Dosage.text is expected to be populated.  If both are populated, then the Dosage.text should reflect the content of the Dosage.timing.</t>
-  </si>
-  <si>
-    <t>The timing schedule for giving the medication to the patient. This  data type allows many different expressions. For example: "Every 8 hours"; "Three times a day"; "1/2 an hour before breakfast for 10 days from 23-Dec 2011:"; "15 Oct 2013, 17 Oct 2013 and 1 Nov 2013".  Sometimes, a rate can imply duration when expressed as total volume / duration (e.g.  500mL/2 hours implies a duration of 2 hours).  However, when rate doesn't imply duration (e.g. 250mL/hour), then the timing.repeat.duration is needed to convey the infuse over time period.</t>
+    <t>この属性は、Dosage.Textが入力されると予想される間、常に埋め込まれるとは限りません。両方が入力されている場合、Dosage.textはDosage.timingの内容を反映する必要があります。 / This attribute might not always be populated while the Dosage.text is expected to be populated.  If both are populated, then the Dosage.text should reflect the content of the Dosage.timing.</t>
+  </si>
+  <si>
+    <t>患者に薬を与えるためのタイミングスケジュール。このデータ型により、さまざまな式が可能になります。たとえば、「8時間ごと」。"一日に三回";「2011年12月23日から10日間の朝食の1/2の1/2：」;「2013年10月15日、2013年10月17日、2013年11月1日」。時には、総量 /持続時間として表される場合、レートは期間を意味する場合があります（たとえば、500ml / 2時間は2時間の期間を意味します）。ただし、レートが期間（250ml/hour）を意味しない場合、期間にわたって注入を伝えるためにタイミング.repeat.durationが必要です。 / The timing schedule for giving the medication to the patient. This  data type allows many different expressions. For example: "Every 8 hours"; "Three times a day"; "1/2 an hour before breakfast for 10 days from 23-Dec 2011:"; "15 Oct 2013, 17 Oct 2013 and 1 Nov 2013".  Sometimes, a rate can imply duration when expressed as total volume / duration (e.g.  500mL/2 hours implies a duration of 2 hours).  However, when rate doesn't imply duration (e.g. 250mL/hour), then the timing.repeat.duration is needed to convey the infuse over time period.</t>
   </si>
   <si>
     <t>Dosage.timing</t>
@@ -1630,13 +1632,13 @@
     <t>MedicationDispense.dosageInstruction.timing.event</t>
   </si>
   <si>
-    <t>When the event occurs</t>
-  </si>
-  <si>
-    <t>Identifies specific times when the event occurs.</t>
-  </si>
-  <si>
-    <t>In a Medication Administration Record, for instance, you need to take a general specification, and turn it into a precise specification.</t>
+    <t>イベントが発生したとき / When the event occurs</t>
+  </si>
+  <si>
+    <t>イベントが発生する特定の時間を特定します。 / Identifies specific times when the event occurs.</t>
+  </si>
+  <si>
+    <t>たとえば、投薬投与の記録では、一般的な仕様を取得し、それを正確な仕様に変える必要があります。 / In a Medication Administration Record, for instance, you need to take a general specification, and turn it into a precise specification.</t>
   </si>
   <si>
     <t>Timing.event</t>
@@ -1652,20 +1654,20 @@
 </t>
   </si>
   <si>
-    <t>When the event is to occur</t>
-  </si>
-  <si>
-    <t>A set of rules that describe when the event is scheduled.</t>
-  </si>
-  <si>
-    <t>Many timing schedules are determined by regular repetitions.</t>
+    <t>イベントが発生する場合 / When the event is to occur</t>
+  </si>
+  <si>
+    <t>イベントがスケジュールされたときに説明する一連のルール。 / A set of rules that describe when the event is scheduled.</t>
+  </si>
+  <si>
+    <t>多くのタイミングスケジュールは、定期的な繰り返しによって決定されます。 / Many timing schedules are determined by regular repetitions.</t>
   </si>
   <si>
     <t>Timing.repeat</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-tim-1:if there's a duration, there needs to be duration units {duration.empty() or durationUnit.exists()}tim-2:if there's a period, there needs to be period units {period.empty() or periodUnit.exists()}tim-4:duration SHALL be a non-negative value {duration.exists() implies duration &gt;= 0}tim-5:period SHALL be a non-negative value {period.exists() implies period &gt;= 0}tim-6:If there's a periodMax, there must be a period {periodMax.empty() or period.exists()}tim-7:If there's a durationMax, there must be a duration {durationMax.empty() or duration.exists()}tim-8:If there's a countMax, there must be a count {countMax.empty() or count.exists()}tim-9:If there's an offset, there must be a when (and not C, CM, CD, CV) {offset.empty() or (when.exists() and ((when in ('C' | 'CM' | 'CD' | 'CV')).not()))}tim-10:If there's a timeOfDay, there cannot be a when, or vice versa {timeOfDay.empty() or when.empty()}</t>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+tim-1:期間がある場合は、期間単位が必要です / if there's a duration, there needs to be duration units {duration.empty() or durationUnit.exists()}tim-2:期間がある場合、期間単位が必要です / if there's a period, there needs to be period units {period.empty() or periodUnit.exists()}tim-4:期間は非陰性価値です / duration SHALL be a non-negative value {duration.exists() implies duration &gt;= 0}tim-5:期間は非陰性の価値です / period SHALL be a non-negative value {period.exists() implies period &gt;= 0}tim-6:期間がある場合、期間がなければなりません / If there's a periodMax, there must be a period {periodMax.empty() or period.exists()}tim-7:Hurtermaxがある場合、期間がなければなりません / If there's a durationMax, there must be a duration {durationMax.empty() or duration.exists()}tim-8:countmaxがある場合、カウントが必要です / If there's a countMax, there must be a count {countMax.empty() or count.exists()}tim-9:オフセットがある場合、c、cm、cd、cvではなく（c、cvではない）存在する必要があります。 / If there's an offset, there must be a when (and not C, CM, CD, CV) {offset.empty() or (when.exists() and ((when in ('C' | 'CM' | 'CD' | 'CV')).not()))}tim-10:時間がある場合、いつ、またはその逆もありません / If there's a timeOfDay, there cannot be a when, or vice versa {timeOfDay.empty() or when.empty()}</t>
   </si>
   <si>
     <t>Implies PIVL or EIVL</t>
@@ -1684,10 +1686,10 @@
 RangePeriod</t>
   </si>
   <si>
-    <t>Length/Range of lengths, or (Start and/or end) limits</t>
-  </si>
-  <si>
-    <t>Either a duration for the length of the timing schedule, a range of possible length, or outer bounds for start and/or end limits of the timing schedule.</t>
+    <t>長さ/長さの範囲、または（開始および/または終了）制限 / Length/Range of lengths, or (Start and/or end) limits</t>
+  </si>
+  <si>
+    <t>タイミングスケジュールの長さの期間、可能な長さの範囲、またはタイミングスケジュールの開始および/または終了制限の外側の境界のいずれか。 / Either a duration for the length of the timing schedule, a range of possible length, or outer bounds for start and/or end limits of the timing schedule.</t>
   </si>
   <si>
     <t>Timing.repeat.bounds[x]</t>
@@ -1703,16 +1705,16 @@
 </t>
   </si>
   <si>
-    <t>Number of times to repeat</t>
-  </si>
-  <si>
-    <t>A total count of the desired number of repetitions across the duration of the entire timing specification. If countMax is present, this element indicates the lower bound of the allowed range of count values.</t>
-  </si>
-  <si>
-    <t>If you have both bounds and count, then this should be understood as within the bounds period, until count times happens.</t>
-  </si>
-  <si>
-    <t>Repetitions may be limited by end time or total occurrences.</t>
+    <t>繰り返す回数 / Number of times to repeat</t>
+  </si>
+  <si>
+    <t>タイミング仕様全体の期間にわたる繰り返しの希望数の合計数。CountMaxが存在する場合、この要素は、カウント値の許容範囲の下限を示します。 / A total count of the desired number of repetitions across the duration of the entire timing specification. If countMax is present, this element indicates the lower bound of the allowed range of count values.</t>
+  </si>
+  <si>
+    <t>境界とカウントの両方がある場合、これは、カウント時間が発生するまで、境界期間内に理解する必要があります。 / If you have both bounds and count, then this should be understood as within the bounds period, until count times happens.</t>
+  </si>
+  <si>
+    <t>繰り返しは、終了時間または合計発生によって制限される場合があります。 / Repetitions may be limited by end time or total occurrences.</t>
   </si>
   <si>
     <t>Timing.repeat.count</t>
@@ -1724,10 +1726,10 @@
     <t>MedicationDispense.dosageInstruction.timing.repeat.countMax</t>
   </si>
   <si>
-    <t>Maximum number of times to repeat</t>
-  </si>
-  <si>
-    <t>If present, indicates that the count is a range - so to perform the action between [count] and [countMax] times.</t>
+    <t>繰り返す最大回数 / Maximum number of times to repeat</t>
+  </si>
+  <si>
+    <t>存在する場合、カウントが範囲であることを示します -  [count]と[countmax]時間の間のアクションを実行するために。 / If present, indicates that the count is a range - so to perform the action between [count] and [countMax] times.</t>
   </si>
   <si>
     <t>Timing.repeat.countMax</t>
@@ -1736,16 +1738,16 @@
     <t>MedicationDispense.dosageInstruction.timing.repeat.duration</t>
   </si>
   <si>
-    <t>How long when it happens</t>
-  </si>
-  <si>
-    <t>How long this thing happens for when it happens. If durationMax is present, this element indicates the lower bound of the allowed range of the duration.</t>
-  </si>
-  <si>
-    <t>For some events the duration is part of the definition of the event (e.g. IV infusions, where the duration is implicit in the specified quantity and rate). For others, it's part of the timing specification (e.g. exercise).</t>
-  </si>
-  <si>
-    <t>Some activities are not instantaneous and need to be maintained for a period of time.</t>
+    <t>それが起こったときの期間 / How long when it happens</t>
+  </si>
+  <si>
+    <t>これが発生したときにこれがどのくらい起こるか。durationmaxが存在する場合、この要素は、持続時間の許容範囲の下限を示します。 / How long this thing happens for when it happens. If durationMax is present, this element indicates the lower bound of the allowed range of the duration.</t>
+  </si>
+  <si>
+    <t>一部のイベントでは、期間はイベントの定義の一部です（例：IV注入、指定された数量とレートで持続時間が暗黙的です）。他の人にとっては、タイミング仕様の一部です（エクササイズなど）。 / For some events the duration is part of the definition of the event (e.g. IV infusions, where the duration is implicit in the specified quantity and rate). For others, it's part of the timing specification (e.g. exercise).</t>
+  </si>
+  <si>
+    <t>一部のアクティビティは瞬間的ではなく、一定期間維持する必要があります。 / Some activities are not instantaneous and need to be maintained for a period of time.</t>
   </si>
   <si>
     <t>Timing.repeat.duration</t>
@@ -1757,10 +1759,10 @@
     <t>MedicationDispense.dosageInstruction.timing.repeat.durationMax</t>
   </si>
   <si>
-    <t>How long when it happens (Max)</t>
-  </si>
-  <si>
-    <t>If present, indicates that the duration is a range - so to perform the action between [duration] and [durationMax] time length.</t>
+    <t>それが起こったときの期間（最大） / How long when it happens (Max)</t>
+  </si>
+  <si>
+    <t>存在する場合は、持続時間が範囲であることを示します -  [持続時間]と[hurtermax]時間の長さの間のアクションを実行するために。 / If present, indicates that the duration is a range - so to perform the action between [duration] and [durationMax] time length.</t>
   </si>
   <si>
     <t>Timing.repeat.durationMax</t>
@@ -1769,13 +1771,13 @@
     <t>MedicationDispense.dosageInstruction.timing.repeat.durationUnit</t>
   </si>
   <si>
-    <t>s | min | h | d | wk | mo | a - unit of time (UCUM)</t>
-  </si>
-  <si>
-    <t>The units of time for the duration, in UCUM units.</t>
-  </si>
-  <si>
-    <t>A unit of time (units from UCUM).</t>
+    <t>s |min |h |d |wk |mo |A-時間単位（ucum） / s | min | h | d | wk | mo | a - unit of time (UCUM)</t>
+  </si>
+  <si>
+    <t>UCUMユニットの期間の時間単位。 / The units of time for the duration, in UCUM units.</t>
+  </si>
+  <si>
+    <t>時間単位（UCUMからの単位）。 / A unit of time (units from UCUM).</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/units-of-time|4.0.1</t>
@@ -1790,13 +1792,13 @@
     <t>MedicationDispense.dosageInstruction.timing.repeat.frequency</t>
   </si>
   <si>
-    <t>Event occurs frequency times per period</t>
-  </si>
-  <si>
-    <t>The number of times to repeat the action within the specified period. If frequencyMax is present, this element indicates the lower bound of the allowed range of the frequency.</t>
-  </si>
-  <si>
-    <t>If no frequency is stated, the assumption is that the event occurs once per period, but systems SHOULD always be specific about this</t>
+    <t>イベントは、期間ごとに周波数時間が発生します / Event occurs frequency times per period</t>
+  </si>
+  <si>
+    <t>指定された期間内にアクションを繰り返す回数。FrequencyMaxが存在する場合、この要素は周波数の許容範囲の下限を示します。 / The number of times to repeat the action within the specified period. If frequencyMax is present, this element indicates the lower bound of the allowed range of the frequency.</t>
+  </si>
+  <si>
+    <t>頻度が記載されていない場合、イベントは期間ごとに1回発生するという仮定ですが、システムは常にこれについて具体的でなければなりません / If no frequency is stated, the assumption is that the event occurs once per period, but systems SHOULD always be specific about this</t>
   </si>
   <si>
     <t>Timing.repeat.frequency</t>
@@ -1805,10 +1807,10 @@
     <t>MedicationDispense.dosageInstruction.timing.repeat.frequencyMax</t>
   </si>
   <si>
-    <t>Event occurs up to frequencyMax times per period</t>
-  </si>
-  <si>
-    <t>If present, indicates that the frequency is a range - so to repeat between [frequency] and [frequencyMax] times within the period or period range.</t>
+    <t>イベントは、期間ごとに頻繁な時間まで発生します / Event occurs up to frequencyMax times per period</t>
+  </si>
+  <si>
+    <t>存在する場合は、周波数が範囲であることを示します。これにより、[周波数]と[周波数]時間と期間範囲内で[周波数]時間と[周波数]時間の間を繰り返すことを示します。 / If present, indicates that the frequency is a range - so to repeat between [frequency] and [frequencyMax] times within the period or period range.</t>
   </si>
   <si>
     <t>Timing.repeat.frequencyMax</t>
@@ -1817,7 +1819,7 @@
     <t>MedicationDispense.dosageInstruction.timing.repeat.period</t>
   </si>
   <si>
-    <t>Indicates the duration of time over which repetitions are to occur; e.g. to express "3 times per day", 3 would be the frequency and "1 day" would be the period. If periodMax is present, this element indicates the lower bound of the allowed range of the period length.</t>
+    <t>繰り返しが発生する期間を示します。例えば「1日3回」を表現するために、3が頻度で、「1日」が期間になります。周期ムックスが存在する場合、この要素は、期間長の許容範囲の下限を示します。 / Indicates the duration of time over which repetitions are to occur; e.g. to express "3 times per day", 3 would be the frequency and "1 day" would be the period. If periodMax is present, this element indicates the lower bound of the allowed range of the period length.</t>
   </si>
   <si>
     <t>Timing.repeat.period</t>
@@ -1826,10 +1828,10 @@
     <t>MedicationDispense.dosageInstruction.timing.repeat.periodMax</t>
   </si>
   <si>
-    <t>Upper limit of period (3-4 hours)</t>
-  </si>
-  <si>
-    <t>If present, indicates that the period is a range from [period] to [periodMax], allowing expressing concepts such as "do this once every 3-5 days.</t>
+    <t>期間の上限（3〜4時間） / Upper limit of period (3-4 hours)</t>
+  </si>
+  <si>
+    <t>存在する場合は、期間が[期間]から[Periodmax]までの範囲であることを示し、「3〜5日ごとにこれを行う」などの概念を表現することができます。 / If present, indicates that the period is a range from [period] to [periodMax], allowing expressing concepts such as "do this once every 3-5 days.</t>
   </si>
   <si>
     <t>Timing.repeat.periodMax</t>
@@ -1838,7 +1840,7 @@
     <t>MedicationDispense.dosageInstruction.timing.repeat.periodUnit</t>
   </si>
   <si>
-    <t>The units of time for the period in UCUM units.</t>
+    <t>UCUMユニットの期間の時間単位。 / The units of time for the period in UCUM units.</t>
   </si>
   <si>
     <t>Timing.repeat.periodUnit</t>
@@ -1847,13 +1849,13 @@
     <t>MedicationDispense.dosageInstruction.timing.repeat.dayOfWeek</t>
   </si>
   <si>
-    <t>mon | tue | wed | thu | fri | sat | sun</t>
-  </si>
-  <si>
-    <t>If one or more days of week is provided, then the action happens only on the specified day(s).</t>
-  </si>
-  <si>
-    <t>If no days are specified, the action is assumed to happen every day as otherwise specified. The elements frequency and period cannot be used as well as dayOfWeek.</t>
+    <t>月|火|水|木|金|土|太陽 / mon | tue | wed | thu | fri | sat | sun</t>
+  </si>
+  <si>
+    <t>1週間以上の週が提供されている場合、アクションは指定された日にのみ発生します。 / If one or more days of week is provided, then the action happens only on the specified day(s).</t>
+  </si>
+  <si>
+    <t>日数が指定されていない場合、その他の方法では、アクションが毎日発生すると想定されています。要素の頻度と期間は、Dayofeekと同様に使用することはできません。 / If no days are specified, the action is assumed to happen every day as otherwise specified. The elements frequency and period cannot be used as well as dayOfWeek.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/days-of-week|4.0.1</t>
@@ -1869,13 +1871,13 @@
 </t>
   </si>
   <si>
-    <t>Time of day for action</t>
-  </si>
-  <si>
-    <t>Specified time of day for action to take place.</t>
-  </si>
-  <si>
-    <t>When time of day is specified, it is inferred that the action happens every day (as filtered by dayofWeek) on the specified times. The elements when, frequency and period cannot be used as well as timeOfDay.</t>
+    <t>アクションの時間 / Time of day for action</t>
+  </si>
+  <si>
+    <t>アクションが発生するための特定の時刻。 / Specified time of day for action to take place.</t>
+  </si>
+  <si>
+    <t>時刻が指定されている場合、指定された時間にアクションが毎日（Dayofeekでフィルタリングされているように）発生すると推測されます。要素、頻度、および期間を使用できない場合、および時間の時間は使用できません。 / When time of day is specified, it is inferred that the action happens every day (as filtered by dayofWeek) on the specified times. The elements when, frequency and period cannot be used as well as timeOfDay.</t>
   </si>
   <si>
     <t>Timing.repeat.timeOfDay</t>
@@ -1884,19 +1886,19 @@
     <t>MedicationDispense.dosageInstruction.timing.repeat.when</t>
   </si>
   <si>
-    <t>Code for time period of occurrence</t>
-  </si>
-  <si>
-    <t>An approximate time period during the day, potentially linked to an event of daily living that indicates when the action should occur.</t>
-  </si>
-  <si>
-    <t>When more than one event is listed, the event is tied to the union of the specified events.</t>
-  </si>
-  <si>
-    <t>Timings are frequently determined by occurrences such as waking, eating and sleep.</t>
-  </si>
-  <si>
-    <t>Real world event relating to the schedule.</t>
+    <t>発生期間のコード / Code for time period of occurrence</t>
+  </si>
+  <si>
+    <t>日中のおおよその期間は、アクションがいつ発生するかを示す日常生活のイベントにリンクされる可能性があります。 / An approximate time period during the day, potentially linked to an event of daily living that indicates when the action should occur.</t>
+  </si>
+  <si>
+    <t>複数のイベントがリストされている場合、イベントは指定されたイベントの連合と結びついています。 / When more than one event is listed, the event is tied to the union of the specified events.</t>
+  </si>
+  <si>
+    <t>タイミングは、目覚め、食事、睡眠などの発生によって頻繁に決定されます。 / Timings are frequently determined by occurrences such as waking, eating and sleep.</t>
+  </si>
+  <si>
+    <t>スケジュールに関連する現実世界のイベント。 / Real world event relating to the schedule.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/event-timing|4.0.1</t>
@@ -1915,10 +1917,10 @@
 </t>
   </si>
   <si>
-    <t>Minutes from event (before or after)</t>
-  </si>
-  <si>
-    <t>The number of minutes from the event. If the event code does not indicate whether the minutes is before or after the event, then the offset is assumed to be after the event.</t>
+    <t>イベントから数分（前または後） / Minutes from event (before or after)</t>
+  </si>
+  <si>
+    <t>イベントから数分数。イベントコードがイベントの前か後の議事録であるかどうかを示していない場合、オフセットはイベント後にあると想定されます。 / The number of minutes from the event. If the event code does not indicate whether the minutes is before or after the event, then the offset is assumed to be after the event.</t>
   </si>
   <si>
     <t>Timing.repeat.offset</t>
@@ -1930,16 +1932,16 @@
     <t>MedicationDispense.dosageInstruction.timing.code</t>
   </si>
   <si>
-    <t>BID | TID | QID | AM | PM | QD | QOD | +</t>
-  </si>
-  <si>
-    <t>A code for the timing schedule (or just text in code.text). Some codes such as BID are ubiquitous, but many institutions define their own additional codes. If a code is provided, the code is understood to be a complete statement of whatever is specified in the structured timing data, and either the code or the data may be used to interpret the Timing, with the exception that .repeat.bounds still applies over the code (and is not contained in the code).</t>
-  </si>
-  <si>
-    <t>BID etc. are defined as 'at institutionally specified times'. For example, an institution may choose that BID is "always at 7am and 6pm".  If it is inappropriate for this choice to be made, the code BID should not be used. Instead, a distinct organization-specific code should be used in place of the HL7-defined BID code and/or a structured representation should be used (in this case, specifying the two event times).</t>
-  </si>
-  <si>
-    <t>Code for a known / defined timing pattern.</t>
+    <t>入札|TID |QID |AM |PM |QD |qod |+ / BID | TID | QID | AM | PM | QD | QOD | +</t>
+  </si>
+  <si>
+    <t>タイミングスケジュールのコード（またはCode.textのテキストのみ）。BIDなどの一部のコードは遍在していますが、多くの機関は独自の追加コードを定義しています。コードが提供されている場合、コードは構造化されたタイミングデータで指定されているものの完全なステートメントであると理解され、CODEまたはデータを使用してタイミングを解釈することができます。コードを介して（コードに含まれていません）。 / A code for the timing schedule (or just text in code.text). Some codes such as BID are ubiquitous, but many institutions define their own additional codes. If a code is provided, the code is understood to be a complete statement of whatever is specified in the structured timing data, and either the code or the data may be used to interpret the Timing, with the exception that .repeat.bounds still applies over the code (and is not contained in the code).</t>
+  </si>
+  <si>
+    <t>入札などは、「制度的に指定された時間」として定義されます。たとえば、機関は、入札が「常に午前7時と午後6時」であることを選択する場合があります。この選択が行われるのが不適切な場合は、コード入札を使用しないでください。代わりに、HL7定義の入札コードおよび/または構造化された表現の代わりに、異なる組織固有のコードを使用する必要があります（この場合、2つのイベント時間を指定）。 / BID etc. are defined as 'at institutionally specified times'. For example, an institution may choose that BID is "always at 7am and 6pm".  If it is inappropriate for this choice to be made, the code BID should not be used. Instead, a distinct organization-specific code should be used in place of the HL7-defined BID code and/or a structured representation should be used (in this case, specifying the two event times).</t>
+  </si>
+  <si>
+    <t>既知 /定義されたタイミングパターンのコード。 / Code for a known / defined timing pattern.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/timing-abbreviation</t>
@@ -1960,13 +1962,13 @@
     <t>MedicationDispense.dosageInstruction.timing.code.coding</t>
   </si>
   <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+    <t>用語システムによって定義されたコード / Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>用語システムによって定義されたコードへの参照。 / A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>コードは、列挙されたCTなどの非常に正式な定義まで、列挙またはコードリストで非常にさりげなく定義される場合があります。詳細については、HL7 V3コアプリンシップを参照してください。コーディングの順序付けは未定義であり、意味を推測するために使用されません。一般に、せいぜい、コーディング値の1つのみがuserselected = trueとしてラベル付けされます。 / Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
   </si>
   <si>
     <t>MedicationDispense.dosageInstruction.timing.code.coding.id</t>
@@ -2012,7 +2014,7 @@
 ブール値をFalseに設定すると、投与量はスケジュールに従って与えられ、「prn」（ ＝as needed/as requiredの略記号）または「必要に応じて」ではない。</t>
   </si>
   <si>
-    <t>A coded concept identifying the precondition that should be met or evaluated prior to consuming or administering a medication dose.  For example "pain", "30 minutes prior to sexual intercourse", "on flare-up" etc.</t>
+    <t>薬剤を消費または投与する前に満たすか評価する必要がある前提条件を特定するコード化された概念。たとえば、「痛み」、「性交の30分前」、「フレアアップ上」など。 / A coded concept identifying the precondition that should be met or evaluated prior to consuming or administering a medication dose.  For example "pain", "30 minutes prior to sexual intercourse", "on flare-up" etc.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medication-as-needed-reason</t>
@@ -2041,10 +2043,10 @@
 ユースケースでBodySiteリソースの属性が必要な場合（たとえば、個別に識別して追跡するため）、標準の拡張機能[bodySite]（extension-bodysite.html）を使用する。要約コード、または場所の非常に正確な定義への参照、あるいはその両方である可能性がある。</t>
   </si>
   <si>
-    <t>A coded specification of the anatomic site where the medication first enters the body.</t>
-  </si>
-  <si>
-    <t>A coded concept describing the site location the medicine enters into or onto the body.</t>
+    <t>薬が最初に体に入る解剖学的部位のコード化された仕様。 / A coded specification of the anatomic site where the medication first enters the body.</t>
+  </si>
+  <si>
+    <t>薬が身体に入る、または体に入るサイトの場所を説明するコード化された概念。 / A coded concept describing the site location the medicine enters into or onto the body.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/approach-site-codes</t>
@@ -2074,7 +2076,7 @@
 患者の体内または体内へ​​の治療薬の投与経路または生理学的経路を指定するコード。</t>
   </si>
   <si>
-    <t>A coded concept describing the route or physiological path of administration of a therapeutic agent into or onto the body of a subject.</t>
+    <t>被験者の体への、またはそれへの治療剤の投与の経路または生理学的経路を説明するコード化された概念。 / A coded concept describing the route or physiological path of administration of a therapeutic agent into or onto the body of a subject.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/route-codes</t>
@@ -2100,13 +2102,13 @@
 JAMI処方・注射オーダ標準用法規格(用法詳細区分)。</t>
   </si>
   <si>
-    <t>Terminologies used often pre-coordinate this term with the route and or form of administration.</t>
-  </si>
-  <si>
-    <t>A coded value indicating the method by which the medication is introduced into or onto the body. Most commonly used for injections.  For examples, Slow Push; Deep IV.</t>
-  </si>
-  <si>
-    <t>A coded concept describing the technique by which the medicine is administered.</t>
+    <t>使用される用語は、多くの場合、この用語をルートおよびまたは形式の投与とともに前調整します。 / Terminologies used often pre-coordinate this term with the route and or form of administration.</t>
+  </si>
+  <si>
+    <t>薬が体内に導入される方法を示すコード化された値。最も一般的に注射に使用されます。たとえば、スロープッシュ。ディープIV。 / A coded value indicating the method by which the medication is introduced into or onto the body. Most commonly used for injections.  For examples, Slow Push; Deep IV.</t>
+  </si>
+  <si>
+    <t>薬が投与される手法を説明するコード化された概念。 / A coded concept describing the technique by which the medicine is administered.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/administration-method-codes</t>
@@ -2124,7 +2126,7 @@
     <t>MedicationDispense.dosageInstruction.doseAndRate</t>
   </si>
   <si>
-    <t>Amount of medication administered</t>
+    <t>投与される薬の量 / Amount of medication administered</t>
   </si>
   <si>
     <t>The amount of medication administered.</t>
@@ -2145,16 +2147,16 @@
     <t>MedicationDispense.dosageInstruction.doseAndRate.type</t>
   </si>
   <si>
-    <t>The kind of dose or rate specified</t>
-  </si>
-  <si>
-    <t>The kind of dose or rate specified, for example, ordered or calculated.</t>
-  </si>
-  <si>
-    <t>If the type is not populated, assume to be "ordered".</t>
-  </si>
-  <si>
-    <t>The kind of dose or rate specified.</t>
+    <t>指定された用量またはレートの種類 / The kind of dose or rate specified</t>
+  </si>
+  <si>
+    <t>たとえば、指定された用量またはレートの種類は、注文または計算されました。 / The kind of dose or rate specified, for example, ordered or calculated.</t>
+  </si>
+  <si>
+    <t>タイプが入力されていない場合は、「順序付け」と仮定します。 / If the type is not populated, assume to be "ordered".</t>
+  </si>
+  <si>
+    <t>指定された用量またはレートの種類。 / The kind of dose or rate specified.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/dose-rate-type</t>
@@ -2173,16 +2175,16 @@
 Quantity {SimpleQuantity}</t>
   </si>
   <si>
-    <t>Amount of medication per dose</t>
-  </si>
-  <si>
-    <t>Amount of medication per dose.</t>
-  </si>
-  <si>
-    <t>Note that this specifies the quantity of the specified medication, not the quantity for each active ingredient(s). Each ingredient amount can be communicated in the Medication resource. For example, if one wants to communicate that a tablet was 375 mg, where the dose was one tablet, you can use the Medication resource to document that the tablet was comprised of 375 mg of drug XYZ. Alternatively if the dose was 375 mg, then you may only need to use the Medication resource to indicate this was a tablet. If the example were an IV such as dopamine and you wanted to communicate that 400mg of dopamine was mixed in 500 ml of some IV solution, then this would all be communicated in the Medication resource. If the administration is not intended to be instantaneous (rate is present or timing has a duration), this can be specified to convey the total amount to be administered over the period of time as indicated by the schedule e.g. 500 ml in dose, with timing used to convey that this should be done over 4 hours.</t>
-  </si>
-  <si>
-    <t>The amount of therapeutic or other substance given at one administration event.</t>
+    <t>用量あたりの薬の量 / Amount of medication per dose</t>
+  </si>
+  <si>
+    <t>用量あたりの薬の量。 / Amount of medication per dose.</t>
+  </si>
+  <si>
+    <t>これは、各有効成分の量ではなく、指定された薬の量を指定することに注意してください。各成分の量は、投薬資源で伝えることができます。たとえば、タブレットが375 mgであることを伝えたい場合は、用量が1つの錠剤であることを伝えたい場合は、薬物リソースを使用して、錠剤が375 mgの薬物XYZで構成されていることを文書化できます。あるいは、用量が375 mgの場合、これが錠剤であることを示すために投薬資源を使用するだけでいいかもしれません。例がドーパミンなどのIVであり、400mgのドーパミンが500 mLのIV溶液で混合されたことを伝えたい場合、これはすべて投薬資源で伝えられます。政権が瞬時であることを意図していない場合（レートが存在するか、タイミングに期間があります）、これは、スケジュールで示されるように、期間にわたって管理される合計額を伝えるために指定できます。 500 mlの用量で、これを4時間以上行う必要があることを伝えるタイミングが使用されます。 / Note that this specifies the quantity of the specified medication, not the quantity for each active ingredient(s). Each ingredient amount can be communicated in the Medication resource. For example, if one wants to communicate that a tablet was 375 mg, where the dose was one tablet, you can use the Medication resource to document that the tablet was comprised of 375 mg of drug XYZ. Alternatively if the dose was 375 mg, then you may only need to use the Medication resource to indicate this was a tablet. If the example were an IV such as dopamine and you wanted to communicate that 400mg of dopamine was mixed in 500 ml of some IV solution, then this would all be communicated in the Medication resource. If the administration is not intended to be instantaneous (rate is present or timing has a duration), this can be specified to convey the total amount to be administered over the period of time as indicated by the schedule e.g. 500 ml in dose, with timing used to convey that this should be done over 4 hours.</t>
+  </si>
+  <si>
+    <t>1つの投与イベントで与えられた治療またはその他の物質の量。 / The amount of therapeutic or other substance given at one administration event.</t>
   </si>
   <si>
     <t>Dosage.doseAndRate.dose[x]</t>
@@ -2198,18 +2200,20 @@
 RangeQuantity {SimpleQuantity}</t>
   </si>
   <si>
-    <t>Amount of medication per unit of time</t>
-  </si>
-  <si>
-    <t>Amount of medication per unit of time.</t>
-  </si>
-  <si>
-    <t>It is possible to supply both a rate and a doseQuantity to provide full details about how the medication is to be administered and supplied. If the rate is intended to change over time, depending on local rules/regulations, each change should be captured as a new version of the MedicationRequest with an updated rate, or captured with a new MedicationRequest with the new rate.+    <t>時間単位あたりの薬の量 / Amount of medication per unit of time</t>
+  </si>
+  <si>
+    <t>時間単位あたりの薬の量。 / Amount of medication per unit of time.</t>
+  </si>
+  <si>
+    <t>レートとデスケーティティの両方を供給して、薬の投与と供給の方法についての詳細を提供することができます。レートが時間の経過とともに変化することを目的としている場合、ローカルのルール/規制に応じて、各変更は、更新されたレートのある薬物療法の新しいバージョンとしてキャプチャするか、新しいレートで新しい薬物採取でキャプチャされる必要があります。++レート（100 ml/hour）を使用して、時間の経過とともにレートを指定することができます。RateQuantityアプローチでは、時間が分母として指定されている特定の比率ではなく、ML/時間が含まれているUCUMグラマーを解析する機能をシステムに持つ必要があります。2時間にわたって500mlなどのレートが指定されている場合、250 mg/時のレートの量を使用して指定するよりも、定量的に正しい場合があります。 / It is possible to supply both a rate and a doseQuantity to provide full details about how the medication is to be administered and supplied. If the rate is intended to change over time, depending on local rules/regulations, each change should be captured as a new version of the MedicationRequest with an updated rate, or captured with a new MedicationRequest with the new rate.  It is possible to specify a rate over time (for example, 100 ml/hour) using either the rateRatio and rateQuantity.  The rateQuantity approach requires systems to have the capability to parse UCUM grammer where ml/hour is included rather than a specific ratio where the time is specified as the denominator.  Where a rate such as 500ml over 2 hours is specified, the use of rateRatio may be more semantically correct than specifying using a rateQuantity of 250 mg/hour.</t>
   </si>
   <si>
-    <t>Identifies the speed with which the medication was or will be introduced into the patient. Typically the rate for an infusion e.g. 100 ml per 1 hour or 100 ml/hr.  May also be expressed as a rate per unit of time e.g. 500 ml per 2 hours.   Other examples: 200 mcg/min or 200 mcg/1 minute; 1 liter/8 hours.  Sometimes, a rate can imply duration when expressed as total volume / duration (e.g.  500mL/2 hours implies a duration of 2 hours).  However, when rate doesn't imply duration (e.g. 250mL/hour), then the timing.repeat.duration is needed to convey the infuse over time period.</t>
+    <t>患者に薬が導入された、または導入される速度を識別します。通常、注入のレート。1時間あたり100 mlまたは100 ml/hr。また、時間単位あたりのレートとして表現することもできます。2時間あたり500 ml。その他の例：200 mcg/minまたは200 mcg/1分。1リットル/8時間。時には、総量 /持続時間として表される場合、レートは期間を意味する場合があります（たとえば、500ml / 2時間は2時間の期間を意味します）。ただし、レートが期間（250ml/hour）を意味しない場合、期間にわたって注入を伝えるためにタイミング.repeat.durationが必要です。 / Identifies the speed with which the medication was or will be introduced into the patient. Typically the rate for an infusion e.g. 100 ml per 1 hour or 100 ml/hr.  May also be expressed as a rate per unit of time e.g. 500 ml per 2 hours.   Other examples: 200 mcg/min or 200 mcg/1 minute; 1 liter/8 hours.  Sometimes, a rate can imply duration when expressed as total volume / duration (e.g.  500mL/2 hours implies a duration of 2 hours).  However, when rate doesn't imply duration (e.g. 250mL/hour), then the timing.repeat.duration is needed to convey the infuse over time period.</t>
   </si>
   <si>
     <t>Dosage.doseAndRate.rate[x]</t>
@@ -2228,16 +2232,16 @@
 </t>
   </si>
   <si>
-    <t>Upper limit on medication per unit of time</t>
-  </si>
-  <si>
-    <t>Upper limit on medication per unit of time.</t>
-  </si>
-  <si>
-    <t>This is intended for use as an adjunct to the dosage when there is an upper cap.  For example "2 tablets every 4 hours to a maximum of 8/day".</t>
-  </si>
-  <si>
-    <t>The maximum total quantity of a therapeutic substance that may be administered to a subject over the period of time.  For example, 1000mg in 24 hours.</t>
+    <t>時間単位あたりの投薬の上限 / Upper limit on medication per unit of time</t>
+  </si>
+  <si>
+    <t>時間単位あたりの投薬の上限。 / Upper limit on medication per unit of time.</t>
+  </si>
+  <si>
+    <t>これは、上限があるときに投与量の補助として使用することを目的としています。たとえば、「4時間ごとに最大8時間あたり2錠」。 / This is intended for use as an adjunct to the dosage when there is an upper cap.  For example "2 tablets every 4 hours to a maximum of 8/day".</t>
+  </si>
+  <si>
+    <t>期間にわたって被験者に投与される可能性のある治療物質の最大総量。たとえば、24時間で1000mg。 / The maximum total quantity of a therapeutic substance that may be administered to a subject over the period of time.  For example, 1000mg in 24 hours.</t>
   </si>
   <si>
     <t>Dosage.maxDosePerPeriod</t>
@@ -2252,16 +2256,16 @@
     <t>MedicationDispense.dosageInstruction.maxDosePerAdministration</t>
   </si>
   <si>
-    <t>Upper limit on medication per administration</t>
-  </si>
-  <si>
-    <t>Upper limit on medication per administration.</t>
-  </si>
-  <si>
-    <t>This is intended for use as an adjunct to the dosage when there is an upper cap.  For example, a body surface area related dose with a maximum amount, such as 1.5 mg/m2 (maximum 2 mg) IV over 5 – 10 minutes would have doseQuantity of 1.5 mg/m2 and maxDosePerAdministration of 2 mg.</t>
-  </si>
-  <si>
-    <t>The maximum total quantity of a therapeutic substance that may be administered to a subject per administration.</t>
+    <t>投与ごとの薬の上限 / Upper limit on medication per administration</t>
+  </si>
+  <si>
+    <t>投与ごとの薬の上限。 / Upper limit on medication per administration.</t>
+  </si>
+  <si>
+    <t>これは、上限があるときに投与量の補助として使用することを目的としています。たとえば、5〜10分間で1.5 mg/m2（最大2 mg）IVなどの最大量の体積領域に関連する用量に関連する用量は、1.5 mg/m2、最大2 mgのDosequantityになります。 / This is intended for use as an adjunct to the dosage when there is an upper cap.  For example, a body surface area related dose with a maximum amount, such as 1.5 mg/m2 (maximum 2 mg) IV over 5 – 10 minutes would have doseQuantity of 1.5 mg/m2 and maxDosePerAdministration of 2 mg.</t>
+  </si>
+  <si>
+    <t>投与ごとの被験者に投与される可能性のある治療物質の最大総量。 / The maximum total quantity of a therapeutic substance that may be administered to a subject per administration.</t>
   </si>
   <si>
     <t>Dosage.maxDosePerAdministration</t>
@@ -2273,13 +2277,13 @@
     <t>MedicationDispense.dosageInstruction.maxDosePerLifetime</t>
   </si>
   <si>
-    <t>Upper limit on medication per lifetime of the patient</t>
-  </si>
-  <si>
-    <t>Upper limit on medication per lifetime of the patient.</t>
-  </si>
-  <si>
-    <t>The maximum total quantity of a therapeutic substance that may be administered per lifetime of the subject.</t>
+    <t>患者の生涯あたりの薬物療法の上限 / Upper limit on medication per lifetime of the patient</t>
+  </si>
+  <si>
+    <t>患者の生涯あたりの薬物療法の上限。 / Upper limit on medication per lifetime of the patient.</t>
+  </si>
+  <si>
+    <t>被験者の寿命ごとに投与される可能性のある治療物質の最大総量。 / The maximum total quantity of a therapeutic substance that may be administered per lifetime of the subject.</t>
   </si>
   <si>
     <t>Dosage.maxDosePerLifetime</t>
@@ -2346,7 +2350,7 @@
     <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
   </si>
   <si>
-    <t>A coded concept describing whether a different medicinal product may be dispensed other than the product as specified exactly in the prescription.</t>
+    <t>処方箋で正確に指定されているように、製品以外に異なる薬物が分配されるかどうかを説明するコード化された概念。 / A coded concept describing whether a different medicinal product may be dispensed other than the product as specified exactly in the prescription.</t>
   </si>
   <si>
     <t>http://terminology.hl7.org/ValueSet/v3-ActSubstanceAdminSubstitutionCode</t>
@@ -2370,7 +2374,7 @@
 CT:治療継続性確保のため、FP:処方方針、 OS: 在庫欠品、  RR:代替えを義務付けまたは禁止する規制要件に従った</t>
   </si>
   <si>
-    <t>A coded concept describing the reason that a different medication should (or should not) be substituted from what was prescribed.</t>
+    <t>別の薬物療法が処方されたものから置き換える（またはすべきではない）理由を説明するコード化された概念。 / A coded concept describing the reason that a different medication should (or should not) be substituted from what was prescribed.</t>
   </si>
   <si>
     <t>http://terminology.hl7.org/ValueSet/v3-SubstanceAdminSubstitutionReason</t>
@@ -2421,7 +2425,7 @@
 DetectedIssue リソースへの参照。</t>
   </si>
   <si>
-    <t>This element can include a detected issue that has been identified either by a decision support system or by a clinician and may include information on the steps that were taken to address the issue.</t>
+    <t>この要素には、意思決定支援システムまたは臨床医によって特定された検出された問題を含めることができ、問題に対処するために取られた手順に関する情報を含めることができます。 / This element can include a detected issue that has been identified either by a decision support system or by a clinician and may include information on the steps that were taken to address the issue.</t>
   </si>
   <si>
     <t>.inboundRelationship[typeCode=SUBJ]/source[classCode=ALRT,moodCode=EVN].value</t>
@@ -2441,7 +2445,7 @@
 調剤が確認されたときなど、発生した対象のイベントのサマリー。</t>
   </si>
   <si>
-    <t>This might not include provenances for all versions of the request – only those deemed “relevant” or important. This SHALL NOT include the Provenance associated with this current version of the resource. (If that provenance is deemed to be a “relevant” change, it will need to be added as part of a later update. Until then, it can be queried directly as the Provenance that points to this version using _revinclude All Provenances should have some historical version of this Request as their subject.).</t>
+    <t>これには、リクエストのすべてのバージョンの出所が含まれない場合があります。「関連性がある」または重要とみなされるもののみです。これには、この現在のバージョンのリソースに関連する出所を含めてはなりません。（その出所が「関連性のある」変更と見なされる場合、後の更新の一部として追加する必要があります。それまで、_revincludeを使用してこのバージョンを指す出所として直接照会することができます。この要求の歴史的バージョンは、彼らの主題として。）。 / This might not include provenances for all versions of the request – only those deemed “relevant” or important. This SHALL NOT include the Provenance associated with this current version of the resource. (If that provenance is deemed to be a “relevant” change, it will need to be added as part of a later update. Until then, it can be queried directly as the Provenance that points to this version using _revinclude All Provenances should have some historical version of this Request as their subject.).</t>
   </si>
   <si>
     <t>.inboundRelationship(typeCode=SUBJ].source[classCode=CACT, moodCode=EVN]</t>
@@ -2783,7 +2787,7 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="198.02734375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="255.0" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="71.296875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdispensebase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdispensebase.xlsx
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>JP</t>
+    <t>Japan</t>
   </si>
   <si>
     <t>Description</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdispensebase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdispensebase.xlsx
@@ -261,8 +261,8 @@
     <t>指定された患者・個人へ薬剤が払い出されたか払い出される予定のものを示す。これには（供給される）提供される製品についての説明や薬剤の服用に関する指示も含まれる。薬剤払い出しは薬剤オーダーに対して薬局システムが対応した結果となる。</t>
   </si>
   <si>
-    <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}mdd-1:いつ準備されたときにハンドドーバーができないとき / whenHandedOver cannot be before whenPrepared {whenHandedOver.empty() or whenPrepared.empty() or whenHandedOver &gt;= whenPrepared}</t>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}mdd-1:whenHandedOver cannot be before whenPrepared {whenHandedOver.empty() or whenPrepared.empty() or whenHandedOver &gt;= whenPrepared}</t>
   </si>
   <si>
     <t>Event</t>
@@ -284,13 +284,13 @@
 </t>
   </si>
   <si>
-    <t>このアーティファクトの論理ID / Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>リソースのURLで使用されるリソースの論理ID。割り当てられたら、この値は変更されません。 / The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>リソースにIDがないのは、IDが作成操作を使用してサーバーに送信されている場合です。 / The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -303,16 +303,16 @@
 </t>
   </si>
   <si>
-    <t>リソースに関するメタデータ / Metadata about the resource</t>
-  </si>
-  <si>
-    <t>リソースに関するメタデータ。これは、インフラストラクチャによって維持されるコンテンツです。コンテンツの変更は、常にリソースのバージョンの変更に関連付けられているとは限りません。 / The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
   </si>
   <si>
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
@@ -323,13 +323,13 @@
 </t>
   </si>
   <si>
-    <t>このコンテンツが作成されたルールのセット / A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>リソースが構築されたときに従った一連のルールへの参照。コンテンツの処理時に理解する必要があります。多くの場合、これは他のプロファイルなどとともに特別なルールを定義する実装ガイドへの参照です。 / A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>このルールセットを主張することは、コンテンツが限られた取引パートナーのセットによってのみ理解されることを制限します。これにより、本質的に長期的にデータの有用性が制限されます。ただし、既存の健康エコシステムは非常に破壊されており、一般的に計算可能な意味でデータを定義、収集、交換する準備ができていません。可能な限り、実装者や仕様ライターはこの要素の使用を避ける必要があります。多くの場合、使用する場合、URLは、これらの特別なルールを他のプロファイル、バリューセットなどとともに叙述(Narative)の一部として定義する実装ガイドへの参照です。 / Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
   </si>
   <si>
     <t>Resource.implicitRules</t>
@@ -342,19 +342,19 @@
 </t>
   </si>
   <si>
-    <t>リソースコンテンツの言語 / Language of the resource content</t>
-  </si>
-  <si>
-    <t>リソースが書かれている基本言語。 / The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>言語は、インデックス作成とアクセシビリティをサポートするために提供されます（通常、テキストから音声までのサービスなどのサービスが言語タグを使用します）。叙述(Narative)のHTML言語タグは、叙述(Narative)に適用されます。リソース上の言語タグを使用して、リソース内のデータから生成された他のプレゼンテーションの言語を指定できます。すべてのコンテンツが基本言語である必要はありません。リソース。言語は、叙述(Narative)に自動的に適用されると想定されるべきではありません。言語が指定されている場合、HTMLのDIV要素にも指定されている場合（XML：LangとHTML Lang属性の関係については、HTML5のルールを参照してください）。 / Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
     <t>preferred</t>
   </si>
   <si>
-    <t>人間の言語。 / A human language.</t>
+    <t>A human language.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -374,13 +374,13 @@
 </t>
   </si>
   <si>
-    <t>人間の解釈のためのリソースのテキスト概要 / Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>リソースの概要を含み、人間へのリソースの内容を表すために使用できる人間の読み取り可能な叙述(Narative)。叙述(Narative)はすべての構造化されたデータをエンコードする必要はありませんが、人間が叙述(Narative)を読むだけで「臨床的に安全」にするために十分な詳細を含める必要があります。リソースの定義は、臨床的安全を確保するために、叙述(Narative)で表現するコンテンツを定義する場合があります。 / A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>含まれるリソースには叙述(Narative)がありません。含まれていないリソースには叙述(Narative)が必要です。場合によっては、リソースには、追加の個別のデータがほとんどまたはまったくないテキストのみがあります（すべてのMinoccur = 1要素が満たされている限り）。これは、情報がtext blob (バイナリー ラージ オブジェクト)としてキャプチャされるレガシーシステムからのデータ、またはテキストが生またはナレーションされ、エンコードされた情報が後で追加される場合に必要になる場合があります。 / Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -400,13 +400,13 @@
 </t>
   </si>
   <si>
-    <t>インラインリソースが含まれています / Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>これらのリソースには、それらを含むリソースを除いて独立した存在はありません - 独立して特定することはできず、独自の独立したトランザクションスコープを持つこともできません。 / These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>識別が失われると、コンテンツを適切に識別できる場合は、これを行うべきではありません。含まれるリソースには、メタ要素にプロファイルとタグがある場合がありますが、セキュリティラベルはありません。 / This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
@@ -438,8 +438,8 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
-    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>preparation</t>
@@ -466,18 +466,17 @@
 user content</t>
   </si>
   <si>
-    <t>無視できない拡張機能 / Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>リソースの基本的な定義の一部ではなく、それを含む要素の理解および/または含有要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義することが許可されていますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
-モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>拡張機能を使用または定義する機関や管轄権に関係なく、アプリケーション、プロジェクト、または標準による拡張機能の使用に関連するスティグマはありません。拡張機能の使用は、FHIR仕様がすべての人にコアレベルのシンプルさを保持できるようにするものです。 / There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>修飾子拡張機能により、安全に無視できる大部分の拡張機能と明確に区別できるように、安全に無視できない拡張機能が可能になります。これにより、実装者が拡張の存在を禁止する必要性を排除することにより、相互運用性が促進されます。詳細については、[修飾子拡張の定義]（拡張性.html＃modifierextension）を参照してください。 / Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -490,13 +489,13 @@
 </t>
   </si>
   <si>
-    <t>外部識別子 / External identifier</t>
-  </si>
-  <si>
-    <t>この薬物剤の分配に関連する識別子は、ビジネスプロセスによって定義され、および/またはリソース自体への直接のURL参照が適切ではない場合にそれを参照するために使用されます。これらは、パフォーマーまたは他のシステムによってこのリソースに割り当てられたビジネス識別子であり、リソースが更新され、サーバーからサーバーに伝播するため、一定のままです。 / Identifiers associated with this Medication Dispense that are defined by business processes and/or used to refer to it when a direct URL reference to the resource itself is not appropriate. They are business identifiers assigned to this resource by the performer or other systems and remain constant as the resource is updated and propagates from server to server.</t>
-  </si>
-  <si>
-    <t>これはビジネス識別子であり、リソース識別子ではありません。 / This is a business identifier, not a resource identifier.</t>
+    <t>External identifier</t>
+  </si>
+  <si>
+    <t>Identifiers associated with this Medication Dispense that are defined by business processes and/or used to refer to it when a direct URL reference to the resource itself is not appropriate. They are business identifiers assigned to this resource by the performer or other systems and remain constant as the resource is updated and propagates from server to server.</t>
+  </si>
+  <si>
+    <t>This is a business identifier, not a resource identifier.</t>
   </si>
   <si>
     <t>Event.identifier</t>
@@ -541,13 +540,13 @@
 一連の調剤イベントの状態を指定するコード。</t>
   </si>
   <si>
-    <t>この要素は、リソースを現在有効ではないとマークするコードが含まれているため、修飾子としてラベル付けされています。 / This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
+    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
   </si>
   <si>
     <t>required</t>
   </si>
   <si>
-    <t>ディスペンスイベントの状態を指定するコード化された概念。 / A coded concept specifying the state of the dispense event.</t>
+    <t>A coded concept specifying the state of the dispense event.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medicationdispense-status|4.0.1</t>
@@ -582,7 +581,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>ディスペンスが実行されなかった理由を説明するコード。 / A code describing why a dispense was not performed.</t>
+    <t>A code describing why a dispense was not performed.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medicationdispense-status-reason</t>
@@ -608,10 +607,10 @@
 投薬のタイプを示す（たとえば、薬剤が消費または投与されると予想される場所（つまり、入院患者または外来患者））。　入院、外来、退院、自宅など。</t>
   </si>
   <si>
-    <t>このカテゴリを使用して、薬が消費される場所または他の種類のディスペンスが予想される場所を含めることができます。不変剤を使用して、プロファイリングするときに異なる値セットにバインドできます。 / The category can be used to include where the medication is expected to be consumed or other types of dispenses.  Invariants can be used to bind to different value sets when profiling to bind.</t>
-  </si>
-  <si>
-    <t>分配された薬がどこで消費または投与されると予想されるコード。 / A code describing where the dispensed medication is expected to be consumed or administered.</t>
+    <t>The category can be used to include where the medication is expected to be consumed or other types of dispenses.  Invariants can be used to bind to different value sets when profiling to bind.</t>
+  </si>
+  <si>
+    <t>A code describing where the dispensed medication is expected to be consumed or administered.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medicationdispense-category</t>
@@ -645,7 +644,7 @@
 また、処方を発行した医療機関内でのデータ利用のために、医療機関固有コード体系によるコード（ハウスコード、ローカルコード）の記述を含めてもよいが、その場合でも上述したいずれかの標準コードを同時に記述することが必要である。</t>
   </si>
   <si>
-    <t>どの物質または製品を分配できるかを特定するコード化された概念。 / A coded concept identifying which substance or product can be dispensed.</t>
+    <t>A coded concept identifying which substance or product can be dispensed.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
@@ -692,10 +691,10 @@
     <t>MedicationDispense.medication[x].extension</t>
   </si>
   <si>
-    <t>実装で定義された追加のコンテンツ / Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>要素の基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Extensions are always sliced by (at least) url</t>
@@ -707,19 +706,19 @@
     <t>medicationCodeableConcept</t>
   </si>
   <si>
-    <t>どの薬が供給されましたか / What medication was supplied</t>
-  </si>
-  <si>
-    <t>投与されている薬を特定します。これは、薬物の詳細を表すリソースへのリンクか、既知の薬物のリストから薬を識別するコードを運ぶ単純な属性です。 / Identifies the medication being administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.</t>
-  </si>
-  <si>
-    <t>コードのみが指定されている場合、特定の製品のコードである必要があります。より多くの情報が必要な場合は、投薬リソースの使用をお勧めします。たとえば、フォームまたはロット番号が必要な場合は、投薬リソースを参照する必要があります。 / If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.</t>
-  </si>
-  <si>
-    <t>要素間参照のための一意のID / Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>リソース内の要素の一意のID（内部参照用）。これは、スペースを含まない文字列値である場合があります。 / Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>What medication was supplied</t>
+  </si>
+  <si>
+    <t>Identifies the medication being administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.</t>
+  </si>
+  <si>
+    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>MedicationDispense.medication[x].coding</t>
@@ -740,7 +739,7 @@
 </t>
   </si>
   <si>
-    <t>コードシステム内の代替エンコーディング、および他のコードシステムへの翻訳が可能になります。 / Allows for alternative encodings within a code system, and translations to other code systems.</t>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
   </si>
   <si>
     <t>CodeableConcept.coding</t>
@@ -761,16 +760,16 @@
     <t>MedicationDispense.medication[x].coding.system</t>
   </si>
   <si>
-    <t>用語システムのアイデンティティ / Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>コード内のシンボルの意味を定義するコードシステムの識別。 / The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>uriは、oid（urn：oid：...）またはuuid（urn：uuid：...）である場合があります。OIDとUUIDは、HL7 OIDレジストリへの参照となります。それ以外の場合、URIは、FHIRの特別なURIを定義したHL7のリストから来るか、システムを明確かつ明確に確立する定義を参照する必要があります。 / The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>シンボルの定義のソースについて明確である必要があります。 / Need to be unambiguous about the source of the definition of the symbol.</t>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -785,13 +784,13 @@
     <t>MedicationDispense.medication[x].coding.version</t>
   </si>
   <si>
-    <t>システムのバージョン - 関連する場合 / Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>このコードを選択するときに使用されたコードシステムのバージョン。コードの意味がバージョン全体で一貫しているため、適切にメンテナンスしたコードシステムでは報告されたバージョンを必要としないことに注意してください。ただし、これは一貫して保証することはできず、意味が一貫していることが保証されていない場合、バージョンを交換する必要があります。 / The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>用語がコードシステムバージョンを識別するために使用する文字列を明確に定義していない場合、推奨は、そのバージョンがバージョンの日付として公式に公開された日付（FHIR日付形式で表現）を使用することです。 / Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
   </si>
   <si>
     <t>Coding.version</t>
@@ -806,13 +805,13 @@
     <t>MedicationDispense.medication[x].coding.code</t>
   </si>
   <si>
-    <t>システムによって定義された構文のシンボル / Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>システムによって定義された構文のシンボル。シンボルは、定義されたコードまたはコーディングシステムによって定義された構文の式（例：調整後）である場合があります。 / A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>システム内の特定のコードを参照する必要があります。 / Need to refer to a particular code in the system.</t>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
   </si>
   <si>
     <t>Coding.code</t>
@@ -827,13 +826,13 @@
     <t>MedicationDispense.medication[x].coding.display</t>
   </si>
   <si>
-    <t>システムによって定義された表現 / Representation defined by the system</t>
-  </si>
-  <si>
-    <t>システムのルールに従って、システム内のコードの意味の表現。 / A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>システムを知らない読者のために、コードの人間の読み取り可能な意味を持ち込むことができる必要があります。 / Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
   </si>
   <si>
     <t>Coding.display</t>
@@ -852,16 +851,16 @@
 </t>
   </si>
   <si>
-    <t>このコーディングがユーザーによって直接選択された場合 / If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>このコーディングがユーザーによって直接選択されたことを示します。利用可能なアイテムのピックリスト（コードまたはディスプレイ）。 / Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>一連の代替案の中で、直接選択されたコードが新しい翻訳の最も適切な出発点です。この要素の使用とその結果をより完全に明確にするためには、「直接選択された」ことについては曖昧さがあり、取引パートナー契約が必要になる場合があります。 / Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>これは、臨床安全基準として特定されています - この正確なシステム/コードペアは、いくつかのルールまたは言語処理に基づいてシステムによって推測されるのではなく、明示的に選択されたことです。 / This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
   </si>
   <si>
     <t>Coding.userSelected</t>
@@ -876,16 +875,16 @@
     <t>MedicationDispense.medication[x].text</t>
   </si>
   <si>
-    <t>コンセプトの単純なテキスト表現 / Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>データを入力したユーザー、および/またはユーザーの意図された意味を表すユーザーによって見られる/選択/発言された概念の人間の言語表現。 / A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>多くの場合、テキストはコーディングの1つの表示名と同じです。 / Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>用語からのコードは、それらを使用する人間のすべてのニュアンスを使用して、常に正しい意味をキャプチャするとは限りません。または、適切なコードがまったくない場合があります。これらの場合、テキストはソースの完全な意味をキャプチャするために使用されます。 / The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
   </si>
   <si>
     <t>CodeableConcept.text</t>
@@ -1007,11 +1006,10 @@
 user contentmodifiers</t>
   </si>
   <si>
-    <t>認識されていなくても無視できない拡張機能 / Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>要素の基本的な定義の一部ではなく、それが含まれている要素の理解、および/または含まれる要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
-モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
@@ -1021,16 +1019,16 @@
     <t>MedicationDispense.performer.function</t>
   </si>
   <si>
-    <t>誰がディスペンスを実行し、彼らがしたことを実行しました / Who performed the dispense and what they did</t>
-  </si>
-  <si>
-    <t>ディスペンスのパフォーマーのタイプを区別します。たとえば、Date Enterer、Packager、Final Checker。 / Distinguishes the type of performer in the dispense.  For example, date enterer, packager, final checker.</t>
-  </si>
-  <si>
-    <t>さまざまなパフォーマーの関与の種類の曖昧性を乱すことができます。 / Allows disambiguation of the types of involvement of different performers.</t>
-  </si>
-  <si>
-    <t>個人が薬物療法を調剤する上で果たした役割を説明するコード。 / A code describing the role an individual played in dispensing a medication.</t>
+    <t>Who performed the dispense and what they did</t>
+  </si>
+  <si>
+    <t>Distinguishes the type of performer in the dispense.  For example, date enterer, packager, final checker.</t>
+  </si>
+  <si>
+    <t>Allows disambiguation of the types of involvement of different performers.</t>
+  </si>
+  <si>
+    <t>A code describing the role an individual played in dispensing a medication.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medicationdispense-performer-function</t>
@@ -1046,10 +1044,10 @@
 </t>
   </si>
   <si>
-    <t>演奏していた個人 / Individual who was performing</t>
-  </si>
-  <si>
-    <t>アクションを実行したデバイス、開業医など。俳優は薬のディスペンサーであると想定されるべきです。 / The device, practitioner, etc. who performed the action.  It should be assumed that the actor is the dispenser of the medication.</t>
+    <t>Individual who was performing</t>
+  </si>
+  <si>
+    <t>The device, practitioner, etc. who performed the action.  It should be assumed that the actor is the dispenser of the medication.</t>
   </si>
   <si>
     <t>Event.performer.actor</t>
@@ -1089,7 +1087,7 @@
 調剤の元になった処方オーダを表すMedicationRequestリソースへの参照。</t>
   </si>
   <si>
-    <t>イベント論理モデルのベースンへのマップ。 / Maps to basedOn in Event logical model.</t>
+    <t>Maps to basedOn in Event logical model.</t>
   </si>
   <si>
     <t>Event.basedOn</t>
@@ -1107,7 +1105,7 @@
     <t>MedicationDispense.type</t>
   </si>
   <si>
-    <t>トライアルフィル、部分充填、緊急充填など。 / Trial fill, partial fill, emergency fill, etc.</t>
+    <t>Trial fill, partial fill, emergency fill, etc.</t>
   </si>
   <si>
     <t>Indicates the type of dispensing event that is performed. For example, Trial Fill, Completion of Trial, Partial Fill, Emergency Fill, Samples, etc.
@@ -1118,7 +1116,7 @@
 すべてのターミノロジーの使用がこの一般的なパターンに適合するわけではない。場合によっては、モデルはCodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素間の関係とpre-coordinationとpost-coordinationの用語関係を管理するための独自の構造を提供する必要がある。</t>
   </si>
   <si>
-    <t>実行される分配イベントのタイプを示します。たとえば、試行充填、試行の完了、部分充填、緊急充填、サンプルなど。 / Indicates the type of dispensing event that is performed. For example, Trial Fill, Completion of Trial, Partial Fill, Emergency Fill, Samples, etc.</t>
+    <t>Indicates the type of dispensing event that is performed. For example, Trial Fill, Completion of Trial, Partial Fill, Emergency Fill, Samples, etc.</t>
   </si>
   <si>
     <t>http://terminology.hl7.org/ValueSet/v3-ActPharmacySupplyType</t>
@@ -1174,16 +1172,16 @@
 </t>
   </si>
   <si>
-    <t>数値（暗黙の精度を持つ） / Numerical value (with implicit precision)</t>
-  </si>
-  <si>
-    <t>測定量の値。値には、値の表示に暗黙の精度が含まれます。 / The value of the measured amount. The value includes an implicit precision in the presentation of the value.</t>
-  </si>
-  <si>
-    <t>値の暗黙の精度は常に尊重されるべきです。金銭的価値には、精度を処理するための独自のルールがあります（標準的な会計の教科書を参照）。 / The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
-  </si>
-  <si>
-    <t>精度は、測定のほとんどすべての場合に暗黙的に処理されます。 / Precision is handled implicitly in almost all cases of measurement.</t>
+    <t>Numerical value (with implicit precision)</t>
+  </si>
+  <si>
+    <t>The value of the measured amount. The value includes an implicit precision in the presentation of the value.</t>
+  </si>
+  <si>
+    <t>The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
+  </si>
+  <si>
+    <t>Precision is handled implicitly in almost all cases of measurement.</t>
   </si>
   <si>
     <t>Quantity.value</t>
@@ -1198,19 +1196,19 @@
     <t>MedicationDispense.quantity.comparator</t>
   </si>
   <si>
-    <t>&lt;|&lt;= |&gt; = |&gt;  - 価値を理解する方法 / &lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
-  </si>
-  <si>
-    <t>この文脈で使用することは許可されていません / Not allowed to be used in this context</t>
-  </si>
-  <si>
-    <t>測定方法の制限があるため、値が&lt;5ug/Lまたは&gt; 400mg/Lの測定値を処理するためのフレームワークが必要です。 / Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
-  </si>
-  <si>
-    <t>コンパレータがない場合、値の変更はありません / If there is no comparator, then there is no modification of the value</t>
-  </si>
-  <si>
-    <t>量を理解し、表現する方法。 / How the Quantity should be understood and represented.</t>
+    <t>&lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
+  </si>
+  <si>
+    <t>Not allowed to be used in this context</t>
+  </si>
+  <si>
+    <t>Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
+  </si>
+  <si>
+    <t>If there is no comparator, then there is no modification of the value</t>
+  </si>
+  <si>
+    <t>How the Quantity should be understood and represented.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
@@ -1228,13 +1226,13 @@
     <t>MedicationDispense.quantity.unit</t>
   </si>
   <si>
-    <t>ユニット表現 / Unit representation</t>
-  </si>
-  <si>
-    <t>ユニットの人間の読み取り可能な形式。 / A human-readable form of the unit.</t>
-  </si>
-  <si>
-    <t>測定単位には多くの表現があり、多くのコンテキストでは、特定の表現が固定され、必要です。すなわちマイクログラム用MCG。 / There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
+    <t>Unit representation</t>
+  </si>
+  <si>
+    <t>A human-readable form of the unit.</t>
+  </si>
+  <si>
+    <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
   </si>
   <si>
     <t>Quantity.unit</t>
@@ -1249,13 +1247,13 @@
     <t>MedicationDispense.quantity.system</t>
   </si>
   <si>
-    <t>コード化されたユニットフォームを定義するシステム / System that defines coded unit form</t>
-  </si>
-  <si>
-    <t>ユニットのコード化された形式を提供するシステムの識別。 / The identification of the system that provides the coded form of the unit.</t>
-  </si>
-  <si>
-    <t>ユニットのコード化された形式を定義するシステムを知る必要があります。 / Need to know the system that defines the coded form of the unit.</t>
+    <t>System that defines coded unit form</t>
+  </si>
+  <si>
+    <t>The identification of the system that provides the coded form of the unit.</t>
+  </si>
+  <si>
+    <t>Need to know the system that defines the coded form of the unit.</t>
   </si>
   <si>
     <t>Quantity.system</t>
@@ -1274,13 +1272,13 @@
     <t>単位についてのコード形式</t>
   </si>
   <si>
-    <t>一部のユニット表現システムのユニットのコンピューター処理可能な形式。 / A computer processable form of the unit in some unit representation system.</t>
-  </si>
-  <si>
-    <t>優先システムはUCUMですが、スノムCTは（慣習ユニットに）または通貨にISO 4217を使用することもできます。使用のコンテキストには、特定のシステムからのコードがさらに必要になる場合があります。 / The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
-  </si>
-  <si>
-    <t>すべてのフォームに固定されたユニットの計算可能な形式が必要です。UCUMはこれを数量で提供しますが、Snomed CTは多くの関心のある単位を提供します。 / Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
+    <t>A computer processable form of the unit in some unit representation system.</t>
+  </si>
+  <si>
+    <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
+  </si>
+  <si>
+    <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
   </si>
   <si>
     <t>Quantity.code</t>
@@ -1562,13 +1560,13 @@
 薬の服用方法に関する補足的な指示（例：「食事と一緒に」または「食事の30分から1時間前に服用」）または薬に関する患者への警告（例：「眠気を引き起こす可能性がある」または「皮膚の露出を避ける」直射日光またはサンランプ」）。</t>
   </si>
   <si>
-    <t>投与または薬物の調製に関する情報（例：「腹腔内ポートを介しておそらく迅速に注入する」または「薬物Xの直後」）は、用量で入力する必要があります。 / Information about administration or preparation of the medication (e.g. "infuse as rapidly as possibly via intraperitoneal port" or "immediately following drug x") should be populated in dosage.text.</t>
-  </si>
-  <si>
-    <t>追加の命令はコーディングすることを目的としていますが、コードが存在しない場合、要素にはテキストを含めることができます。たとえば、「十分な水で飲み込む」とコード化されているかもしれないし、そうでないかもしれません。 / Additional instruction is intended to be coded, but where no code exists, the element could include text.  For example, "Swallow with plenty of water" which might or might not be coded.</t>
-  </si>
-  <si>
-    <t>「水で取る」や「重機の操作を避ける」などの追加の指示を識別するコード化された概念。 / A coded concept identifying additional instructions such as "take with water" or "avoid operating heavy machinery".</t>
+    <t>Information about administration or preparation of the medication (e.g. "infuse as rapidly as possibly via intraperitoneal port" or "immediately following drug x") should be populated in dosage.text.</t>
+  </si>
+  <si>
+    <t>Additional instruction is intended to be coded, but where no code exists, the element could include text.  For example, "Swallow with plenty of water" which might or might not be coded.</t>
+  </si>
+  <si>
+    <t>A coded concept identifying additional instructions such as "take with water" or "avoid operating heavy machinery".</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/additional-instruction-codes</t>
@@ -1608,10 +1606,10 @@
 JP Coreでは必須する。dosageInstruction.timing.code.coding.code, dosageInstruction.timing.code.coding.system が必ず存在しなければならない。</t>
   </si>
   <si>
-    <t>この属性は、Dosage.Textが入力されると予想される間、常に埋め込まれるとは限りません。両方が入力されている場合、Dosage.textはDosage.timingの内容を反映する必要があります。 / This attribute might not always be populated while the Dosage.text is expected to be populated.  If both are populated, then the Dosage.text should reflect the content of the Dosage.timing.</t>
-  </si>
-  <si>
-    <t>患者に薬を与えるためのタイミングスケジュール。このデータ型により、さまざまな式が可能になります。たとえば、「8時間ごと」。"一日に三回";「2011年12月23日から10日間の朝食の1/2の1/2：」;「2013年10月15日、2013年10月17日、2013年11月1日」。時には、総量 /持続時間として表される場合、レートは期間を意味する場合があります（たとえば、500ml / 2時間は2時間の期間を意味します）。ただし、レートが期間（250ml/hour）を意味しない場合、期間にわたって注入を伝えるためにタイミング.repeat.durationが必要です。 / The timing schedule for giving the medication to the patient. This  data type allows many different expressions. For example: "Every 8 hours"; "Three times a day"; "1/2 an hour before breakfast for 10 days from 23-Dec 2011:"; "15 Oct 2013, 17 Oct 2013 and 1 Nov 2013".  Sometimes, a rate can imply duration when expressed as total volume / duration (e.g.  500mL/2 hours implies a duration of 2 hours).  However, when rate doesn't imply duration (e.g. 250mL/hour), then the timing.repeat.duration is needed to convey the infuse over time period.</t>
+    <t>This attribute might not always be populated while the Dosage.text is expected to be populated.  If both are populated, then the Dosage.text should reflect the content of the Dosage.timing.</t>
+  </si>
+  <si>
+    <t>The timing schedule for giving the medication to the patient. This  data type allows many different expressions. For example: "Every 8 hours"; "Three times a day"; "1/2 an hour before breakfast for 10 days from 23-Dec 2011:"; "15 Oct 2013, 17 Oct 2013 and 1 Nov 2013".  Sometimes, a rate can imply duration when expressed as total volume / duration (e.g.  500mL/2 hours implies a duration of 2 hours).  However, when rate doesn't imply duration (e.g. 250mL/hour), then the timing.repeat.duration is needed to convey the infuse over time period.</t>
   </si>
   <si>
     <t>Dosage.timing</t>
@@ -1632,13 +1630,13 @@
     <t>MedicationDispense.dosageInstruction.timing.event</t>
   </si>
   <si>
-    <t>イベントが発生したとき / When the event occurs</t>
-  </si>
-  <si>
-    <t>イベントが発生する特定の時間を特定します。 / Identifies specific times when the event occurs.</t>
-  </si>
-  <si>
-    <t>たとえば、投薬投与の記録では、一般的な仕様を取得し、それを正確な仕様に変える必要があります。 / In a Medication Administration Record, for instance, you need to take a general specification, and turn it into a precise specification.</t>
+    <t>When the event occurs</t>
+  </si>
+  <si>
+    <t>Identifies specific times when the event occurs.</t>
+  </si>
+  <si>
+    <t>In a Medication Administration Record, for instance, you need to take a general specification, and turn it into a precise specification.</t>
   </si>
   <si>
     <t>Timing.event</t>
@@ -1654,20 +1652,20 @@
 </t>
   </si>
   <si>
-    <t>イベントが発生する場合 / When the event is to occur</t>
-  </si>
-  <si>
-    <t>イベントがスケジュールされたときに説明する一連のルール。 / A set of rules that describe when the event is scheduled.</t>
-  </si>
-  <si>
-    <t>多くのタイミングスケジュールは、定期的な繰り返しによって決定されます。 / Many timing schedules are determined by regular repetitions.</t>
+    <t>When the event is to occur</t>
+  </si>
+  <si>
+    <t>A set of rules that describe when the event is scheduled.</t>
+  </si>
+  <si>
+    <t>Many timing schedules are determined by regular repetitions.</t>
   </si>
   <si>
     <t>Timing.repeat</t>
   </si>
   <si>
-    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-tim-1:期間がある場合は、期間単位が必要です / if there's a duration, there needs to be duration units {duration.empty() or durationUnit.exists()}tim-2:期間がある場合、期間単位が必要です / if there's a period, there needs to be period units {period.empty() or periodUnit.exists()}tim-4:期間は非陰性価値です / duration SHALL be a non-negative value {duration.exists() implies duration &gt;= 0}tim-5:期間は非陰性の価値です / period SHALL be a non-negative value {period.exists() implies period &gt;= 0}tim-6:期間がある場合、期間がなければなりません / If there's a periodMax, there must be a period {periodMax.empty() or period.exists()}tim-7:Hurtermaxがある場合、期間がなければなりません / If there's a durationMax, there must be a duration {durationMax.empty() or duration.exists()}tim-8:countmaxがある場合、カウントが必要です / If there's a countMax, there must be a count {countMax.empty() or count.exists()}tim-9:オフセットがある場合、c、cm、cd、cvではなく（c、cvではない）存在する必要があります。 / If there's an offset, there must be a when (and not C, CM, CD, CV) {offset.empty() or (when.exists() and ((when in ('C' | 'CM' | 'CD' | 'CV')).not()))}tim-10:時間がある場合、いつ、またはその逆もありません / If there's a timeOfDay, there cannot be a when, or vice versa {timeOfDay.empty() or when.empty()}</t>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+tim-1:if there's a duration, there needs to be duration units {duration.empty() or durationUnit.exists()}tim-2:if there's a period, there needs to be period units {period.empty() or periodUnit.exists()}tim-4:duration SHALL be a non-negative value {duration.exists() implies duration &gt;= 0}tim-5:period SHALL be a non-negative value {period.exists() implies period &gt;= 0}tim-6:If there's a periodMax, there must be a period {periodMax.empty() or period.exists()}tim-7:If there's a durationMax, there must be a duration {durationMax.empty() or duration.exists()}tim-8:If there's a countMax, there must be a count {countMax.empty() or count.exists()}tim-9:If there's an offset, there must be a when (and not C, CM, CD, CV) {offset.empty() or (when.exists() and ((when in ('C' | 'CM' | 'CD' | 'CV')).not()))}tim-10:If there's a timeOfDay, there cannot be a when, or vice versa {timeOfDay.empty() or when.empty()}</t>
   </si>
   <si>
     <t>Implies PIVL or EIVL</t>
@@ -1686,10 +1684,10 @@
 RangePeriod</t>
   </si>
   <si>
-    <t>長さ/長さの範囲、または（開始および/または終了）制限 / Length/Range of lengths, or (Start and/or end) limits</t>
-  </si>
-  <si>
-    <t>タイミングスケジュールの長さの期間、可能な長さの範囲、またはタイミングスケジュールの開始および/または終了制限の外側の境界のいずれか。 / Either a duration for the length of the timing schedule, a range of possible length, or outer bounds for start and/or end limits of the timing schedule.</t>
+    <t>Length/Range of lengths, or (Start and/or end) limits</t>
+  </si>
+  <si>
+    <t>Either a duration for the length of the timing schedule, a range of possible length, or outer bounds for start and/or end limits of the timing schedule.</t>
   </si>
   <si>
     <t>Timing.repeat.bounds[x]</t>
@@ -1705,16 +1703,16 @@
 </t>
   </si>
   <si>
-    <t>繰り返す回数 / Number of times to repeat</t>
-  </si>
-  <si>
-    <t>タイミング仕様全体の期間にわたる繰り返しの希望数の合計数。CountMaxが存在する場合、この要素は、カウント値の許容範囲の下限を示します。 / A total count of the desired number of repetitions across the duration of the entire timing specification. If countMax is present, this element indicates the lower bound of the allowed range of count values.</t>
-  </si>
-  <si>
-    <t>境界とカウントの両方がある場合、これは、カウント時間が発生するまで、境界期間内に理解する必要があります。 / If you have both bounds and count, then this should be understood as within the bounds period, until count times happens.</t>
-  </si>
-  <si>
-    <t>繰り返しは、終了時間または合計発生によって制限される場合があります。 / Repetitions may be limited by end time or total occurrences.</t>
+    <t>Number of times to repeat</t>
+  </si>
+  <si>
+    <t>A total count of the desired number of repetitions across the duration of the entire timing specification. If countMax is present, this element indicates the lower bound of the allowed range of count values.</t>
+  </si>
+  <si>
+    <t>If you have both bounds and count, then this should be understood as within the bounds period, until count times happens.</t>
+  </si>
+  <si>
+    <t>Repetitions may be limited by end time or total occurrences.</t>
   </si>
   <si>
     <t>Timing.repeat.count</t>
@@ -1726,10 +1724,10 @@
     <t>MedicationDispense.dosageInstruction.timing.repeat.countMax</t>
   </si>
   <si>
-    <t>繰り返す最大回数 / Maximum number of times to repeat</t>
-  </si>
-  <si>
-    <t>存在する場合、カウントが範囲であることを示します -  [count]と[countmax]時間の間のアクションを実行するために。 / If present, indicates that the count is a range - so to perform the action between [count] and [countMax] times.</t>
+    <t>Maximum number of times to repeat</t>
+  </si>
+  <si>
+    <t>If present, indicates that the count is a range - so to perform the action between [count] and [countMax] times.</t>
   </si>
   <si>
     <t>Timing.repeat.countMax</t>
@@ -1738,16 +1736,16 @@
     <t>MedicationDispense.dosageInstruction.timing.repeat.duration</t>
   </si>
   <si>
-    <t>それが起こったときの期間 / How long when it happens</t>
-  </si>
-  <si>
-    <t>これが発生したときにこれがどのくらい起こるか。durationmaxが存在する場合、この要素は、持続時間の許容範囲の下限を示します。 / How long this thing happens for when it happens. If durationMax is present, this element indicates the lower bound of the allowed range of the duration.</t>
-  </si>
-  <si>
-    <t>一部のイベントでは、期間はイベントの定義の一部です（例：IV注入、指定された数量とレートで持続時間が暗黙的です）。他の人にとっては、タイミング仕様の一部です（エクササイズなど）。 / For some events the duration is part of the definition of the event (e.g. IV infusions, where the duration is implicit in the specified quantity and rate). For others, it's part of the timing specification (e.g. exercise).</t>
-  </si>
-  <si>
-    <t>一部のアクティビティは瞬間的ではなく、一定期間維持する必要があります。 / Some activities are not instantaneous and need to be maintained for a period of time.</t>
+    <t>How long when it happens</t>
+  </si>
+  <si>
+    <t>How long this thing happens for when it happens. If durationMax is present, this element indicates the lower bound of the allowed range of the duration.</t>
+  </si>
+  <si>
+    <t>For some events the duration is part of the definition of the event (e.g. IV infusions, where the duration is implicit in the specified quantity and rate). For others, it's part of the timing specification (e.g. exercise).</t>
+  </si>
+  <si>
+    <t>Some activities are not instantaneous and need to be maintained for a period of time.</t>
   </si>
   <si>
     <t>Timing.repeat.duration</t>
@@ -1759,10 +1757,10 @@
     <t>MedicationDispense.dosageInstruction.timing.repeat.durationMax</t>
   </si>
   <si>
-    <t>それが起こったときの期間（最大） / How long when it happens (Max)</t>
-  </si>
-  <si>
-    <t>存在する場合は、持続時間が範囲であることを示します -  [持続時間]と[hurtermax]時間の長さの間のアクションを実行するために。 / If present, indicates that the duration is a range - so to perform the action between [duration] and [durationMax] time length.</t>
+    <t>How long when it happens (Max)</t>
+  </si>
+  <si>
+    <t>If present, indicates that the duration is a range - so to perform the action between [duration] and [durationMax] time length.</t>
   </si>
   <si>
     <t>Timing.repeat.durationMax</t>
@@ -1771,13 +1769,13 @@
     <t>MedicationDispense.dosageInstruction.timing.repeat.durationUnit</t>
   </si>
   <si>
-    <t>s |min |h |d |wk |mo |A-時間単位（ucum） / s | min | h | d | wk | mo | a - unit of time (UCUM)</t>
-  </si>
-  <si>
-    <t>UCUMユニットの期間の時間単位。 / The units of time for the duration, in UCUM units.</t>
-  </si>
-  <si>
-    <t>時間単位（UCUMからの単位）。 / A unit of time (units from UCUM).</t>
+    <t>s | min | h | d | wk | mo | a - unit of time (UCUM)</t>
+  </si>
+  <si>
+    <t>The units of time for the duration, in UCUM units.</t>
+  </si>
+  <si>
+    <t>A unit of time (units from UCUM).</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/units-of-time|4.0.1</t>
@@ -1792,13 +1790,13 @@
     <t>MedicationDispense.dosageInstruction.timing.repeat.frequency</t>
   </si>
   <si>
-    <t>イベントは、期間ごとに周波数時間が発生します / Event occurs frequency times per period</t>
-  </si>
-  <si>
-    <t>指定された期間内にアクションを繰り返す回数。FrequencyMaxが存在する場合、この要素は周波数の許容範囲の下限を示します。 / The number of times to repeat the action within the specified period. If frequencyMax is present, this element indicates the lower bound of the allowed range of the frequency.</t>
-  </si>
-  <si>
-    <t>頻度が記載されていない場合、イベントは期間ごとに1回発生するという仮定ですが、システムは常にこれについて具体的でなければなりません / If no frequency is stated, the assumption is that the event occurs once per period, but systems SHOULD always be specific about this</t>
+    <t>Event occurs frequency times per period</t>
+  </si>
+  <si>
+    <t>The number of times to repeat the action within the specified period. If frequencyMax is present, this element indicates the lower bound of the allowed range of the frequency.</t>
+  </si>
+  <si>
+    <t>If no frequency is stated, the assumption is that the event occurs once per period, but systems SHOULD always be specific about this</t>
   </si>
   <si>
     <t>Timing.repeat.frequency</t>
@@ -1807,10 +1805,10 @@
     <t>MedicationDispense.dosageInstruction.timing.repeat.frequencyMax</t>
   </si>
   <si>
-    <t>イベントは、期間ごとに頻繁な時間まで発生します / Event occurs up to frequencyMax times per period</t>
-  </si>
-  <si>
-    <t>存在する場合は、周波数が範囲であることを示します。これにより、[周波数]と[周波数]時間と期間範囲内で[周波数]時間と[周波数]時間の間を繰り返すことを示します。 / If present, indicates that the frequency is a range - so to repeat between [frequency] and [frequencyMax] times within the period or period range.</t>
+    <t>Event occurs up to frequencyMax times per period</t>
+  </si>
+  <si>
+    <t>If present, indicates that the frequency is a range - so to repeat between [frequency] and [frequencyMax] times within the period or period range.</t>
   </si>
   <si>
     <t>Timing.repeat.frequencyMax</t>
@@ -1819,7 +1817,7 @@
     <t>MedicationDispense.dosageInstruction.timing.repeat.period</t>
   </si>
   <si>
-    <t>繰り返しが発生する期間を示します。例えば「1日3回」を表現するために、3が頻度で、「1日」が期間になります。周期ムックスが存在する場合、この要素は、期間長の許容範囲の下限を示します。 / Indicates the duration of time over which repetitions are to occur; e.g. to express "3 times per day", 3 would be the frequency and "1 day" would be the period. If periodMax is present, this element indicates the lower bound of the allowed range of the period length.</t>
+    <t>Indicates the duration of time over which repetitions are to occur; e.g. to express "3 times per day", 3 would be the frequency and "1 day" would be the period. If periodMax is present, this element indicates the lower bound of the allowed range of the period length.</t>
   </si>
   <si>
     <t>Timing.repeat.period</t>
@@ -1828,10 +1826,10 @@
     <t>MedicationDispense.dosageInstruction.timing.repeat.periodMax</t>
   </si>
   <si>
-    <t>期間の上限（3〜4時間） / Upper limit of period (3-4 hours)</t>
-  </si>
-  <si>
-    <t>存在する場合は、期間が[期間]から[Periodmax]までの範囲であることを示し、「3〜5日ごとにこれを行う」などの概念を表現することができます。 / If present, indicates that the period is a range from [period] to [periodMax], allowing expressing concepts such as "do this once every 3-5 days.</t>
+    <t>Upper limit of period (3-4 hours)</t>
+  </si>
+  <si>
+    <t>If present, indicates that the period is a range from [period] to [periodMax], allowing expressing concepts such as "do this once every 3-5 days.</t>
   </si>
   <si>
     <t>Timing.repeat.periodMax</t>
@@ -1840,7 +1838,7 @@
     <t>MedicationDispense.dosageInstruction.timing.repeat.periodUnit</t>
   </si>
   <si>
-    <t>UCUMユニットの期間の時間単位。 / The units of time for the period in UCUM units.</t>
+    <t>The units of time for the period in UCUM units.</t>
   </si>
   <si>
     <t>Timing.repeat.periodUnit</t>
@@ -1849,13 +1847,13 @@
     <t>MedicationDispense.dosageInstruction.timing.repeat.dayOfWeek</t>
   </si>
   <si>
-    <t>月|火|水|木|金|土|太陽 / mon | tue | wed | thu | fri | sat | sun</t>
-  </si>
-  <si>
-    <t>1週間以上の週が提供されている場合、アクションは指定された日にのみ発生します。 / If one or more days of week is provided, then the action happens only on the specified day(s).</t>
-  </si>
-  <si>
-    <t>日数が指定されていない場合、その他の方法では、アクションが毎日発生すると想定されています。要素の頻度と期間は、Dayofeekと同様に使用することはできません。 / If no days are specified, the action is assumed to happen every day as otherwise specified. The elements frequency and period cannot be used as well as dayOfWeek.</t>
+    <t>mon | tue | wed | thu | fri | sat | sun</t>
+  </si>
+  <si>
+    <t>If one or more days of week is provided, then the action happens only on the specified day(s).</t>
+  </si>
+  <si>
+    <t>If no days are specified, the action is assumed to happen every day as otherwise specified. The elements frequency and period cannot be used as well as dayOfWeek.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/days-of-week|4.0.1</t>
@@ -1871,13 +1869,13 @@
 </t>
   </si>
   <si>
-    <t>アクションの時間 / Time of day for action</t>
-  </si>
-  <si>
-    <t>アクションが発生するための特定の時刻。 / Specified time of day for action to take place.</t>
-  </si>
-  <si>
-    <t>時刻が指定されている場合、指定された時間にアクションが毎日（Dayofeekでフィルタリングされているように）発生すると推測されます。要素、頻度、および期間を使用できない場合、および時間の時間は使用できません。 / When time of day is specified, it is inferred that the action happens every day (as filtered by dayofWeek) on the specified times. The elements when, frequency and period cannot be used as well as timeOfDay.</t>
+    <t>Time of day for action</t>
+  </si>
+  <si>
+    <t>Specified time of day for action to take place.</t>
+  </si>
+  <si>
+    <t>When time of day is specified, it is inferred that the action happens every day (as filtered by dayofWeek) on the specified times. The elements when, frequency and period cannot be used as well as timeOfDay.</t>
   </si>
   <si>
     <t>Timing.repeat.timeOfDay</t>
@@ -1886,19 +1884,19 @@
     <t>MedicationDispense.dosageInstruction.timing.repeat.when</t>
   </si>
   <si>
-    <t>発生期間のコード / Code for time period of occurrence</t>
-  </si>
-  <si>
-    <t>日中のおおよその期間は、アクションがいつ発生するかを示す日常生活のイベントにリンクされる可能性があります。 / An approximate time period during the day, potentially linked to an event of daily living that indicates when the action should occur.</t>
-  </si>
-  <si>
-    <t>複数のイベントがリストされている場合、イベントは指定されたイベントの連合と結びついています。 / When more than one event is listed, the event is tied to the union of the specified events.</t>
-  </si>
-  <si>
-    <t>タイミングは、目覚め、食事、睡眠などの発生によって頻繁に決定されます。 / Timings are frequently determined by occurrences such as waking, eating and sleep.</t>
-  </si>
-  <si>
-    <t>スケジュールに関連する現実世界のイベント。 / Real world event relating to the schedule.</t>
+    <t>Code for time period of occurrence</t>
+  </si>
+  <si>
+    <t>An approximate time period during the day, potentially linked to an event of daily living that indicates when the action should occur.</t>
+  </si>
+  <si>
+    <t>When more than one event is listed, the event is tied to the union of the specified events.</t>
+  </si>
+  <si>
+    <t>Timings are frequently determined by occurrences such as waking, eating and sleep.</t>
+  </si>
+  <si>
+    <t>Real world event relating to the schedule.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/event-timing|4.0.1</t>
@@ -1917,10 +1915,10 @@
 </t>
   </si>
   <si>
-    <t>イベントから数分（前または後） / Minutes from event (before or after)</t>
-  </si>
-  <si>
-    <t>イベントから数分数。イベントコードがイベントの前か後の議事録であるかどうかを示していない場合、オフセットはイベント後にあると想定されます。 / The number of minutes from the event. If the event code does not indicate whether the minutes is before or after the event, then the offset is assumed to be after the event.</t>
+    <t>Minutes from event (before or after)</t>
+  </si>
+  <si>
+    <t>The number of minutes from the event. If the event code does not indicate whether the minutes is before or after the event, then the offset is assumed to be after the event.</t>
   </si>
   <si>
     <t>Timing.repeat.offset</t>
@@ -1932,16 +1930,16 @@
     <t>MedicationDispense.dosageInstruction.timing.code</t>
   </si>
   <si>
-    <t>入札|TID |QID |AM |PM |QD |qod |+ / BID | TID | QID | AM | PM | QD | QOD | +</t>
-  </si>
-  <si>
-    <t>タイミングスケジュールのコード（またはCode.textのテキストのみ）。BIDなどの一部のコードは遍在していますが、多くの機関は独自の追加コードを定義しています。コードが提供されている場合、コードは構造化されたタイミングデータで指定されているものの完全なステートメントであると理解され、CODEまたはデータを使用してタイミングを解釈することができます。コードを介して（コードに含まれていません）。 / A code for the timing schedule (or just text in code.text). Some codes such as BID are ubiquitous, but many institutions define their own additional codes. If a code is provided, the code is understood to be a complete statement of whatever is specified in the structured timing data, and either the code or the data may be used to interpret the Timing, with the exception that .repeat.bounds still applies over the code (and is not contained in the code).</t>
-  </si>
-  <si>
-    <t>入札などは、「制度的に指定された時間」として定義されます。たとえば、機関は、入札が「常に午前7時と午後6時」であることを選択する場合があります。この選択が行われるのが不適切な場合は、コード入札を使用しないでください。代わりに、HL7定義の入札コードおよび/または構造化された表現の代わりに、異なる組織固有のコードを使用する必要があります（この場合、2つのイベント時間を指定）。 / BID etc. are defined as 'at institutionally specified times'. For example, an institution may choose that BID is "always at 7am and 6pm".  If it is inappropriate for this choice to be made, the code BID should not be used. Instead, a distinct organization-specific code should be used in place of the HL7-defined BID code and/or a structured representation should be used (in this case, specifying the two event times).</t>
-  </si>
-  <si>
-    <t>既知 /定義されたタイミングパターンのコード。 / Code for a known / defined timing pattern.</t>
+    <t>BID | TID | QID | AM | PM | QD | QOD | +</t>
+  </si>
+  <si>
+    <t>A code for the timing schedule (or just text in code.text). Some codes such as BID are ubiquitous, but many institutions define their own additional codes. If a code is provided, the code is understood to be a complete statement of whatever is specified in the structured timing data, and either the code or the data may be used to interpret the Timing, with the exception that .repeat.bounds still applies over the code (and is not contained in the code).</t>
+  </si>
+  <si>
+    <t>BID etc. are defined as 'at institutionally specified times'. For example, an institution may choose that BID is "always at 7am and 6pm".  If it is inappropriate for this choice to be made, the code BID should not be used. Instead, a distinct organization-specific code should be used in place of the HL7-defined BID code and/or a structured representation should be used (in this case, specifying the two event times).</t>
+  </si>
+  <si>
+    <t>Code for a known / defined timing pattern.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/timing-abbreviation</t>
@@ -1962,13 +1960,13 @@
     <t>MedicationDispense.dosageInstruction.timing.code.coding</t>
   </si>
   <si>
-    <t>用語システムによって定義されたコード / Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>用語システムによって定義されたコードへの参照。 / A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>コードは、列挙されたCTなどの非常に正式な定義まで、列挙またはコードリストで非常にさりげなく定義される場合があります。詳細については、HL7 V3コアプリンシップを参照してください。コーディングの順序付けは未定義であり、意味を推測するために使用されません。一般に、せいぜい、コーディング値の1つのみがuserselected = trueとしてラベル付けされます。 / Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
   </si>
   <si>
     <t>MedicationDispense.dosageInstruction.timing.code.coding.id</t>
@@ -2014,7 +2012,7 @@
 ブール値をFalseに設定すると、投与量はスケジュールに従って与えられ、「prn」（ ＝as needed/as requiredの略記号）または「必要に応じて」ではない。</t>
   </si>
   <si>
-    <t>薬剤を消費または投与する前に満たすか評価する必要がある前提条件を特定するコード化された概念。たとえば、「痛み」、「性交の30分前」、「フレアアップ上」など。 / A coded concept identifying the precondition that should be met or evaluated prior to consuming or administering a medication dose.  For example "pain", "30 minutes prior to sexual intercourse", "on flare-up" etc.</t>
+    <t>A coded concept identifying the precondition that should be met or evaluated prior to consuming or administering a medication dose.  For example "pain", "30 minutes prior to sexual intercourse", "on flare-up" etc.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medication-as-needed-reason</t>
@@ -2043,10 +2041,10 @@
 ユースケースでBodySiteリソースの属性が必要な場合（たとえば、個別に識別して追跡するため）、標準の拡張機能[bodySite]（extension-bodysite.html）を使用する。要約コード、または場所の非常に正確な定義への参照、あるいはその両方である可能性がある。</t>
   </si>
   <si>
-    <t>薬が最初に体に入る解剖学的部位のコード化された仕様。 / A coded specification of the anatomic site where the medication first enters the body.</t>
-  </si>
-  <si>
-    <t>薬が身体に入る、または体に入るサイトの場所を説明するコード化された概念。 / A coded concept describing the site location the medicine enters into or onto the body.</t>
+    <t>A coded specification of the anatomic site where the medication first enters the body.</t>
+  </si>
+  <si>
+    <t>A coded concept describing the site location the medicine enters into or onto the body.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/approach-site-codes</t>
@@ -2076,7 +2074,7 @@
 患者の体内または体内へ​​の治療薬の投与経路または生理学的経路を指定するコード。</t>
   </si>
   <si>
-    <t>被験者の体への、またはそれへの治療剤の投与の経路または生理学的経路を説明するコード化された概念。 / A coded concept describing the route or physiological path of administration of a therapeutic agent into or onto the body of a subject.</t>
+    <t>A coded concept describing the route or physiological path of administration of a therapeutic agent into or onto the body of a subject.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/route-codes</t>
@@ -2102,13 +2100,13 @@
 JAMI処方・注射オーダ標準用法規格(用法詳細区分)。</t>
   </si>
   <si>
-    <t>使用される用語は、多くの場合、この用語をルートおよびまたは形式の投与とともに前調整します。 / Terminologies used often pre-coordinate this term with the route and or form of administration.</t>
-  </si>
-  <si>
-    <t>薬が体内に導入される方法を示すコード化された値。最も一般的に注射に使用されます。たとえば、スロープッシュ。ディープIV。 / A coded value indicating the method by which the medication is introduced into or onto the body. Most commonly used for injections.  For examples, Slow Push; Deep IV.</t>
-  </si>
-  <si>
-    <t>薬が投与される手法を説明するコード化された概念。 / A coded concept describing the technique by which the medicine is administered.</t>
+    <t>Terminologies used often pre-coordinate this term with the route and or form of administration.</t>
+  </si>
+  <si>
+    <t>A coded value indicating the method by which the medication is introduced into or onto the body. Most commonly used for injections.  For examples, Slow Push; Deep IV.</t>
+  </si>
+  <si>
+    <t>A coded concept describing the technique by which the medicine is administered.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/administration-method-codes</t>
@@ -2126,7 +2124,7 @@
     <t>MedicationDispense.dosageInstruction.doseAndRate</t>
   </si>
   <si>
-    <t>投与される薬の量 / Amount of medication administered</t>
+    <t>Amount of medication administered</t>
   </si>
   <si>
     <t>The amount of medication administered.</t>
@@ -2147,16 +2145,16 @@
     <t>MedicationDispense.dosageInstruction.doseAndRate.type</t>
   </si>
   <si>
-    <t>指定された用量またはレートの種類 / The kind of dose or rate specified</t>
-  </si>
-  <si>
-    <t>たとえば、指定された用量またはレートの種類は、注文または計算されました。 / The kind of dose or rate specified, for example, ordered or calculated.</t>
-  </si>
-  <si>
-    <t>タイプが入力されていない場合は、「順序付け」と仮定します。 / If the type is not populated, assume to be "ordered".</t>
-  </si>
-  <si>
-    <t>指定された用量またはレートの種類。 / The kind of dose or rate specified.</t>
+    <t>The kind of dose or rate specified</t>
+  </si>
+  <si>
+    <t>The kind of dose or rate specified, for example, ordered or calculated.</t>
+  </si>
+  <si>
+    <t>If the type is not populated, assume to be "ordered".</t>
+  </si>
+  <si>
+    <t>The kind of dose or rate specified.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/dose-rate-type</t>
@@ -2175,16 +2173,16 @@
 Quantity {SimpleQuantity}</t>
   </si>
   <si>
-    <t>用量あたりの薬の量 / Amount of medication per dose</t>
-  </si>
-  <si>
-    <t>用量あたりの薬の量。 / Amount of medication per dose.</t>
-  </si>
-  <si>
-    <t>これは、各有効成分の量ではなく、指定された薬の量を指定することに注意してください。各成分の量は、投薬資源で伝えることができます。たとえば、タブレットが375 mgであることを伝えたい場合は、用量が1つの錠剤であることを伝えたい場合は、薬物リソースを使用して、錠剤が375 mgの薬物XYZで構成されていることを文書化できます。あるいは、用量が375 mgの場合、これが錠剤であることを示すために投薬資源を使用するだけでいいかもしれません。例がドーパミンなどのIVであり、400mgのドーパミンが500 mLのIV溶液で混合されたことを伝えたい場合、これはすべて投薬資源で伝えられます。政権が瞬時であることを意図していない場合（レートが存在するか、タイミングに期間があります）、これは、スケジュールで示されるように、期間にわたって管理される合計額を伝えるために指定できます。 500 mlの用量で、これを4時間以上行う必要があることを伝えるタイミングが使用されます。 / Note that this specifies the quantity of the specified medication, not the quantity for each active ingredient(s). Each ingredient amount can be communicated in the Medication resource. For example, if one wants to communicate that a tablet was 375 mg, where the dose was one tablet, you can use the Medication resource to document that the tablet was comprised of 375 mg of drug XYZ. Alternatively if the dose was 375 mg, then you may only need to use the Medication resource to indicate this was a tablet. If the example were an IV such as dopamine and you wanted to communicate that 400mg of dopamine was mixed in 500 ml of some IV solution, then this would all be communicated in the Medication resource. If the administration is not intended to be instantaneous (rate is present or timing has a duration), this can be specified to convey the total amount to be administered over the period of time as indicated by the schedule e.g. 500 ml in dose, with timing used to convey that this should be done over 4 hours.</t>
-  </si>
-  <si>
-    <t>1つの投与イベントで与えられた治療またはその他の物質の量。 / The amount of therapeutic or other substance given at one administration event.</t>
+    <t>Amount of medication per dose</t>
+  </si>
+  <si>
+    <t>Amount of medication per dose.</t>
+  </si>
+  <si>
+    <t>Note that this specifies the quantity of the specified medication, not the quantity for each active ingredient(s). Each ingredient amount can be communicated in the Medication resource. For example, if one wants to communicate that a tablet was 375 mg, where the dose was one tablet, you can use the Medication resource to document that the tablet was comprised of 375 mg of drug XYZ. Alternatively if the dose was 375 mg, then you may only need to use the Medication resource to indicate this was a tablet. If the example were an IV such as dopamine and you wanted to communicate that 400mg of dopamine was mixed in 500 ml of some IV solution, then this would all be communicated in the Medication resource. If the administration is not intended to be instantaneous (rate is present or timing has a duration), this can be specified to convey the total amount to be administered over the period of time as indicated by the schedule e.g. 500 ml in dose, with timing used to convey that this should be done over 4 hours.</t>
+  </si>
+  <si>
+    <t>The amount of therapeutic or other substance given at one administration event.</t>
   </si>
   <si>
     <t>Dosage.doseAndRate.dose[x]</t>
@@ -2200,20 +2198,18 @@
 RangeQuantity {SimpleQuantity}</t>
   </si>
   <si>
-    <t>時間単位あたりの薬の量 / Amount of medication per unit of time</t>
-  </si>
-  <si>
-    <t>時間単位あたりの薬の量。 / Amount of medication per unit of time.</t>
-  </si>
-  <si>
-    <t>レートとデスケーティティの両方を供給して、薬の投与と供給の方法についての詳細を提供することができます。レートが時間の経過とともに変化することを目的としている場合、ローカルのルール/規制に応じて、各変更は、更新されたレートのある薬物療法の新しいバージョンとしてキャプチャするか、新しいレートで新しい薬物採取でキャプチャされる必要があります。--レート（100 ml/hour）を使用して、時間の経過とともにレートを指定することができます。RateQuantityアプローチでは、時間が分母として指定されている特定の比率ではなく、ML/時間が含まれているUCUMグラマーを解析する機能をシステムに持つ必要があります。2時間にわたって500mlなどのレートが指定されている場合、250 mg/時のレートの量を使用して指定するよりも、定量的に正しい場合があります。 / It is possible to supply both a rate and a doseQuantity to provide full details about how the medication is to be administered and supplied. If the rate is intended to change over time, depending on local rules/regulations, each change should be captured as a new version of the MedicationRequest with an updated rate, or captured with a new MedicationRequest with the new rate.+    <t>Amount of medication per unit of time</t>
+  </si>
+  <si>
+    <t>Amount of medication per unit of time.</t>
+  </si>
+  <si>
+    <t>It is possible to supply both a rate and a doseQuantity to provide full details about how the medication is to be administered and supplied. If the rate is intended to change over time, depending on local rules/regulations, each change should be captured as a new version of the MedicationRequest with an updated rate, or captured with a new MedicationRequest with the new rate.  It is possible to specify a rate over time (for example, 100 ml/hour) using either the rateRatio and rateQuantity.  The rateQuantity approach requires systems to have the capability to parse UCUM grammer where ml/hour is included rather than a specific ratio where the time is specified as the denominator.  Where a rate such as 500ml over 2 hours is specified, the use of rateRatio may be more semantically correct than specifying using a rateQuantity of 250 mg/hour.</t>
   </si>
   <si>
-    <t>患者に薬が導入された、または導入される速度を識別します。通常、注入のレート。1時間あたり100 mlまたは100 ml/hr。また、時間単位あたりのレートとして表現することもできます。2時間あたり500 ml。その他の例：200 mcg/minまたは200 mcg/1分。1リットル/8時間。時には、総量 /持続時間として表される場合、レートは期間を意味する場合があります（たとえば、500ml / 2時間は2時間の期間を意味します）。ただし、レートが期間（250ml/hour）を意味しない場合、期間にわたって注入を伝えるためにタイミング.repeat.durationが必要です。 / Identifies the speed with which the medication was or will be introduced into the patient. Typically the rate for an infusion e.g. 100 ml per 1 hour or 100 ml/hr.  May also be expressed as a rate per unit of time e.g. 500 ml per 2 hours.   Other examples: 200 mcg/min or 200 mcg/1 minute; 1 liter/8 hours.  Sometimes, a rate can imply duration when expressed as total volume / duration (e.g.  500mL/2 hours implies a duration of 2 hours).  However, when rate doesn't imply duration (e.g. 250mL/hour), then the timing.repeat.duration is needed to convey the infuse over time period.</t>
+    <t>Identifies the speed with which the medication was or will be introduced into the patient. Typically the rate for an infusion e.g. 100 ml per 1 hour or 100 ml/hr.  May also be expressed as a rate per unit of time e.g. 500 ml per 2 hours.   Other examples: 200 mcg/min or 200 mcg/1 minute; 1 liter/8 hours.  Sometimes, a rate can imply duration when expressed as total volume / duration (e.g.  500mL/2 hours implies a duration of 2 hours).  However, when rate doesn't imply duration (e.g. 250mL/hour), then the timing.repeat.duration is needed to convey the infuse over time period.</t>
   </si>
   <si>
     <t>Dosage.doseAndRate.rate[x]</t>
@@ -2232,16 +2228,16 @@
 </t>
   </si>
   <si>
-    <t>時間単位あたりの投薬の上限 / Upper limit on medication per unit of time</t>
-  </si>
-  <si>
-    <t>時間単位あたりの投薬の上限。 / Upper limit on medication per unit of time.</t>
-  </si>
-  <si>
-    <t>これは、上限があるときに投与量の補助として使用することを目的としています。たとえば、「4時間ごとに最大8時間あたり2錠」。 / This is intended for use as an adjunct to the dosage when there is an upper cap.  For example "2 tablets every 4 hours to a maximum of 8/day".</t>
-  </si>
-  <si>
-    <t>期間にわたって被験者に投与される可能性のある治療物質の最大総量。たとえば、24時間で1000mg。 / The maximum total quantity of a therapeutic substance that may be administered to a subject over the period of time.  For example, 1000mg in 24 hours.</t>
+    <t>Upper limit on medication per unit of time</t>
+  </si>
+  <si>
+    <t>Upper limit on medication per unit of time.</t>
+  </si>
+  <si>
+    <t>This is intended for use as an adjunct to the dosage when there is an upper cap.  For example "2 tablets every 4 hours to a maximum of 8/day".</t>
+  </si>
+  <si>
+    <t>The maximum total quantity of a therapeutic substance that may be administered to a subject over the period of time.  For example, 1000mg in 24 hours.</t>
   </si>
   <si>
     <t>Dosage.maxDosePerPeriod</t>
@@ -2256,16 +2252,16 @@
     <t>MedicationDispense.dosageInstruction.maxDosePerAdministration</t>
   </si>
   <si>
-    <t>投与ごとの薬の上限 / Upper limit on medication per administration</t>
-  </si>
-  <si>
-    <t>投与ごとの薬の上限。 / Upper limit on medication per administration.</t>
-  </si>
-  <si>
-    <t>これは、上限があるときに投与量の補助として使用することを目的としています。たとえば、5〜10分間で1.5 mg/m2（最大2 mg）IVなどの最大量の体積領域に関連する用量に関連する用量は、1.5 mg/m2、最大2 mgのDosequantityになります。 / This is intended for use as an adjunct to the dosage when there is an upper cap.  For example, a body surface area related dose with a maximum amount, such as 1.5 mg/m2 (maximum 2 mg) IV over 5 – 10 minutes would have doseQuantity of 1.5 mg/m2 and maxDosePerAdministration of 2 mg.</t>
-  </si>
-  <si>
-    <t>投与ごとの被験者に投与される可能性のある治療物質の最大総量。 / The maximum total quantity of a therapeutic substance that may be administered to a subject per administration.</t>
+    <t>Upper limit on medication per administration</t>
+  </si>
+  <si>
+    <t>Upper limit on medication per administration.</t>
+  </si>
+  <si>
+    <t>This is intended for use as an adjunct to the dosage when there is an upper cap.  For example, a body surface area related dose with a maximum amount, such as 1.5 mg/m2 (maximum 2 mg) IV over 5 – 10 minutes would have doseQuantity of 1.5 mg/m2 and maxDosePerAdministration of 2 mg.</t>
+  </si>
+  <si>
+    <t>The maximum total quantity of a therapeutic substance that may be administered to a subject per administration.</t>
   </si>
   <si>
     <t>Dosage.maxDosePerAdministration</t>
@@ -2277,13 +2273,13 @@
     <t>MedicationDispense.dosageInstruction.maxDosePerLifetime</t>
   </si>
   <si>
-    <t>患者の生涯あたりの薬物療法の上限 / Upper limit on medication per lifetime of the patient</t>
-  </si>
-  <si>
-    <t>患者の生涯あたりの薬物療法の上限。 / Upper limit on medication per lifetime of the patient.</t>
-  </si>
-  <si>
-    <t>被験者の寿命ごとに投与される可能性のある治療物質の最大総量。 / The maximum total quantity of a therapeutic substance that may be administered per lifetime of the subject.</t>
+    <t>Upper limit on medication per lifetime of the patient</t>
+  </si>
+  <si>
+    <t>Upper limit on medication per lifetime of the patient.</t>
+  </si>
+  <si>
+    <t>The maximum total quantity of a therapeutic substance that may be administered per lifetime of the subject.</t>
   </si>
   <si>
     <t>Dosage.maxDosePerLifetime</t>
@@ -2350,7 +2346,7 @@
     <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
   </si>
   <si>
-    <t>処方箋で正確に指定されているように、製品以外に異なる薬物が分配されるかどうかを説明するコード化された概念。 / A coded concept describing whether a different medicinal product may be dispensed other than the product as specified exactly in the prescription.</t>
+    <t>A coded concept describing whether a different medicinal product may be dispensed other than the product as specified exactly in the prescription.</t>
   </si>
   <si>
     <t>http://terminology.hl7.org/ValueSet/v3-ActSubstanceAdminSubstitutionCode</t>
@@ -2374,7 +2370,7 @@
 CT:治療継続性確保のため、FP:処方方針、 OS: 在庫欠品、  RR:代替えを義務付けまたは禁止する規制要件に従った</t>
   </si>
   <si>
-    <t>別の薬物療法が処方されたものから置き換える（またはすべきではない）理由を説明するコード化された概念。 / A coded concept describing the reason that a different medication should (or should not) be substituted from what was prescribed.</t>
+    <t>A coded concept describing the reason that a different medication should (or should not) be substituted from what was prescribed.</t>
   </si>
   <si>
     <t>http://terminology.hl7.org/ValueSet/v3-SubstanceAdminSubstitutionReason</t>
@@ -2425,7 +2421,7 @@
 DetectedIssue リソースへの参照。</t>
   </si>
   <si>
-    <t>この要素には、意思決定支援システムまたは臨床医によって特定された検出された問題を含めることができ、問題に対処するために取られた手順に関する情報を含めることができます。 / This element can include a detected issue that has been identified either by a decision support system or by a clinician and may include information on the steps that were taken to address the issue.</t>
+    <t>This element can include a detected issue that has been identified either by a decision support system or by a clinician and may include information on the steps that were taken to address the issue.</t>
   </si>
   <si>
     <t>.inboundRelationship[typeCode=SUBJ]/source[classCode=ALRT,moodCode=EVN].value</t>
@@ -2445,7 +2441,7 @@
 調剤が確認されたときなど、発生した対象のイベントのサマリー。</t>
   </si>
   <si>
-    <t>これには、リクエストのすべてのバージョンの出所が含まれない場合があります。「関連性がある」または重要とみなされるもののみです。これには、この現在のバージョンのリソースに関連する出所を含めてはなりません。（その出所が「関連性のある」変更と見なされる場合、後の更新の一部として追加する必要があります。それまで、_revincludeを使用してこのバージョンを指す出所として直接照会することができます。この要求の歴史的バージョンは、彼らの主題として。）。 / This might not include provenances for all versions of the request – only those deemed “relevant” or important. This SHALL NOT include the Provenance associated with this current version of the resource. (If that provenance is deemed to be a “relevant” change, it will need to be added as part of a later update. Until then, it can be queried directly as the Provenance that points to this version using _revinclude All Provenances should have some historical version of this Request as their subject.).</t>
+    <t>This might not include provenances for all versions of the request – only those deemed “relevant” or important. This SHALL NOT include the Provenance associated with this current version of the resource. (If that provenance is deemed to be a “relevant” change, it will need to be added as part of a later update. Until then, it can be queried directly as the Provenance that points to this version using _revinclude All Provenances should have some historical version of this Request as their subject.).</t>
   </si>
   <si>
     <t>.inboundRelationship(typeCode=SUBJ].source[classCode=CACT, moodCode=EVN]</t>
@@ -2787,7 +2783,7 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="198.02734375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="71.296875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdispensebase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdispensebase.xlsx
@@ -917,7 +917,7 @@
 投与を受ける患者</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
 参照は、実際のFHIRリソースへの参照である必要があり、解決可能（内容に到達可能）である必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。</t>
   </si>
   <si>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdispensebase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdispensebase.xlsx
@@ -1353,7 +1353,7 @@
   </si>
   <si>
     <t>Identification of the facility/location where the medication was shipped to, as part of the dispense event.
-調剤イベントの一環として、薬剤が出荷された行先先の施設/場所のLocarionリソースへの参照。</t>
+調剤イベントの一環として、薬剤が出荷された行先先の施設/場所のLocationリソースへの参照。</t>
   </si>
   <si>
     <t>.participation[typeCode=DST].role</t>
@@ -1541,7 +1541,7 @@
   </si>
   <si>
     <t>Free text dosage instructions can be used for cases where the instructions are too complex to code.  The content of this attribute does not include the name or description of the medication. When coded instructions are present, the free text instructions may still be present for display to humans taking or administering the medication. It is expected that the text instructions will always be populated.  If the dosage.timing attribute is also populated, then the dosage.text should reflect the same information as the timing.  Additional information about administration or preparation of the medication should be included as text.
-指示が複雑すぎてコーディングできない場合は、フリーテキストの投与指示を使用できる。この属性の内容には、薬の名前や説明は含まれない。コード化された指示が存在する場合、フリーテキストの指示は、薬を服用または投与している人間に表示するために存在している場合がある。テキストの指示は常に入力されることが期待される。 dose.timing属性も同時に入力されている場合、dudgement.textはタイミングと同じ情報を反映している必要があり、薬の投与または準備に関する追加情報をテキストとして含める必要がある。</t>
+指示が複雑すぎてコーディングできない場合は、フリーテキストの投与指示を使用できる。この属性の内容には、薬の名前や説明は含まれない。コード化された指示が存在する場合、フリーテキストの指示は、薬を服用または投与している人間に表示するために存在している場合がある。テキストの指示は常に入力されることが期待される。 dose.timing属性も同時に入力されている場合、dosage.textはタイミングと同じ情報を反映している必要があり、薬の投与または準備に関する追加情報をテキストとして含める必要がある。</t>
   </si>
   <si>
     <t>Dosage.text</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdispensebase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdispensebase.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4645" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4645" uniqueCount="762">
   <si>
     <t>Property</t>
   </si>
@@ -513,7 +513,7 @@
     <t>MedicationDispense.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Procedure)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Procedure)
 </t>
   </si>
   <si>
@@ -936,7 +936,7 @@
     <t>MedicationDispense.context</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter|EpisodeOfCare)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Encounter|EpisodeOfCare)
 </t>
   </si>
   <si>
@@ -1040,7 +1040,7 @@
     <t>MedicationDispense.performer.actor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|Patient|Device|RelatedPerson)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Practitioner|http://jpfhir.jp/fhir/core/StructureDefinition/JP_PractitionerRole|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Organization|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Patient|Device|RelatedPerson)
 </t>
   </si>
   <si>
@@ -1076,7 +1076,7 @@
     <t>MedicationDispense.authorizingPrescription</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationRequest)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRequest)
 </t>
   </si>
   <si>
@@ -1349,6 +1349,10 @@
     <t>MedicationDispense.destination</t>
   </si>
   <si>
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Location)
+</t>
+  </si>
+  <si>
     <t>Where the medication was sent　薬が送られた場所</t>
   </si>
   <si>
@@ -1368,7 +1372,7 @@
     <t>MedicationDispense.receiver</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Practitioner)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Patient|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Practitioner)
 </t>
   </si>
   <si>
@@ -2385,7 +2389,7 @@
     <t>MedicationDispense.substitution.responsibleParty</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Practitioner|http://jpfhir.jp/fhir/core/StructureDefinition/JP_PractitionerRole)
 </t>
   </si>
   <si>
@@ -9095,13 +9099,13 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>330</v>
+        <v>420</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M56" t="s" s="2">
         <v>286</v>
@@ -9172,21 +9176,21 @@
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -9209,13 +9213,13 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M57" t="s" s="2">
         <v>286</v>
@@ -9268,7 +9272,7 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -9286,13 +9290,13 @@
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>77</v>
@@ -9300,7 +9304,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -9323,16 +9327,16 @@
         <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -9382,7 +9386,7 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -9397,10 +9401,10 @@
         <v>98</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -9409,12 +9413,12 @@
         <v>77</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9437,16 +9441,16 @@
         <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -9496,7 +9500,7 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -9514,7 +9518,7 @@
         <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
@@ -9528,7 +9532,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9554,7 +9558,7 @@
         <v>88</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L60" t="s" s="2">
         <v>209</v>
@@ -9640,7 +9644,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9754,10 +9758,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C62" t="s" s="2">
         <v>77</v>
@@ -9779,13 +9783,13 @@
         <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9868,10 +9872,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C63" t="s" s="2">
         <v>77</v>
@@ -9893,13 +9897,13 @@
         <v>77</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9982,10 +9986,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C64" t="s" s="2">
         <v>77</v>
@@ -10007,13 +10011,13 @@
         <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -10096,10 +10100,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C65" t="s" s="2">
         <v>77</v>
@@ -10121,13 +10125,13 @@
         <v>77</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -10210,7 +10214,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -10326,7 +10330,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10349,17 +10353,17 @@
         <v>87</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>77</v>
@@ -10408,7 +10412,7 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
@@ -10426,7 +10430,7 @@
         <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
@@ -10435,12 +10439,12 @@
         <v>77</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10466,14 +10470,14 @@
         <v>88</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>77</v>
@@ -10522,7 +10526,7 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
@@ -10540,7 +10544,7 @@
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>77</v>
@@ -10549,12 +10553,12 @@
         <v>77</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10580,16 +10584,16 @@
         <v>186</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>77</v>
@@ -10617,10 +10621,10 @@
         <v>180</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>77</v>
@@ -10638,7 +10642,7 @@
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
@@ -10656,7 +10660,7 @@
         <v>77</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>77</v>
@@ -10665,12 +10669,12 @@
         <v>77</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10696,10 +10700,10 @@
         <v>88</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -10750,7 +10754,7 @@
         <v>77</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
@@ -10768,7 +10772,7 @@
         <v>77</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>77</v>
@@ -10777,12 +10781,12 @@
         <v>77</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10805,19 +10809,19 @@
         <v>87</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>77</v>
@@ -10866,7 +10870,7 @@
         <v>77</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
@@ -10884,7 +10888,7 @@
         <v>77</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>77</v>
@@ -10898,7 +10902,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -11010,7 +11014,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -11124,7 +11128,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -11240,7 +11244,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -11266,14 +11270,14 @@
         <v>408</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>77</v>
@@ -11322,7 +11326,7 @@
         <v>77</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>78</v>
@@ -11340,7 +11344,7 @@
         <v>77</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>77</v>
@@ -11354,7 +11358,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11377,17 +11381,17 @@
         <v>87</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>77</v>
@@ -11436,7 +11440,7 @@
         <v>77</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>78</v>
@@ -11448,13 +11452,13 @@
         <v>77</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>77</v>
@@ -11468,7 +11472,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11580,7 +11584,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11694,7 +11698,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11717,13 +11721,13 @@
         <v>87</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -11774,7 +11778,7 @@
         <v>77</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>78</v>
@@ -11792,7 +11796,7 @@
         <v>77</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>77</v>
@@ -11806,7 +11810,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11829,19 +11833,19 @@
         <v>87</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>77</v>
@@ -11890,7 +11894,7 @@
         <v>77</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>78</v>
@@ -11908,7 +11912,7 @@
         <v>77</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>77</v>
@@ -11922,7 +11926,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11945,13 +11949,13 @@
         <v>87</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -12002,7 +12006,7 @@
         <v>77</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>78</v>
@@ -12020,7 +12024,7 @@
         <v>77</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>77</v>
@@ -12034,7 +12038,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -12060,16 +12064,16 @@
         <v>363</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>77</v>
@@ -12118,7 +12122,7 @@
         <v>77</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>78</v>
@@ -12136,7 +12140,7 @@
         <v>77</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>77</v>
@@ -12150,7 +12154,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -12176,16 +12180,16 @@
         <v>363</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>77</v>
@@ -12234,7 +12238,7 @@
         <v>77</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>78</v>
@@ -12252,7 +12256,7 @@
         <v>77</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>77</v>
@@ -12266,7 +12270,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -12292,10 +12296,10 @@
         <v>106</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -12325,10 +12329,10 @@
         <v>169</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>77</v>
@@ -12346,7 +12350,7 @@
         <v>77</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>78</v>
@@ -12364,7 +12368,7 @@
         <v>77</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>77</v>
@@ -12378,7 +12382,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12401,13 +12405,13 @@
         <v>87</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -12415,7 +12419,7 @@
         <v>77</v>
       </c>
       <c r="P85" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="Q85" t="s" s="2">
         <v>77</v>
@@ -12460,7 +12464,7 @@
         <v>77</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>78</v>
@@ -12478,7 +12482,7 @@
         <v>77</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>77</v>
@@ -12492,7 +12496,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12515,13 +12519,13 @@
         <v>87</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -12572,7 +12576,7 @@
         <v>77</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>78</v>
@@ -12590,7 +12594,7 @@
         <v>77</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>77</v>
@@ -12604,7 +12608,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12630,10 +12634,10 @@
         <v>363</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -12684,7 +12688,7 @@
         <v>77</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>78</v>
@@ -12702,7 +12706,7 @@
         <v>77</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>77</v>
@@ -12716,7 +12720,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12742,10 +12746,10 @@
         <v>363</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -12796,7 +12800,7 @@
         <v>77</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>78</v>
@@ -12814,7 +12818,7 @@
         <v>77</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>77</v>
@@ -12828,7 +12832,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12854,10 +12858,10 @@
         <v>106</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -12887,10 +12891,10 @@
         <v>169</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="Z89" t="s" s="2">
         <v>77</v>
@@ -12908,7 +12912,7 @@
         <v>77</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>78</v>
@@ -12926,7 +12930,7 @@
         <v>77</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>77</v>
@@ -12940,7 +12944,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12966,13 +12970,13 @@
         <v>106</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
@@ -13002,7 +13006,7 @@
       </c>
       <c r="X90" s="2"/>
       <c r="Y90" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>77</v>
@@ -13020,7 +13024,7 @@
         <v>77</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>78</v>
@@ -13052,7 +13056,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -13075,16 +13079,16 @@
         <v>87</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
@@ -13134,7 +13138,7 @@
         <v>77</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>78</v>
@@ -13166,7 +13170,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -13192,16 +13196,16 @@
         <v>106</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>77</v>
@@ -13229,10 +13233,10 @@
         <v>169</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>77</v>
@@ -13250,7 +13254,7 @@
         <v>77</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>78</v>
@@ -13268,7 +13272,7 @@
         <v>77</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>77</v>
@@ -13282,7 +13286,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -13305,13 +13309,13 @@
         <v>87</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -13362,7 +13366,7 @@
         <v>77</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>78</v>
@@ -13380,7 +13384,7 @@
         <v>77</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>77</v>
@@ -13394,7 +13398,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13420,13 +13424,13 @@
         <v>186</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
@@ -13455,10 +13459,10 @@
         <v>110</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>77</v>
@@ -13476,7 +13480,7 @@
         <v>77</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>78</v>
@@ -13494,7 +13498,7 @@
         <v>77</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>77</v>
@@ -13508,7 +13512,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13620,7 +13624,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13734,7 +13738,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13760,13 +13764,13 @@
         <v>224</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="N97" t="s" s="2">
         <v>228</v>
@@ -13850,7 +13854,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13962,7 +13966,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -14076,7 +14080,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -14192,7 +14196,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -14306,7 +14310,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -14420,7 +14424,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -14534,7 +14538,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14650,7 +14654,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -14766,7 +14770,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14789,16 +14793,16 @@
         <v>87</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
@@ -14827,10 +14831,10 @@
         <v>180</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="Z106" t="s" s="2">
         <v>77</v>
@@ -14848,7 +14852,7 @@
         <v>77</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>78</v>
@@ -14866,7 +14870,7 @@
         <v>77</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>77</v>
@@ -14875,12 +14879,12 @@
         <v>77</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14906,16 +14910,16 @@
         <v>186</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="O107" t="s" s="2">
         <v>77</v>
@@ -14943,10 +14947,10 @@
         <v>180</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="Z107" t="s" s="2">
         <v>77</v>
@@ -14964,7 +14968,7 @@
         <v>77</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>78</v>
@@ -14982,7 +14986,7 @@
         <v>77</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>77</v>
@@ -14991,12 +14995,12 @@
         <v>77</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -15022,16 +15026,16 @@
         <v>186</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="M108" t="s" s="2">
         <v>346</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="O108" t="s" s="2">
         <v>77</v>
@@ -15059,10 +15063,10 @@
         <v>180</v>
       </c>
       <c r="X108" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="Y108" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="Z108" t="s" s="2">
         <v>77</v>
@@ -15080,7 +15084,7 @@
         <v>77</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>78</v>
@@ -15098,7 +15102,7 @@
         <v>77</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>77</v>
@@ -15107,12 +15111,12 @@
         <v>77</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -15138,16 +15142,16 @@
         <v>186</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="O109" t="s" s="2">
         <v>77</v>
@@ -15175,10 +15179,10 @@
         <v>180</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="Z109" t="s" s="2">
         <v>77</v>
@@ -15196,7 +15200,7 @@
         <v>77</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>78</v>
@@ -15214,7 +15218,7 @@
         <v>77</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>77</v>
@@ -15223,12 +15227,12 @@
         <v>77</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -15251,13 +15255,13 @@
         <v>87</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="M110" s="2"/>
       <c r="N110" s="2"/>
@@ -15308,7 +15312,7 @@
         <v>77</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>78</v>
@@ -15335,12 +15339,12 @@
         <v>77</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -15452,7 +15456,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -15566,7 +15570,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -15592,14 +15596,14 @@
         <v>186</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>77</v>
@@ -15627,10 +15631,10 @@
         <v>180</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="Z113" t="s" s="2">
         <v>77</v>
@@ -15648,7 +15652,7 @@
         <v>77</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>78</v>
@@ -15675,12 +15679,12 @@
         <v>77</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15703,19 +15707,19 @@
         <v>87</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>77</v>
@@ -15764,7 +15768,7 @@
         <v>77</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>78</v>
@@ -15782,7 +15786,7 @@
         <v>77</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="AL114" t="s" s="2">
         <v>77</v>
@@ -15791,12 +15795,12 @@
         <v>77</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -15819,19 +15823,19 @@
         <v>87</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="O115" t="s" s="2">
         <v>77</v>
@@ -15880,7 +15884,7 @@
         <v>77</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>78</v>
@@ -15898,7 +15902,7 @@
         <v>77</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>77</v>
@@ -15907,12 +15911,12 @@
         <v>77</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15935,19 +15939,19 @@
         <v>87</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="O116" t="s" s="2">
         <v>77</v>
@@ -15996,7 +16000,7 @@
         <v>77</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>78</v>
@@ -16014,7 +16018,7 @@
         <v>77</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="AL116" t="s" s="2">
         <v>77</v>
@@ -16023,12 +16027,12 @@
         <v>77</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -16054,16 +16058,16 @@
         <v>353</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>77</v>
@@ -16112,7 +16116,7 @@
         <v>77</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>78</v>
@@ -16130,7 +16134,7 @@
         <v>77</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="AL117" t="s" s="2">
         <v>77</v>
@@ -16144,7 +16148,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -16170,14 +16174,14 @@
         <v>353</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="M118" s="2"/>
       <c r="N118" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>77</v>
@@ -16226,7 +16230,7 @@
         <v>77</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>78</v>
@@ -16244,7 +16248,7 @@
         <v>77</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="AL118" t="s" s="2">
         <v>77</v>
@@ -16258,7 +16262,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -16284,10 +16288,10 @@
         <v>304</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
@@ -16338,7 +16342,7 @@
         <v>77</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>78</v>
@@ -16356,13 +16360,13 @@
         <v>77</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="AL119" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="AN119" t="s" s="2">
         <v>77</v>
@@ -16370,7 +16374,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -16482,7 +16486,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -16596,7 +16600,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -16712,7 +16716,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -16738,10 +16742,10 @@
         <v>264</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
@@ -16792,7 +16796,7 @@
         <v>77</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>86</v>
@@ -16810,7 +16814,7 @@
         <v>77</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="AL123" t="s" s="2">
         <v>77</v>
@@ -16824,7 +16828,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -16850,13 +16854,13 @@
         <v>186</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
@@ -16885,10 +16889,10 @@
         <v>180</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="Z124" t="s" s="2">
         <v>77</v>
@@ -16906,7 +16910,7 @@
         <v>77</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>78</v>
@@ -16930,15 +16934,15 @@
         <v>77</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -16964,10 +16968,10 @@
         <v>186</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="M125" t="s" s="2">
         <v>346</v>
@@ -16999,10 +17003,10 @@
         <v>180</v>
       </c>
       <c r="X125" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="Y125" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="Z125" t="s" s="2">
         <v>77</v>
@@ -17020,7 +17024,7 @@
         <v>77</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>78</v>
@@ -17038,13 +17042,13 @@
         <v>77</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="AL125" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="AN125" t="s" s="2">
         <v>77</v>
@@ -17052,7 +17056,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -17075,13 +17079,13 @@
         <v>77</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="M126" t="s" s="2">
         <v>286</v>
@@ -17134,7 +17138,7 @@
         <v>77</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>78</v>
@@ -17152,13 +17156,13 @@
         <v>77</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="AL126" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="AN126" t="s" s="2">
         <v>77</v>
@@ -17166,11 +17170,11 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
@@ -17189,16 +17193,16 @@
         <v>77</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" t="s" s="2">
@@ -17248,7 +17252,7 @@
         <v>77</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>78</v>
@@ -17266,7 +17270,7 @@
         <v>77</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="AL127" t="s" s="2">
         <v>77</v>
@@ -17280,7 +17284,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -17303,16 +17307,16 @@
         <v>77</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
@@ -17362,7 +17366,7 @@
         <v>77</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>78</v>
@@ -17380,7 +17384,7 @@
         <v>77</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="AL128" t="s" s="2">
         <v>77</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdispensebase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdispensebase.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4645" uniqueCount="762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4644" uniqueCount="763">
   <si>
     <t>Property</t>
   </si>
@@ -713,6 +713,9 @@
   </si>
   <si>
     <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationCode_VS</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -5028,13 +5031,11 @@
         <v>77</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="X20" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X20" s="2"/>
       <c r="Y20" t="s" s="2">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>77</v>
@@ -5110,10 +5111,10 @@
         <v>88</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -5310,7 +5311,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -5333,19 +5334,19 @@
         <v>87</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>77</v>
@@ -5394,7 +5395,7 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
@@ -5412,7 +5413,7 @@
         <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>77</v>
@@ -5421,12 +5422,12 @@
         <v>77</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -5452,10 +5453,10 @@
         <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -5538,7 +5539,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5652,7 +5653,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5678,16 +5679,16 @@
         <v>100</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>77</v>
@@ -5736,7 +5737,7 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -5754,7 +5755,7 @@
         <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>77</v>
@@ -5763,12 +5764,12 @@
         <v>77</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5794,13 +5795,13 @@
         <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -5850,7 +5851,7 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -5868,7 +5869,7 @@
         <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>77</v>
@@ -5877,12 +5878,12 @@
         <v>77</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5908,14 +5909,14 @@
         <v>106</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>77</v>
@@ -5964,7 +5965,7 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -5982,7 +5983,7 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
@@ -5991,12 +5992,12 @@
         <v>77</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -6022,14 +6023,14 @@
         <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>77</v>
@@ -6078,7 +6079,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -6096,7 +6097,7 @@
         <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
@@ -6105,12 +6106,12 @@
         <v>77</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -6133,19 +6134,19 @@
         <v>87</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>77</v>
@@ -6194,7 +6195,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -6212,7 +6213,7 @@
         <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>77</v>
@@ -6221,12 +6222,12 @@
         <v>77</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -6252,16 +6253,16 @@
         <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>77</v>
@@ -6310,7 +6311,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -6328,7 +6329,7 @@
         <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
@@ -6337,7 +6338,7 @@
         <v>77</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="32">
@@ -6345,7 +6346,7 @@
         <v>193</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C32" t="s" s="2">
         <v>77</v>
@@ -6367,7 +6368,7 @@
         <v>87</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>218</v>
@@ -6458,7 +6459,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6481,16 +6482,16 @@
         <v>87</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -6540,7 +6541,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -6555,24 +6556,24 @@
         <v>98</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6595,16 +6596,16 @@
         <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -6654,7 +6655,7 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -6669,10 +6670,10 @@
         <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>77</v>
@@ -6686,7 +6687,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6709,16 +6710,16 @@
         <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6768,7 +6769,7 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -6786,10 +6787,10 @@
         <v>77</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>77</v>
@@ -6800,7 +6801,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6823,13 +6824,13 @@
         <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6880,7 +6881,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -6895,10 +6896,10 @@
         <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>77</v>
@@ -6912,7 +6913,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6938,10 +6939,10 @@
         <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -7024,7 +7025,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -7138,11 +7139,11 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -7164,10 +7165,10 @@
         <v>131</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M39" t="s" s="2">
         <v>147</v>
@@ -7222,7 +7223,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -7254,7 +7255,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -7280,14 +7281,14 @@
         <v>186</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>77</v>
@@ -7315,10 +7316,10 @@
         <v>180</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>77</v>
@@ -7336,7 +7337,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -7354,7 +7355,7 @@
         <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
@@ -7368,7 +7369,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -7391,13 +7392,13 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -7448,7 +7449,7 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>86</v>
@@ -7463,10 +7464,10 @@
         <v>98</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
@@ -7480,7 +7481,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7503,16 +7504,16 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -7562,7 +7563,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -7580,7 +7581,7 @@
         <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
@@ -7594,7 +7595,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7617,16 +7618,16 @@
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -7676,7 +7677,7 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -7691,24 +7692,24 @@
         <v>98</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7734,13 +7735,13 @@
         <v>186</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7769,10 +7770,10 @@
         <v>180</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>77</v>
@@ -7790,7 +7791,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -7808,21 +7809,21 @@
         <v>77</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7845,16 +7846,16 @@
         <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -7904,7 +7905,7 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -7922,21 +7923,21 @@
         <v>77</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7962,10 +7963,10 @@
         <v>88</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -8048,7 +8049,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -8162,7 +8163,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -8185,19 +8186,19 @@
         <v>87</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>77</v>
@@ -8246,7 +8247,7 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -8264,7 +8265,7 @@
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
@@ -8273,12 +8274,12 @@
         <v>77</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -8304,20 +8305,20 @@
         <v>106</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P49" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q49" t="s" s="2">
         <v>77</v>
@@ -8341,10 +8342,10 @@
         <v>169</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>77</v>
@@ -8362,7 +8363,7 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -8380,7 +8381,7 @@
         <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
@@ -8389,12 +8390,12 @@
         <v>77</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -8420,14 +8421,14 @@
         <v>88</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>77</v>
@@ -8476,7 +8477,7 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -8494,7 +8495,7 @@
         <v>77</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -8503,12 +8504,12 @@
         <v>77</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8534,14 +8535,14 @@
         <v>100</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>77</v>
@@ -8590,7 +8591,7 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -8599,7 +8600,7 @@
         <v>86</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>98</v>
@@ -8608,7 +8609,7 @@
         <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
@@ -8617,12 +8618,12 @@
         <v>77</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8648,16 +8649,16 @@
         <v>106</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>77</v>
@@ -8706,7 +8707,7 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -8724,7 +8725,7 @@
         <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
@@ -8733,12 +8734,12 @@
         <v>77</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8761,16 +8762,16 @@
         <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8820,7 +8821,7 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -8838,7 +8839,7 @@
         <v>77</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>77</v>
@@ -8847,12 +8848,12 @@
         <v>77</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8875,13 +8876,13 @@
         <v>87</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8932,7 +8933,7 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -8950,21 +8951,21 @@
         <v>77</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8987,13 +8988,13 @@
         <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -9044,7 +9045,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -9059,24 +9060,24 @@
         <v>98</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -9099,16 +9100,16 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -9158,7 +9159,7 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -9176,21 +9177,21 @@
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -9213,16 +9214,16 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -9272,7 +9273,7 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -9290,13 +9291,13 @@
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>77</v>
@@ -9304,7 +9305,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -9327,16 +9328,16 @@
         <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -9386,7 +9387,7 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -9401,10 +9402,10 @@
         <v>98</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -9413,12 +9414,12 @@
         <v>77</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9441,16 +9442,16 @@
         <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -9500,7 +9501,7 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -9518,7 +9519,7 @@
         <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
@@ -9532,7 +9533,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9558,7 +9559,7 @@
         <v>88</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L60" t="s" s="2">
         <v>209</v>
@@ -9644,7 +9645,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9758,10 +9759,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C62" t="s" s="2">
         <v>77</v>
@@ -9783,13 +9784,13 @@
         <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9872,10 +9873,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C63" t="s" s="2">
         <v>77</v>
@@ -9897,13 +9898,13 @@
         <v>77</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9986,10 +9987,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C64" t="s" s="2">
         <v>77</v>
@@ -10011,13 +10012,13 @@
         <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -10100,10 +10101,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C65" t="s" s="2">
         <v>77</v>
@@ -10125,13 +10126,13 @@
         <v>77</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -10214,11 +10215,11 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -10240,10 +10241,10 @@
         <v>131</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M66" t="s" s="2">
         <v>147</v>
@@ -10298,7 +10299,7 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
@@ -10330,7 +10331,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10353,17 +10354,17 @@
         <v>87</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>77</v>
@@ -10412,7 +10413,7 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
@@ -10430,7 +10431,7 @@
         <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
@@ -10439,12 +10440,12 @@
         <v>77</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10470,14 +10471,14 @@
         <v>88</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>77</v>
@@ -10526,7 +10527,7 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
@@ -10544,7 +10545,7 @@
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>77</v>
@@ -10553,12 +10554,12 @@
         <v>77</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10584,16 +10585,16 @@
         <v>186</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>77</v>
@@ -10621,10 +10622,10 @@
         <v>180</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>77</v>
@@ -10642,7 +10643,7 @@
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
@@ -10660,7 +10661,7 @@
         <v>77</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>77</v>
@@ -10669,12 +10670,12 @@
         <v>77</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10700,10 +10701,10 @@
         <v>88</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -10754,7 +10755,7 @@
         <v>77</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
@@ -10772,7 +10773,7 @@
         <v>77</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>77</v>
@@ -10781,12 +10782,12 @@
         <v>77</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10809,19 +10810,19 @@
         <v>87</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>77</v>
@@ -10870,7 +10871,7 @@
         <v>77</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
@@ -10888,7 +10889,7 @@
         <v>77</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>77</v>
@@ -10902,7 +10903,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10928,10 +10929,10 @@
         <v>88</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -11014,7 +11015,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -11128,11 +11129,11 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -11154,10 +11155,10 @@
         <v>131</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M74" t="s" s="2">
         <v>147</v>
@@ -11212,7 +11213,7 @@
         <v>77</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>78</v>
@@ -11244,7 +11245,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -11267,17 +11268,17 @@
         <v>87</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>77</v>
@@ -11326,7 +11327,7 @@
         <v>77</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>78</v>
@@ -11344,7 +11345,7 @@
         <v>77</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>77</v>
@@ -11358,7 +11359,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11381,17 +11382,17 @@
         <v>87</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>77</v>
@@ -11440,7 +11441,7 @@
         <v>77</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>78</v>
@@ -11452,13 +11453,13 @@
         <v>77</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>77</v>
@@ -11472,7 +11473,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11498,10 +11499,10 @@
         <v>88</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -11584,7 +11585,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11698,7 +11699,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11721,13 +11722,13 @@
         <v>87</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -11778,7 +11779,7 @@
         <v>77</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>78</v>
@@ -11796,7 +11797,7 @@
         <v>77</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>77</v>
@@ -11810,7 +11811,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11833,19 +11834,19 @@
         <v>87</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>77</v>
@@ -11894,7 +11895,7 @@
         <v>77</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>78</v>
@@ -11912,7 +11913,7 @@
         <v>77</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>77</v>
@@ -11926,7 +11927,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11949,13 +11950,13 @@
         <v>87</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -12006,7 +12007,7 @@
         <v>77</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>78</v>
@@ -12024,7 +12025,7 @@
         <v>77</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>77</v>
@@ -12038,7 +12039,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -12061,19 +12062,19 @@
         <v>87</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>77</v>
@@ -12122,7 +12123,7 @@
         <v>77</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>78</v>
@@ -12140,7 +12141,7 @@
         <v>77</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>77</v>
@@ -12154,7 +12155,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -12177,19 +12178,19 @@
         <v>87</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>77</v>
@@ -12238,7 +12239,7 @@
         <v>77</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>78</v>
@@ -12256,7 +12257,7 @@
         <v>77</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>77</v>
@@ -12270,7 +12271,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -12296,10 +12297,10 @@
         <v>106</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -12329,10 +12330,10 @@
         <v>169</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>77</v>
@@ -12350,7 +12351,7 @@
         <v>77</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>78</v>
@@ -12368,7 +12369,7 @@
         <v>77</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>77</v>
@@ -12382,7 +12383,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12405,13 +12406,13 @@
         <v>87</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -12419,7 +12420,7 @@
         <v>77</v>
       </c>
       <c r="P85" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="Q85" t="s" s="2">
         <v>77</v>
@@ -12464,7 +12465,7 @@
         <v>77</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>78</v>
@@ -12482,7 +12483,7 @@
         <v>77</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>77</v>
@@ -12496,7 +12497,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12519,13 +12520,13 @@
         <v>87</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -12576,7 +12577,7 @@
         <v>77</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>78</v>
@@ -12594,7 +12595,7 @@
         <v>77</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>77</v>
@@ -12608,7 +12609,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12631,13 +12632,13 @@
         <v>87</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -12688,7 +12689,7 @@
         <v>77</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>78</v>
@@ -12706,7 +12707,7 @@
         <v>77</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>77</v>
@@ -12720,7 +12721,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12743,13 +12744,13 @@
         <v>87</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -12800,7 +12801,7 @@
         <v>77</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>78</v>
@@ -12818,7 +12819,7 @@
         <v>77</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>77</v>
@@ -12832,7 +12833,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12858,10 +12859,10 @@
         <v>106</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -12891,10 +12892,10 @@
         <v>169</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="Z89" t="s" s="2">
         <v>77</v>
@@ -12912,7 +12913,7 @@
         <v>77</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>78</v>
@@ -12930,7 +12931,7 @@
         <v>77</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>77</v>
@@ -12944,7 +12945,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12970,13 +12971,13 @@
         <v>106</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
@@ -13006,7 +13007,7 @@
       </c>
       <c r="X90" s="2"/>
       <c r="Y90" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>77</v>
@@ -13024,7 +13025,7 @@
         <v>77</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>78</v>
@@ -13056,7 +13057,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -13079,16 +13080,16 @@
         <v>87</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
@@ -13138,7 +13139,7 @@
         <v>77</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>78</v>
@@ -13170,7 +13171,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -13196,16 +13197,16 @@
         <v>106</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>77</v>
@@ -13233,10 +13234,10 @@
         <v>169</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>77</v>
@@ -13254,7 +13255,7 @@
         <v>77</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>78</v>
@@ -13272,7 +13273,7 @@
         <v>77</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>77</v>
@@ -13286,7 +13287,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -13309,13 +13310,13 @@
         <v>87</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -13366,7 +13367,7 @@
         <v>77</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>78</v>
@@ -13384,7 +13385,7 @@
         <v>77</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>77</v>
@@ -13398,7 +13399,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13424,13 +13425,13 @@
         <v>186</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
@@ -13459,10 +13460,10 @@
         <v>110</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>77</v>
@@ -13480,7 +13481,7 @@
         <v>77</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>78</v>
@@ -13498,7 +13499,7 @@
         <v>77</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>77</v>
@@ -13512,7 +13513,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13538,10 +13539,10 @@
         <v>88</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -13624,7 +13625,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13738,7 +13739,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13761,19 +13762,19 @@
         <v>87</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>77</v>
@@ -13822,7 +13823,7 @@
         <v>77</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>78</v>
@@ -13840,7 +13841,7 @@
         <v>77</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>77</v>
@@ -13849,12 +13850,12 @@
         <v>77</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13880,10 +13881,10 @@
         <v>88</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -13966,7 +13967,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -14080,7 +14081,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -14106,16 +14107,16 @@
         <v>100</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O100" t="s" s="2">
         <v>77</v>
@@ -14164,7 +14165,7 @@
         <v>77</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>78</v>
@@ -14182,7 +14183,7 @@
         <v>77</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>77</v>
@@ -14191,12 +14192,12 @@
         <v>77</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -14222,13 +14223,13 @@
         <v>88</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
@@ -14278,7 +14279,7 @@
         <v>77</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>78</v>
@@ -14296,7 +14297,7 @@
         <v>77</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>77</v>
@@ -14305,12 +14306,12 @@
         <v>77</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -14336,14 +14337,14 @@
         <v>106</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O102" t="s" s="2">
         <v>77</v>
@@ -14392,7 +14393,7 @@
         <v>77</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>78</v>
@@ -14410,7 +14411,7 @@
         <v>77</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>77</v>
@@ -14419,12 +14420,12 @@
         <v>77</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -14450,14 +14451,14 @@
         <v>88</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O103" t="s" s="2">
         <v>77</v>
@@ -14506,7 +14507,7 @@
         <v>77</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>78</v>
@@ -14524,7 +14525,7 @@
         <v>77</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>77</v>
@@ -14533,12 +14534,12 @@
         <v>77</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14561,19 +14562,19 @@
         <v>87</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O104" t="s" s="2">
         <v>77</v>
@@ -14622,7 +14623,7 @@
         <v>77</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>78</v>
@@ -14640,7 +14641,7 @@
         <v>77</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>77</v>
@@ -14649,12 +14650,12 @@
         <v>77</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -14680,16 +14681,16 @@
         <v>88</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O105" t="s" s="2">
         <v>77</v>
@@ -14738,7 +14739,7 @@
         <v>77</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>78</v>
@@ -14756,7 +14757,7 @@
         <v>77</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>77</v>
@@ -14765,12 +14766,12 @@
         <v>77</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14793,16 +14794,16 @@
         <v>87</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
@@ -14831,10 +14832,10 @@
         <v>180</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="Z106" t="s" s="2">
         <v>77</v>
@@ -14852,7 +14853,7 @@
         <v>77</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>78</v>
@@ -14870,7 +14871,7 @@
         <v>77</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>77</v>
@@ -14879,12 +14880,12 @@
         <v>77</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14910,16 +14911,16 @@
         <v>186</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="O107" t="s" s="2">
         <v>77</v>
@@ -14947,10 +14948,10 @@
         <v>180</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="Z107" t="s" s="2">
         <v>77</v>
@@ -14968,7 +14969,7 @@
         <v>77</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>78</v>
@@ -14986,7 +14987,7 @@
         <v>77</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>77</v>
@@ -14995,12 +14996,12 @@
         <v>77</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -15026,16 +15027,16 @@
         <v>186</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="O108" t="s" s="2">
         <v>77</v>
@@ -15063,10 +15064,10 @@
         <v>180</v>
       </c>
       <c r="X108" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="Y108" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="Z108" t="s" s="2">
         <v>77</v>
@@ -15084,7 +15085,7 @@
         <v>77</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>78</v>
@@ -15102,7 +15103,7 @@
         <v>77</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>77</v>
@@ -15111,12 +15112,12 @@
         <v>77</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -15142,16 +15143,16 @@
         <v>186</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="O109" t="s" s="2">
         <v>77</v>
@@ -15179,10 +15180,10 @@
         <v>180</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="Z109" t="s" s="2">
         <v>77</v>
@@ -15200,7 +15201,7 @@
         <v>77</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>78</v>
@@ -15218,7 +15219,7 @@
         <v>77</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>77</v>
@@ -15227,12 +15228,12 @@
         <v>77</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -15255,13 +15256,13 @@
         <v>87</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="M110" s="2"/>
       <c r="N110" s="2"/>
@@ -15312,7 +15313,7 @@
         <v>77</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>78</v>
@@ -15339,12 +15340,12 @@
         <v>77</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -15370,10 +15371,10 @@
         <v>88</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M111" s="2"/>
       <c r="N111" s="2"/>
@@ -15456,7 +15457,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -15570,7 +15571,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -15596,14 +15597,14 @@
         <v>186</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>77</v>
@@ -15631,10 +15632,10 @@
         <v>180</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="Z113" t="s" s="2">
         <v>77</v>
@@ -15652,7 +15653,7 @@
         <v>77</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>78</v>
@@ -15679,12 +15680,12 @@
         <v>77</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15707,19 +15708,19 @@
         <v>87</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>77</v>
@@ -15768,7 +15769,7 @@
         <v>77</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>78</v>
@@ -15786,7 +15787,7 @@
         <v>77</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AL114" t="s" s="2">
         <v>77</v>
@@ -15795,12 +15796,12 @@
         <v>77</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -15823,19 +15824,19 @@
         <v>87</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="O115" t="s" s="2">
         <v>77</v>
@@ -15884,7 +15885,7 @@
         <v>77</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>78</v>
@@ -15902,7 +15903,7 @@
         <v>77</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>77</v>
@@ -15911,12 +15912,12 @@
         <v>77</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15939,19 +15940,19 @@
         <v>87</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="O116" t="s" s="2">
         <v>77</v>
@@ -16000,7 +16001,7 @@
         <v>77</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>78</v>
@@ -16018,7 +16019,7 @@
         <v>77</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="AL116" t="s" s="2">
         <v>77</v>
@@ -16027,12 +16028,12 @@
         <v>77</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -16055,19 +16056,19 @@
         <v>87</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>77</v>
@@ -16116,7 +16117,7 @@
         <v>77</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>78</v>
@@ -16134,7 +16135,7 @@
         <v>77</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="AL117" t="s" s="2">
         <v>77</v>
@@ -16148,7 +16149,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -16171,17 +16172,17 @@
         <v>87</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="M118" s="2"/>
       <c r="N118" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>77</v>
@@ -16230,7 +16231,7 @@
         <v>77</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>78</v>
@@ -16248,7 +16249,7 @@
         <v>77</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="AL118" t="s" s="2">
         <v>77</v>
@@ -16262,7 +16263,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -16285,13 +16286,13 @@
         <v>77</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
@@ -16342,7 +16343,7 @@
         <v>77</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>78</v>
@@ -16360,13 +16361,13 @@
         <v>77</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="AL119" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="AN119" t="s" s="2">
         <v>77</v>
@@ -16374,7 +16375,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -16400,10 +16401,10 @@
         <v>88</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M120" s="2"/>
       <c r="N120" s="2"/>
@@ -16486,7 +16487,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -16600,11 +16601,11 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s" s="2">
@@ -16626,10 +16627,10 @@
         <v>131</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M122" t="s" s="2">
         <v>147</v>
@@ -16684,7 +16685,7 @@
         <v>77</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>78</v>
@@ -16716,7 +16717,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -16739,13 +16740,13 @@
         <v>77</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
@@ -16796,7 +16797,7 @@
         <v>77</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>86</v>
@@ -16814,7 +16815,7 @@
         <v>77</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="AL123" t="s" s="2">
         <v>77</v>
@@ -16828,7 +16829,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -16854,13 +16855,13 @@
         <v>186</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
@@ -16889,10 +16890,10 @@
         <v>180</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="Z124" t="s" s="2">
         <v>77</v>
@@ -16910,7 +16911,7 @@
         <v>77</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>78</v>
@@ -16928,21 +16929,21 @@
         <v>77</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AL124" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -16968,13 +16969,13 @@
         <v>186</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
@@ -17003,10 +17004,10 @@
         <v>180</v>
       </c>
       <c r="X125" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="Y125" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="Z125" t="s" s="2">
         <v>77</v>
@@ -17024,7 +17025,7 @@
         <v>77</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>78</v>
@@ -17042,13 +17043,13 @@
         <v>77</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="AL125" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="AN125" t="s" s="2">
         <v>77</v>
@@ -17056,7 +17057,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -17079,16 +17080,16 @@
         <v>77</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" t="s" s="2">
@@ -17138,7 +17139,7 @@
         <v>77</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>78</v>
@@ -17156,13 +17157,13 @@
         <v>77</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="AL126" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="AN126" t="s" s="2">
         <v>77</v>
@@ -17170,11 +17171,11 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
@@ -17193,16 +17194,16 @@
         <v>77</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" t="s" s="2">
@@ -17252,7 +17253,7 @@
         <v>77</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>78</v>
@@ -17270,7 +17271,7 @@
         <v>77</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="AL127" t="s" s="2">
         <v>77</v>
@@ -17284,7 +17285,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -17307,16 +17308,16 @@
         <v>77</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
@@ -17366,7 +17367,7 @@
         <v>77</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>78</v>
@@ -17384,7 +17385,7 @@
         <v>77</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="AL128" t="s" s="2">
         <v>77</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdispensebase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdispensebase.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4644" uniqueCount="763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4644" uniqueCount="764">
   <si>
     <t>Property</t>
   </si>
@@ -280,7 +280,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -673,6 +673,10 @@
   </si>
   <si>
     <t>MedicationDispense.medication[x].id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing 要素間参照用の一意のID</t>
@@ -4768,13 +4772,13 @@
         <v>77</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -4825,7 +4829,7 @@
         <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>78</v>
@@ -4843,7 +4847,7 @@
         <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>77</v>
@@ -4857,7 +4861,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4883,10 +4887,10 @@
         <v>131</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M19" t="s" s="2">
         <v>147</v>
@@ -4930,7 +4934,7 @@
         <v>134</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AC19" t="s" s="2">
         <v>77</v>
@@ -4939,7 +4943,7 @@
         <v>135</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>78</v>
@@ -4957,7 +4961,7 @@
         <v>77</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>77</v>
@@ -4974,7 +4978,7 @@
         <v>193</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>77</v>
@@ -4999,13 +5003,13 @@
         <v>186</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -5035,7 +5039,7 @@
       </c>
       <c r="X20" s="2"/>
       <c r="Y20" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>77</v>
@@ -5108,13 +5112,13 @@
         <v>77</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -5165,7 +5169,7 @@
         <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>78</v>
@@ -5183,7 +5187,7 @@
         <v>77</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>77</v>
@@ -5197,7 +5201,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -5223,10 +5227,10 @@
         <v>131</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M22" t="s" s="2">
         <v>147</v>
@@ -5270,7 +5274,7 @@
         <v>134</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AC22" t="s" s="2">
         <v>77</v>
@@ -5279,7 +5283,7 @@
         <v>135</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>78</v>
@@ -5297,7 +5301,7 @@
         <v>77</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>77</v>
@@ -5311,7 +5315,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -5334,19 +5338,19 @@
         <v>87</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>77</v>
@@ -5395,7 +5399,7 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
@@ -5413,7 +5417,7 @@
         <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>77</v>
@@ -5422,12 +5426,12 @@
         <v>77</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -5450,13 +5454,13 @@
         <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -5507,7 +5511,7 @@
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
@@ -5525,7 +5529,7 @@
         <v>77</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>77</v>
@@ -5539,7 +5543,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5565,10 +5569,10 @@
         <v>131</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M25" t="s" s="2">
         <v>147</v>
@@ -5612,7 +5616,7 @@
         <v>134</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>77</v>
@@ -5621,7 +5625,7 @@
         <v>135</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -5639,7 +5643,7 @@
         <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>77</v>
@@ -5653,7 +5657,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5679,16 +5683,16 @@
         <v>100</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>77</v>
@@ -5737,7 +5741,7 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -5755,7 +5759,7 @@
         <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>77</v>
@@ -5764,12 +5768,12 @@
         <v>77</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5792,16 +5796,16 @@
         <v>87</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -5851,7 +5855,7 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -5869,7 +5873,7 @@
         <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>77</v>
@@ -5878,12 +5882,12 @@
         <v>77</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5909,14 +5913,14 @@
         <v>106</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>77</v>
@@ -5965,7 +5969,7 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -5983,7 +5987,7 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
@@ -5992,12 +5996,12 @@
         <v>77</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -6020,17 +6024,17 @@
         <v>87</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>77</v>
@@ -6079,7 +6083,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -6097,7 +6101,7 @@
         <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
@@ -6106,12 +6110,12 @@
         <v>77</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -6134,19 +6138,19 @@
         <v>87</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>77</v>
@@ -6195,7 +6199,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -6213,7 +6217,7 @@
         <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>77</v>
@@ -6222,12 +6226,12 @@
         <v>77</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -6250,19 +6254,19 @@
         <v>87</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>77</v>
@@ -6311,7 +6315,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -6329,7 +6333,7 @@
         <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
@@ -6338,7 +6342,7 @@
         <v>77</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="32">
@@ -6346,7 +6350,7 @@
         <v>193</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C32" t="s" s="2">
         <v>77</v>
@@ -6368,16 +6372,16 @@
         <v>87</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -6459,7 +6463,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6482,16 +6486,16 @@
         <v>87</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -6541,7 +6545,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -6556,24 +6560,24 @@
         <v>98</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6596,16 +6600,16 @@
         <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -6655,7 +6659,7 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -6670,10 +6674,10 @@
         <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>77</v>
@@ -6687,7 +6691,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6710,16 +6714,16 @@
         <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6769,7 +6773,7 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -6787,10 +6791,10 @@
         <v>77</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>77</v>
@@ -6801,7 +6805,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6824,13 +6828,13 @@
         <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6881,7 +6885,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -6896,10 +6900,10 @@
         <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>77</v>
@@ -6913,7 +6917,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6936,13 +6940,13 @@
         <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6993,7 +6997,7 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -7011,7 +7015,7 @@
         <v>77</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>77</v>
@@ -7025,7 +7029,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -7051,10 +7055,10 @@
         <v>131</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M38" t="s" s="2">
         <v>147</v>
@@ -7107,7 +7111,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -7125,7 +7129,7 @@
         <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>77</v>
@@ -7139,11 +7143,11 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -7165,10 +7169,10 @@
         <v>131</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M39" t="s" s="2">
         <v>147</v>
@@ -7223,7 +7227,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -7255,7 +7259,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -7281,14 +7285,14 @@
         <v>186</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>77</v>
@@ -7316,10 +7320,10 @@
         <v>180</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>77</v>
@@ -7337,7 +7341,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -7355,7 +7359,7 @@
         <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
@@ -7369,7 +7373,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -7392,13 +7396,13 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -7449,7 +7453,7 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>86</v>
@@ -7464,10 +7468,10 @@
         <v>98</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
@@ -7481,7 +7485,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7504,16 +7508,16 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -7563,7 +7567,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -7581,7 +7585,7 @@
         <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
@@ -7595,7 +7599,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7618,16 +7622,16 @@
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -7677,7 +7681,7 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -7692,24 +7696,24 @@
         <v>98</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7735,13 +7739,13 @@
         <v>186</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7770,10 +7774,10 @@
         <v>180</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>77</v>
@@ -7791,7 +7795,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -7809,21 +7813,21 @@
         <v>77</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7846,16 +7850,16 @@
         <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -7905,7 +7909,7 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -7923,21 +7927,21 @@
         <v>77</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7960,13 +7964,13 @@
         <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -8017,7 +8021,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -8035,7 +8039,7 @@
         <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
@@ -8049,7 +8053,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -8075,10 +8079,10 @@
         <v>131</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>147</v>
@@ -8122,7 +8126,7 @@
         <v>134</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>77</v>
@@ -8131,7 +8135,7 @@
         <v>135</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -8149,7 +8153,7 @@
         <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
@@ -8163,7 +8167,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -8186,19 +8190,19 @@
         <v>87</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>77</v>
@@ -8247,7 +8251,7 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -8265,7 +8269,7 @@
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
@@ -8274,12 +8278,12 @@
         <v>77</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -8305,20 +8309,20 @@
         <v>106</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P49" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q49" t="s" s="2">
         <v>77</v>
@@ -8342,10 +8346,10 @@
         <v>169</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>77</v>
@@ -8363,7 +8367,7 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -8381,7 +8385,7 @@
         <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
@@ -8390,12 +8394,12 @@
         <v>77</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -8418,17 +8422,17 @@
         <v>87</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>77</v>
@@ -8477,7 +8481,7 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -8495,7 +8499,7 @@
         <v>77</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -8504,12 +8508,12 @@
         <v>77</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8535,14 +8539,14 @@
         <v>100</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>77</v>
@@ -8591,7 +8595,7 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -8600,7 +8604,7 @@
         <v>86</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>98</v>
@@ -8609,7 +8613,7 @@
         <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
@@ -8618,12 +8622,12 @@
         <v>77</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8649,16 +8653,16 @@
         <v>106</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>77</v>
@@ -8707,7 +8711,7 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -8725,7 +8729,7 @@
         <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
@@ -8734,12 +8738,12 @@
         <v>77</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8762,16 +8766,16 @@
         <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8821,7 +8825,7 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -8839,7 +8843,7 @@
         <v>77</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>77</v>
@@ -8848,12 +8852,12 @@
         <v>77</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8876,13 +8880,13 @@
         <v>87</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8933,7 +8937,7 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -8951,21 +8955,21 @@
         <v>77</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8988,13 +8992,13 @@
         <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -9045,7 +9049,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -9060,24 +9064,24 @@
         <v>98</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -9100,16 +9104,16 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -9159,7 +9163,7 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -9177,21 +9181,21 @@
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -9214,16 +9218,16 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -9273,7 +9277,7 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -9291,13 +9295,13 @@
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>77</v>
@@ -9305,7 +9309,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -9328,16 +9332,16 @@
         <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -9387,7 +9391,7 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -9402,10 +9406,10 @@
         <v>98</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -9414,12 +9418,12 @@
         <v>77</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9442,16 +9446,16 @@
         <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -9501,7 +9505,7 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -9519,7 +9523,7 @@
         <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
@@ -9533,7 +9537,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9556,13 +9560,13 @@
         <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -9613,7 +9617,7 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -9631,7 +9635,7 @@
         <v>77</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>
@@ -9645,7 +9649,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9671,10 +9675,10 @@
         <v>131</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M61" t="s" s="2">
         <v>147</v>
@@ -9718,7 +9722,7 @@
         <v>134</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AC61" t="s" s="2">
         <v>77</v>
@@ -9727,7 +9731,7 @@
         <v>135</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -9745,7 +9749,7 @@
         <v>77</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>77</v>
@@ -9759,10 +9763,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C62" t="s" s="2">
         <v>77</v>
@@ -9784,13 +9788,13 @@
         <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9841,7 +9845,7 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -9873,10 +9877,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C63" t="s" s="2">
         <v>77</v>
@@ -9898,13 +9902,13 @@
         <v>77</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9955,7 +9959,7 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -9987,10 +9991,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C64" t="s" s="2">
         <v>77</v>
@@ -10012,13 +10016,13 @@
         <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -10069,7 +10073,7 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
@@ -10101,10 +10105,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C65" t="s" s="2">
         <v>77</v>
@@ -10126,13 +10130,13 @@
         <v>77</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -10183,7 +10187,7 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -10215,11 +10219,11 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -10241,10 +10245,10 @@
         <v>131</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M66" t="s" s="2">
         <v>147</v>
@@ -10299,7 +10303,7 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
@@ -10331,7 +10335,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10354,17 +10358,17 @@
         <v>87</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>77</v>
@@ -10413,7 +10417,7 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
@@ -10431,7 +10435,7 @@
         <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
@@ -10440,12 +10444,12 @@
         <v>77</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10468,17 +10472,17 @@
         <v>87</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>77</v>
@@ -10527,7 +10531,7 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
@@ -10545,7 +10549,7 @@
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>77</v>
@@ -10554,12 +10558,12 @@
         <v>77</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10585,16 +10589,16 @@
         <v>186</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>77</v>
@@ -10622,10 +10626,10 @@
         <v>180</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>77</v>
@@ -10643,7 +10647,7 @@
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
@@ -10661,7 +10665,7 @@
         <v>77</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>77</v>
@@ -10670,12 +10674,12 @@
         <v>77</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10698,13 +10702,13 @@
         <v>87</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -10755,7 +10759,7 @@
         <v>77</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
@@ -10773,7 +10777,7 @@
         <v>77</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>77</v>
@@ -10782,12 +10786,12 @@
         <v>77</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10810,19 +10814,19 @@
         <v>87</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>77</v>
@@ -10871,7 +10875,7 @@
         <v>77</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
@@ -10889,7 +10893,7 @@
         <v>77</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>77</v>
@@ -10903,7 +10907,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10926,13 +10930,13 @@
         <v>77</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10983,7 +10987,7 @@
         <v>77</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>78</v>
@@ -11001,7 +11005,7 @@
         <v>77</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>77</v>
@@ -11015,7 +11019,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -11041,10 +11045,10 @@
         <v>131</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M73" t="s" s="2">
         <v>147</v>
@@ -11088,7 +11092,7 @@
         <v>134</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AC73" t="s" s="2">
         <v>77</v>
@@ -11097,7 +11101,7 @@
         <v>135</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>78</v>
@@ -11115,7 +11119,7 @@
         <v>77</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>77</v>
@@ -11129,11 +11133,11 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -11155,10 +11159,10 @@
         <v>131</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M74" t="s" s="2">
         <v>147</v>
@@ -11213,7 +11217,7 @@
         <v>77</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>78</v>
@@ -11245,7 +11249,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -11268,17 +11272,17 @@
         <v>87</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>77</v>
@@ -11327,7 +11331,7 @@
         <v>77</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>78</v>
@@ -11345,7 +11349,7 @@
         <v>77</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>77</v>
@@ -11359,7 +11363,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11382,17 +11386,17 @@
         <v>87</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>77</v>
@@ -11441,7 +11445,7 @@
         <v>77</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>78</v>
@@ -11453,13 +11457,13 @@
         <v>77</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>77</v>
@@ -11473,7 +11477,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11496,13 +11500,13 @@
         <v>77</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -11553,7 +11557,7 @@
         <v>77</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>78</v>
@@ -11571,7 +11575,7 @@
         <v>77</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>77</v>
@@ -11585,7 +11589,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11611,10 +11615,10 @@
         <v>131</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M78" t="s" s="2">
         <v>147</v>
@@ -11658,7 +11662,7 @@
         <v>134</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AC78" t="s" s="2">
         <v>77</v>
@@ -11667,7 +11671,7 @@
         <v>135</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>78</v>
@@ -11685,7 +11689,7 @@
         <v>77</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>77</v>
@@ -11699,7 +11703,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11722,13 +11726,13 @@
         <v>87</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -11779,7 +11783,7 @@
         <v>77</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>78</v>
@@ -11797,7 +11801,7 @@
         <v>77</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>77</v>
@@ -11811,7 +11815,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11834,19 +11838,19 @@
         <v>87</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>77</v>
@@ -11895,7 +11899,7 @@
         <v>77</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>78</v>
@@ -11913,7 +11917,7 @@
         <v>77</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>77</v>
@@ -11927,7 +11931,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11950,13 +11954,13 @@
         <v>87</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -12007,7 +12011,7 @@
         <v>77</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>78</v>
@@ -12025,7 +12029,7 @@
         <v>77</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>77</v>
@@ -12039,7 +12043,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -12062,19 +12066,19 @@
         <v>87</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>77</v>
@@ -12123,7 +12127,7 @@
         <v>77</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>78</v>
@@ -12141,7 +12145,7 @@
         <v>77</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>77</v>
@@ -12155,7 +12159,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -12178,19 +12182,19 @@
         <v>87</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>77</v>
@@ -12239,7 +12243,7 @@
         <v>77</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>78</v>
@@ -12257,7 +12261,7 @@
         <v>77</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>77</v>
@@ -12271,7 +12275,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -12297,10 +12301,10 @@
         <v>106</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -12330,10 +12334,10 @@
         <v>169</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>77</v>
@@ -12351,7 +12355,7 @@
         <v>77</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>78</v>
@@ -12369,7 +12373,7 @@
         <v>77</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>77</v>
@@ -12383,7 +12387,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12406,13 +12410,13 @@
         <v>87</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -12420,7 +12424,7 @@
         <v>77</v>
       </c>
       <c r="P85" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="Q85" t="s" s="2">
         <v>77</v>
@@ -12465,7 +12469,7 @@
         <v>77</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>78</v>
@@ -12483,7 +12487,7 @@
         <v>77</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>77</v>
@@ -12497,7 +12501,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12520,13 +12524,13 @@
         <v>87</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -12577,7 +12581,7 @@
         <v>77</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>78</v>
@@ -12595,7 +12599,7 @@
         <v>77</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>77</v>
@@ -12609,7 +12613,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12632,13 +12636,13 @@
         <v>87</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -12689,7 +12693,7 @@
         <v>77</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>78</v>
@@ -12707,7 +12711,7 @@
         <v>77</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>77</v>
@@ -12721,7 +12725,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12744,13 +12748,13 @@
         <v>87</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -12801,7 +12805,7 @@
         <v>77</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>78</v>
@@ -12819,7 +12823,7 @@
         <v>77</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>77</v>
@@ -12833,7 +12837,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12859,10 +12863,10 @@
         <v>106</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -12892,10 +12896,10 @@
         <v>169</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="Z89" t="s" s="2">
         <v>77</v>
@@ -12913,7 +12917,7 @@
         <v>77</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>78</v>
@@ -12931,7 +12935,7 @@
         <v>77</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>77</v>
@@ -12945,7 +12949,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12971,13 +12975,13 @@
         <v>106</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
@@ -13007,7 +13011,7 @@
       </c>
       <c r="X90" s="2"/>
       <c r="Y90" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>77</v>
@@ -13025,7 +13029,7 @@
         <v>77</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>78</v>
@@ -13043,7 +13047,7 @@
         <v>77</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>77</v>
@@ -13057,7 +13061,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -13080,16 +13084,16 @@
         <v>87</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
@@ -13139,7 +13143,7 @@
         <v>77</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>78</v>
@@ -13157,7 +13161,7 @@
         <v>77</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>77</v>
@@ -13171,7 +13175,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -13197,16 +13201,16 @@
         <v>106</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>77</v>
@@ -13234,10 +13238,10 @@
         <v>169</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>77</v>
@@ -13255,7 +13259,7 @@
         <v>77</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>78</v>
@@ -13273,7 +13277,7 @@
         <v>77</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>77</v>
@@ -13287,7 +13291,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -13310,13 +13314,13 @@
         <v>87</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -13367,7 +13371,7 @@
         <v>77</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>78</v>
@@ -13385,7 +13389,7 @@
         <v>77</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>77</v>
@@ -13399,7 +13403,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13425,13 +13429,13 @@
         <v>186</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
@@ -13460,10 +13464,10 @@
         <v>110</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>77</v>
@@ -13481,7 +13485,7 @@
         <v>77</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>78</v>
@@ -13499,7 +13503,7 @@
         <v>77</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>77</v>
@@ -13513,7 +13517,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13536,13 +13540,13 @@
         <v>77</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -13593,7 +13597,7 @@
         <v>77</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>78</v>
@@ -13611,7 +13615,7 @@
         <v>77</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>77</v>
@@ -13625,7 +13629,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13651,10 +13655,10 @@
         <v>131</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M96" t="s" s="2">
         <v>147</v>
@@ -13698,7 +13702,7 @@
         <v>134</v>
       </c>
       <c r="AB96" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AC96" t="s" s="2">
         <v>77</v>
@@ -13707,7 +13711,7 @@
         <v>135</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>78</v>
@@ -13725,7 +13729,7 @@
         <v>77</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>77</v>
@@ -13739,7 +13743,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13762,19 +13766,19 @@
         <v>87</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>77</v>
@@ -13823,7 +13827,7 @@
         <v>77</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>78</v>
@@ -13841,7 +13845,7 @@
         <v>77</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>77</v>
@@ -13850,12 +13854,12 @@
         <v>77</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13878,13 +13882,13 @@
         <v>77</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -13935,7 +13939,7 @@
         <v>77</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>78</v>
@@ -13953,7 +13957,7 @@
         <v>77</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>77</v>
@@ -13967,7 +13971,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13993,10 +13997,10 @@
         <v>131</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M99" t="s" s="2">
         <v>147</v>
@@ -14040,7 +14044,7 @@
         <v>134</v>
       </c>
       <c r="AB99" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AC99" t="s" s="2">
         <v>77</v>
@@ -14049,7 +14053,7 @@
         <v>135</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>78</v>
@@ -14067,7 +14071,7 @@
         <v>77</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>77</v>
@@ -14081,7 +14085,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -14107,16 +14111,16 @@
         <v>100</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O100" t="s" s="2">
         <v>77</v>
@@ -14165,7 +14169,7 @@
         <v>77</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>78</v>
@@ -14183,7 +14187,7 @@
         <v>77</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>77</v>
@@ -14192,12 +14196,12 @@
         <v>77</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -14220,16 +14224,16 @@
         <v>87</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
@@ -14279,7 +14283,7 @@
         <v>77</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>78</v>
@@ -14297,7 +14301,7 @@
         <v>77</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>77</v>
@@ -14306,12 +14310,12 @@
         <v>77</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -14337,14 +14341,14 @@
         <v>106</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O102" t="s" s="2">
         <v>77</v>
@@ -14393,7 +14397,7 @@
         <v>77</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>78</v>
@@ -14411,7 +14415,7 @@
         <v>77</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>77</v>
@@ -14420,12 +14424,12 @@
         <v>77</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -14448,17 +14452,17 @@
         <v>87</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O103" t="s" s="2">
         <v>77</v>
@@ -14507,7 +14511,7 @@
         <v>77</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>78</v>
@@ -14525,7 +14529,7 @@
         <v>77</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>77</v>
@@ -14534,12 +14538,12 @@
         <v>77</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14562,19 +14566,19 @@
         <v>87</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O104" t="s" s="2">
         <v>77</v>
@@ -14623,7 +14627,7 @@
         <v>77</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>78</v>
@@ -14641,7 +14645,7 @@
         <v>77</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>77</v>
@@ -14650,12 +14654,12 @@
         <v>77</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -14678,19 +14682,19 @@
         <v>87</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O105" t="s" s="2">
         <v>77</v>
@@ -14739,7 +14743,7 @@
         <v>77</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>78</v>
@@ -14757,7 +14761,7 @@
         <v>77</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>77</v>
@@ -14766,12 +14770,12 @@
         <v>77</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14794,16 +14798,16 @@
         <v>87</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
@@ -14832,10 +14836,10 @@
         <v>180</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="Z106" t="s" s="2">
         <v>77</v>
@@ -14853,7 +14857,7 @@
         <v>77</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>78</v>
@@ -14871,7 +14875,7 @@
         <v>77</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>77</v>
@@ -14880,12 +14884,12 @@
         <v>77</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14911,16 +14915,16 @@
         <v>186</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="O107" t="s" s="2">
         <v>77</v>
@@ -14948,10 +14952,10 @@
         <v>180</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="Z107" t="s" s="2">
         <v>77</v>
@@ -14969,7 +14973,7 @@
         <v>77</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>78</v>
@@ -14987,7 +14991,7 @@
         <v>77</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>77</v>
@@ -14996,12 +15000,12 @@
         <v>77</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -15027,16 +15031,16 @@
         <v>186</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="O108" t="s" s="2">
         <v>77</v>
@@ -15064,10 +15068,10 @@
         <v>180</v>
       </c>
       <c r="X108" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="Y108" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="Z108" t="s" s="2">
         <v>77</v>
@@ -15085,7 +15089,7 @@
         <v>77</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>78</v>
@@ -15103,7 +15107,7 @@
         <v>77</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>77</v>
@@ -15112,12 +15116,12 @@
         <v>77</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -15143,16 +15147,16 @@
         <v>186</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="O109" t="s" s="2">
         <v>77</v>
@@ -15180,10 +15184,10 @@
         <v>180</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="Z109" t="s" s="2">
         <v>77</v>
@@ -15201,7 +15205,7 @@
         <v>77</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>78</v>
@@ -15219,7 +15223,7 @@
         <v>77</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>77</v>
@@ -15228,12 +15232,12 @@
         <v>77</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -15256,13 +15260,13 @@
         <v>87</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="M110" s="2"/>
       <c r="N110" s="2"/>
@@ -15313,7 +15317,7 @@
         <v>77</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>78</v>
@@ -15340,12 +15344,12 @@
         <v>77</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -15368,13 +15372,13 @@
         <v>77</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M111" s="2"/>
       <c r="N111" s="2"/>
@@ -15425,7 +15429,7 @@
         <v>77</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>78</v>
@@ -15443,7 +15447,7 @@
         <v>77</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>77</v>
@@ -15457,7 +15461,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -15483,10 +15487,10 @@
         <v>131</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M112" t="s" s="2">
         <v>147</v>
@@ -15530,7 +15534,7 @@
         <v>134</v>
       </c>
       <c r="AB112" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AC112" t="s" s="2">
         <v>77</v>
@@ -15539,7 +15543,7 @@
         <v>135</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>78</v>
@@ -15557,7 +15561,7 @@
         <v>77</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>77</v>
@@ -15571,7 +15575,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -15597,14 +15601,14 @@
         <v>186</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>77</v>
@@ -15632,10 +15636,10 @@
         <v>180</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="Z113" t="s" s="2">
         <v>77</v>
@@ -15653,7 +15657,7 @@
         <v>77</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>78</v>
@@ -15680,12 +15684,12 @@
         <v>77</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15708,19 +15712,19 @@
         <v>87</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>77</v>
@@ -15769,7 +15773,7 @@
         <v>77</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>78</v>
@@ -15787,7 +15791,7 @@
         <v>77</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AL114" t="s" s="2">
         <v>77</v>
@@ -15796,12 +15800,12 @@
         <v>77</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -15824,19 +15828,19 @@
         <v>87</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="O115" t="s" s="2">
         <v>77</v>
@@ -15885,7 +15889,7 @@
         <v>77</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>78</v>
@@ -15903,7 +15907,7 @@
         <v>77</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>77</v>
@@ -15912,12 +15916,12 @@
         <v>77</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15940,19 +15944,19 @@
         <v>87</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="O116" t="s" s="2">
         <v>77</v>
@@ -16001,7 +16005,7 @@
         <v>77</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>78</v>
@@ -16019,7 +16023,7 @@
         <v>77</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="AL116" t="s" s="2">
         <v>77</v>
@@ -16028,12 +16032,12 @@
         <v>77</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -16056,19 +16060,19 @@
         <v>87</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>77</v>
@@ -16117,7 +16121,7 @@
         <v>77</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>78</v>
@@ -16135,7 +16139,7 @@
         <v>77</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="AL117" t="s" s="2">
         <v>77</v>
@@ -16149,7 +16153,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -16172,17 +16176,17 @@
         <v>87</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="M118" s="2"/>
       <c r="N118" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>77</v>
@@ -16231,7 +16235,7 @@
         <v>77</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>78</v>
@@ -16249,7 +16253,7 @@
         <v>77</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="AL118" t="s" s="2">
         <v>77</v>
@@ -16263,7 +16267,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -16286,13 +16290,13 @@
         <v>77</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
@@ -16343,7 +16347,7 @@
         <v>77</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>78</v>
@@ -16361,13 +16365,13 @@
         <v>77</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="AL119" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="AN119" t="s" s="2">
         <v>77</v>
@@ -16375,7 +16379,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -16398,13 +16402,13 @@
         <v>77</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M120" s="2"/>
       <c r="N120" s="2"/>
@@ -16455,7 +16459,7 @@
         <v>77</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>78</v>
@@ -16473,7 +16477,7 @@
         <v>77</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL120" t="s" s="2">
         <v>77</v>
@@ -16487,7 +16491,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -16513,10 +16517,10 @@
         <v>131</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M121" t="s" s="2">
         <v>147</v>
@@ -16569,7 +16573,7 @@
         <v>77</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>78</v>
@@ -16587,7 +16591,7 @@
         <v>77</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL121" t="s" s="2">
         <v>77</v>
@@ -16601,11 +16605,11 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s" s="2">
@@ -16627,10 +16631,10 @@
         <v>131</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M122" t="s" s="2">
         <v>147</v>
@@ -16685,7 +16689,7 @@
         <v>77</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>78</v>
@@ -16717,7 +16721,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -16740,13 +16744,13 @@
         <v>77</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
@@ -16797,7 +16801,7 @@
         <v>77</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>86</v>
@@ -16815,7 +16819,7 @@
         <v>77</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="AL123" t="s" s="2">
         <v>77</v>
@@ -16829,7 +16833,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -16855,13 +16859,13 @@
         <v>186</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
@@ -16890,10 +16894,10 @@
         <v>180</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="Z124" t="s" s="2">
         <v>77</v>
@@ -16911,7 +16915,7 @@
         <v>77</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>78</v>
@@ -16929,21 +16933,21 @@
         <v>77</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AL124" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -16969,13 +16973,13 @@
         <v>186</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
@@ -17004,10 +17008,10 @@
         <v>180</v>
       </c>
       <c r="X125" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="Y125" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="Z125" t="s" s="2">
         <v>77</v>
@@ -17025,7 +17029,7 @@
         <v>77</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>78</v>
@@ -17043,13 +17047,13 @@
         <v>77</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="AL125" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="AN125" t="s" s="2">
         <v>77</v>
@@ -17057,7 +17061,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -17080,16 +17084,16 @@
         <v>77</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" t="s" s="2">
@@ -17139,7 +17143,7 @@
         <v>77</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>78</v>
@@ -17157,13 +17161,13 @@
         <v>77</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="AL126" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="AN126" t="s" s="2">
         <v>77</v>
@@ -17171,11 +17175,11 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
@@ -17194,16 +17198,16 @@
         <v>77</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" t="s" s="2">
@@ -17253,7 +17257,7 @@
         <v>77</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>78</v>
@@ -17271,7 +17275,7 @@
         <v>77</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="AL127" t="s" s="2">
         <v>77</v>
@@ -17285,7 +17289,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -17308,16 +17312,16 @@
         <v>77</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
@@ -17367,7 +17371,7 @@
         <v>77</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>78</v>
@@ -17385,7 +17389,7 @@
         <v>77</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="AL128" t="s" s="2">
         <v>77</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdispensebase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdispensebase.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1723" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1723" uniqueCount="378">
   <si>
     <t>Property</t>
   </si>
@@ -258,7 +258,7 @@
     <t>指定された患者への薬剤の払い出し</t>
   </si>
   <si>
-    <t>指定された患者・個人へ薬剤が払い出されたか払い出される予定のものを示す。これには（供給される）提供される製品についての説明や薬剤の服用に関する指示も含まれる。薬剤払い出しは薬剤オーダーに対して薬局システムが対応した結果となる。</t>
+    <t>指定された患者・個人へ薬剤が払い出されたか払い出される予定のものを示す。これには（供給される）提供される製品についての説明や薬剤の服用に関する指示も含まれる。薬剤払い出しは薬剤オーダに対して薬局システムが対応した結果となる。</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
@@ -1071,10 +1071,7 @@
 </t>
   </si>
   <si>
-    <t>How the medication is/was taken or should be taken</t>
-  </si>
-  <si>
-    <t>Indicates how the medication is/was taken or should be taken by the patient.</t>
+    <t>薬の服用方法・服用した方法、または服用すべき方法</t>
   </si>
   <si>
     <t>When the dose or rate is intended to change over the entire administration period (e.g. Tapering dose prescriptions), multiple instances of dosage instructions will need to be supplied to convey the different doses/rates.@@ -5730,10 +5727,10 @@
         <v>328</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5801,7 +5798,7 @@
         <v>77</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>77</v>
@@ -5815,7 +5812,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5841,10 +5838,10 @@
         <v>227</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5895,7 +5892,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -5913,13 +5910,13 @@
         <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>77</v>
@@ -5927,7 +5924,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6039,7 +6036,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6153,7 +6150,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6269,7 +6266,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6292,13 +6289,13 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6349,7 +6346,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>86</v>
@@ -6367,7 +6364,7 @@
         <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
@@ -6381,7 +6378,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6407,13 +6404,13 @@
         <v>186</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6442,11 +6439,11 @@
         <v>180</v>
       </c>
       <c r="X43" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="Y43" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="Y43" t="s" s="2">
-        <v>350</v>
-      </c>
       <c r="Z43" t="s" s="2">
         <v>77</v>
       </c>
@@ -6463,7 +6460,7 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -6487,15 +6484,15 @@
         <v>77</v>
       </c>
       <c r="AM43" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AN43" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>352</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6521,10 +6518,10 @@
         <v>186</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="M44" t="s" s="2">
         <v>277</v>
@@ -6556,11 +6553,11 @@
         <v>180</v>
       </c>
       <c r="X44" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="Y44" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="Y44" t="s" s="2">
-        <v>357</v>
-      </c>
       <c r="Z44" t="s" s="2">
         <v>77</v>
       </c>
@@ -6577,7 +6574,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -6595,13 +6592,13 @@
         <v>77</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM44" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>77</v>
@@ -6609,7 +6606,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6632,13 +6629,13 @@
         <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="M45" t="s" s="2">
         <v>209</v>
@@ -6691,7 +6688,7 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -6709,13 +6706,13 @@
         <v>77</v>
       </c>
       <c r="AK45" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM45" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>77</v>
@@ -6723,11 +6720,11 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6746,16 +6743,16 @@
         <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -6805,7 +6802,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -6823,7 +6820,7 @@
         <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
@@ -6837,7 +6834,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6860,16 +6857,16 @@
         <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="L47" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -6919,7 +6916,7 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -6937,7 +6934,7 @@
         <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdispensebase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdispensebase.xlsx
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-16</t>
+    <t>2022-09-26</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -533,7 +533,7 @@
     <t>MedicationDispense.status</t>
   </si>
   <si>
-    <t>preparation | in-progress | cancelled | on-hold | completed | entered-in-error | stopped | unknown</t>
+    <t>preparation | in-progress | cancelled | on-hold | completed | entered-in-error | stopped | unknown 一連の調剤イベントの状態</t>
   </si>
   <si>
     <t>A code specifying the state of the set of dispense events.
@@ -892,7 +892,7 @@
     <t>MedicationDispense.type</t>
   </si>
   <si>
-    <t>Trial fill, partial fill, emergency fill, etc.</t>
+    <t>実行される調剤イベント</t>
   </si>
   <si>
     <t>Indicates the type of dispensing event that is performed. For example, Trial Fill, Completion of Trial, Partial Fill, Emergency Fill, Samples, etc.
@@ -925,7 +925,7 @@
 </t>
   </si>
   <si>
-    <t>払い出される薬剤の量</t>
+    <t>Trial fill, partial fill, emergency fill, etc. 払い出される薬剤の量</t>
   </si>
   <si>
     <t>調剤総量。

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdispensebase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdispensebase.xlsx
@@ -702,11 +702,11 @@
 </t>
   </si>
   <si>
-    <t>Encounter / Episode associated with event　調剤ベントに関連するエンカウンターやエピソード</t>
+    <t>Encounter / Episode associated with event　調剤ベントに関連するEncounterやエピソード</t>
   </si>
   <si>
     <t>The encounter or episode of care that establishes the context for this event.
-調剤ベントに関連するエンカウンターやエピソードへの参照。</t>
+調剤ベントに関連するEncounterやエピソードへの参照。</t>
   </si>
   <si>
     <t>Event.context</t>
@@ -900,7 +900,7 @@
   </si>
   <si>
     <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.
-すべてのターミノロジーの使用がこの一般的なパターンに適合するわけではない。場合によっては、モデルはCodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素間の関係とpre-coordinationとpost-coordinationの用語関係を管理するための独自の構造を提供する必要がある。</t>
+すべてのターミノロジの使用がこの一般的なパターンに適合するわけではない。場合によっては、モデルはCodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素間の関係とpre-coordinationとpost-coordinationの用語関係を管理するための独自の構造を提供する必要がある。</t>
   </si>
   <si>
     <t>Indicates the type of dispensing event that is performed. For example, Trial Fill, Completion of Trial, Partial Fill, Emergency Fill, Samples, etc.</t>
@@ -1052,7 +1052,7 @@
   <si>
     <t>For systems that do not have structured annotations, they can simply communicate a single annotation with no author or time.  This element may need to be included in narrative because of the potential for modifying information.  *Annotations SHOULD NOT* be used to communicate "modifying" information that could be computable. (This is a SHOULD because enforcing user behavior is nearly impossible).
 構造化された注釈（アノテーション）を持たないシステムの場合、作成者や時間なしで単一の注釈を簡単に伝達できる。情報を変更する可能性があるため、この要素をナラティブに含める必要がある場合がある。 
-*注釈は、計算機処理れきる「変更」情報を伝達するために使用されるべきではない*。 （ユーザーの行動を強制することはほとんど不可能であるため、これはSHOULDとする）。</t>
+*注釈は、計算機処理れきる「変更」情報を伝達するために使用されるべきではない*。 （ユーザの行動を強制することはほとんど不可能であるため、これはSHOULDとする）。</t>
   </si>
   <si>
     <t>Event.note</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdispensebase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdispensebase.xlsx
@@ -1084,7 +1084,7 @@
     <t>MedicationDispense.substitution</t>
   </si>
   <si>
-    <t>Whether a substitution was performed on the dispense　調剤で置換が実行されたかどうか。</t>
+    <t>Whether a substitution was performed on the dispense　調剤で置換が実行されたかどうか</t>
   </si>
   <si>
     <t>Indicates whether or not substitution was made as part of the dispense. In some cases, substitution will be expected but does not happen, in other cases substitution is not expected but does happen. This block explains what substitution did or did not happen and why. If nothing is specified, substitution was not done. 
@@ -1113,7 +1113,7 @@
 </t>
   </si>
   <si>
-    <t>Whether a substitution was or was not performed on the dispense　調剤で置換が実行されたか、あるいはされていないかを'true'または'false'で表す。</t>
+    <t>Whether a substitution was or was not performed on the dispense　調剤で置換が実行されたか、あるいはされていないかを'true'または'false'で表す</t>
   </si>
   <si>
     <t>True if the dispenser dispensed a different drug or product from what was prescribed. 

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdispensebase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdispensebase.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1723" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2374" uniqueCount="448">
   <si>
     <t>Property</t>
   </si>
@@ -489,25 +489,272 @@
 </t>
   </si>
   <si>
-    <t>External identifier</t>
-  </si>
-  <si>
-    <t>Identifiers associated with this Medication Dispense that are defined by business processes and/or used to refer to it when a direct URL reference to the resource itself is not appropriate. They are business identifiers assigned to this resource by the performer or other systems and remain constant as the resource is updated and propagates from server to server.</t>
+    <t>外部から参照されるID</t>
+  </si>
+  <si>
+    <t>このインスタンスが外部から参照されるために使われるIDである。処方箋全体としてのIDとしては使用しない。
+処方箋内で同一の用法をまとめて表記されるRp番号はこのIdentifier elementの別スライスで表現する。それ以外に任意のIDを付与してもよい。
+このIDは業務手順によって定められた処方オーダに対して、直接的なURL参照が適切でない場合も含めて関連付けるために使われる。この業務手順のIDは実施者によって割り当てられたものであり、リソースが更新されたりサーバからサーバに転送されたとしても固定のものとして存続する。</t>
+  </si>
+  <si>
+    <t>これは業務IDであって、リソースに対するIDではない。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:system}
+</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>CombinedMedicationDispense.id</t>
+  </si>
+  <si>
+    <t>rpNumber</t>
+  </si>
+  <si>
+    <t>処方箋内部の剤グループとしてのRp番号</t>
+  </si>
+  <si>
+    <t>処方箋内で同一用法の薬剤を慣用的にまとめて、Rpに番号をつけて剤グループとして一括指定されることがある。このスライスでは剤グループに対して割り振られたRp番号を記録する。</t>
+  </si>
+  <si>
+    <t>剤グループに複数の薬剤が含まれる場合、このグループ内の薬剤には同じRp番号が割り振られる。</t>
+  </si>
+  <si>
+    <t>MedicationDispense.identifier.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>MedicationDispense.identifier.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>MedicationDispense.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>MedicationDispense.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
+    <t>MedicationDispense.identifier.system</t>
+  </si>
+  <si>
+    <t>Rp番号(剤グループ番号)についてのsystem値</t>
+  </si>
+  <si>
+    <t>ここで付番されたIDがRp番号であることを明示するためにOIDとして定義された。urn:oid:1.2.392.100495.20.3.81で固定される。</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>urn:oid:1.2.392.100495.20.3.81</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>MedicationDispense.identifier.value</t>
+  </si>
+  <si>
+    <t>Rp番号(剤グループ番号)</t>
+  </si>
+  <si>
+    <t>Rp番号(剤グループ番号)。"1"など。</t>
+  </si>
+  <si>
+    <t>value は string型であり、数値はゼロサプレス、つまり、'01'でなく'1'と指定すること。</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>MedicationDispense.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>MedicationDispense.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
+    <t>requestIdentifier</t>
+  </si>
+  <si>
+    <t>処方オーダに対するID(MedicationRequestからの継承)</t>
+  </si>
+  <si>
+    <t>薬剤をオーダする単位としての処方箋に対するID。原則として調剤の基となったMedicationRequestのIDを設定する。</t>
   </si>
   <si>
     <t>This is a business identifier, not a resource identifier.</t>
   </si>
   <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>CombinedMedicationDispense.id</t>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/core/IdSystem/resourceInstance-identifier</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
   </si>
   <si>
     <t>MedicationDispense.partOf</t>
@@ -543,9 +790,6 @@
     <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
     <t>A coded concept specifying the state of the dispense event.</t>
   </si>
   <si>
@@ -594,10 +838,6 @@
   </si>
   <si>
     <t>MedicationDispense.category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
   </si>
   <si>
     <t>Type of medication dispense　調剤タイプ</t>
@@ -758,32 +998,7 @@
     <t>MedicationDispense.performer.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>MedicationDispense.performer.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>MedicationDispense.performer.modifierExtension</t>
@@ -1551,7 +1766,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN47"/>
+  <dimension ref="A1:AN65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1561,7 +1776,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="48.12109375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="16.3125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1587,7 +1802,7 @@
     <col min="25" max="25" width="71.296875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="46.84375" customWidth="true" bestFit="true" hidden="true"/>
@@ -2868,7 +3083,7 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>79</v>
@@ -2930,16 +3145,14 @@
         <v>77</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="AB12" s="2"/>
       <c r="AC12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE12" t="s" s="2">
         <v>150</v>
@@ -2957,16 +3170,16 @@
         <v>98</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>77</v>
@@ -2974,18 +3187,20 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="C13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>77</v>
@@ -2997,7 +3212,7 @@
         <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="K13" t="s" s="2">
         <v>161</v>
@@ -3005,7 +3220,9 @@
       <c r="L13" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="M13" s="2"/>
+      <c r="M13" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>77</v>
@@ -3054,7 +3271,7 @@
         <v>77</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>78</v>
@@ -3069,16 +3286,16 @@
         <v>98</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>77</v>
+        <v>159</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>77</v>
@@ -3086,7 +3303,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3094,7 +3311,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>86</v>
@@ -3103,13 +3320,13 @@
         <v>77</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>106</v>
+        <v>165</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>166</v>
@@ -3117,9 +3334,7 @@
       <c r="L14" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="M14" t="s" s="2">
-        <v>168</v>
-      </c>
+      <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>77</v>
@@ -3144,55 +3359,55 @@
         <v>77</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="X14" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>173</v>
-      </c>
       <c r="AL14" t="s" s="2">
-        <v>174</v>
+        <v>77</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>77</v>
@@ -3200,18 +3415,18 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>77</v>
@@ -3223,15 +3438,17 @@
         <v>77</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>177</v>
+        <v>131</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="M15" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>77</v>
@@ -3256,49 +3473,49 @@
         <v>77</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>181</v>
+        <v>77</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>182</v>
+        <v>77</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>77</v>
+        <v>173</v>
       </c>
       <c r="AC15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>183</v>
+        <v>77</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>77</v>
@@ -3312,7 +3529,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3329,24 +3546,26 @@
         <v>77</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>186</v>
+        <v>106</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="O16" t="s" s="2">
         <v>77</v>
       </c>
@@ -3370,13 +3589,13 @@
         <v>77</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>77</v>
@@ -3394,7 +3613,7 @@
         <v>77</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>78</v>
@@ -3412,7 +3631,7 @@
         <v>77</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>77</v>
@@ -3421,12 +3640,12 @@
         <v>77</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3434,7 +3653,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>86</v>
@@ -3449,18 +3668,20 @@
         <v>87</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="O17" t="s" s="2">
         <v>77</v>
       </c>
@@ -3484,13 +3705,13 @@
         <v>77</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>77</v>
@@ -3508,10 +3729,10 @@
         <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>86</v>
@@ -3523,24 +3744,24 @@
         <v>98</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>202</v>
+        <v>77</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3563,30 +3784,32 @@
         <v>87</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>206</v>
+        <v>100</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="O18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>77</v>
+        <v>201</v>
       </c>
       <c r="R18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="T18" t="s" s="2">
         <v>77</v>
@@ -3622,7 +3845,7 @@
         <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>78</v>
@@ -3637,24 +3860,24 @@
         <v>98</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>210</v>
+        <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>212</v>
+        <v>77</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3662,7 +3885,7 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>86</v>
@@ -3674,16 +3897,16 @@
         <v>77</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>215</v>
+        <v>165</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="M19" t="s" s="2">
         <v>209</v>
@@ -3700,7 +3923,7 @@
         <v>77</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>77</v>
+        <v>210</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>77</v>
@@ -3736,7 +3959,7 @@
         <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>78</v>
@@ -3751,10 +3974,10 @@
         <v>98</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>218</v>
+        <v>77</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>77</v>
@@ -3763,12 +3986,12 @@
         <v>77</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>77</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3779,7 +4002,7 @@
         <v>78</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>77</v>
@@ -3788,20 +4011,18 @@
         <v>77</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>77</v>
@@ -3850,13 +4071,13 @@
         <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>77</v>
@@ -3868,21 +4089,21 @@
         <v>77</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>225</v>
+        <v>77</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>77</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3893,7 +4114,7 @@
         <v>78</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>77</v>
@@ -3902,18 +4123,20 @@
         <v>77</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M21" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>77</v>
@@ -3968,7 +4191,7 @@
         <v>78</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>77</v>
@@ -3977,10 +4200,10 @@
         <v>98</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>230</v>
+        <v>77</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>77</v>
@@ -3989,14 +4212,16 @@
         <v>77</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>77</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="B22" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="C22" t="s" s="2">
         <v>77</v>
       </c>
@@ -4005,7 +4230,7 @@
         <v>78</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>77</v>
@@ -4017,15 +4242,17 @@
         <v>77</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>233</v>
+        <v>151</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="M22" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>77</v>
@@ -4074,31 +4301,31 @@
         <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>236</v>
+        <v>150</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>237</v>
+        <v>157</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>77</v>
+        <v>159</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>77</v>
@@ -4106,18 +4333,18 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>238</v>
+        <v>164</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>77</v>
@@ -4129,17 +4356,15 @@
         <v>77</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>131</v>
+        <v>165</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>239</v>
+        <v>166</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>77</v>
@@ -4188,25 +4413,25 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>237</v>
+        <v>169</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>77</v>
@@ -4220,11 +4445,11 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>242</v>
+        <v>170</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>243</v>
+        <v>144</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4237,26 +4462,24 @@
         <v>77</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>131</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>245</v>
+        <v>172</v>
       </c>
       <c r="M24" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="N24" t="s" s="2">
-        <v>148</v>
-      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>77</v>
       </c>
@@ -4292,19 +4515,19 @@
         <v>77</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>77</v>
+        <v>173</v>
       </c>
       <c r="AC24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>246</v>
+        <v>174</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
@@ -4322,7 +4545,7 @@
         <v>77</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>129</v>
+        <v>169</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>77</v>
@@ -4336,7 +4559,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>247</v>
+        <v>175</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4353,23 +4576,25 @@
         <v>77</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>186</v>
+        <v>106</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>248</v>
+        <v>176</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="M25" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="N25" t="s" s="2">
-        <v>250</v>
+        <v>179</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>77</v>
@@ -4397,10 +4622,10 @@
         <v>180</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>251</v>
+        <v>181</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>252</v>
+        <v>182</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>77</v>
@@ -4418,7 +4643,7 @@
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>247</v>
+        <v>183</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -4436,7 +4661,7 @@
         <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>253</v>
+        <v>184</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>77</v>
@@ -4445,12 +4670,12 @@
         <v>77</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>254</v>
+        <v>185</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4458,7 +4683,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>86</v>
@@ -4470,19 +4695,23 @@
         <v>77</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>255</v>
+        <v>186</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>256</v>
+        <v>187</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>77</v>
       </c>
@@ -4506,13 +4735,13 @@
         <v>77</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>77</v>
+        <v>191</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>77</v>
+        <v>192</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>77</v>
+        <v>193</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>77</v>
@@ -4530,10 +4759,10 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>254</v>
+        <v>194</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>86</v>
@@ -4545,10 +4774,10 @@
         <v>98</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>258</v>
+        <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>259</v>
+        <v>184</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>77</v>
@@ -4557,12 +4786,12 @@
         <v>77</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>77</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>260</v>
+        <v>196</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4570,7 +4799,7 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>86</v>
@@ -4582,33 +4811,35 @@
         <v>77</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>261</v>
+        <v>100</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>77</v>
+        <v>235</v>
       </c>
       <c r="R27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>77</v>
@@ -4644,7 +4875,7 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>260</v>
+        <v>203</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -4662,7 +4893,7 @@
         <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>264</v>
+        <v>204</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>77</v>
@@ -4671,12 +4902,12 @@
         <v>77</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>77</v>
+        <v>205</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>265</v>
+        <v>206</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4684,10 +4915,10 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>77</v>
@@ -4696,19 +4927,19 @@
         <v>77</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>266</v>
+        <v>165</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>267</v>
+        <v>236</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>268</v>
+        <v>237</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>269</v>
+        <v>238</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4722,7 +4953,7 @@
         <v>77</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>77</v>
+        <v>210</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>77</v>
@@ -4758,13 +4989,13 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>265</v>
+        <v>211</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>77</v>
@@ -4773,24 +5004,24 @@
         <v>98</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>270</v>
+        <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>271</v>
+        <v>212</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>272</v>
+        <v>77</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>273</v>
+        <v>213</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>274</v>
+        <v>214</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4810,20 +5041,18 @@
         <v>77</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>186</v>
+        <v>215</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>275</v>
+        <v>216</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>277</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>77</v>
@@ -4848,13 +5077,13 @@
         <v>77</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>278</v>
+        <v>77</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>279</v>
+        <v>77</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>77</v>
@@ -4872,7 +5101,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>274</v>
+        <v>218</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -4890,21 +5119,21 @@
         <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>280</v>
+        <v>219</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>281</v>
+        <v>77</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>282</v>
+        <v>220</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>283</v>
+        <v>221</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4912,7 +5141,7 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>86</v>
@@ -4924,19 +5153,19 @@
         <v>77</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>284</v>
+        <v>222</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>285</v>
+        <v>223</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>286</v>
+        <v>224</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>287</v>
+        <v>225</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -4986,7 +5215,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>283</v>
+        <v>226</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -4995,16 +5224,16 @@
         <v>86</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>288</v>
+        <v>98</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>289</v>
+        <v>227</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>77</v>
@@ -5013,12 +5242,12 @@
         <v>77</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>290</v>
+        <v>228</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>291</v>
+        <v>239</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5029,7 +5258,7 @@
         <v>78</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>77</v>
@@ -5041,17 +5270,15 @@
         <v>77</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>284</v>
+        <v>240</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>292</v>
+        <v>241</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>287</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>77</v>
@@ -5100,25 +5327,25 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>291</v>
+        <v>239</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>288</v>
+        <v>98</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>77</v>
+        <v>243</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>289</v>
+        <v>244</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
@@ -5127,12 +5354,12 @@
         <v>77</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>290</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>294</v>
+        <v>245</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5140,7 +5367,7 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>86</v>
@@ -5149,21 +5376,23 @@
         <v>77</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>295</v>
+        <v>106</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>296</v>
+        <v>246</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="M32" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>248</v>
+      </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>77</v>
@@ -5188,13 +5417,13 @@
         <v>77</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>77</v>
+        <v>249</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>77</v>
+        <v>250</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>77</v>
@@ -5212,10 +5441,10 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>294</v>
+        <v>245</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>86</v>
@@ -5227,24 +5456,24 @@
         <v>98</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>77</v>
+        <v>251</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>298</v>
+        <v>252</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>77</v>
+        <v>253</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>299</v>
+        <v>254</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>300</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>301</v>
+        <v>255</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5252,7 +5481,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>86</v>
@@ -5267,13 +5496,13 @@
         <v>77</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>295</v>
+        <v>256</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>302</v>
+        <v>257</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>303</v>
+        <v>258</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5300,13 +5529,13 @@
         <v>77</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>77</v>
+        <v>259</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>77</v>
+        <v>260</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>77</v>
+        <v>261</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>77</v>
@@ -5324,7 +5553,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>301</v>
+        <v>255</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -5339,24 +5568,24 @@
         <v>98</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>304</v>
+        <v>262</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>305</v>
+        <v>263</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>299</v>
+        <v>77</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>300</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>306</v>
+        <v>264</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5379,16 +5608,16 @@
         <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>261</v>
+        <v>186</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>307</v>
+        <v>265</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>308</v>
+        <v>266</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>209</v>
+        <v>267</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5414,13 +5643,13 @@
         <v>77</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>77</v>
+        <v>268</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>77</v>
+        <v>269</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>77</v>
@@ -5438,7 +5667,7 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>306</v>
+        <v>264</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -5456,21 +5685,21 @@
         <v>77</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>309</v>
+        <v>270</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>310</v>
+        <v>77</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>311</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>312</v>
+        <v>271</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5478,10 +5707,10 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>77</v>
@@ -5490,19 +5719,19 @@
         <v>77</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>313</v>
+        <v>272</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>314</v>
+        <v>273</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>315</v>
+        <v>274</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>209</v>
+        <v>275</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5528,13 +5757,13 @@
         <v>77</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>77</v>
+        <v>259</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>77</v>
+        <v>276</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>77</v>
+        <v>277</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>77</v>
@@ -5552,13 +5781,13 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>312</v>
+        <v>271</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>77</v>
@@ -5567,24 +5796,24 @@
         <v>98</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>77</v>
+        <v>278</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>316</v>
+        <v>279</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>77</v>
+        <v>280</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>317</v>
+        <v>281</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>77</v>
+        <v>282</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>318</v>
+        <v>283</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5592,10 +5821,10 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>77</v>
@@ -5604,19 +5833,19 @@
         <v>77</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>319</v>
+        <v>284</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>320</v>
+        <v>285</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>321</v>
+        <v>286</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>322</v>
+        <v>287</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5666,13 +5895,13 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>318</v>
+        <v>283</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>77</v>
@@ -5681,24 +5910,24 @@
         <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>77</v>
+        <v>290</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>325</v>
+        <v>291</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>326</v>
+        <v>292</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5709,7 +5938,7 @@
         <v>78</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>77</v>
@@ -5721,16 +5950,16 @@
         <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>327</v>
+        <v>293</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>328</v>
+        <v>294</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>328</v>
+        <v>295</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>329</v>
+        <v>287</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5780,13 +6009,13 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>326</v>
+        <v>292</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>77</v>
@@ -5795,10 +6024,10 @@
         <v>98</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>77</v>
+        <v>296</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>330</v>
+        <v>297</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>77</v>
@@ -5812,7 +6041,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>331</v>
+        <v>298</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5823,7 +6052,7 @@
         <v>78</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>77</v>
@@ -5835,15 +6064,17 @@
         <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>227</v>
+        <v>299</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>332</v>
+        <v>300</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="M38" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>77</v>
@@ -5892,13 +6123,13 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>331</v>
+        <v>298</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>77</v>
@@ -5910,13 +6141,13 @@
         <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>334</v>
+        <v>302</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>77</v>
+        <v>303</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>335</v>
+        <v>77</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>77</v>
@@ -5924,7 +6155,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>336</v>
+        <v>304</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5935,7 +6166,7 @@
         <v>78</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>77</v>
@@ -5947,13 +6178,13 @@
         <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>233</v>
+        <v>305</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>234</v>
+        <v>306</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>235</v>
+        <v>307</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6004,25 +6235,25 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>236</v>
+        <v>304</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>77</v>
+        <v>308</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>237</v>
+        <v>309</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>77</v>
@@ -6036,18 +6267,18 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>337</v>
+        <v>310</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>77</v>
@@ -6059,17 +6290,15 @@
         <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>131</v>
+        <v>165</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>239</v>
+        <v>166</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>77</v>
@@ -6118,25 +6347,25 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>237</v>
+        <v>169</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
@@ -6150,11 +6379,11 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>338</v>
+        <v>311</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>243</v>
+        <v>144</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6167,26 +6396,24 @@
         <v>77</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
         <v>131</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>245</v>
+        <v>172</v>
       </c>
       <c r="M41" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="N41" t="s" s="2">
-        <v>148</v>
-      </c>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>77</v>
       </c>
@@ -6234,7 +6461,7 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>246</v>
+        <v>174</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -6252,7 +6479,7 @@
         <v>77</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>129</v>
+        <v>169</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
@@ -6266,39 +6493,43 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>339</v>
+        <v>312</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>77</v>
+        <v>313</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>340</v>
+        <v>131</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>341</v>
+        <v>314</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>77</v>
       </c>
@@ -6346,25 +6577,25 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>339</v>
+        <v>316</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>343</v>
+        <v>129</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
@@ -6378,7 +6609,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>344</v>
+        <v>317</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6404,15 +6635,15 @@
         <v>186</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>345</v>
+        <v>318</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>77</v>
       </c>
@@ -6436,13 +6667,13 @@
         <v>77</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>180</v>
+        <v>259</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>348</v>
+        <v>321</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>349</v>
+        <v>322</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>77</v>
@@ -6460,7 +6691,7 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>344</v>
+        <v>317</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -6478,21 +6709,21 @@
         <v>77</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>280</v>
+        <v>323</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>350</v>
+        <v>77</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>351</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>352</v>
+        <v>324</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6500,10 +6731,10 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>77</v>
@@ -6515,17 +6746,15 @@
         <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>186</v>
+        <v>325</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>353</v>
+        <v>326</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>277</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>77</v>
@@ -6550,13 +6779,13 @@
         <v>77</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>355</v>
+        <v>77</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>356</v>
+        <v>77</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>77</v>
@@ -6574,13 +6803,13 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>352</v>
+        <v>324</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>77</v>
@@ -6589,16 +6818,16 @@
         <v>98</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>77</v>
+        <v>328</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>357</v>
+        <v>329</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>358</v>
+        <v>77</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>77</v>
@@ -6606,7 +6835,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>359</v>
+        <v>330</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6617,7 +6846,7 @@
         <v>78</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>77</v>
@@ -6629,16 +6858,16 @@
         <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>360</v>
+        <v>331</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>361</v>
+        <v>332</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>362</v>
+        <v>333</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>209</v>
+        <v>287</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6688,13 +6917,13 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>359</v>
+        <v>330</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>77</v>
@@ -6706,13 +6935,13 @@
         <v>77</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>363</v>
+        <v>334</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>364</v>
+        <v>77</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>77</v>
@@ -6720,11 +6949,11 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>365</v>
+        <v>335</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>366</v>
+        <v>77</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6743,16 +6972,16 @@
         <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>367</v>
+        <v>336</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>368</v>
+        <v>337</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>369</v>
+        <v>338</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>370</v>
+        <v>339</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -6802,7 +7031,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>365</v>
+        <v>335</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -6817,24 +7046,24 @@
         <v>98</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>77</v>
+        <v>340</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>371</v>
+        <v>341</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>77</v>
+        <v>342</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>77</v>
+        <v>343</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>372</v>
+        <v>344</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6845,7 +7074,7 @@
         <v>78</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>77</v>
@@ -6857,16 +7086,16 @@
         <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>373</v>
+        <v>186</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>374</v>
+        <v>345</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>375</v>
+        <v>346</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>376</v>
+        <v>347</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -6892,13 +7121,13 @@
         <v>77</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>77</v>
+        <v>259</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>77</v>
+        <v>348</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>77</v>
+        <v>349</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>77</v>
@@ -6916,13 +7145,13 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>372</v>
+        <v>344</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>77</v>
@@ -6934,15 +7163,2059 @@
         <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AN47" t="s" s="2">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P48" s="2"/>
+      <c r="Q48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P49" s="2"/>
+      <c r="Q49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="K52" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="AL47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN47" t="s" s="2">
+      <c r="L52" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P58" s="2"/>
+      <c r="Q58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P60" s="2"/>
+      <c r="Q60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P62" s="2"/>
+      <c r="Q62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN65" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdispensebase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdispensebase.xlsx
@@ -90,6 +90,9 @@
     <t>Copyright</t>
   </si>
   <si>
+    <t>Copyright FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) 一般社団法人日本医療情報学会NeXEHRS課題研究会FHIR日本実装検討WG</t>
+  </si>
+  <si>
     <t>FHIR Version</t>
   </si>
   <si>
@@ -259,10 +262,6 @@
   </si>
   <si>
     <t>指定された患者・個人へ薬剤が払い出されたか払い出される予定のものを示す。これには（供給される）提供される製品についての説明や薬剤の服用に関する指示も含まれる。薬剤払い出しは薬剤オーダに対して薬局システムが対応した結果となる。</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}mdd-1:whenHandedOver cannot be before whenPrepared {whenHandedOver.empty() or whenPrepared.empty() or whenHandedOver &gt;= whenPrepared}</t>
   </si>
   <si>
     <t>Event</t>
@@ -1708,55 +1707,55 @@
         <v>24</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1819,221 +1818,221 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>83</v>
@@ -2042,13 +2041,13 @@
         <v>84</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3">
@@ -2057,20 +2056,20 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F3" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>87</v>
@@ -2089,80 +2088,80 @@
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE3" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4">
@@ -2171,20 +2170,20 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I4" t="s" s="2">
         <v>87</v>
@@ -2201,80 +2200,80 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE4" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
@@ -2283,17 +2282,17 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F5" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>87</v>
@@ -2315,80 +2314,80 @@
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE5" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
@@ -2397,23 +2396,23 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s" s="2">
         <v>106</v>
@@ -2429,26 +2428,26 @@
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W6" t="s" s="2">
         <v>110</v>
@@ -2460,49 +2459,49 @@
         <v>112</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE6" t="s" s="2">
         <v>113</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
@@ -2515,19 +2514,19 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J7" t="s" s="2">
         <v>116</v>
@@ -2543,80 +2542,80 @@
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE7" t="s" s="2">
         <v>120</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>121</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8">
@@ -2629,19 +2628,19 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J8" t="s" s="2">
         <v>124</v>
@@ -2657,80 +2656,80 @@
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE8" t="s" s="2">
         <v>128</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>129</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9">
@@ -2739,23 +2738,23 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>131</v>
@@ -2769,45 +2768,45 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>134</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>135</v>
@@ -2816,31 +2815,31 @@
         <v>136</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10">
@@ -2851,23 +2850,23 @@
         <v>138</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>139</v>
@@ -2881,59 +2880,59 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE10" t="s" s="2">
         <v>136</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>142</v>
@@ -2942,19 +2941,19 @@
         <v>137</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11">
@@ -2967,19 +2966,19 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>87</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>131</v>
@@ -2997,80 +2996,80 @@
         <v>148</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE11" t="s" s="2">
         <v>149</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>129</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12">
@@ -3079,23 +3078,23 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
         <v>86</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>151</v>
@@ -3111,45 +3110,45 @@
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>155</v>
       </c>
       <c r="AB12" s="2"/>
       <c r="AC12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD12" t="s" s="2">
         <v>135</v>
@@ -3158,13 +3157,13 @@
         <v>150</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>98</v>
@@ -3182,7 +3181,7 @@
         <v>159</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13">
@@ -3193,7 +3192,7 @@
         <v>160</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -3203,13 +3202,13 @@
         <v>86</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>151</v>
@@ -3225,62 +3224,62 @@
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE13" t="s" s="2">
         <v>150</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>98</v>
@@ -3298,7 +3297,7 @@
         <v>159</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14">
@@ -3307,23 +3306,23 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>165</v>
@@ -3337,80 +3336,80 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE14" t="s" s="2">
         <v>168</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>169</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15">
@@ -3423,19 +3422,19 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>131</v>
@@ -3451,38 +3450,38 @@
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>134</v>
@@ -3491,7 +3490,7 @@
         <v>173</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>135</v>
@@ -3500,31 +3499,31 @@
         <v>174</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>169</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16">
@@ -3533,17 +3532,17 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>87</v>
@@ -3567,26 +3566,26 @@
         <v>179</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W16" t="s" s="2">
         <v>180</v>
@@ -3598,46 +3597,46 @@
         <v>182</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE16" t="s" s="2">
         <v>183</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>184</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>129</v>
@@ -3649,20 +3648,20 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>87</v>
@@ -3683,26 +3682,26 @@
         <v>190</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W17" t="s" s="2">
         <v>191</v>
@@ -3714,46 +3713,46 @@
         <v>193</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE17" t="s" s="2">
         <v>194</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>184</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>195</v>
@@ -3765,7 +3764,7 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3775,10 +3774,10 @@
         <v>86</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>87</v>
@@ -3799,77 +3798,77 @@
         <v>200</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
         <v>201</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>202</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE18" t="s" s="2">
         <v>203</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>204</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>205</v>
@@ -3881,7 +3880,7 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3891,10 +3890,10 @@
         <v>86</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>87</v>
@@ -3913,77 +3912,77 @@
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S19" t="s" s="2">
         <v>210</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE19" t="s" s="2">
         <v>211</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>212</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>213</v>
@@ -3995,20 +3994,20 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>87</v>
@@ -4025,77 +4024,77 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE20" t="s" s="2">
         <v>218</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>219</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>220</v>
@@ -4107,20 +4106,20 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>87</v>
@@ -4139,77 +4138,77 @@
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE21" t="s" s="2">
         <v>226</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>227</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>228</v>
@@ -4223,23 +4222,23 @@
         <v>229</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J22" t="s" s="2">
         <v>151</v>
@@ -4255,62 +4254,62 @@
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE22" t="s" s="2">
         <v>150</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>98</v>
@@ -4328,7 +4327,7 @@
         <v>159</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23">
@@ -4337,23 +4336,23 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J23" t="s" s="2">
         <v>165</v>
@@ -4367,80 +4366,80 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE23" t="s" s="2">
         <v>168</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>169</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24">
@@ -4453,19 +4452,19 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>131</v>
@@ -4481,38 +4480,38 @@
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>134</v>
@@ -4521,7 +4520,7 @@
         <v>173</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>135</v>
@@ -4530,31 +4529,31 @@
         <v>174</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>169</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25">
@@ -4563,17 +4562,17 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>87</v>
@@ -4597,26 +4596,26 @@
         <v>179</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W25" t="s" s="2">
         <v>180</v>
@@ -4628,46 +4627,46 @@
         <v>182</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE25" t="s" s="2">
         <v>183</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>184</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>129</v>
@@ -4679,20 +4678,20 @@
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>87</v>
@@ -4713,26 +4712,26 @@
         <v>190</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W26" t="s" s="2">
         <v>191</v>
@@ -4744,46 +4743,46 @@
         <v>193</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE26" t="s" s="2">
         <v>194</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>184</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>195</v>
@@ -4795,7 +4794,7 @@
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4805,10 +4804,10 @@
         <v>86</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>87</v>
@@ -4829,77 +4828,77 @@
         <v>200</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
         <v>235</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S27" t="s" s="2">
         <v>202</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE27" t="s" s="2">
         <v>203</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>204</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>205</v>
@@ -4911,7 +4910,7 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4921,10 +4920,10 @@
         <v>86</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>87</v>
@@ -4943,77 +4942,77 @@
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>210</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE28" t="s" s="2">
         <v>211</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>212</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>213</v>
@@ -5025,20 +5024,20 @@
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>87</v>
@@ -5055,77 +5054,77 @@
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE29" t="s" s="2">
         <v>218</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>219</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>220</v>
@@ -5137,20 +5136,20 @@
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>87</v>
@@ -5169,77 +5168,77 @@
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE30" t="s" s="2">
         <v>226</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>227</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>228</v>
@@ -5251,23 +5250,23 @@
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J31" t="s" s="2">
         <v>240</v>
@@ -5281,62 +5280,62 @@
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE31" t="s" s="2">
         <v>239</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>98</v>
@@ -5348,13 +5347,13 @@
         <v>244</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32">
@@ -5363,7 +5362,7 @@
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5373,7 +5372,7 @@
         <v>86</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>87</v>
@@ -5395,26 +5394,26 @@
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W32" t="s" s="2">
         <v>180</v>
@@ -5426,19 +5425,19 @@
         <v>250</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE32" t="s" s="2">
         <v>245</v>
@@ -5450,7 +5449,7 @@
         <v>86</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>98</v>
@@ -5468,7 +5467,7 @@
         <v>254</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33">
@@ -5477,23 +5476,23 @@
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>256</v>
@@ -5507,26 +5506,26 @@
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W33" t="s" s="2">
         <v>259</v>
@@ -5538,31 +5537,31 @@
         <v>261</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE33" t="s" s="2">
         <v>255</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>98</v>
@@ -5574,13 +5573,13 @@
         <v>263</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34">
@@ -5589,23 +5588,23 @@
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>186</v>
@@ -5621,26 +5620,26 @@
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W34" t="s" s="2">
         <v>110</v>
@@ -5652,49 +5651,49 @@
         <v>269</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE34" t="s" s="2">
         <v>264</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>270</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35">
@@ -5703,7 +5702,7 @@
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5713,10 +5712,10 @@
         <v>86</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>87</v>
@@ -5735,26 +5734,26 @@
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W35" t="s" s="2">
         <v>259</v>
@@ -5766,19 +5765,19 @@
         <v>277</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE35" t="s" s="2">
         <v>271</v>
@@ -5790,7 +5789,7 @@
         <v>86</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>98</v>
@@ -5817,7 +5816,7 @@
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5827,10 +5826,10 @@
         <v>86</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>87</v>
@@ -5849,62 +5848,62 @@
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE36" t="s" s="2">
         <v>283</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>98</v>
@@ -5919,7 +5918,7 @@
         <v>290</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>291</v>
@@ -5931,23 +5930,23 @@
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J37" t="s" s="2">
         <v>293</v>
@@ -5963,62 +5962,62 @@
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE37" t="s" s="2">
         <v>292</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>98</v>
@@ -6030,13 +6029,13 @@
         <v>297</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38">
@@ -6045,23 +6044,23 @@
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J38" t="s" s="2">
         <v>299</v>
@@ -6077,68 +6076,68 @@
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE38" t="s" s="2">
         <v>298</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>302</v>
@@ -6147,10 +6146,10 @@
         <v>303</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39">
@@ -6159,23 +6158,23 @@
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>305</v>
@@ -6189,62 +6188,62 @@
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE39" t="s" s="2">
         <v>304</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>98</v>
@@ -6256,13 +6255,13 @@
         <v>309</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40">
@@ -6271,23 +6270,23 @@
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J40" t="s" s="2">
         <v>165</v>
@@ -6301,80 +6300,80 @@
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE40" t="s" s="2">
         <v>168</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>169</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41">
@@ -6387,19 +6386,19 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J41" t="s" s="2">
         <v>131</v>
@@ -6415,80 +6414,80 @@
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE41" t="s" s="2">
         <v>174</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>169</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42">
@@ -6501,13 +6500,13 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>87</v>
@@ -6531,80 +6530,80 @@
         <v>148</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE42" t="s" s="2">
         <v>316</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>129</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43">
@@ -6613,23 +6612,23 @@
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>186</v>
@@ -6645,26 +6644,26 @@
         <v>320</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W43" t="s" s="2">
         <v>259</v>
@@ -6676,49 +6675,49 @@
         <v>322</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE43" t="s" s="2">
         <v>317</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>323</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44">
@@ -6727,7 +6726,7 @@
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6737,13 +6736,13 @@
         <v>86</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J44" t="s" s="2">
         <v>325</v>
@@ -6757,50 +6756,50 @@
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE44" t="s" s="2">
         <v>324</v>
@@ -6812,7 +6811,7 @@
         <v>86</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>98</v>
@@ -6824,13 +6823,13 @@
         <v>329</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45">
@@ -6839,23 +6838,23 @@
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J45" t="s" s="2">
         <v>331</v>
@@ -6871,80 +6870,80 @@
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE45" t="s" s="2">
         <v>330</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>334</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46">
@@ -6953,23 +6952,23 @@
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>336</v>
@@ -6985,62 +6984,62 @@
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE46" t="s" s="2">
         <v>335</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>98</v>
@@ -7052,7 +7051,7 @@
         <v>341</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>342</v>
@@ -7067,23 +7066,23 @@
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J47" t="s" s="2">
         <v>186</v>
@@ -7099,26 +7098,26 @@
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W47" t="s" s="2">
         <v>259</v>
@@ -7130,43 +7129,43 @@
         <v>349</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE47" t="s" s="2">
         <v>344</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>350</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>351</v>
@@ -7181,7 +7180,7 @@
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7191,13 +7190,13 @@
         <v>86</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J48" t="s" s="2">
         <v>354</v>
@@ -7213,56 +7212,56 @@
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE48" t="s" s="2">
         <v>353</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>86</v>
@@ -7274,16 +7273,16 @@
         <v>358</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>359</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>360</v>
@@ -7295,23 +7294,23 @@
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J49" t="s" s="2">
         <v>354</v>
@@ -7327,56 +7326,56 @@
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE49" t="s" s="2">
         <v>361</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>86</v>
@@ -7388,16 +7387,16 @@
         <v>358</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>359</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>360</v>
@@ -7409,20 +7408,20 @@
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>87</v>
@@ -7439,74 +7438,74 @@
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE50" t="s" s="2">
         <v>364</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>368</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>369</v>
@@ -7521,7 +7520,7 @@
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7531,13 +7530,13 @@
         <v>86</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J51" t="s" s="2">
         <v>365</v>
@@ -7551,62 +7550,62 @@
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE51" t="s" s="2">
         <v>371</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>98</v>
@@ -7618,7 +7617,7 @@
         <v>375</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>369</v>
@@ -7633,23 +7632,23 @@
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J52" t="s" s="2">
         <v>331</v>
@@ -7665,74 +7664,74 @@
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE52" t="s" s="2">
         <v>376</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>379</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>380</v>
@@ -7747,23 +7746,23 @@
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J53" t="s" s="2">
         <v>383</v>
@@ -7779,80 +7778,80 @@
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE53" t="s" s="2">
         <v>382</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>386</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>387</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54">
@@ -7861,23 +7860,23 @@
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J54" t="s" s="2">
         <v>389</v>
@@ -7893,62 +7892,62 @@
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE54" t="s" s="2">
         <v>388</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>98</v>
@@ -7960,10 +7959,10 @@
         <v>394</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>395</v>
@@ -7975,23 +7974,23 @@
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J55" t="s" s="2">
         <v>397</v>
@@ -8007,80 +8006,80 @@
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE55" t="s" s="2">
         <v>396</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>400</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56">
@@ -8089,23 +8088,23 @@
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J56" t="s" s="2">
         <v>305</v>
@@ -8119,80 +8118,80 @@
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE56" t="s" s="2">
         <v>401</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>404</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>405</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57">
@@ -8201,23 +8200,23 @@
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J57" t="s" s="2">
         <v>165</v>
@@ -8231,80 +8230,80 @@
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE57" t="s" s="2">
         <v>168</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>169</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58">
@@ -8317,19 +8316,19 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J58" t="s" s="2">
         <v>131</v>
@@ -8345,80 +8344,80 @@
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE58" t="s" s="2">
         <v>174</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>169</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59">
@@ -8431,13 +8430,13 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>87</v>
@@ -8461,80 +8460,80 @@
         <v>148</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P59" s="2"/>
       <c r="Q59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE59" t="s" s="2">
         <v>316</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>129</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60">
@@ -8543,7 +8542,7 @@
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8553,13 +8552,13 @@
         <v>86</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J60" t="s" s="2">
         <v>410</v>
@@ -8573,50 +8572,50 @@
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P60" s="2"/>
       <c r="Q60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE60" t="s" s="2">
         <v>409</v>
@@ -8628,25 +8627,25 @@
         <v>86</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>413</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61">
@@ -8655,23 +8654,23 @@
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F61" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J61" t="s" s="2">
         <v>186</v>
@@ -8687,26 +8686,26 @@
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P61" s="2"/>
       <c r="Q61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W61" t="s" s="2">
         <v>259</v>
@@ -8718,43 +8717,43 @@
         <v>419</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE61" t="s" s="2">
         <v>414</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>350</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>420</v>
@@ -8769,23 +8768,23 @@
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J62" t="s" s="2">
         <v>186</v>
@@ -8801,26 +8800,26 @@
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P62" s="2"/>
       <c r="Q62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W62" t="s" s="2">
         <v>259</v>
@@ -8832,49 +8831,49 @@
         <v>426</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE62" t="s" s="2">
         <v>422</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>427</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>428</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63">
@@ -8883,23 +8882,23 @@
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J63" t="s" s="2">
         <v>430</v>
@@ -8915,80 +8914,80 @@
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P63" s="2"/>
       <c r="Q63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE63" t="s" s="2">
         <v>429</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>433</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>434</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64">
@@ -9001,19 +9000,19 @@
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J64" t="s" s="2">
         <v>437</v>
@@ -9029,80 +9028,80 @@
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE64" t="s" s="2">
         <v>435</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>441</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65">
@@ -9111,23 +9110,23 @@
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J65" t="s" s="2">
         <v>443</v>
@@ -9143,80 +9142,80 @@
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P65" s="2"/>
       <c r="Q65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE65" t="s" s="2">
         <v>442</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>447</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdispensebase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdispensebase.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0a</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26</t>
+    <t>2022-10-24</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdispensebase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdispensebase.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-24</t>
+    <t>2022-10-31</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1077,7 +1077,7 @@
     <t>MedicationDispense.authorizingPrescription</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRequestBase)
+    <t xml:space="preserve">Reference(MedicationRequest)
 </t>
   </si>
   <si>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdispensebase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdispensebase.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2439" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2439" uniqueCount="469">
   <si>
     <t>Property</t>
   </si>
@@ -259,6 +259,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>指定された患者への薬剤の払い出し</t>
@@ -2029,13 +2033,13 @@
         <v>79</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -2101,10 +2105,10 @@
         <v>79</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>79</v>
@@ -2118,10 +2122,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2132,7 +2136,7 @@
         <v>80</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>79</v>
@@ -2141,19 +2145,19 @@
         <v>79</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2203,13 +2207,13 @@
         <v>79</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>79</v>
@@ -2235,10 +2239,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2249,7 +2253,7 @@
         <v>80</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>79</v>
@@ -2258,16 +2262,16 @@
         <v>79</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2318,19 +2322,19 @@
         <v>79</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>79</v>
@@ -2350,10 +2354,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2364,28 +2368,28 @@
         <v>80</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2435,19 +2439,19 @@
         <v>79</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>79</v>
@@ -2467,10 +2471,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2481,7 +2485,7 @@
         <v>80</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>79</v>
@@ -2493,16 +2497,16 @@
         <v>79</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2528,13 +2532,13 @@
         <v>79</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>79</v>
@@ -2552,19 +2556,19 @@
         <v>79</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>79</v>
@@ -2584,21 +2588,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>79</v>
@@ -2610,16 +2614,16 @@
         <v>79</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2669,25 +2673,25 @@
         <v>79</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>79</v>
@@ -2701,14 +2705,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2727,16 +2731,16 @@
         <v>79</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2786,7 +2790,7 @@
         <v>79</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>80</v>
@@ -2804,7 +2808,7 @@
         <v>79</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>79</v>
@@ -2818,10 +2822,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2844,13 +2848,13 @@
         <v>79</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -2889,17 +2893,17 @@
         <v>79</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>80</v>
@@ -2911,7 +2915,7 @@
         <v>79</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>79</v>
@@ -2931,13 +2935,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>79</v>
@@ -2959,13 +2963,13 @@
         <v>79</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -3016,7 +3020,7 @@
         <v>79</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>80</v>
@@ -3025,10 +3029,10 @@
         <v>81</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>79</v>
@@ -3048,14 +3052,14 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -3068,25 +3072,25 @@
         <v>79</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>79</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>79</v>
@@ -3135,7 +3139,7 @@
         <v>79</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>80</v>
@@ -3147,13 +3151,13 @@
         <v>79</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>79</v>
@@ -3167,10 +3171,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3178,7 +3182,7 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>81</v>
@@ -3193,16 +3197,16 @@
         <v>79</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3240,17 +3244,17 @@
         <v>79</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AC12" s="2"/>
       <c r="AD12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>80</v>
@@ -3262,19 +3266,19 @@
         <v>79</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>79</v>
@@ -3282,23 +3286,23 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>79</v>
@@ -3310,16 +3314,16 @@
         <v>79</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3369,7 +3373,7 @@
         <v>79</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>80</v>
@@ -3381,19 +3385,19 @@
         <v>79</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>79</v>
@@ -3401,10 +3405,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3415,7 +3419,7 @@
         <v>80</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>79</v>
@@ -3427,13 +3431,13 @@
         <v>79</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3484,13 +3488,13 @@
         <v>79</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>79</v>
@@ -3502,7 +3506,7 @@
         <v>79</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>79</v>
@@ -3516,14 +3520,14 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3542,16 +3546,16 @@
         <v>79</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3589,19 +3593,19 @@
         <v>79</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
@@ -3613,13 +3617,13 @@
         <v>79</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>79</v>
@@ -3633,10 +3637,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3647,31 +3651,31 @@
         <v>80</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>79</v>
@@ -3696,13 +3700,13 @@
         <v>79</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>79</v>
@@ -3720,25 +3724,25 @@
         <v>79</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>79</v>
@@ -3747,15 +3751,15 @@
         <v>79</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3766,7 +3770,7 @@
         <v>80</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>79</v>
@@ -3775,22 +3779,22 @@
         <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>79</v>
@@ -3815,13 +3819,13 @@
         <v>79</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>79</v>
@@ -3839,25 +3843,25 @@
         <v>79</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>79</v>
@@ -3866,15 +3870,15 @@
         <v>79</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3882,10 +3886,10 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>79</v>
@@ -3894,35 +3898,35 @@
         <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>79</v>
@@ -3958,25 +3962,25 @@
         <v>79</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>79</v>
@@ -3985,15 +3989,15 @@
         <v>79</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4001,10 +4005,10 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>79</v>
@@ -4013,19 +4017,19 @@
         <v>79</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4039,7 +4043,7 @@
         <v>79</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="U19" t="s" s="2">
         <v>79</v>
@@ -4075,25 +4079,25 @@
         <v>79</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>79</v>
@@ -4102,15 +4106,15 @@
         <v>79</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4121,7 +4125,7 @@
         <v>80</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>79</v>
@@ -4130,16 +4134,16 @@
         <v>79</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4190,25 +4194,25 @@
         <v>79</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>79</v>
@@ -4217,15 +4221,15 @@
         <v>79</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4236,7 +4240,7 @@
         <v>80</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>79</v>
@@ -4245,19 +4249,19 @@
         <v>79</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4307,25 +4311,25 @@
         <v>79</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>79</v>
@@ -4334,18 +4338,18 @@
         <v>79</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D22" t="s" s="2">
         <v>79</v>
@@ -4367,16 +4371,16 @@
         <v>79</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4426,7 +4430,7 @@
         <v>79</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4438,19 +4442,19 @@
         <v>79</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>79</v>
@@ -4458,10 +4462,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4472,7 +4476,7 @@
         <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>79</v>
@@ -4484,13 +4488,13 @@
         <v>79</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4541,13 +4545,13 @@
         <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>79</v>
@@ -4559,7 +4563,7 @@
         <v>79</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>79</v>
@@ -4573,14 +4577,14 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4599,16 +4603,16 @@
         <v>79</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4646,19 +4650,19 @@
         <v>79</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -4670,13 +4674,13 @@
         <v>79</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>79</v>
@@ -4690,10 +4694,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4704,31 +4708,31 @@
         <v>80</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>79</v>
@@ -4753,13 +4757,13 @@
         <v>79</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>79</v>
@@ -4777,25 +4781,25 @@
         <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>79</v>
@@ -4804,15 +4808,15 @@
         <v>79</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4823,7 +4827,7 @@
         <v>80</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>79</v>
@@ -4832,22 +4836,22 @@
         <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>79</v>
@@ -4872,13 +4876,13 @@
         <v>79</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>79</v>
@@ -4896,25 +4900,25 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>79</v>
@@ -4923,15 +4927,15 @@
         <v>79</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4939,10 +4943,10 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>79</v>
@@ -4951,35 +4955,35 @@
         <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="S27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="U27" t="s" s="2">
         <v>79</v>
@@ -5015,25 +5019,25 @@
         <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>79</v>
@@ -5042,15 +5046,15 @@
         <v>79</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5058,10 +5062,10 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>79</v>
@@ -5070,19 +5074,19 @@
         <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5096,7 +5100,7 @@
         <v>79</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="U28" t="s" s="2">
         <v>79</v>
@@ -5132,25 +5136,25 @@
         <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>79</v>
@@ -5159,15 +5163,15 @@
         <v>79</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5178,7 +5182,7 @@
         <v>80</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>79</v>
@@ -5187,16 +5191,16 @@
         <v>79</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5247,25 +5251,25 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
@@ -5274,15 +5278,15 @@
         <v>79</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5293,7 +5297,7 @@
         <v>80</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>79</v>
@@ -5302,19 +5306,19 @@
         <v>79</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5364,25 +5368,25 @@
         <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -5391,15 +5395,15 @@
         <v>79</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5422,13 +5426,13 @@
         <v>79</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5479,7 +5483,7 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5491,13 +5495,13 @@
         <v>79</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -5511,10 +5515,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5522,31 +5526,31 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5572,13 +5576,13 @@
         <v>79</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>79</v>
@@ -5596,31 +5600,31 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>79</v>
@@ -5628,10 +5632,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5642,7 +5646,7 @@
         <v>80</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>79</v>
@@ -5654,13 +5658,13 @@
         <v>79</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5687,13 +5691,13 @@
         <v>79</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>79</v>
@@ -5711,25 +5715,25 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -5743,10 +5747,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5757,7 +5761,7 @@
         <v>80</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>79</v>
@@ -5769,16 +5773,16 @@
         <v>79</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5804,13 +5808,13 @@
         <v>79</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>79</v>
@@ -5828,25 +5832,25 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -5860,10 +5864,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5871,10 +5875,10 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>79</v>
@@ -5883,19 +5887,19 @@
         <v>79</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5921,13 +5925,13 @@
         <v>79</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>79</v>
@@ -5945,42 +5949,42 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5988,10 +5992,10 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>79</v>
@@ -6000,19 +6004,19 @@
         <v>79</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6062,42 +6066,42 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6108,7 +6112,7 @@
         <v>80</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>79</v>
@@ -6120,16 +6124,16 @@
         <v>79</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6179,25 +6183,25 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
@@ -6211,10 +6215,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6237,16 +6241,16 @@
         <v>79</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6296,7 +6300,7 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6308,16 +6312,16 @@
         <v>79</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>79</v>
@@ -6328,10 +6332,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6354,13 +6358,13 @@
         <v>79</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6411,7 +6415,7 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6423,13 +6427,13 @@
         <v>79</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
@@ -6443,10 +6447,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6457,7 +6461,7 @@
         <v>80</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>79</v>
@@ -6469,13 +6473,13 @@
         <v>79</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6526,13 +6530,13 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>79</v>
@@ -6544,7 +6548,7 @@
         <v>79</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>79</v>
@@ -6558,14 +6562,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6584,16 +6588,16 @@
         <v>79</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6643,7 +6647,7 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6655,13 +6659,13 @@
         <v>79</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>79</v>
@@ -6675,14 +6679,14 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6695,25 +6699,25 @@
         <v>79</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>79</v>
@@ -6762,7 +6766,7 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -6774,13 +6778,13 @@
         <v>79</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>79</v>
@@ -6794,10 +6798,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6808,7 +6812,7 @@
         <v>80</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>79</v>
@@ -6820,17 +6824,17 @@
         <v>79</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>79</v>
@@ -6855,13 +6859,13 @@
         <v>79</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>79</v>
@@ -6879,25 +6883,25 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>79</v>
@@ -6911,10 +6915,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6922,10 +6926,10 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>79</v>
@@ -6937,13 +6941,13 @@
         <v>79</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6994,25 +6998,25 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>79</v>
@@ -7026,10 +7030,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7040,7 +7044,7 @@
         <v>80</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>79</v>
@@ -7052,16 +7056,16 @@
         <v>79</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7111,25 +7115,25 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>79</v>
@@ -7143,10 +7147,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7169,16 +7173,16 @@
         <v>79</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7228,7 +7232,7 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7240,30 +7244,30 @@
         <v>79</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7274,7 +7278,7 @@
         <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>79</v>
@@ -7286,16 +7290,16 @@
         <v>79</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7321,13 +7325,13 @@
         <v>79</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>79</v>
@@ -7345,42 +7349,42 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7388,10 +7392,10 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>79</v>
@@ -7403,16 +7407,16 @@
         <v>79</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7462,25 +7466,25 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7489,15 +7493,15 @@
         <v>79</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7508,7 +7512,7 @@
         <v>80</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>79</v>
@@ -7520,16 +7524,16 @@
         <v>79</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7579,42 +7583,42 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO49" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>380</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7625,7 +7629,7 @@
         <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>79</v>
@@ -7634,16 +7638,16 @@
         <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7694,42 +7698,42 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7737,10 +7741,10 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>79</v>
@@ -7752,13 +7756,13 @@
         <v>79</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7809,42 +7813,42 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AO51" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="AO51" t="s" s="2">
-        <v>390</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7855,7 +7859,7 @@
         <v>80</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>79</v>
@@ -7867,16 +7871,16 @@
         <v>79</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7926,42 +7930,42 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7984,16 +7988,16 @@
         <v>79</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8043,7 +8047,7 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8055,19 +8059,19 @@
         <v>79</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>79</v>
@@ -8075,10 +8079,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8101,16 +8105,16 @@
         <v>79</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8160,7 +8164,7 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8172,13 +8176,13 @@
         <v>79</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>79</v>
@@ -8187,15 +8191,15 @@
         <v>79</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8218,16 +8222,16 @@
         <v>79</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8277,7 +8281,7 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8289,13 +8293,13 @@
         <v>79</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>79</v>
@@ -8309,10 +8313,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8323,7 +8327,7 @@
         <v>80</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>79</v>
@@ -8335,13 +8339,13 @@
         <v>79</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8392,31 +8396,31 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>79</v>
@@ -8424,10 +8428,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8438,7 +8442,7 @@
         <v>80</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>79</v>
@@ -8450,13 +8454,13 @@
         <v>79</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8507,13 +8511,13 @@
         <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>79</v>
@@ -8525,7 +8529,7 @@
         <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>79</v>
@@ -8539,14 +8543,14 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -8565,16 +8569,16 @@
         <v>79</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8624,7 +8628,7 @@
         <v>79</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -8636,13 +8640,13 @@
         <v>79</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>79</v>
@@ -8656,14 +8660,14 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8676,25 +8680,25 @@
         <v>79</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>79</v>
@@ -8743,7 +8747,7 @@
         <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -8755,13 +8759,13 @@
         <v>79</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>79</v>
@@ -8775,10 +8779,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8786,10 +8790,10 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>79</v>
@@ -8801,13 +8805,13 @@
         <v>79</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8858,25 +8862,25 @@
         <v>79</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>79</v>
@@ -8890,10 +8894,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8904,7 +8908,7 @@
         <v>80</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>79</v>
@@ -8916,16 +8920,16 @@
         <v>79</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8951,13 +8955,13 @@
         <v>79</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>79</v>
@@ -8975,42 +8979,42 @@
         <v>79</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9033,16 +9037,16 @@
         <v>79</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9068,13 +9072,13 @@
         <v>79</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>79</v>
@@ -9092,7 +9096,7 @@
         <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9104,19 +9108,19 @@
         <v>79</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>79</v>
@@ -9124,10 +9128,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9150,16 +9154,16 @@
         <v>79</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9209,7 +9213,7 @@
         <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9221,19 +9225,19 @@
         <v>79</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>79</v>
@@ -9241,14 +9245,14 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9267,16 +9271,16 @@
         <v>79</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9326,7 +9330,7 @@
         <v>79</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9338,13 +9342,13 @@
         <v>79</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
@@ -9358,10 +9362,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9384,16 +9388,16 @@
         <v>79</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9443,7 +9447,7 @@
         <v>79</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -9455,13 +9459,13 @@
         <v>79</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdispensebase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdispensebase.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2439" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2439" uniqueCount="468">
   <si>
     <t>Property</t>
   </si>
@@ -259,10 +259,6 @@
   </si>
   <si>
     <t>*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
   </si>
   <si>
     <t>指定された患者への薬剤の払い出し</t>
@@ -2033,13 +2029,13 @@
         <v>79</v>
       </c>
       <c r="K2" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L2" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="M2" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -2105,10 +2101,10 @@
         <v>79</v>
       </c>
       <c r="AK2" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AL2" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="AL2" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>79</v>
@@ -2122,10 +2118,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2136,28 +2132,28 @@
         <v>80</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="M3" t="s" s="2">
+      <c r="N3" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2207,13 +2203,13 @@
         <v>79</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>79</v>
@@ -2239,10 +2235,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2253,25 +2249,25 @@
         <v>80</v>
       </c>
       <c r="G4" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J4" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J4" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K4" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2322,19 +2318,19 @@
         <v>79</v>
       </c>
       <c r="AF4" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>99</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ4" t="s" s="2">
-        <v>100</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>79</v>
@@ -2354,10 +2350,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2368,28 +2364,28 @@
         <v>80</v>
       </c>
       <c r="G5" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I5" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H5" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I5" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J5" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2439,19 +2435,19 @@
         <v>79</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>79</v>
@@ -2471,10 +2467,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2485,7 +2481,7 @@
         <v>80</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>79</v>
@@ -2497,16 +2493,16 @@
         <v>79</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2532,43 +2528,43 @@
         <v>79</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="Y6" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="Z6" t="s" s="2">
+      <c r="AA6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="AA6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>115</v>
-      </c>
       <c r="AG6" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>79</v>
@@ -2588,21 +2584,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>79</v>
@@ -2614,16 +2610,16 @@
         <v>79</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2673,25 +2669,25 @@
         <v>79</v>
       </c>
       <c r="AF7" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL7" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>79</v>
@@ -2705,14 +2701,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2731,16 +2727,16 @@
         <v>79</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2790,7 +2786,7 @@
         <v>79</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>80</v>
@@ -2808,7 +2804,7 @@
         <v>79</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>79</v>
@@ -2822,10 +2818,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2848,13 +2844,13 @@
         <v>79</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -2893,17 +2889,17 @@
         <v>79</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE9" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AF9" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>80</v>
@@ -2915,7 +2911,7 @@
         <v>79</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>79</v>
@@ -2935,13 +2931,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="C10" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>79</v>
@@ -2963,13 +2959,13 @@
         <v>79</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -3020,7 +3016,7 @@
         <v>79</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>80</v>
@@ -3029,10 +3025,10 @@
         <v>81</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>79</v>
@@ -3052,14 +3048,14 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -3072,25 +3068,25 @@
         <v>79</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>79</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L11" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="N11" t="s" s="2">
+      <c r="O11" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>79</v>
@@ -3139,7 +3135,7 @@
         <v>79</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>80</v>
@@ -3151,13 +3147,13 @@
         <v>79</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>79</v>
@@ -3171,10 +3167,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3182,7 +3178,7 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>81</v>
@@ -3197,16 +3193,16 @@
         <v>79</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3244,17 +3240,17 @@
         <v>79</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AC12" s="2"/>
       <c r="AD12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>80</v>
@@ -3266,19 +3262,19 @@
         <v>79</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AL12" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="AL12" t="s" s="2">
+      <c r="AM12" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="AM12" t="s" s="2">
+      <c r="AN12" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>79</v>
@@ -3286,23 +3282,23 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="C13" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="C13" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>79</v>
@@ -3314,16 +3310,16 @@
         <v>79</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L13" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3373,7 +3369,7 @@
         <v>79</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>80</v>
@@ -3385,19 +3381,19 @@
         <v>79</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="AM13" t="s" s="2">
+      <c r="AN13" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>79</v>
@@ -3405,10 +3401,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="B14" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3419,7 +3415,7 @@
         <v>80</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>79</v>
@@ -3431,13 +3427,13 @@
         <v>79</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3488,25 +3484,25 @@
         <v>79</v>
       </c>
       <c r="AF14" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>79</v>
@@ -3520,14 +3516,14 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3546,16 +3542,16 @@
         <v>79</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="M15" t="s" s="2">
-        <v>178</v>
-      </c>
       <c r="N15" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3593,19 +3589,19 @@
         <v>79</v>
       </c>
       <c r="AB15" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE15" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="AC15" t="s" s="2">
+      <c r="AF15" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
@@ -3617,13 +3613,13 @@
         <v>79</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>79</v>
@@ -3637,10 +3633,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3651,31 +3647,31 @@
         <v>80</v>
       </c>
       <c r="G16" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I16" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J16" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="N16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>79</v>
@@ -3700,50 +3696,50 @@
         <v>79</v>
       </c>
       <c r="X16" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="Y16" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="Y16" t="s" s="2">
+      <c r="Z16" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="Z16" t="s" s="2">
+      <c r="AA16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF16" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="AA16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF16" t="s" s="2">
+      <c r="AG16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="AG16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>191</v>
-      </c>
       <c r="AM16" t="s" s="2">
         <v>79</v>
       </c>
@@ -3751,15 +3747,15 @@
         <v>79</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3770,31 +3766,31 @@
         <v>80</v>
       </c>
       <c r="G17" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J17" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J17" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K17" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="N17" t="s" s="2">
+      <c r="O17" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>79</v>
@@ -3819,66 +3815,66 @@
         <v>79</v>
       </c>
       <c r="X17" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="Y17" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="Y17" t="s" s="2">
+      <c r="Z17" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="Z17" t="s" s="2">
+      <c r="AA17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF17" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="AA17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF17" t="s" s="2">
+      <c r="AG17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AM17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO17" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO17" t="s" s="2">
-        <v>203</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3886,118 +3882,118 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J18" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G18" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J18" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K18" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="N18" t="s" s="2">
+      <c r="O18" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="S18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T18" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="S18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T18" t="s" s="2">
+      <c r="U18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF18" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="U18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF18" t="s" s="2">
+      <c r="AG18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AG18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO18" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO18" t="s" s="2">
-        <v>214</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4005,31 +4001,31 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J19" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G19" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J19" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K19" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4043,78 +4039,78 @@
         <v>79</v>
       </c>
       <c r="T19" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF19" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="U19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF19" t="s" s="2">
+      <c r="AG19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="AG19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO19" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO19" t="s" s="2">
-        <v>223</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4125,25 +4121,25 @@
         <v>80</v>
       </c>
       <c r="G20" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J20" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J20" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K20" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4194,42 +4190,42 @@
         <v>79</v>
       </c>
       <c r="AF20" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="AG20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO20" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO20" t="s" s="2">
-        <v>231</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4240,28 +4236,28 @@
         <v>80</v>
       </c>
       <c r="G21" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J21" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J21" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K21" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4311,45 +4307,45 @@
         <v>79</v>
       </c>
       <c r="AF21" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="AG21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO21" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO21" t="s" s="2">
-        <v>240</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="C22" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="C22" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="D22" t="s" s="2">
         <v>79</v>
@@ -4371,16 +4367,16 @@
         <v>79</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4430,7 +4426,7 @@
         <v>79</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4442,19 +4438,19 @@
         <v>79</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>79</v>
@@ -4462,10 +4458,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4476,7 +4472,7 @@
         <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>79</v>
@@ -4488,13 +4484,13 @@
         <v>79</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4545,25 +4541,25 @@
         <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>79</v>
@@ -4577,14 +4573,14 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4603,16 +4599,16 @@
         <v>79</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="M24" t="s" s="2">
-        <v>178</v>
-      </c>
       <c r="N24" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4650,19 +4646,19 @@
         <v>79</v>
       </c>
       <c r="AB24" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE24" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="AC24" t="s" s="2">
+      <c r="AF24" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -4674,13 +4670,13 @@
         <v>79</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>79</v>
@@ -4694,10 +4690,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4708,31 +4704,31 @@
         <v>80</v>
       </c>
       <c r="G25" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I25" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J25" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="N25" t="s" s="2">
+      <c r="O25" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>79</v>
@@ -4757,50 +4753,50 @@
         <v>79</v>
       </c>
       <c r="X25" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="Y25" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="Y25" t="s" s="2">
+      <c r="Z25" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="Z25" t="s" s="2">
+      <c r="AA25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF25" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="AA25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF25" t="s" s="2">
+      <c r="AG25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="AG25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>191</v>
-      </c>
       <c r="AM25" t="s" s="2">
         <v>79</v>
       </c>
@@ -4808,15 +4804,15 @@
         <v>79</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4827,31 +4823,31 @@
         <v>80</v>
       </c>
       <c r="G26" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J26" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J26" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K26" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="N26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>79</v>
@@ -4876,66 +4872,66 @@
         <v>79</v>
       </c>
       <c r="X26" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="Y26" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="Y26" t="s" s="2">
+      <c r="Z26" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="Z26" t="s" s="2">
+      <c r="AA26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF26" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="AA26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF26" t="s" s="2">
+      <c r="AG26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AM26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO26" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO26" t="s" s="2">
-        <v>203</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4943,118 +4939,118 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J27" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G27" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J27" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K27" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="M27" t="s" s="2">
-        <v>252</v>
-      </c>
       <c r="N27" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="O27" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="S27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="T27" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF27" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="U27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF27" t="s" s="2">
+      <c r="AG27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AG27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO27" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>214</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5062,31 +5058,31 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J28" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G28" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J28" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K28" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5100,78 +5096,78 @@
         <v>79</v>
       </c>
       <c r="T28" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF28" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="U28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF28" t="s" s="2">
+      <c r="AG28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="AG28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AM28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO28" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>223</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5182,25 +5178,25 @@
         <v>80</v>
       </c>
       <c r="G29" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J29" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J29" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K29" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5251,42 +5247,42 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="AG29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO29" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>231</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5297,28 +5293,28 @@
         <v>80</v>
       </c>
       <c r="G30" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J30" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J30" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K30" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5368,42 +5364,42 @@
         <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="AG30" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO30" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO30" t="s" s="2">
-        <v>240</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5426,13 +5422,13 @@
         <v>79</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5483,7 +5479,7 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5495,13 +5491,13 @@
         <v>79</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -5515,10 +5511,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5526,31 +5522,31 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I32" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G32" t="s" s="2">
+      <c r="J32" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="J32" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K32" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5576,55 +5572,55 @@
         <v>79</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Y32" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="Z32" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="Z32" t="s" s="2">
+      <c r="AA32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK32" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="AA32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK32" t="s" s="2">
+      <c r="AL32" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="AL32" t="s" s="2">
+      <c r="AM32" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="AM32" t="s" s="2">
+      <c r="AN32" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>79</v>
@@ -5632,10 +5628,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5646,7 +5642,7 @@
         <v>80</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>79</v>
@@ -5658,13 +5654,13 @@
         <v>79</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5691,49 +5687,49 @@
         <v>79</v>
       </c>
       <c r="X33" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="Y33" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="Y33" t="s" s="2">
+      <c r="Z33" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="Z33" t="s" s="2">
+      <c r="AA33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="AA33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK33" t="s" s="2">
+      <c r="AL33" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -5747,10 +5743,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5761,7 +5757,7 @@
         <v>80</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>79</v>
@@ -5773,16 +5769,16 @@
         <v>79</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5808,49 +5804,49 @@
         <v>79</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Y34" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="Z34" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="Z34" t="s" s="2">
+      <c r="AA34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -5864,10 +5860,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5875,31 +5871,31 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J35" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G35" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J35" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K35" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5925,66 +5921,66 @@
         <v>79</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Y35" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="Z35" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="Z35" t="s" s="2">
+      <c r="AA35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK35" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="AA35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK35" t="s" s="2">
+      <c r="AL35" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="AL35" t="s" s="2">
+      <c r="AM35" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="AM35" t="s" s="2">
+      <c r="AN35" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="AN35" t="s" s="2">
+      <c r="AO35" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="AO35" t="s" s="2">
-        <v>303</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5992,31 +5988,31 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J36" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G36" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J36" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K36" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6066,42 +6062,42 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="AM36" t="s" s="2">
+      <c r="AN36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO36" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO36" t="s" s="2">
-        <v>312</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6112,7 +6108,7 @@
         <v>80</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>79</v>
@@ -6124,16 +6120,16 @@
         <v>79</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="M37" t="s" s="2">
-        <v>316</v>
-      </c>
       <c r="N37" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6183,25 +6179,25 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
@@ -6215,10 +6211,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6241,16 +6237,16 @@
         <v>79</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="M38" t="s" s="2">
-        <v>322</v>
-      </c>
       <c r="N38" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6300,7 +6296,7 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6312,16 +6308,16 @@
         <v>79</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>79</v>
@@ -6332,10 +6328,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6358,13 +6354,13 @@
         <v>79</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6415,7 +6411,7 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6427,13 +6423,13 @@
         <v>79</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
@@ -6447,10 +6443,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6461,7 +6457,7 @@
         <v>80</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>79</v>
@@ -6473,13 +6469,13 @@
         <v>79</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6530,25 +6526,25 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL40" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>79</v>
@@ -6562,14 +6558,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6588,16 +6584,16 @@
         <v>79</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="M41" t="s" s="2">
-        <v>178</v>
-      </c>
       <c r="N41" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6647,7 +6643,7 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6659,13 +6655,13 @@
         <v>79</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>79</v>
@@ -6679,14 +6675,14 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6699,25 +6695,25 @@
         <v>79</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="M42" t="s" s="2">
-        <v>336</v>
-      </c>
       <c r="N42" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="O42" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>79</v>
@@ -6766,7 +6762,7 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -6778,13 +6774,13 @@
         <v>79</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>79</v>
@@ -6798,10 +6794,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6812,7 +6808,7 @@
         <v>80</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>79</v>
@@ -6824,17 +6820,17 @@
         <v>79</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>79</v>
@@ -6859,49 +6855,49 @@
         <v>79</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Y43" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="Z43" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="Z43" t="s" s="2">
+      <c r="AA43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>79</v>
@@ -6915,10 +6911,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6926,10 +6922,10 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>79</v>
@@ -6941,13 +6937,13 @@
         <v>79</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6998,25 +6994,25 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>79</v>
@@ -7030,10 +7026,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7044,7 +7040,7 @@
         <v>80</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>79</v>
@@ -7056,16 +7052,16 @@
         <v>79</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="M45" t="s" s="2">
-        <v>354</v>
-      </c>
       <c r="N45" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7115,25 +7111,25 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>79</v>
@@ -7147,10 +7143,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7173,16 +7169,16 @@
         <v>79</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7232,7 +7228,7 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7244,30 +7240,30 @@
         <v>79</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK46" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AL46" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="AL46" t="s" s="2">
+      <c r="AM46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN46" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="AM46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN46" t="s" s="2">
+      <c r="AO46" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="AO46" t="s" s="2">
-        <v>364</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7278,7 +7274,7 @@
         <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>79</v>
@@ -7290,16 +7286,16 @@
         <v>79</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7325,66 +7321,66 @@
         <v>79</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Y47" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="Z47" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="Z47" t="s" s="2">
+      <c r="AA47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL47" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="AA47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL47" t="s" s="2">
+      <c r="AM47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN47" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="AM47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN47" t="s" s="2">
+      <c r="AO47" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="AO47" t="s" s="2">
-        <v>373</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7392,10 +7388,10 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>79</v>
@@ -7407,16 +7403,16 @@
         <v>79</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7466,42 +7462,42 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AJ48" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL48" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="AK48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL48" t="s" s="2">
+      <c r="AM48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO48" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO48" t="s" s="2">
-        <v>381</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7512,7 +7508,7 @@
         <v>80</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>79</v>
@@ -7524,16 +7520,16 @@
         <v>79</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="M49" t="s" s="2">
-        <v>384</v>
-      </c>
       <c r="N49" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7583,42 +7579,42 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AJ49" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL49" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="AK49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL49" t="s" s="2">
+      <c r="AM49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO49" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>381</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7629,25 +7625,25 @@
         <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J50" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J50" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K50" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7698,42 +7694,42 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL50" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN50" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="AM50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN50" t="s" s="2">
+      <c r="AO50" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>391</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7741,10 +7737,10 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>79</v>
@@ -7756,13 +7752,13 @@
         <v>79</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7813,42 +7809,42 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="AL51" t="s" s="2">
-        <v>396</v>
-      </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN51" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AO51" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="AO51" t="s" s="2">
-        <v>391</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7859,7 +7855,7 @@
         <v>80</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>79</v>
@@ -7871,16 +7867,16 @@
         <v>79</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="M52" t="s" s="2">
-        <v>399</v>
-      </c>
       <c r="N52" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7930,42 +7926,42 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL52" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN52" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="AM52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN52" t="s" s="2">
+      <c r="AO52" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="AO52" t="s" s="2">
-        <v>402</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7988,16 +7984,16 @@
         <v>79</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="M53" t="s" s="2">
-        <v>406</v>
-      </c>
       <c r="N53" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8047,7 +8043,7 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8059,19 +8055,19 @@
         <v>79</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL53" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN53" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>79</v>
@@ -8079,10 +8075,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8105,16 +8101,16 @@
         <v>79</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8164,7 +8160,7 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8176,30 +8172,30 @@
         <v>79</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK54" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AL54" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="AL54" t="s" s="2">
+      <c r="AM54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO54" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>416</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8222,16 +8218,16 @@
         <v>79</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="N55" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8281,7 +8277,7 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8293,13 +8289,13 @@
         <v>79</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>79</v>
@@ -8313,10 +8309,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8327,7 +8323,7 @@
         <v>80</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>79</v>
@@ -8339,13 +8335,13 @@
         <v>79</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8396,31 +8392,31 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN56" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>426</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>79</v>
@@ -8428,10 +8424,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8442,7 +8438,7 @@
         <v>80</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>79</v>
@@ -8454,13 +8450,13 @@
         <v>79</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8511,25 +8507,25 @@
         <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL57" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>79</v>
@@ -8543,14 +8539,14 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -8569,16 +8565,16 @@
         <v>79</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="M58" t="s" s="2">
-        <v>178</v>
-      </c>
       <c r="N58" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8628,7 +8624,7 @@
         <v>79</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -8640,13 +8636,13 @@
         <v>79</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>79</v>
@@ -8660,14 +8656,14 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8680,25 +8676,25 @@
         <v>79</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="M59" t="s" s="2">
-        <v>336</v>
-      </c>
       <c r="N59" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="O59" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>79</v>
@@ -8747,7 +8743,7 @@
         <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -8759,13 +8755,13 @@
         <v>79</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>79</v>
@@ -8779,10 +8775,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8790,10 +8786,10 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>79</v>
@@ -8805,13 +8801,13 @@
         <v>79</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8862,25 +8858,25 @@
         <v>79</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>79</v>
@@ -8894,10 +8890,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8908,7 +8904,7 @@
         <v>80</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>79</v>
@@ -8920,16 +8916,16 @@
         <v>79</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8955,66 +8951,66 @@
         <v>79</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Y61" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="Z61" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="Z61" t="s" s="2">
+      <c r="AA61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN61" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="AA61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN61" t="s" s="2">
+      <c r="AO61" t="s" s="2">
         <v>441</v>
-      </c>
-      <c r="AO61" t="s" s="2">
-        <v>442</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9037,16 +9033,16 @@
         <v>79</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="M62" t="s" s="2">
-        <v>445</v>
-      </c>
       <c r="N62" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9072,14 +9068,14 @@
         <v>79</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Y62" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="Z62" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="Z62" t="s" s="2">
-        <v>447</v>
-      </c>
       <c r="AA62" t="s" s="2">
         <v>79</v>
       </c>
@@ -9096,7 +9092,7 @@
         <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9108,19 +9104,19 @@
         <v>79</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL62" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN62" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>79</v>
@@ -9128,10 +9124,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9154,16 +9150,16 @@
         <v>79</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="M63" t="s" s="2">
-        <v>453</v>
-      </c>
       <c r="N63" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9213,7 +9209,7 @@
         <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9225,19 +9221,19 @@
         <v>79</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL63" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN63" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>455</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>79</v>
@@ -9245,14 +9241,14 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9271,16 +9267,16 @@
         <v>79</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9330,7 +9326,7 @@
         <v>79</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9342,13 +9338,13 @@
         <v>79</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
@@ -9362,10 +9358,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9388,16 +9384,16 @@
         <v>79</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>467</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9447,7 +9443,7 @@
         <v>79</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -9459,13 +9455,13 @@
         <v>79</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdispensebase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdispensebase.xlsx
@@ -290,13 +290,13 @@
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+    <t>このアーティファクトの論理ID / Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>リソースのURLで使用されるリソースの論理ID。割り当てられたら、この値は変更されません。 / The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>リソースにIDがないのは、IDが作成操作を使用してサーバーに送信されている場合です。 / The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -309,16 +309,16 @@
 </t>
   </si>
   <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+    <t>リソースに関するメタデータ / Metadata about the resource</t>
+  </si>
+  <si>
+    <t>リソースに関するメタデータ。これは、インフラストラクチャによって維持されるコンテンツです。コンテンツの変更は、常にリソースのバージョンの変更に関連付けられているとは限りません。 / The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
   </si>
   <si>
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
@@ -329,13 +329,13 @@
 </t>
   </si>
   <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+    <t>このコンテンツが作成されたルールのセット / A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>リソースが構築されたときに従った一連のルールへの参照。コンテンツの処理時に理解する必要があります。多くの場合、これは他のプロファイルなどとともに特別なルールを定義する実装ガイドへの参照です。 / A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>このルールセットを主張することは、コンテンツが限られた取引パートナーのセットによってのみ理解されることを制限します。これにより、本質的に長期的にデータの有用性が制限されます。ただし、既存の健康エコシステムは非常に破壊されており、一般的に計算可能な意味でデータを定義、収集、交換する準備ができていません。可能な限り、実装者や仕様ライターはこの要素の使用を避ける必要があります。多くの場合、使用する場合、URLは、これらの特別なルールを他のプロファイル、バリューセットなどとともに叙述(Narative)の一部として定義する実装ガイドへの参照です。 / Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
   </si>
   <si>
     <t>Resource.implicitRules</t>
@@ -348,19 +348,19 @@
 </t>
   </si>
   <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+    <t>リソースコンテンツの言語 / Language of the resource content</t>
+  </si>
+  <si>
+    <t>リソースが書かれている基本言語。 / The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>言語は、インデックス作成とアクセシビリティをサポートするために提供されます（通常、テキストから音声までのサービスなどのサービスが言語タグを使用します）。叙述(Narative)のHTML言語タグは、叙述(Narative)に適用されます。リソース上の言語タグを使用して、リソース内のデータから生成された他のプレゼンテーションの言語を指定できます。すべてのコンテンツが基本言語である必要はありません。リソース。言語は、叙述(Narative)に自動的に適用されると想定されるべきではありません。言語が指定されている場合、HTMLのDIV要素にも指定されている場合（XML：LangとHTML Lang属性の関係については、HTML5のルールを参照してください）。 / Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
     <t>preferred</t>
   </si>
   <si>
-    <t>A human language.</t>
+    <t>人間の言語。 / A human language.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -380,13 +380,13 @@
 </t>
   </si>
   <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>人間の解釈のためのリソースのテキスト概要 / Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>リソースの概要を含み、人間へのリソースの内容を表すために使用できる人間の読み取り可能な叙述(Narative)。叙述(Narative)はすべての構造化されたデータをエンコードする必要はありませんが、人間が叙述(Narative)を読むだけで「臨床的に安全」にするために十分な詳細を含める必要があります。リソースの定義は、臨床的安全を確保するために、叙述(Narative)で表現するコンテンツを定義する場合があります。 / A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>含まれるリソースには叙述(Narative)がありません。含まれていないリソースには叙述(Narative)が必要です。場合によっては、リソースには、追加の個別のデータがほとんどまたはまったくないテキストのみがあります（すべてのMinoccur = 1要素が満たされている限り）。これは、情報がtext blob (バイナリー ラージ オブジェクト)としてキャプチャされるレガシーシステムからのデータ、またはテキストが生またはナレーションされ、エンコードされた情報が後で追加される場合に必要になる場合があります。 / Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -406,13 +406,13 @@
 </t>
   </si>
   <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+    <t>インラインリソースが含まれています / Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>これらのリソースには、それらを含むリソースを除いて独立した存在はありません - 独立して特定することはできず、独自の独立したトランザクションスコープを持つこともできません。 / These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>識別が失われると、コンテンツを適切に識別できる場合は、これを行うべきではありません。含まれるリソースには、メタ要素にプロファイルとタグがある場合がありますが、セキュリティラベルはありません。 / This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
@@ -444,8 +444,8 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>MedicationDispense.extension:preparation</t>
@@ -475,17 +475,18 @@
 user content</t>
   </si>
   <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>無視できない拡張機能 / Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>リソースの基本的な定義の一部ではなく、それを含む要素の理解および/または含有要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義することが許可されていますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
+モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+    <t>拡張機能を使用または定義する機関や管轄権に関係なく、アプリケーション、プロジェクト、または標準による拡張機能の使用に関連するスティグマはありません。拡張機能の使用は、FHIR仕様がすべての人にコアレベルのシンプルさを保持できるようにするものです。 / There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>修飾子拡張機能により、安全に無視できる大部分の拡張機能と明確に区別できるように、安全に無視できない拡張機能が可能になります。これにより、実装者が拡張の存在を禁止する必要性を排除することにより、相互運用性が促進されます。詳細については、[修飾子拡張の定義]（拡張性.html＃modifierextension）を参照してください。 / Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -550,10 +551,10 @@
 </t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>要素間参照のための一意のID / Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>リソース内の要素の一意のID（内部参照用）。これは、スペースを含まない文字列値である場合があります。 / Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -568,10 +569,10 @@
     <t>MedicationDispense.identifier.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>実装で定義された追加のコンテンツ / Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>要素の基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Extensions are always sliced by (at least) url</t>
@@ -586,22 +587,22 @@
     <t>MedicationDispense.identifier.use</t>
   </si>
   <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+    <t>通常|公式|温度|セカンダリ|古い（知られている場合） / usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>この識別子の目的。 / The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>アプリケーションは、識別子が一時的なものであると明示的に言っていない限り、永続的であると想定できます。 / Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>特定の使用のコンテキストが一連の識別子の中から選択される適切な識別子を許可します。 / Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
   </si>
   <si>
     <t>required</t>
   </si>
   <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
+    <t>既知の場合、この識別子の目的を識別します。 / Identifies the purpose for this identifier, if known .</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
@@ -623,22 +624,22 @@
 </t>
   </si>
   <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+    <t>識別子の説明 / Description of identifier</t>
+  </si>
+  <si>
+    <t>特定の目的に使用する識別子を決定するために使用できる識別子のコード化されたタイプ。 / A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>この要素は、識別子の一般的なカテゴリのみを扱います。識別子。システムに対応するコードに使用しないでください。一部の識別子は、一般的な使用法により複数のカテゴリに分類される場合があります。システムがわかっている場合、タイプは常にシステム定義の一部であるため、タイプは不要です。ただし、システムが不明な識別子を処理する必要があることがよくあります。多くの異なるシステムが同じタイプを持っているため、タイプとシステムの間に1：1の関係はありません。 / This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>識別子システムが不明な場合、ユーザーは識別子を使用できます。 / Allows users to make use of identifiers when the identifier system is not known.</t>
   </si>
   <si>
     <t>extensible</t>
   </si>
   <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+    <t>特定の目的に使用する識別子を決定するために使用できる識別子のコード化されたタイプ。 / A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
@@ -662,10 +663,10 @@
     <t>ここで付番されたIDがRp番号であることを明示するためにOIDとして定義された。urn:oid:1.2.392.100495.20.3.81で固定される。</t>
   </si>
   <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+    <t>識別子。システムは常にケースに敏感です。 / Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>識別子のセットがたくさんあります。2つの識別子を一致させるには、どのセットを扱っているかを知る必要があります。システムは、特定の一意の識別子セットを識別します。 / There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
     <t>urn:oid:1.2.392.100495.20.3.81</t>
@@ -720,10 +721,10 @@
 </t>
   </si>
   <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
+    <t>IDが使用に有効だった時間期間 / Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>識別子が使用される/有効な期間。 / Time period during which identifier is/was valid for use.</t>
   </si>
   <si>
     <t>Identifier.period</t>
@@ -745,13 +746,13 @@
 </t>
   </si>
   <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+    <t>IDを発行した組織（単なるテキストである可能性があります） / Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>識別子を発行/管理する組織。 / Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>識別子は、.reference要素を省略し、割り当て組織に関する名前またはその他のテキスト情報を反映した.display要素のみを含む場合があります。 / The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
   </si>
   <si>
     <t>Identifier.assigner</t>
@@ -775,7 +776,7 @@
     <t>薬剤をオーダする単位としての処方箋に対するID。原則として調剤の基となったMedicationRequestのIDを設定する。</t>
   </si>
   <si>
-    <t>This is a business identifier, not a resource identifier.</t>
+    <t>これはビジネス識別子であり、リソース識別子ではありません。 / This is a business identifier, not a resource identifier.</t>
   </si>
   <si>
     <t>MedicationDispense.identifier:requestIdentifier.id</t>
@@ -793,10 +794,10 @@
     <t>MedicationDispense.identifier:requestIdentifier.system</t>
   </si>
   <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+    <t>識別子値の名前空間 / The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>値の名前空間、つまり一意のセット値を記述するURLを確立します。 / Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/core/IdSystem/resourceInstance-identifier</t>
@@ -805,13 +806,13 @@
     <t>MedicationDispense.identifier:requestIdentifier.value</t>
   </si>
   <si>
-    <t>The value that is unique</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+    <t>一意の値 / The value that is unique</t>
+  </si>
+  <si>
+    <t>通常、識別子の部分はユーザーに関連し、システムのコンテキスト内で一意のユーザーに関連しています。 / The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>値が完全なURIの場合、システムはurn：ietf：rfc：3986でなければなりません。値の主な目的は、計算マッピングです。その結果、比較目的で正規化される可能性があります（例えば、有意でない白文字、ダッシュなどの削除）ヒューマンディスプレイ用の値は、[レンダリングされた値拡張]（拡張レンダリングValue.html）を使用して伝達できます。識別子。価値は、識別子の知識を使用しない限り、ケースに敏感なものとして扱われます。システムにより、プロセッサーは、非セイズに固有の処理が安全であると確信できます。 / If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
   </si>
   <si>
     <t>MedicationDispense.identifier:requestIdentifier.period</t>
@@ -850,10 +851,10 @@
 一連の調剤イベントの状態を指定するコード。</t>
   </si>
   <si>
-    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
-  </si>
-  <si>
-    <t>A coded concept specifying the state of the dispense event.</t>
+    <t>この要素は、リソースを現在有効ではないとマークするコードが含まれているため、修飾子としてラベル付けされています。 / This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
+  </si>
+  <si>
+    <t>ディスペンスイベントの状態を指定するコード化された概念。 / A coded concept specifying the state of the dispense event.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medicationdispense-status|4.0.1</t>
@@ -888,7 +889,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>A code describing why a dispense was not performed.</t>
+    <t>ディスペンスが実行されなかった理由を説明するコード。 / A code describing why a dispense was not performed.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medicationdispense-status-reason</t>
@@ -910,10 +911,10 @@
 投薬のタイプを示す（たとえば、薬剤が消費または投与されると予想される場所（つまり、入院患者または外来患者））。　入院、外来、退院、自宅など。</t>
   </si>
   <si>
-    <t>The category can be used to include where the medication is expected to be consumed or other types of dispenses.  Invariants can be used to bind to different value sets when profiling to bind.</t>
-  </si>
-  <si>
-    <t>A code describing where the dispensed medication is expected to be consumed or administered.</t>
+    <t>このカテゴリを使用して、薬が消費される場所または他の種類のディスペンスが予想される場所を含めることができます。不変剤を使用して、プロファイリングするときに異なる値セットにバインドできます。 / The category can be used to include where the medication is expected to be consumed or other types of dispenses.  Invariants can be used to bind to different value sets when profiling to bind.</t>
+  </si>
+  <si>
+    <t>分配された薬がどこで消費または投与されると予想されるコード。 / A code describing where the dispensed medication is expected to be consumed or administered.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medicationdispense-category</t>
@@ -947,7 +948,7 @@
 また、処方を発行した医療機関内でのデータ利用のために、医療機関固有コード体系によるコード（ハウスコード、ローカルコード）の記述を含めてもよいが、その場合でも上述したいずれかの標準コードを同時に記述することが必要である。</t>
   </si>
   <si>
-    <t>A coded concept identifying which substance or product can be dispensed.</t>
+    <t>どの物質または製品を分配できるかを特定するコード化された概念。 / A coded concept identifying which substance or product can be dispensed.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
@@ -1071,10 +1072,11 @@
 user contentmodifiers</t>
   </si>
   <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>認識されていなくても無視できない拡張機能 / Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>要素の基本的な定義の一部ではなく、それが含まれている要素の理解、および/または含まれる要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
+モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
@@ -1084,16 +1086,16 @@
     <t>MedicationDispense.performer.function</t>
   </si>
   <si>
-    <t>Who performed the dispense and what they did</t>
-  </si>
-  <si>
-    <t>Distinguishes the type of performer in the dispense.  For example, date enterer, packager, final checker.</t>
-  </si>
-  <si>
-    <t>Allows disambiguation of the types of involvement of different performers.</t>
-  </si>
-  <si>
-    <t>A code describing the role an individual played in dispensing a medication.</t>
+    <t>誰がディスペンスを実行し、彼らがしたことを実行しました / Who performed the dispense and what they did</t>
+  </si>
+  <si>
+    <t>ディスペンスのパフォーマーのタイプを区別します。たとえば、Date Enterer、Packager、Final Checker。 / Distinguishes the type of performer in the dispense.  For example, date enterer, packager, final checker.</t>
+  </si>
+  <si>
+    <t>さまざまなパフォーマーの関与の種類の曖昧性を乱すことができます。 / Allows disambiguation of the types of involvement of different performers.</t>
+  </si>
+  <si>
+    <t>個人が薬物療法を調剤する上で果たした役割を説明するコード。 / A code describing the role an individual played in dispensing a medication.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medicationdispense-performer-function</t>
@@ -1109,10 +1111,10 @@
 </t>
   </si>
   <si>
-    <t>Individual who was performing</t>
-  </si>
-  <si>
-    <t>The device, practitioner, etc. who performed the action.  It should be assumed that the actor is the dispenser of the medication.</t>
+    <t>演奏していた個人 / Individual who was performing</t>
+  </si>
+  <si>
+    <t>アクションを実行したデバイス、開業医など。俳優は薬のディスペンサーであると想定されるべきです。 / The device, practitioner, etc. who performed the action.  It should be assumed that the actor is the dispenser of the medication.</t>
   </si>
   <si>
     <t>Event.performer.actor</t>
@@ -1152,7 +1154,7 @@
 調剤の元になった処方オーダを表すMedicationRequestリソースへの参照。</t>
   </si>
   <si>
-    <t>Maps to basedOn in Event logical model.</t>
+    <t>イベント論理モデルのベースンへのマップ。 / Maps to basedOn in Event logical model.</t>
   </si>
   <si>
     <t>Event.basedOn</t>
@@ -1181,7 +1183,7 @@
 すべてのターミノロジの使用がこの一般的なパターンに適合するわけではない。場合によっては、モデルはCodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素間の関係とpre-coordinationとpost-coordinationの用語関係を管理するための独自の構造を提供する必要がある。</t>
   </si>
   <si>
-    <t>Indicates the type of dispensing event that is performed. For example, Trial Fill, Completion of Trial, Partial Fill, Emergency Fill, Samples, etc.</t>
+    <t>実行される分配イベントのタイプを示します。たとえば、試行充填、試行の完了、部分充填、緊急充填、サンプルなど。 / Indicates the type of dispensing event that is performed. For example, Trial Fill, Completion of Trial, Partial Fill, Emergency Fill, Samples, etc.</t>
   </si>
   <si>
     <t>http://terminology.hl7.org/ValueSet/v3-ActPharmacySupplyType</t>
@@ -1215,8 +1217,8 @@
 使用状況によって、これがどのような量であるか、したがってどのような単位を使用できるかが定義される場合がかなりある。使用状況によっては、比較演算子の値も制限される場合がある。</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+qty-3:ユニットのコードが存在する場合、システムも存在するものとします / If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:コンパレータは、単純なQuantityで使用されません / The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
   </si>
   <si>
     <t>PQ, IVL&lt;PQ&gt;, MO, CO, depending on the values</t>
@@ -1352,7 +1354,8 @@
     <t>薬の服用方法・服用した方法、または服用すべき方法</t>
   </si>
   <si>
-    <t>When the dose or rate is intended to change over the entire administration period (e.g. Tapering dose prescriptions), multiple instances of dosage instructions will need to be supplied to convey the different doses/rates.+    <t>投与または速度が行政期間全体で変化することを目的としている場合（例：用量処方の先細り）、さまざまな用量/レートを伝えるために投与量の指示の複数のインスタンスを提供する必要があります。+薬剤師は、分配されている実際の製品に基づいて、投与量を分配し、更新する前に投薬順序をレビューします。 / When the dose or rate is intended to change over the entire administration period (e.g. Tapering dose prescriptions), multiple instances of dosage instructions will need to be supplied to convey the different doses/rates. The pharmacist reviews the medication order prior to dispense and updates the dosageInstruction based on the actual product being dispensed.</t>
   </si>
   <si>
@@ -1424,7 +1427,7 @@
     <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
   </si>
   <si>
-    <t>A coded concept describing whether a different medicinal product may be dispensed other than the product as specified exactly in the prescription.</t>
+    <t>処方箋で正確に指定されているように、製品以外に異なる薬物が分配されるかどうかを説明するコード化された概念。 / A coded concept describing whether a different medicinal product may be dispensed other than the product as specified exactly in the prescription.</t>
   </si>
   <si>
     <t>http://terminology.hl7.org/ValueSet/v3-ActSubstanceAdminSubstitutionCode</t>
@@ -1448,7 +1451,7 @@
 CT:治療継続性確保のため、FP:処方方針、 OS: 在庫欠品、  RR:代替えを義務付けまたは禁止する規制要件に従った</t>
   </si>
   <si>
-    <t>A coded concept describing the reason that a different medication should (or should not) be substituted from what was prescribed.</t>
+    <t>別の薬物療法が処方されたものから置き換える（またはすべきではない）理由を説明するコード化された概念。 / A coded concept describing the reason that a different medication should (or should not) be substituted from what was prescribed.</t>
   </si>
   <si>
     <t>http://terminology.hl7.org/ValueSet/v3-SubstanceAdminSubstitutionReason</t>
@@ -1499,7 +1502,7 @@
 DetectedIssue リソースへの参照。</t>
   </si>
   <si>
-    <t>This element can include a detected issue that has been identified either by a decision support system or by a clinician and may include information on the steps that were taken to address the issue.</t>
+    <t>この要素には、意思決定支援システムまたは臨床医によって特定された検出された問題を含めることができ、問題に対処するために取られた手順に関する情報を含めることができます。 / This element can include a detected issue that has been identified either by a decision support system or by a clinician and may include information on the steps that were taken to address the issue.</t>
   </si>
   <si>
     <t>.inboundRelationship[typeCode=SUBJ]/source[classCode=ALRT,moodCode=EVN].value</t>
@@ -1519,7 +1522,7 @@
 調剤が確認されたときなど、発生した対象のイベントのサマリー。</t>
   </si>
   <si>
-    <t>This might not include provenances for all versions of the request – only those deemed “relevant” or important. This SHALL NOT include the Provenance associated with this current version of the resource. (If that provenance is deemed to be a “relevant” change, it will need to be added as part of a later update. Until then, it can be queried directly as the Provenance that points to this version using _revinclude All Provenances should have some historical version of this Request as their subject.).</t>
+    <t>これには、リクエストのすべてのバージョンの出所が含まれない場合があります。「関連性がある」または重要とみなされるもののみです。これには、この現在のバージョンのリソースに関連する出所を含めてはなりません。（その出所が「関連性のある」変更と見なされる場合、後の更新の一部として追加する必要があります。それまで、_revincludeを使用してこのバージョンを指す出所として直接照会することができます。この要求の歴史的バージョンは、彼らの主題として。）。 / This might not include provenances for all versions of the request – only those deemed “relevant” or important. This SHALL NOT include the Provenance associated with this current version of the resource. (If that provenance is deemed to be a “relevant” change, it will need to be added as part of a later update. Until then, it can be queried directly as the Provenance that points to this version using _revinclude All Provenances should have some historical version of this Request as their subject.).</t>
   </si>
   <si>
     <t>.inboundRelationship(typeCode=SUBJ].source[classCode=CACT, moodCode=EVN]</t>
@@ -1862,7 +1865,7 @@
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="137.390625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="197.484375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="71.296875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdispensebase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdispensebase.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.1</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-31</t>
+    <t>2023-06-26</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdispensebase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdispensebase.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2398" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2398" uniqueCount="426">
   <si>
     <t>Property</t>
   </si>
@@ -549,9 +549,6 @@
     <t>urn:oid:1.2.392.100495.20.3.81</t>
   </si>
   <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
     <t>Identifier.system</t>
   </si>
   <si>
@@ -574,9 +571,6 @@
   </si>
   <si>
     <t>value は string型であり、数値はゼロサプレス、つまり、'01'でなく'1'と指定すること。</t>
-  </si>
-  <si>
-    <t>123456</t>
   </si>
   <si>
     <t>Identifier.value</t>
@@ -1735,7 +1729,7 @@
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
@@ -3680,43 +3674,43 @@
         <v>38</v>
       </c>
       <c r="T17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF17" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="U17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>39</v>
@@ -3734,24 +3728,24 @@
         <v>38</v>
       </c>
       <c r="AL17" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AM17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AO17" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AO17" t="s" s="2">
-        <v>173</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3777,13 +3771,13 @@
         <v>129</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3797,7 +3791,7 @@
         <v>38</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>179</v>
+        <v>38</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>38</v>
@@ -3833,7 +3827,7 @@
         <v>38</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>39</v>
@@ -3851,7 +3845,7 @@
         <v>38</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>38</v>
@@ -3860,15 +3854,15 @@
         <v>38</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3891,13 +3885,13 @@
         <v>48</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3948,7 +3942,7 @@
         <v>38</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>39</v>
@@ -3966,7 +3960,7 @@
         <v>38</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>38</v>
@@ -3975,15 +3969,15 @@
         <v>38</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4006,16 +4000,16 @@
         <v>48</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4065,7 +4059,7 @@
         <v>38</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>39</v>
@@ -4083,7 +4077,7 @@
         <v>38</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>38</v>
@@ -4092,18 +4086,18 @@
         <v>38</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>112</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>38</v>
@@ -4128,13 +4122,13 @@
         <v>113</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="N21" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4216,7 +4210,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>128</v>
@@ -4331,7 +4325,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>135</v>
@@ -4448,7 +4442,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>141</v>
@@ -4567,7 +4561,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>152</v>
@@ -4686,7 +4680,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>164</v>
@@ -4715,10 +4709,10 @@
         <v>61</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N26" t="s" s="2">
         <v>167</v>
@@ -4731,49 +4725,49 @@
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="T26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF26" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="U26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>39</v>
@@ -4791,24 +4785,24 @@
         <v>38</v>
       </c>
       <c r="AL26" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AM26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AO26" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AO26" t="s" s="2">
-        <v>173</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4834,13 +4828,13 @@
         <v>129</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="N27" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4854,7 +4848,7 @@
         <v>38</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>179</v>
+        <v>38</v>
       </c>
       <c r="U27" t="s" s="2">
         <v>38</v>
@@ -4890,7 +4884,7 @@
         <v>38</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>39</v>
@@ -4908,7 +4902,7 @@
         <v>38</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>38</v>
@@ -4917,15 +4911,15 @@
         <v>38</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4948,13 +4942,13 @@
         <v>48</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5005,7 +4999,7 @@
         <v>38</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>39</v>
@@ -5023,7 +5017,7 @@
         <v>38</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>38</v>
@@ -5032,15 +5026,15 @@
         <v>38</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5063,16 +5057,16 @@
         <v>48</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5122,7 +5116,7 @@
         <v>38</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>39</v>
@@ -5140,7 +5134,7 @@
         <v>38</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>38</v>
@@ -5149,15 +5143,15 @@
         <v>38</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5180,13 +5174,13 @@
         <v>38</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5237,7 +5231,7 @@
         <v>38</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>39</v>
@@ -5252,10 +5246,10 @@
         <v>59</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>38</v>
@@ -5269,10 +5263,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5298,13 +5292,13 @@
         <v>67</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="N31" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5333,10 +5327,10 @@
         <v>146</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>38</v>
@@ -5354,7 +5348,7 @@
         <v>38</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>47</v>
@@ -5369,16 +5363,16 @@
         <v>59</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AM31" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AN31" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>38</v>
@@ -5386,10 +5380,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5412,13 +5406,13 @@
         <v>38</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5445,14 +5439,14 @@
         <v>38</v>
       </c>
       <c r="X32" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="Z32" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="Y32" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>241</v>
-      </c>
       <c r="AA32" t="s" s="2">
         <v>38</v>
       </c>
@@ -5469,7 +5463,7 @@
         <v>38</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>39</v>
@@ -5484,10 +5478,10 @@
         <v>59</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>38</v>
@@ -5501,10 +5495,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5530,13 +5524,13 @@
         <v>153</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="N33" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5565,10 +5559,10 @@
         <v>71</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>38</v>
@@ -5586,7 +5580,7 @@
         <v>38</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>39</v>
@@ -5604,7 +5598,7 @@
         <v>38</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>38</v>
@@ -5618,10 +5612,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5644,16 +5638,16 @@
         <v>48</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5679,13 +5673,13 @@
         <v>38</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>38</v>
@@ -5703,7 +5697,7 @@
         <v>38</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>47</v>
@@ -5718,27 +5712,27 @@
         <v>59</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="AL34" t="s" s="2">
+      <c r="AN34" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="AM34" t="s" s="2">
+      <c r="AO34" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="AO34" t="s" s="2">
-        <v>262</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5761,16 +5755,16 @@
         <v>48</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5820,7 +5814,7 @@
         <v>38</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>39</v>
@@ -5835,27 +5829,27 @@
         <v>59</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="AL35" t="s" s="2">
+      <c r="AN35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AO35" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AO35" t="s" s="2">
-        <v>271</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5878,16 +5872,16 @@
         <v>38</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="L36" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>275</v>
-      </c>
       <c r="N36" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5937,7 +5931,7 @@
         <v>38</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>39</v>
@@ -5952,10 +5946,10 @@
         <v>59</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>38</v>
@@ -5969,10 +5963,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5995,16 +5989,16 @@
         <v>38</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="L37" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>281</v>
-      </c>
       <c r="N37" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6054,7 +6048,7 @@
         <v>38</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>39</v>
@@ -6072,10 +6066,10 @@
         <v>38</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>38</v>
@@ -6086,10 +6080,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6112,13 +6106,13 @@
         <v>38</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6169,7 +6163,7 @@
         <v>38</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>39</v>
@@ -6184,10 +6178,10 @@
         <v>59</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>38</v>
@@ -6201,10 +6195,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6316,10 +6310,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6433,14 +6427,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6462,10 +6456,10 @@
         <v>92</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="N41" t="s" s="2">
         <v>109</v>
@@ -6520,7 +6514,7 @@
         <v>38</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>39</v>
@@ -6552,10 +6546,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6581,14 +6575,14 @@
         <v>153</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>38</v>
@@ -6613,13 +6607,13 @@
         <v>38</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>38</v>
@@ -6637,7 +6631,7 @@
         <v>38</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>39</v>
@@ -6655,7 +6649,7 @@
         <v>38</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>38</v>
@@ -6669,10 +6663,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6695,13 +6689,13 @@
         <v>38</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6752,7 +6746,7 @@
         <v>38</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>47</v>
@@ -6767,10 +6761,10 @@
         <v>59</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>38</v>
@@ -6784,10 +6778,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6810,16 +6804,16 @@
         <v>38</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="L44" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>313</v>
-      </c>
       <c r="N44" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6869,7 +6863,7 @@
         <v>38</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>39</v>
@@ -6887,7 +6881,7 @@
         <v>38</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>38</v>
@@ -6901,10 +6895,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6927,16 +6921,16 @@
         <v>38</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6986,7 +6980,7 @@
         <v>38</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>39</v>
@@ -7001,27 +6995,27 @@
         <v>59</v>
       </c>
       <c r="AK45" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN45" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="AL45" t="s" s="2">
+      <c r="AO45" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="AO45" t="s" s="2">
-        <v>323</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7047,13 +7041,13 @@
         <v>153</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="N46" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7079,13 +7073,13 @@
         <v>38</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>38</v>
@@ -7103,7 +7097,7 @@
         <v>38</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>39</v>
@@ -7121,24 +7115,24 @@
         <v>38</v>
       </c>
       <c r="AL46" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN46" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AO46" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="AO46" t="s" s="2">
-        <v>332</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7161,16 +7155,16 @@
         <v>38</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7220,7 +7214,7 @@
         <v>38</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>39</v>
@@ -7232,30 +7226,30 @@
         <v>104</v>
       </c>
       <c r="AJ47" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AO47" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AO47" t="s" s="2">
-        <v>340</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7278,16 +7272,16 @@
         <v>38</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7337,7 +7331,7 @@
         <v>38</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>39</v>
@@ -7349,30 +7343,30 @@
         <v>104</v>
       </c>
       <c r="AJ48" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AO48" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AO48" t="s" s="2">
-        <v>340</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7395,13 +7389,13 @@
         <v>48</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7452,7 +7446,7 @@
         <v>38</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>39</v>
@@ -7470,24 +7464,24 @@
         <v>38</v>
       </c>
       <c r="AL49" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AO49" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>350</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7510,13 +7504,13 @@
         <v>38</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7567,7 +7561,7 @@
         <v>38</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>39</v>
@@ -7582,27 +7576,27 @@
         <v>59</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7625,16 +7619,16 @@
         <v>38</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7684,7 +7678,7 @@
         <v>38</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>39</v>
@@ -7702,24 +7696,24 @@
         <v>38</v>
       </c>
       <c r="AL51" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AO51" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="AO51" t="s" s="2">
-        <v>361</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7742,16 +7736,16 @@
         <v>38</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="L52" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>365</v>
-      </c>
       <c r="N52" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7801,7 +7795,7 @@
         <v>38</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>39</v>
@@ -7819,13 +7813,13 @@
         <v>38</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>38</v>
@@ -7833,10 +7827,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7859,16 +7853,16 @@
         <v>38</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7918,7 +7912,7 @@
         <v>38</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>39</v>
@@ -7933,27 +7927,27 @@
         <v>59</v>
       </c>
       <c r="AK53" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AO53" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AO53" t="s" s="2">
-        <v>375</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7976,16 +7970,16 @@
         <v>38</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="N54" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8035,7 +8029,7 @@
         <v>38</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>39</v>
@@ -8053,7 +8047,7 @@
         <v>38</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>38</v>
@@ -8067,10 +8061,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8093,13 +8087,13 @@
         <v>38</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8150,7 +8144,7 @@
         <v>38</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>39</v>
@@ -8168,13 +8162,13 @@
         <v>38</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>38</v>
@@ -8182,10 +8176,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8297,10 +8291,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8414,14 +8408,14 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -8443,10 +8437,10 @@
         <v>92</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="N58" t="s" s="2">
         <v>109</v>
@@ -8501,7 +8495,7 @@
         <v>38</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>39</v>
@@ -8533,10 +8527,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8559,13 +8553,13 @@
         <v>38</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8616,7 +8610,7 @@
         <v>38</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>47</v>
@@ -8634,7 +8628,7 @@
         <v>38</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>38</v>
@@ -8648,10 +8642,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8677,13 +8671,13 @@
         <v>153</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="N60" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8709,13 +8703,13 @@
         <v>38</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>38</v>
@@ -8733,7 +8727,7 @@
         <v>38</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>39</v>
@@ -8751,24 +8745,24 @@
         <v>38</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8794,13 +8788,13 @@
         <v>153</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8826,13 +8820,13 @@
         <v>38</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>38</v>
@@ -8850,7 +8844,7 @@
         <v>38</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>39</v>
@@ -8868,13 +8862,13 @@
         <v>38</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>38</v>
@@ -8882,10 +8876,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8908,16 +8902,16 @@
         <v>38</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="L62" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>412</v>
-      </c>
       <c r="N62" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -8967,7 +8961,7 @@
         <v>38</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>39</v>
@@ -8985,13 +8979,13 @@
         <v>38</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>38</v>
@@ -8999,14 +8993,14 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9025,16 +9019,16 @@
         <v>38</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9084,7 +9078,7 @@
         <v>38</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>39</v>
@@ -9102,7 +9096,7 @@
         <v>38</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>38</v>
@@ -9116,10 +9110,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9142,16 +9136,16 @@
         <v>38</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>426</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9201,7 +9195,7 @@
         <v>38</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>39</v>
@@ -9219,7 +9213,7 @@
         <v>38</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>38</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdispensebase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdispensebase.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2398" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2398" uniqueCount="427">
   <si>
     <t>Property</t>
   </si>
@@ -146,6 +146,10 @@
   </si>
   <si>
     <t>指定された患者・個人へ薬剤が払い出されたか払い出される予定のものを示す。これには（供給される）提供される製品についての説明や薬剤の服用に関する指示も含まれる。薬剤払い出しは薬剤オーダに対して薬局システムが対応した結果となる。</t>
+  </si>
+  <si>
+    <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}mdd-1:いつ準備されたときにハンドドーバーができないとき / whenHandedOver cannot be before whenPrepared {whenHandedOver.empty() or whenPrepared.empty() or whenHandedOver &gt;= whenPrepared}</t>
   </si>
   <si>
     <t>Event</t>
@@ -1850,13 +1854,13 @@
         <v>38</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM1" t="s" s="2">
         <v>38</v>
@@ -1870,10 +1874,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1884,7 +1888,7 @@
         <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>38</v>
@@ -1893,19 +1897,19 @@
         <v>38</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1955,13 +1959,13 @@
         <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>38</v>
@@ -1987,10 +1991,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2001,7 +2005,7 @@
         <v>39</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>38</v>
@@ -2010,16 +2014,16 @@
         <v>38</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2070,19 +2074,19 @@
         <v>38</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>38</v>
@@ -2102,10 +2106,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2116,28 +2120,28 @@
         <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2187,19 +2191,19 @@
         <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>38</v>
@@ -2219,10 +2223,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2233,7 +2237,7 @@
         <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>38</v>
@@ -2245,16 +2249,16 @@
         <v>38</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2280,13 +2284,13 @@
         <v>38</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>38</v>
@@ -2304,19 +2308,19 @@
         <v>38</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>38</v>
@@ -2336,21 +2340,21 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>38</v>
@@ -2362,16 +2366,16 @@
         <v>38</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2421,25 +2425,25 @@
         <v>38</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>38</v>
@@ -2453,14 +2457,14 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2479,16 +2483,16 @@
         <v>38</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2538,7 +2542,7 @@
         <v>38</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>39</v>
@@ -2556,7 +2560,7 @@
         <v>38</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>38</v>
@@ -2570,10 +2574,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2596,13 +2600,13 @@
         <v>38</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -2641,17 +2645,17 @@
         <v>38</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AC8" s="2"/>
       <c r="AD8" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>39</v>
@@ -2663,7 +2667,7 @@
         <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>38</v>
@@ -2683,13 +2687,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D9" t="s" s="2">
         <v>38</v>
@@ -2711,13 +2715,13 @@
         <v>38</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -2768,7 +2772,7 @@
         <v>38</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>39</v>
@@ -2777,10 +2781,10 @@
         <v>40</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>38</v>
@@ -2800,14 +2804,14 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2820,25 +2824,25 @@
         <v>38</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>38</v>
@@ -2887,7 +2891,7 @@
         <v>38</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>39</v>
@@ -2899,13 +2903,13 @@
         <v>38</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>38</v>
@@ -2919,10 +2923,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2930,7 +2934,7 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>40</v>
@@ -2945,16 +2949,16 @@
         <v>38</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2992,17 +2996,17 @@
         <v>38</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AC11" s="2"/>
       <c r="AD11" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>39</v>
@@ -3014,19 +3018,19 @@
         <v>38</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>38</v>
@@ -3034,23 +3038,23 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>38</v>
@@ -3062,16 +3066,16 @@
         <v>38</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3121,7 +3125,7 @@
         <v>38</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>39</v>
@@ -3133,19 +3137,19 @@
         <v>38</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>38</v>
@@ -3153,10 +3157,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3167,7 +3171,7 @@
         <v>39</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>38</v>
@@ -3179,13 +3183,13 @@
         <v>38</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3236,13 +3240,13 @@
         <v>38</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>38</v>
@@ -3254,7 +3258,7 @@
         <v>38</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>38</v>
@@ -3268,14 +3272,14 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3294,16 +3298,16 @@
         <v>38</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3341,19 +3345,19 @@
         <v>38</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>39</v>
@@ -3365,13 +3369,13 @@
         <v>38</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>38</v>
@@ -3385,10 +3389,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3399,31 +3403,31 @@
         <v>39</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>38</v>
@@ -3448,13 +3452,13 @@
         <v>38</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>38</v>
@@ -3472,25 +3476,25 @@
         <v>38</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>38</v>
@@ -3499,15 +3503,15 @@
         <v>38</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3518,7 +3522,7 @@
         <v>39</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>38</v>
@@ -3527,22 +3531,22 @@
         <v>38</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>38</v>
@@ -3567,13 +3571,13 @@
         <v>38</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>38</v>
@@ -3591,25 +3595,25 @@
         <v>38</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>38</v>
@@ -3618,15 +3622,15 @@
         <v>38</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3634,10 +3638,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>38</v>
@@ -3646,29 +3650,29 @@
         <v>38</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="S17" t="s" s="2">
         <v>38</v>
@@ -3710,25 +3714,25 @@
         <v>38</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>38</v>
@@ -3737,15 +3741,15 @@
         <v>38</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3753,10 +3757,10 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>38</v>
@@ -3765,19 +3769,19 @@
         <v>38</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3827,25 +3831,25 @@
         <v>38</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>38</v>
@@ -3854,15 +3858,15 @@
         <v>38</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3873,7 +3877,7 @@
         <v>39</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>38</v>
@@ -3882,16 +3886,16 @@
         <v>38</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3942,25 +3946,25 @@
         <v>38</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>38</v>
@@ -3969,15 +3973,15 @@
         <v>38</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3988,7 +3992,7 @@
         <v>39</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>38</v>
@@ -3997,19 +4001,19 @@
         <v>38</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4059,25 +4063,25 @@
         <v>38</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>38</v>
@@ -4086,18 +4090,18 @@
         <v>38</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>38</v>
@@ -4119,16 +4123,16 @@
         <v>38</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4178,7 +4182,7 @@
         <v>38</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>39</v>
@@ -4190,19 +4194,19 @@
         <v>38</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>38</v>
@@ -4210,10 +4214,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4224,7 +4228,7 @@
         <v>39</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>38</v>
@@ -4236,13 +4240,13 @@
         <v>38</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4293,13 +4297,13 @@
         <v>38</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>38</v>
@@ -4311,7 +4315,7 @@
         <v>38</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>38</v>
@@ -4325,14 +4329,14 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4351,16 +4355,16 @@
         <v>38</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4398,19 +4402,19 @@
         <v>38</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>39</v>
@@ -4422,13 +4426,13 @@
         <v>38</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>38</v>
@@ -4442,10 +4446,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4456,31 +4460,31 @@
         <v>39</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>38</v>
@@ -4505,13 +4509,13 @@
         <v>38</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>38</v>
@@ -4529,25 +4533,25 @@
         <v>38</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>38</v>
@@ -4556,15 +4560,15 @@
         <v>38</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4575,7 +4579,7 @@
         <v>39</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>38</v>
@@ -4584,22 +4588,22 @@
         <v>38</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>38</v>
@@ -4624,13 +4628,13 @@
         <v>38</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>38</v>
@@ -4648,25 +4652,25 @@
         <v>38</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>38</v>
@@ -4675,15 +4679,15 @@
         <v>38</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4691,10 +4695,10 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>38</v>
@@ -4703,29 +4707,29 @@
         <v>38</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>38</v>
@@ -4767,25 +4771,25 @@
         <v>38</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>38</v>
@@ -4794,15 +4798,15 @@
         <v>38</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4810,10 +4814,10 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>38</v>
@@ -4822,19 +4826,19 @@
         <v>38</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4884,25 +4888,25 @@
         <v>38</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>38</v>
@@ -4911,15 +4915,15 @@
         <v>38</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4930,7 +4934,7 @@
         <v>39</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>38</v>
@@ -4939,16 +4943,16 @@
         <v>38</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4999,25 +5003,25 @@
         <v>38</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>38</v>
@@ -5026,15 +5030,15 @@
         <v>38</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5045,7 +5049,7 @@
         <v>39</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>38</v>
@@ -5054,19 +5058,19 @@
         <v>38</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5116,25 +5120,25 @@
         <v>38</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>38</v>
@@ -5143,15 +5147,15 @@
         <v>38</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5174,13 +5178,13 @@
         <v>38</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5231,7 +5235,7 @@
         <v>38</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>39</v>
@@ -5243,13 +5247,13 @@
         <v>38</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>38</v>
@@ -5263,10 +5267,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5274,31 +5278,31 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5324,13 +5328,13 @@
         <v>38</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>38</v>
@@ -5348,31 +5352,31 @@
         <v>38</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>38</v>
@@ -5380,10 +5384,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5394,7 +5398,7 @@
         <v>39</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>38</v>
@@ -5406,13 +5410,13 @@
         <v>38</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5439,13 +5443,13 @@
         <v>38</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>38</v>
@@ -5463,25 +5467,25 @@
         <v>38</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>38</v>
@@ -5495,10 +5499,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5509,7 +5513,7 @@
         <v>39</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>38</v>
@@ -5521,16 +5525,16 @@
         <v>38</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5556,13 +5560,13 @@
         <v>38</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>38</v>
@@ -5580,25 +5584,25 @@
         <v>38</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>38</v>
@@ -5612,10 +5616,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5623,10 +5627,10 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>38</v>
@@ -5635,19 +5639,19 @@
         <v>38</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5673,13 +5677,13 @@
         <v>38</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>38</v>
@@ -5697,42 +5701,42 @@
         <v>38</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5740,10 +5744,10 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>38</v>
@@ -5752,19 +5756,19 @@
         <v>38</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5814,42 +5818,42 @@
         <v>38</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5860,7 +5864,7 @@
         <v>39</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>38</v>
@@ -5872,16 +5876,16 @@
         <v>38</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5931,25 +5935,25 @@
         <v>38</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>38</v>
@@ -5963,10 +5967,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5989,16 +5993,16 @@
         <v>38</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6048,7 +6052,7 @@
         <v>38</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>39</v>
@@ -6060,16 +6064,16 @@
         <v>38</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>38</v>
@@ -6080,10 +6084,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6106,13 +6110,13 @@
         <v>38</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6163,7 +6167,7 @@
         <v>38</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>39</v>
@@ -6175,13 +6179,13 @@
         <v>38</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>38</v>
@@ -6195,10 +6199,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6209,7 +6213,7 @@
         <v>39</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>38</v>
@@ -6221,13 +6225,13 @@
         <v>38</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6278,13 +6282,13 @@
         <v>38</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>38</v>
@@ -6296,7 +6300,7 @@
         <v>38</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>38</v>
@@ -6310,14 +6314,14 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6336,16 +6340,16 @@
         <v>38</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6395,7 +6399,7 @@
         <v>38</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>39</v>
@@ -6407,13 +6411,13 @@
         <v>38</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>38</v>
@@ -6427,14 +6431,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6447,25 +6451,25 @@
         <v>38</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>38</v>
@@ -6514,7 +6518,7 @@
         <v>38</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>39</v>
@@ -6526,13 +6530,13 @@
         <v>38</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>38</v>
@@ -6546,10 +6550,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6560,7 +6564,7 @@
         <v>39</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>38</v>
@@ -6572,17 +6576,17 @@
         <v>38</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>38</v>
@@ -6607,13 +6611,13 @@
         <v>38</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>38</v>
@@ -6631,25 +6635,25 @@
         <v>38</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>38</v>
@@ -6663,10 +6667,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6674,10 +6678,10 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>38</v>
@@ -6689,13 +6693,13 @@
         <v>38</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6746,25 +6750,25 @@
         <v>38</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>38</v>
@@ -6778,10 +6782,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6792,7 +6796,7 @@
         <v>39</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>38</v>
@@ -6804,16 +6808,16 @@
         <v>38</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6863,25 +6867,25 @@
         <v>38</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>38</v>
@@ -6895,10 +6899,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6921,16 +6925,16 @@
         <v>38</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6980,7 +6984,7 @@
         <v>38</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>39</v>
@@ -6992,30 +6996,30 @@
         <v>38</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7026,7 +7030,7 @@
         <v>39</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>38</v>
@@ -7038,16 +7042,16 @@
         <v>38</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7073,13 +7077,13 @@
         <v>38</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>38</v>
@@ -7097,42 +7101,42 @@
         <v>38</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7140,10 +7144,10 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>38</v>
@@ -7155,16 +7159,16 @@
         <v>38</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7214,25 +7218,25 @@
         <v>38</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>38</v>
@@ -7241,15 +7245,15 @@
         <v>38</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7260,7 +7264,7 @@
         <v>39</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>38</v>
@@ -7272,16 +7276,16 @@
         <v>38</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7331,42 +7335,42 @@
         <v>38</v>
       </c>
       <c r="AF48" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AO48" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AO48" t="s" s="2">
-        <v>338</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7377,7 +7381,7 @@
         <v>39</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>38</v>
@@ -7386,16 +7390,16 @@
         <v>38</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7446,42 +7450,42 @@
         <v>38</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7489,10 +7493,10 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>38</v>
@@ -7504,13 +7508,13 @@
         <v>38</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7561,42 +7565,42 @@
         <v>38</v>
       </c>
       <c r="AF50" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AO50" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>348</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7607,7 +7611,7 @@
         <v>39</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>38</v>
@@ -7619,16 +7623,16 @@
         <v>38</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7678,42 +7682,42 @@
         <v>38</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7736,16 +7740,16 @@
         <v>38</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7795,7 +7799,7 @@
         <v>38</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>39</v>
@@ -7807,19 +7811,19 @@
         <v>38</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>38</v>
@@ -7827,10 +7831,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7853,16 +7857,16 @@
         <v>38</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7912,7 +7916,7 @@
         <v>38</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>39</v>
@@ -7924,13 +7928,13 @@
         <v>38</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>38</v>
@@ -7939,15 +7943,15 @@
         <v>38</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7970,16 +7974,16 @@
         <v>38</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8029,7 +8033,7 @@
         <v>38</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>39</v>
@@ -8041,13 +8045,13 @@
         <v>38</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>38</v>
@@ -8061,10 +8065,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8075,7 +8079,7 @@
         <v>39</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>38</v>
@@ -8087,13 +8091,13 @@
         <v>38</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8144,31 +8148,31 @@
         <v>38</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>38</v>
@@ -8176,10 +8180,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8190,7 +8194,7 @@
         <v>39</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>38</v>
@@ -8202,13 +8206,13 @@
         <v>38</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8259,13 +8263,13 @@
         <v>38</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>38</v>
@@ -8277,7 +8281,7 @@
         <v>38</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>38</v>
@@ -8291,14 +8295,14 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8317,16 +8321,16 @@
         <v>38</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8376,7 +8380,7 @@
         <v>38</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>39</v>
@@ -8388,13 +8392,13 @@
         <v>38</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>38</v>
@@ -8408,14 +8412,14 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -8428,25 +8432,25 @@
         <v>38</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>38</v>
@@ -8495,7 +8499,7 @@
         <v>38</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>39</v>
@@ -8507,13 +8511,13 @@
         <v>38</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>38</v>
@@ -8527,10 +8531,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8538,10 +8542,10 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>38</v>
@@ -8553,13 +8557,13 @@
         <v>38</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8610,25 +8614,25 @@
         <v>38</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>38</v>
@@ -8642,10 +8646,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8656,7 +8660,7 @@
         <v>39</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>38</v>
@@ -8668,16 +8672,16 @@
         <v>38</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8703,13 +8707,13 @@
         <v>38</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>38</v>
@@ -8727,42 +8731,42 @@
         <v>38</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8785,16 +8789,16 @@
         <v>38</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8820,13 +8824,13 @@
         <v>38</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>38</v>
@@ -8844,7 +8848,7 @@
         <v>38</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>39</v>
@@ -8856,19 +8860,19 @@
         <v>38</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>38</v>
@@ -8876,10 +8880,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8902,16 +8906,16 @@
         <v>38</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -8961,7 +8965,7 @@
         <v>38</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>39</v>
@@ -8973,19 +8977,19 @@
         <v>38</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>38</v>
@@ -8993,14 +8997,14 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9019,16 +9023,16 @@
         <v>38</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9078,7 +9082,7 @@
         <v>38</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>39</v>
@@ -9090,13 +9094,13 @@
         <v>38</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>38</v>
@@ -9110,10 +9114,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9136,16 +9140,16 @@
         <v>38</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9195,7 +9199,7 @@
         <v>38</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>39</v>
@@ -9207,13 +9211,13 @@
         <v>38</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>38</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdispensebase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdispensebase.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2</t>
+    <t>1.1.2-dev</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdispensebase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdispensebase.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2398" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2396" uniqueCount="425">
   <si>
     <t>Property</t>
   </si>
@@ -468,7 +468,7 @@
     <t>MedicationDispense.identifier.use</t>
   </si>
   <si>
-    <t>通常|公式|温度|セカンダリ|古い（知られている場合） / usual | official | temp | secondary | old (If known)</t>
+    <t>通常|公式|一時的|セカンダリ|古い（知られている場合） / usual | official | temp | secondary | old (If known)</t>
   </si>
   <si>
     <t>この識別子の目的。 / The purpose of this identifier.</t>
@@ -703,11 +703,10 @@
 </t>
   </si>
   <si>
-    <t>Event that dispense is part of 親イベントへの参照</t>
-  </si>
-  <si>
-    <t>The procedure that trigger the dispense. 
-この調剤の契機となったProcedureリソースへの参照。</t>
+    <t>親イベントへの参照</t>
+  </si>
+  <si>
+    <t>Tこの調剤の契機となったProcedureリソースへの参照。</t>
   </si>
   <si>
     <t>Event.partOf</t>
@@ -722,8 +721,7 @@
     <t>preparation | in-progress | cancelled | on-hold | completed | entered-in-error | stopped | unknown 一連の調剤イベントの状態</t>
   </si>
   <si>
-    <t>A code specifying the state of the set of dispense events.
-一連の調剤イベントの状態を指定するコード。</t>
+    <t>一連の調剤イベントの状態を指定するコード。</t>
   </si>
   <si>
     <t>この要素は、リソースを現在有効ではないとマークするコードが含まれているため、修飾子としてラベル付けされています。 / This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
@@ -754,11 +752,10 @@
 Reference(DetectedIssue)</t>
   </si>
   <si>
-    <t>Why a dispense was not performed　調剤が実行されなかった理由</t>
-  </si>
-  <si>
-    <t>Indicates the reason why a dispense was not performed.
-調剤が実行されなかった理由を示す。</t>
+    <t>調剤が実行されなかった理由</t>
+  </si>
+  <si>
+    <t>調剤が実行されなかった理由を示す。</t>
   </si>
   <si>
     <t>example</t>
@@ -779,11 +776,10 @@
     <t>MedicationDispense.category</t>
   </si>
   <si>
-    <t>Type of medication dispense　調剤タイプ</t>
-  </si>
-  <si>
-    <t>Indicates the type of medication dispense (for example, where the medication is expected to be consumed or administered (i.e. inpatient or outpatient)).
-投薬のタイプを示す（たとえば、薬剤が消費または投与されると予想される場所（つまり、入院患者または外来患者））。　入院、外来、退院、自宅など。</t>
+    <t>調剤タイプ</t>
+  </si>
+  <si>
+    <t>投薬のタイプを示す（たとえば、薬剤が消費または投与されると予想される場所（つまり、入院患者または外来患者））。　入院、外来、退院、自宅など。</t>
   </si>
   <si>
     <t>このカテゴリを使用して、薬が消費される場所または他の種類のディスペンスが予想される場所を含めることができます。不変剤を使用して、プロファイリングするときに異なる値セットにバインドできます。 / The category can be used to include where the medication is expected to be consumed or other types of dispenses.  Invariants can be used to bind to different value sets when profiling to bind.</t>
@@ -805,15 +801,13 @@
 Reference(Medication)</t>
   </si>
   <si>
-    <t>What medication was supplied　医薬品</t>
-  </si>
-  <si>
-    <t>Identifies the medication that was administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.
-投与された薬剤を識別する。既知の薬のリストから薬を識別するコード情報を設定する。</t>
-  </si>
-  <si>
-    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.
-ひとつのtext要素と、複数のcoding 要素を記述できる。処方オーダ時に選択または入力し、実際に処方箋に印字される文字列を必ずtext要素に格納した上で、それをコード化した情報を1個以上のcoding 要素に記述する。
+    <t>医薬品</t>
+  </si>
+  <si>
+    <t>投与された薬剤を識別する。既知の薬のリストから薬を識別するコード情報を設定する。</t>
+  </si>
+  <si>
+    <t>ひとつのtext要素と、複数のcoding 要素を記述できる。処方オーダ時に選択または入力し、実際に処方箋に印字される文字列を必ずtext要素に格納した上で、それをコード化した情報を1個以上のcoding 要素に記述する。
 厚生労働省標準であるHOT9コード（販社指定が不要な場合にはHOT7コード）または広く流通しているYJコードを用いるか、一般名処方の場合には厚生労働省保険局一般名処方マスタのコードを使用して、Coding要素（コードsystemを識別するURI、医薬品のコード、そのコード表における医薬品の名称の3つからなる）で記述する。
  なお、上記のいずれの標準的コードも付番されていない医薬品や医療材料の場合には、薬機法の下で使用されているGS1標準の識別コードであるGTIN(Global Trade Item Number)の調剤包装単位（最少包装単位、個別包装単位）14桁を使用する。
@@ -851,15 +845,13 @@
 </t>
   </si>
   <si>
-    <t>Who received medication　投与対象患者</t>
-  </si>
-  <si>
-    <t>The person or animal or group receiving the medication.
-投与を受ける患者</t>
-  </si>
-  <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
-参照は、実際のFHIRリソースへの参照である必要があり、解決可能（内容に到達可能）である必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。</t>
+    <t>投与対象患者</t>
+  </si>
+  <si>
+    <t>投与を受ける患者</t>
+  </si>
+  <si>
+    <t>参照は、実際のFHIRリソースへの参照である必要があり、解決可能（内容に到達可能）である必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。</t>
   </si>
   <si>
     <t>Event.subject</t>
@@ -881,11 +873,10 @@
 </t>
   </si>
   <si>
-    <t>Encounter / Episode associated with event　調剤ベントに関連するEncounterやエピソード</t>
-  </si>
-  <si>
-    <t>The encounter or episode of care that establishes the context for this event.
-調剤ベントに関連するEncounterやエピソードへの参照。</t>
+    <t>調剤ベントに関連するEncounterやエピソード</t>
+  </si>
+  <si>
+    <t>調剤ベントに関連するEncounterやエピソードへの参照。</t>
   </si>
   <si>
     <t>Event.context</t>
@@ -901,11 +892,10 @@
 </t>
   </si>
   <si>
-    <t>Information that supports the dispensing of the medication　薬の調剤をサポートする情報</t>
-  </si>
-  <si>
-    <t>Additional information that supports the medication being dispensed.
-調剤される薬剤をサポートする追加情報への任意のリソースへの参照。</t>
+    <t>薬の調剤をサポートする情報</t>
+  </si>
+  <si>
+    <t>調剤される薬剤をサポートする追加情報への任意のリソースへの参照。</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=PERT].target[A_SupportingClinicalStatement CMET minimal with many different choices of classCodes(ORG, ENC, PROC, SPLY, SBADM, OBS) and each of the act class codes draws from one or more of the following moodCodes (EVN, DEF, INT PRMS, RQO, PRP, APT, ARQ, GOL)]</t>
@@ -921,11 +911,10 @@
 </t>
   </si>
   <si>
-    <t>Who performed event　調剤を実施した人</t>
-  </si>
-  <si>
-    <t>Indicates who or what performed the event.
-調剤した人を示す</t>
+    <t>調剤を実施した人</t>
+  </si>
+  <si>
+    <t>調剤した人を示す</t>
   </si>
   <si>
     <t>Event.performer</t>
@@ -1005,11 +994,10 @@
 </t>
   </si>
   <si>
-    <t>Where the dispense occurred　調剤実施場所</t>
-  </si>
-  <si>
-    <t>The principal physical location where the dispense was performed. 
-調剤が実施された場所を示すLocationリソースへの参照。</t>
+    <t>調剤実施場所</t>
+  </si>
+  <si>
+    <t>調剤が実施された場所を示すLocationリソースへの参照。</t>
   </si>
   <si>
     <t>.participation[typeCode=LOC].role</t>
@@ -1022,11 +1010,10 @@
 </t>
   </si>
   <si>
-    <t>Medication order that authorizes the dispense　調剤を正当化する元の処方オーダ</t>
-  </si>
-  <si>
-    <t>Indicates the medication order that is being dispensed against.
-調剤の元になった処方オーダを表すMedicationRequestリソースへの参照。</t>
+    <t>調剤を正当化する元の処方オーダ</t>
+  </si>
+  <si>
+    <t>調剤の元になった処方オーダを表すMedicationRequestリソースへの参照。</t>
   </si>
   <si>
     <t>イベント論理モデルのベースンへのマップ。 / Maps to basedOn in Event logical model.</t>
@@ -1050,12 +1037,10 @@
     <t>実行される調剤イベント</t>
   </si>
   <si>
-    <t>Indicates the type of dispensing event that is performed. For example, Trial Fill, Completion of Trial, Partial Fill, Emergency Fill, Samples, etc.
-実行される調剤イベントのタイプを示す。たとえば、トライアルフィル、トライアルの完了、部分フィル、緊急フィル、サンプルなどである。</t>
-  </si>
-  <si>
-    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.
-すべてのターミノロジの使用がこの一般的なパターンに適合するわけではない。場合によっては、モデルはCodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素間の関係とpre-coordinationとpost-coordinationの用語関係を管理するための独自の構造を提供する必要がある。</t>
+    <t>実行される調剤イベントのタイプを示す。たとえば、トライアルフィル、トライアルの完了、部分フィル、緊急フィル、サンプルなどである。</t>
+  </si>
+  <si>
+    <t>すべてのターミノロジの使用がこの一般的なパターンに適合するわけではない。場合によっては、モデルはCodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素間の関係とpre-coordinationとpost-coordinationの用語関係を管理するための独自の構造を提供する必要がある。</t>
   </si>
   <si>
     <t>実行される分配イベントのタイプを示します。たとえば、試行充填、試行の完了、部分充填、緊急充填、サンプルなど。 / Indicates the type of dispensing event that is performed. For example, Trial Fill, Completion of Trial, Partial Fill, Emergency Fill, Samples, etc.</t>
@@ -1080,7 +1065,7 @@
 </t>
   </si>
   <si>
-    <t>Trial fill, partial fill, emergency fill, etc. 払い出される薬剤の量</t>
+    <t>払い出される薬剤の量</t>
   </si>
   <si>
     <t>調剤総量。
@@ -1088,8 +1073,7 @@
 払い出される薬剤の量。計測単位を含む。</t>
   </si>
   <si>
-    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.
-使用状況によって、これがどのような量であるか、したがってどのような単位を使用できるかが定義される場合がかなりある。使用状況によっては、比較演算子の値も制限される場合がある。</t>
+    <t>使用状況によって、これがどのような量であるか、したがってどのような単位を使用できるかが定義される場合がかなりある。使用状況によっては、比較演算子の値も制限される場合がある。</t>
   </si>
   <si>
     <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -1105,11 +1089,10 @@
     <t>MedicationDispense.daysSupply</t>
   </si>
   <si>
-    <t>Amount of medication expressed as a timing amount　　タイミングとして表される投薬量</t>
-  </si>
-  <si>
-    <t>The amount of medication expressed as a timing amount.
-タイミングとして表される投薬量。すなわち、XX日分、XX回分などの数量。</t>
+    <t>タイミングとして表される投薬量</t>
+  </si>
+  <si>
+    <t>タイミングとして表される投薬量。すなわち、XX日分、XX回分などの数量。</t>
   </si>
   <si>
     <t>MedicationDispense.whenPrepared</t>
@@ -1119,11 +1102,7 @@
 </t>
   </si>
   <si>
-    <t>When product was packaged and reviewed　調剤がパッケージ化され、レビューされた日時</t>
-  </si>
-  <si>
-    <t>The time when the dispensed product was packaged and reviewed.
-調剤がパッケージ化され、レビューされた日時</t>
+    <t>調剤がパッケージ化され、レビューされた日時</t>
   </si>
   <si>
     <t>.effectiveTime[xmi:type=IVL_TS].low</t>
@@ -1138,11 +1117,10 @@
     <t>MedicationDispense.whenHandedOver</t>
   </si>
   <si>
-    <t>Medication order that authorizes the dispense　払い出された日時</t>
-  </si>
-  <si>
-    <t>The time the dispensed product was provided to the patient or their representative.
-必須。
+    <t>払い出された日時</t>
+  </si>
+  <si>
+    <t>必須。
 患者あるいはその代理人に払い出される薬剤が提供された日時。</t>
   </si>
   <si>
@@ -1155,11 +1133,10 @@
     <t>MedicationDispense.destination</t>
   </si>
   <si>
-    <t>Where the medication was sent　薬が送られた場所</t>
-  </si>
-  <si>
-    <t>Identification of the facility/location where the medication was shipped to, as part of the dispense event.
-調剤イベントの一環として、薬剤が出荷された行先先の施設/場所のLocationリソースへの参照。</t>
+    <t>薬が送られた場所</t>
+  </si>
+  <si>
+    <t>調剤イベントの一環として、薬剤が出荷された行先先の施設/場所のLocationリソースへの参照。</t>
   </si>
   <si>
     <t>.participation[typeCode=DST].role</t>
@@ -1178,11 +1155,10 @@
 </t>
   </si>
   <si>
-    <t>Who collected the medication　 薬を受け取った人</t>
-  </si>
-  <si>
-    <t>Identifies the person who picked up the medication.  This will usually be a patient or their caregiver, but some cases exist where it can be a healthcare professional.
-薬を受け取った人を識別する。これは通常、患者またはその介護者だが、医療専門家になる場合もある。</t>
+    <t>薬を受け取った人</t>
+  </si>
+  <si>
+    <t>薬を受け取った人を識別する。これは通常、患者またはその介護者だが、医療専門家になる場合もある。</t>
   </si>
   <si>
     <t>.participation[typeCode=RCV].role</t>
@@ -1198,15 +1174,13 @@
 </t>
   </si>
   <si>
-    <t>Information about the dispense　調剤に関する備考</t>
-  </si>
-  <si>
-    <t>Extra information about the dispense that could not be conveyed in the other attributes.
-他の要素では伝達できなかった調剤に関する追加情報。</t>
-  </si>
-  <si>
-    <t>For systems that do not have structured annotations, they can simply communicate a single annotation with no author or time.  This element may need to be included in narrative because of the potential for modifying information.  *Annotations SHOULD NOT* be used to communicate "modifying" information that could be computable. (This is a SHOULD because enforcing user behavior is nearly impossible).
-構造化された注釈（アノテーション）を持たないシステムの場合、作成者や時間なしで単一の注釈を簡単に伝達できる。情報を変更する可能性があるため、この要素をナラティブに含める必要がある場合がある。 
+    <t>調剤に関する備考</t>
+  </si>
+  <si>
+    <t>他の要素では伝達できなかった調剤に関する追加情報。</t>
+  </si>
+  <si>
+    <t>構造化された注釈（アノテーション）を持たないシステムの場合、作成者や時間なしで単一の注釈を簡単に伝達できる。情報を変更する可能性があるため、この要素をナラティブに含める必要がある場合がある。 
 *注釈は、計算機処理れきる「変更」情報を伝達するために使用されるべきではない*。 （ユーザの行動を強制することはほとんど不可能であるため、これはSHOULDとする）。</t>
   </si>
   <si>
@@ -1240,11 +1214,10 @@
     <t>MedicationDispense.substitution</t>
   </si>
   <si>
-    <t>Whether a substitution was performed on the dispense　調剤で置換が実行されたかどうか</t>
-  </si>
-  <si>
-    <t>Indicates whether or not substitution was made as part of the dispense. In some cases, substitution will be expected but does not happen, in other cases substitution is not expected but does happen. This block explains what substitution did or did not happen and why. If nothing is specified, substitution was not done. 
- 調剤の一部として置換が行われたかどうかを示す。場合によっては、置換が期待されるが発生しない場合もあれば、置換が予期されないが発生する場合もある。このブロックは、置換が行われたか行われなかったか、およびその理由を説明する。何も指定されていない場合、置換は行われていない。</t>
+    <t>調剤の一部として置換が行われたかどうかを示す。場合によっては、置換が期待されるが発生しない場合もあれば、置換が予期されないが発生する場合もある。このブロックは、置換が行われたか行われなかったか、およびその理由を説明する。何も指定されていない場合、置換は行われていない。</t>
+  </si>
+  <si>
+    <t>代替が分配の一部として行われたかどうかを示します。場合によっては、代替が予想されますが、発生しませんが、他の場合には置換は予想されませんが、発生します。このブロックは、代替が何が起こったのか、起こらなかったのか、そしてその理由を説明しています。何も指定されていない場合、置換は行われませんでした。 / Indicates whether or not substitution was made as part of the dispense.  In some cases, substitution will be expected but does not happen, in other cases substitution is not expected but does happen.  This block explains what substitution did or did not happen and why.  If nothing is specified, substitution was not done.</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP].target[classCode=SUBST, moodCode=EVN]</t>
@@ -1269,11 +1242,10 @@
 </t>
   </si>
   <si>
-    <t>Whether a substitution was or was not performed on the dispense　調剤で置換が実行されたか、あるいはされていないかを'true'または'false'で表す</t>
-  </si>
-  <si>
-    <t>True if the dispenser dispensed a different drug or product from what was prescribed. 
-処方されたものとは異なる薬剤または製品を調剤した場合に、'true'を設定する。</t>
+    <t>調剤で置換が実行されたか、あるいはされていないかを'true'または'false'で表す</t>
+  </si>
+  <si>
+    <t>処方されたものとは異なる薬剤または製品を調剤した場合に、'true'を設定する。</t>
   </si>
   <si>
     <t>.actionNegationInd</t>
@@ -1282,11 +1254,10 @@
     <t>MedicationDispense.substitution.type</t>
   </si>
   <si>
-    <t>Code signifying whether a different drug was dispensed from what was prescribed　処方されたものとは異なる薬が調剤されたかどうかを示すコード</t>
-  </si>
-  <si>
-    <t>A code signifying whether a different drug was dispensed from what was prescribed.
-処方されたものとは異なる薬が調剤されたかどうかを示すコード。
+    <t>処方されたものとは異なる薬が調剤されたかどうかを示すコード</t>
+  </si>
+  <si>
+    <t>処方されたものとは異なる薬が調剤されたかどうかを示すコード。
 HL7 v3 Value Set ActSubstanceAdminSubstitutionCode　から以下のコードが使用できる。 
 E: 別の生物学的同等および治療的に同等の製品で置換が行われたか、許可された。
 EC: 代替品が発生したか、次のような別の製品で許可されている：同じ有効成分を含むが異なる塩で処方された代替医薬品、同じ有効成分を持つエステル医薬品同等物、強度、剤形、投与経路.
@@ -1299,9 +1270,6 @@
 N:置換は発生しなかったか、許可されていない。</t>
   </si>
   <si>
-    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
-  </si>
-  <si>
     <t>処方箋で正確に指定されているように、製品以外に異なる薬物が分配されるかどうかを説明するコード化された概念。 / A coded concept describing whether a different medicinal product may be dispensed other than the product as specified exactly in the prescription.</t>
   </si>
   <si>
@@ -1317,13 +1285,10 @@
     <t>MedicationDispense.substitution.reason</t>
   </si>
   <si>
-    <t>Why was substitution made　置換が実施された理由</t>
-  </si>
-  <si>
-    <t>Indicates the reason for the substitution (or lack of substitution) from what was prescribed.
-処方されたものからの置換（または置換の欠如）の理由を示す。
-HL7 v3 Value Set SubstanceAdminSubstitutionReason　では以下のコードが定義されている。
-CT:治療継続性確保のため、FP:処方方針、 OS: 在庫欠品、  RR:代替えを義務付けまたは禁止する規制要件に従った</t>
+    <t>置換が実施された理由</t>
+  </si>
+  <si>
+    <t>治療継続性確保のため、FP:処方方針、 OS: 在庫欠品、  RR:代替えを義務付けまたは禁止する規制要件に従った</t>
   </si>
   <si>
     <t>別の薬物療法が処方されたものから置き換える（またはすべきではない）理由を説明するコード化された概念。 / A coded concept describing the reason that a different medication should (or should not) be substituted from what was prescribed.</t>
@@ -1345,11 +1310,10 @@
 </t>
   </si>
   <si>
-    <t>Who is responsible for the substitution　置換責任者</t>
-  </si>
-  <si>
-    <t>The person or organization that has primary responsibility for the substitution.
-置換の主な責任を負う個人または組織。Practitioner   PractitionerRole リソースへの参照。</t>
+    <t>置換責任者</t>
+  </si>
+  <si>
+    <t>置換の主な責任を負う個人または組織。Practitioner   PractitionerRole リソースへの参照。</t>
   </si>
   <si>
     <t>.participation[typeCode=PFM].role[classCode=ASSIGN]</t>
@@ -1369,15 +1333,14 @@
 </t>
   </si>
   <si>
-    <t>Clinical issue with action アクションを伴う臨床的問題</t>
-  </si>
-  <si>
-    <t>Indicates an actual or potential clinical issue with or between one or more active or proposed clinical actions for a patient; e.g. drug-drug interaction, duplicate therapy, dosage alert etc.
-患者に対する1つまたは複数のアクティブまたは提案された臨床アクションを伴う、またはそれらの間の実際のまたは潜在的な臨床問題を示す。例えば薬物間相互作用、重複治療、投与量アラートなど。
+    <t>アクションを伴う臨床的問題</t>
+  </si>
+  <si>
+    <t>患者に対する1つまたは複数のアクティブまたは提案された臨床アクションを伴う、またはそれらの間の実際のまたは潜在的な臨床問題を示す。例えば薬物間相互作用、重複治療、投与量アラートなど。
 DetectedIssue リソースへの参照。</t>
   </si>
   <si>
-    <t>この要素には、意思決定支援システムまたは臨床医によって特定された検出された問題を含めることができ、問題に対処するために取られた手順に関する情報を含めることができます。 / This element can include a detected issue that has been identified either by a decision support system or by a clinician and may include information on the steps that were taken to address the issue.</t>
+    <t>この要素には、意思決定支援システムまたは臨床医によって特定された検出された問題を含めることができ、問題に対処するために取られたプロシジャー（処置等）に関する情報を含めることができます。 / This element can include a detected issue that has been identified either by a decision support system or by a clinician and may include information on the steps that were taken to address the issue.</t>
   </si>
   <si>
     <t>.inboundRelationship[typeCode=SUBJ]/source[classCode=ALRT,moodCode=EVN].value</t>
@@ -1390,11 +1353,10 @@
 </t>
   </si>
   <si>
-    <t>A list of relevant lifecycle events　関連するライフサイクルイベントのリスト</t>
-  </si>
-  <si>
-    <t>A summary of the events of interest that have occurred, such as when the dispense was verified.
-調剤が確認されたときなど、発生した対象のイベントのサマリー。</t>
+    <t>関連するライフサイクルイベントのリスト</t>
+  </si>
+  <si>
+    <t>調剤が確認されたときなど、発生した対象のイベントのサマリー。</t>
   </si>
   <si>
     <t>これには、リクエストのすべてのバージョンの出所が含まれない場合があります。「関連性がある」または重要とみなされるもののみです。これには、この現在のバージョンのリソースに関連する出所を含めてはなりません。（その出所が「関連性のある」変更と見なされる場合、後の更新の一部として追加する必要があります。それまで、_revincludeを使用してこのバージョンを指す出所として直接照会することができます。この要求の歴史的バージョンは、彼らの主題として。）。 / This might not include provenances for all versions of the request – only those deemed “relevant” or important. This SHALL NOT include the Provenance associated with this current version of the resource. (If that provenance is deemed to be a “relevant” change, it will need to be added as part of a later update. Until then, it can be queried directly as the Provenance that points to this version using _revinclude All Provenances should have some historical version of this Request as their subject.).</t>
@@ -7399,7 +7361,7 @@
         <v>345</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7468,24 +7430,24 @@
         <v>38</v>
       </c>
       <c r="AL49" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN49" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="AM49" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN49" t="s" s="2">
+      <c r="AO49" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>349</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7511,10 +7473,10 @@
         <v>344</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7565,7 +7527,7 @@
         <v>38</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>39</v>
@@ -7580,27 +7542,27 @@
         <v>60</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="AL50" t="s" s="2">
-        <v>354</v>
-      </c>
       <c r="AM50" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN50" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AO50" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>349</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7626,10 +7588,10 @@
         <v>310</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="N51" t="s" s="2">
         <v>266</v>
@@ -7682,7 +7644,7 @@
         <v>38</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>39</v>
@@ -7700,24 +7662,24 @@
         <v>38</v>
       </c>
       <c r="AL51" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN51" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="AM51" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN51" t="s" s="2">
+      <c r="AO51" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="AO51" t="s" s="2">
-        <v>360</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7740,13 +7702,13 @@
         <v>38</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="N52" t="s" s="2">
         <v>266</v>
@@ -7799,7 +7761,7 @@
         <v>38</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>39</v>
@@ -7817,13 +7779,13 @@
         <v>38</v>
       </c>
       <c r="AL52" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN52" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>38</v>
@@ -7831,10 +7793,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7857,16 +7819,16 @@
         <v>38</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7916,7 +7878,7 @@
         <v>38</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>39</v>
@@ -7931,27 +7893,27 @@
         <v>60</v>
       </c>
       <c r="AK53" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AL53" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="AL53" t="s" s="2">
+      <c r="AM53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AO53" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AO53" t="s" s="2">
-        <v>374</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7974,16 +7936,16 @@
         <v>38</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="N54" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8033,7 +7995,7 @@
         <v>38</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>39</v>
@@ -8051,7 +8013,7 @@
         <v>38</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>38</v>
@@ -8065,10 +8027,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8094,10 +8056,10 @@
         <v>284</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8148,7 +8110,7 @@
         <v>38</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>39</v>
@@ -8166,13 +8128,13 @@
         <v>38</v>
       </c>
       <c r="AL55" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN55" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>38</v>
@@ -8180,10 +8142,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8295,10 +8257,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8412,10 +8374,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8531,10 +8493,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8557,13 +8519,13 @@
         <v>38</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8614,7 +8576,7 @@
         <v>38</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>48</v>
@@ -8632,7 +8594,7 @@
         <v>38</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>38</v>
@@ -8646,10 +8608,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8675,14 +8637,12 @@
         <v>154</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="M60" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>396</v>
-      </c>
+      <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>38</v>
@@ -8710,10 +8670,10 @@
         <v>238</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>38</v>
@@ -8731,7 +8691,7 @@
         <v>38</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>39</v>
@@ -8755,18 +8715,18 @@
         <v>38</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8792,14 +8752,12 @@
         <v>154</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>326</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>38</v>
@@ -8827,10 +8785,10 @@
         <v>238</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>38</v>
@@ -8848,7 +8806,7 @@
         <v>38</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>39</v>
@@ -8866,13 +8824,13 @@
         <v>38</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>38</v>
@@ -8880,10 +8838,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8906,13 +8864,13 @@
         <v>38</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="N62" t="s" s="2">
         <v>266</v>
@@ -8965,7 +8923,7 @@
         <v>38</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>39</v>
@@ -8983,13 +8941,13 @@
         <v>38</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>38</v>
@@ -8997,14 +8955,14 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9023,16 +8981,16 @@
         <v>38</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9082,7 +9040,7 @@
         <v>38</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>39</v>
@@ -9100,7 +9058,7 @@
         <v>38</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>38</v>
@@ -9114,10 +9072,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9140,16 +9098,16 @@
         <v>38</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9199,7 +9157,7 @@
         <v>38</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>39</v>
@@ -9217,7 +9175,7 @@
         <v>38</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>38</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdispensebase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdispensebase.xlsx
@@ -383,8 +383,8 @@
     <t>外部から参照されるID</t>
   </si>
   <si>
-    <t>このインスタンスが外部から参照されるために使われるIDである。処方箋全体としてのIDとしては使用しない。
-処方箋内で同一の用法をまとめて表記されるRp番号はこのIdentifier elementの別スライスで表現する。それ以外に任意のIDを付与してもよい。
+    <t>このインスタンスが外部から参照されるために使われるIDである。処方箋全体としてのIDとしては使用しない。  
+処方箋内で同一の用法をまとめて表記されるRp番号はこのIdentifier elementの別スライスで表現する。それ以外に任意のIDを付与してもよい。  
 このIDは業務手順によって定められた処方オーダに対して、直接的なURL参照が適切でない場合も含めて関連付けるために使われる。この業務手順のIDは実施者によって割り当てられたものであり、リソースが更新されたりサーバからサーバに転送されたとしても固定のものとして存続する。</t>
   </si>
   <si>
@@ -706,7 +706,7 @@
     <t>親イベントへの参照</t>
   </si>
   <si>
-    <t>Tこの調剤の契機となったProcedureリソースへの参照。</t>
+    <t>この調剤の契機となったProcedureリソースへの参照。</t>
   </si>
   <si>
     <t>Event.partOf</t>
@@ -807,13 +807,11 @@
     <t>投与された薬剤を識別する。既知の薬のリストから薬を識別するコード情報を設定する。</t>
   </si>
   <si>
-    <t>ひとつのtext要素と、複数のcoding 要素を記述できる。処方オーダ時に選択または入力し、実際に処方箋に印字される文字列を必ずtext要素に格納した上で、それをコード化した情報を1個以上のcoding 要素に記述する。
-厚生労働省標準であるHOT9コード（販社指定が不要な場合にはHOT7コード）または広く流通しているYJコードを用いるか、一般名処方の場合には厚生労働省保険局一般名処方マスタのコードを使用して、Coding要素（コードsystemを識別するURI、医薬品のコード、そのコード表における医薬品の名称の3つからなる）で記述する。
--なお、上記のいずれの標準的コードも付番されていない医薬品や医療材料の場合には、薬機法の下で使用されているGS1標準の識別コードであるGTIN(Global Trade Item Number)の調剤包装単位（最少包装単位、個別包装単位）14桁を使用する。
--ひとつの処方薬、医療材料を複数のコード体系のコードで記述してもよく、その場合にcoding 要素を繰り返して記述する。-ただし、ひとつの処方薬を複数のコードで繰り返し記述する場合には、それらのコードが指し示す処方薬、医療材料は当然同一でなければならない。+    <t>ひとつのtext要素と、複数のcoding 要素を記述できる。処方オーダ時に選択または入力し、実際に処方箋に印字される文字列を必ずtext要素に格納した上で、それをコード化した情報を1個以上のcoding 要素に記述する。  
+厚生労働省標準であるHOT9コード（販社指定が不要な場合にはHOT7コード）または広く流通しているYJコードを用いるか、一般名処方の場合には厚生労働省保険局一般名処方マスタのコードを使用して、Coding要素（コードsystemを識別するURI、医薬品のコード、そのコード表における医薬品の名称の3つからなる）で記述する。  
+なお、上記のいずれの標準的コードも付番されていない医薬品や医療材料の場合には、薬機法の下で使用されているGS1標準の識別コードであるGTIN(Global Trade Item Number)の調剤包装単位（最少包装単位、個別包装単位）14桁を使用する。  
+ひとつの処方薬、医療材料を複数のコード体系のコードで記述してもよく、その場合にcoding 要素を繰り返して記述する。  
+ただし、ひとつの処方薬を複数のコードで繰り返し記述する場合には、それらのコードが指し示す処方薬、医療材料は当然同一でなければならない。  
 また、処方を発行した医療機関内でのデータ利用のために、医療機関固有コード体系によるコード（ハウスコード、ローカルコード）の記述を含めてもよいが、その場合でも上述したいずれかの標準コードを同時に記述することが必要である。</t>
   </si>
   <si>
@@ -1068,8 +1066,8 @@
     <t>払い出される薬剤の量</t>
   </si>
   <si>
-    <t>調剤総量。
-JP Coreでは必須
+    <t>調剤総量。  
+JP Coreでは必須  
 払い出される薬剤の量。計測単位を含む。</t>
   </si>
   <si>
@@ -1120,7 +1118,7 @@
     <t>払い出された日時</t>
   </si>
   <si>
-    <t>必須。
+    <t>必須。  
 患者あるいはその代理人に払い出される薬剤が提供された日時。</t>
   </si>
   <si>
@@ -1180,7 +1178,7 @@
     <t>他の要素では伝達できなかった調剤に関する追加情報。</t>
   </si>
   <si>
-    <t>構造化された注釈（アノテーション）を持たないシステムの場合、作成者や時間なしで単一の注釈を簡単に伝達できる。情報を変更する可能性があるため、この要素をナラティブに含める必要がある場合がある。 
+    <t>構造化された注釈（アノテーション）を持たないシステムの場合、作成者や時間なしで単一の注釈を簡単に伝達できる。情報を変更する可能性があるため、この要素をナラティブに含める必要がある場合がある。  
 *注釈は、計算機処理れきる「変更」情報を伝達するために使用されるべきではない*。 （ユーザの行動を強制することはほとんど不可能であるため、これはSHOULDとする）。</t>
   </si>
   <si>
@@ -1257,17 +1255,17 @@
     <t>処方されたものとは異なる薬が調剤されたかどうかを示すコード</t>
   </si>
   <si>
-    <t>処方されたものとは異なる薬が調剤されたかどうかを示すコード。
-HL7 v3 Value Set ActSubstanceAdminSubstitutionCode　から以下のコードが使用できる。 
-E: 別の生物学的同等および治療的に同等の製品で置換が行われたか、許可された。
-EC: 代替品が発生したか、次のような別の製品で許可されている：同じ有効成分を含むが異なる塩で処方された代替医薬品、同じ有効成分を持つエステル医薬品同等物、強度、剤形、投与経路.
-BC: 代替が発生したか、同等のブランド間で許可されてるが、ジェネリックでは許可されない。
-G: 代替が発生したか、同等のジェネリック間で許可されているが、ブランド間では許可されない。
-TE:同じ治療目的と安全性プロファイルを持つ別の製品で代替が発生したか、許可された。
-TB:ジェネリック医薬品ではなく、治療的に同等のブランド間で代替品が発生したか、許可されている
-TG:治療的に同等のジェネリック間で置換が発生したか、許可されているが、ブランドは許可されない。
-F:処方ガイドラインに準拠。
-N:置換は発生しなかったか、許可されていない。</t>
+    <t>処方されたものとは異なる薬が調剤されたかどうかを示すコード。  
+HL7 v3 Value Set ActSubstanceAdminSubstitutionCode　から以下のコードが使用できる。  
+E  : 別の生物学的同等および治療的に同等の製品で置換が行われたか、許可された。  
+EC : 代替品が発生したか、次のような別の製品で許可されている：同じ有効成分を含むが異なる塩で処方された代替医薬品、同じ有効成分を持つエステル医薬品同等物、強度、剤形、投与経路。  
+BC : 代替が発生したか、同等のブランド間で許可されてるが、ジェネリックでは許可されない。  
+G  : 代替が発生したか、同等のジェネリック間で許可されているが、ブランド間では許可されない。  
+TE : 同じ治療目的と安全性プロファイルを持つ別の製品で代替が発生したか、許可された。  
+TB : ジェネリック医薬品ではなく、治療的に同等のブランド間で代替品が発生したか、許可されている  
+TG : 治療的に同等のジェネリック間で置換が発生したか、許可されているが、ブランドは許可されない。  
+F  : 処方ガイドラインに準拠。  
+N  : 置換は発生しなかったか、許可されていない。</t>
   </si>
   <si>
     <t>処方箋で正確に指定されているように、製品以外に異なる薬物が分配されるかどうかを説明するコード化された概念。 / A coded concept describing whether a different medicinal product may be dispensed other than the product as specified exactly in the prescription.</t>
@@ -1336,7 +1334,7 @@
     <t>アクションを伴う臨床的問題</t>
   </si>
   <si>
-    <t>患者に対する1つまたは複数のアクティブまたは提案された臨床アクションを伴う、またはそれらの間の実際のまたは潜在的な臨床問題を示す。例えば薬物間相互作用、重複治療、投与量アラートなど。
+    <t>患者に対する1つまたは複数のアクティブまたは提案された臨床アクションを伴う、またはそれらの間の実際のまたは潜在的な臨床問題を示す。例えば薬物間相互作用、重複治療、投与量アラートなど。  
 DetectedIssue リソースへの参照。</t>
   </si>
   <si>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdispensebase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdispensebase.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdispensebase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdispensebase.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26</t>
+    <t>2023-10-31</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdispensebase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdispensebase.xlsx
@@ -272,7 +272,7 @@
   </si>
   <si>
     <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}mdd-1:いつ準備されたときにハンドドーバーができないとき / whenHandedOver cannot be before whenPrepared {whenHandedOver.empty() or whenPrepared.empty() or whenHandedOver &gt;= whenPrepared}</t>
+dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidもmeta.lastupdatedも持ってはならない。 / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}mdd-1:いつ準備されたときにハンドドーバーができないとき / whenHandedOver cannot be before whenPrepared {whenHandedOver.empty() or whenPrepared.empty() or whenHandedOver &gt;= whenPrepared}</t>
   </si>
   <si>
     <t>Event</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdispensebase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdispensebase.xlsx
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) (http://jpfhir.jp, office@hlfhir.jp)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdispensebase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdispensebase.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.2.0-dev</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationdispensebase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationdispensebase.xlsx
@@ -272,7 +272,7 @@
   </si>
   <si>
     <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidもmeta.lastupdatedも持ってはならない。 / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}mdd-1:いつ準備されたときにハンドドーバーができないとき / whenHandedOver cannot be before whenPrepared {whenHandedOver.empty() or whenPrepared.empty() or whenHandedOver &gt;= whenPrepared}</t>
+dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}mdd-1:いつ準備されたときにハンドドーバーができないとき / whenHandedOver cannot be before whenPrepared {whenHandedOver.empty() or whenPrepared.empty() or whenHandedOver &gt;= whenPrepared}</t>
   </si>
   <si>
     <t>Event</t>
@@ -591,7 +591,7 @@
     <t>MedicationDispense.identifier.use</t>
   </si>
   <si>
-    <t>通常|公式|一時的|セカンダリ|古い（知られている場合） / usual | official | temp | secondary | old (If known)</t>
+    <t>通常|公式|温度|セカンダリ|古い（知られている場合） / usual | official | temp | secondary | old (If known)</t>
   </si>
   <si>
     <t>この識別子の目的。 / The purpose of this identifier.</t>
@@ -1461,7 +1461,7 @@
 DetectedIssue リソースへの参照。</t>
   </si>
   <si>
-    <t>この要素には、意思決定支援システムまたは臨床医によって特定された検出された問題を含めることができ、問題に対処するために取られたプロシジャー（処置等）に関する情報を含めることができます。 / This element can include a detected issue that has been identified either by a decision support system or by a clinician and may include information on the steps that were taken to address the issue.</t>
+    <t>この要素には、意思決定支援システムまたは臨床医によって特定された検出された問題を含めることができ、問題に対処するために取られた手順に関する情報を含めることができます。 / This element can include a detected issue that has been identified either by a decision support system or by a clinician and may include information on the steps that were taken to address the issue.</t>
   </si>
   <si>
     <t>.inboundRelationship[typeCode=SUBJ]/source[classCode=ALRT,moodCode=EVN].value</t>
